--- a/VerveStacks_ITA_grids/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA_grids/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A37F100-C28D-4E8D-B6B8-85C863F34C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F5C0E78-5D15-421B-A219-2B84712799CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{BEDA6603-5C38-4639-94EB-C3060A935E7A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{372F5411-A114-42A9-BE74-DBACEECB2871}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -78,30 +78,30 @@
     <t>bioenergy</t>
   </si>
   <si>
+    <t>e_w144006711-220</t>
+  </si>
+  <si>
+    <t>e_w109756016-380</t>
+  </si>
+  <si>
+    <t>e_w377588191-220</t>
+  </si>
+  <si>
+    <t>e_IT135-220</t>
+  </si>
+  <si>
+    <t>e_IT67-220</t>
+  </si>
+  <si>
+    <t>e_w105141350-220</t>
+  </si>
+  <si>
     <t>e_w81938081-380</t>
   </si>
   <si>
-    <t>e_w377588191-220</t>
-  </si>
-  <si>
     <t>e_w116692433-220</t>
   </si>
   <si>
-    <t>e_w105141350-220</t>
-  </si>
-  <si>
-    <t>e_w144006711-220</t>
-  </si>
-  <si>
-    <t>e_IT67-220</t>
-  </si>
-  <si>
-    <t>e_w109756016-380</t>
-  </si>
-  <si>
-    <t>e_IT135-220</t>
-  </si>
-  <si>
     <t>ep_bioenergy_IT135-220</t>
   </si>
   <si>
@@ -1692,24 +1692,24 @@
     <t>ep_solar_pv_016</t>
   </si>
   <si>
+    <t>elc_spv-IT-21_0016</t>
+  </si>
+  <si>
     <t>elc_spv-IT-42_0016</t>
   </si>
   <si>
-    <t>elc_spv-IT-21_0016</t>
-  </si>
-  <si>
     <t>ep_solar_pv_017</t>
   </si>
   <si>
     <t>elc_spv-ITA_0017</t>
   </si>
   <si>
+    <t>elc_spv-IT-21_0017</t>
+  </si>
+  <si>
     <t>elc_spv-IT-42_0017</t>
   </si>
   <si>
-    <t>elc_spv-IT-21_0017</t>
-  </si>
-  <si>
     <t>ep_solar_pv_018</t>
   </si>
   <si>
@@ -1731,12 +1731,12 @@
     <t>elc_spv-ITA_0020</t>
   </si>
   <si>
+    <t>elc_spv-IT-21_0020</t>
+  </si>
+  <si>
     <t>elc_spv-IT-23_0020</t>
   </si>
   <si>
-    <t>elc_spv-IT-21_0020</t>
-  </si>
-  <si>
     <t>ep_solar_pv_021</t>
   </si>
   <si>
@@ -1809,12 +1809,12 @@
     <t>elc_spv-ITA_0029</t>
   </si>
   <si>
+    <t>elc_spv-IT-42_0029</t>
+  </si>
+  <si>
     <t>elc_spv-IT-25_0029</t>
   </si>
   <si>
-    <t>elc_spv-IT-42_0029</t>
-  </si>
-  <si>
     <t>elc_spv-IT-21_0029</t>
   </si>
   <si>
@@ -1869,12 +1869,12 @@
     <t>ep_solar_pv_035</t>
   </si>
   <si>
+    <t>elc_spv-ITA_0035</t>
+  </si>
+  <si>
     <t>elc_spv-IT-88_0035</t>
   </si>
   <si>
-    <t>elc_spv-ITA_0035</t>
-  </si>
-  <si>
     <t>ep_solar_pv_036</t>
   </si>
   <si>
@@ -1905,42 +1905,42 @@
     <t>ep_solar_pv_040</t>
   </si>
   <si>
+    <t>elc_spv-IT-42_0040</t>
+  </si>
+  <si>
+    <t>elc_spv-IT-45_0040</t>
+  </si>
+  <si>
     <t>elc_spv-IT-21_0040</t>
   </si>
   <si>
-    <t>elc_spv-IT-45_0040</t>
-  </si>
-  <si>
-    <t>elc_spv-IT-42_0040</t>
-  </si>
-  <si>
     <t>ep_solar_pv_041</t>
   </si>
   <si>
+    <t>elc_spv-IT-42_0041</t>
+  </si>
+  <si>
+    <t>elc_spv-IT-45_0041</t>
+  </si>
+  <si>
     <t>elc_spv-IT-21_0041</t>
   </si>
   <si>
-    <t>elc_spv-IT-45_0041</t>
-  </si>
-  <si>
     <t>elc_spv-IT-25_0041</t>
   </si>
   <si>
-    <t>elc_spv-IT-42_0041</t>
-  </si>
-  <si>
     <t>ep_solar_pv_042</t>
   </si>
   <si>
     <t>elc_spv-ITA_0042</t>
   </si>
   <si>
+    <t>elc_spv-IT-45_0042</t>
+  </si>
+  <si>
     <t>elc_spv-IT-25_0042</t>
   </si>
   <si>
-    <t>elc_spv-IT-45_0042</t>
-  </si>
-  <si>
     <t>ep_solar_pv_043</t>
   </si>
   <si>
@@ -2022,12 +2022,12 @@
     <t>ep_solar_pv_055</t>
   </si>
   <si>
+    <t>elc_spv-IT-42_0055</t>
+  </si>
+  <si>
     <t>elc_spv-IT-52_0055</t>
   </si>
   <si>
-    <t>elc_spv-IT-42_0055</t>
-  </si>
-  <si>
     <t>ep_solar_pv_056</t>
   </si>
   <si>
@@ -2046,12 +2046,12 @@
     <t>elc_spv-ITA_0057</t>
   </si>
   <si>
+    <t>elc_spv-IT-25_0057</t>
+  </si>
+  <si>
     <t>elc_spv-IT-45_0057</t>
   </si>
   <si>
-    <t>elc_spv-IT-25_0057</t>
-  </si>
-  <si>
     <t>ep_solar_pv_058</t>
   </si>
   <si>
@@ -2130,12 +2130,12 @@
     <t>ep_solar_pv_067</t>
   </si>
   <si>
+    <t>elc_spv-IT-52_0067</t>
+  </si>
+  <si>
     <t>elc_spv-IT-45_0067</t>
   </si>
   <si>
-    <t>elc_spv-IT-52_0067</t>
-  </si>
-  <si>
     <t>ep_solar_pv_068</t>
   </si>
   <si>
@@ -2187,12 +2187,12 @@
     <t>ep_solar_pv_072</t>
   </si>
   <si>
+    <t>elc_spv-IT-32_0072</t>
+  </si>
+  <si>
     <t>elc_spv-IT-25_0072</t>
   </si>
   <si>
-    <t>elc_spv-IT-32_0072</t>
-  </si>
-  <si>
     <t>ep_solar_pv_073</t>
   </si>
   <si>
@@ -2325,12 +2325,12 @@
     <t>elc_spv-ITA_0086</t>
   </si>
   <si>
+    <t>elc_spv-IT-62_0086</t>
+  </si>
+  <si>
     <t>elc_spv-IT-52_0086</t>
   </si>
   <si>
-    <t>elc_spv-IT-62_0086</t>
-  </si>
-  <si>
     <t>ep_solar_pv_087</t>
   </si>
   <si>
@@ -2361,27 +2361,27 @@
     <t>elc_spv-ITA_0090</t>
   </si>
   <si>
+    <t>elc_spv-IT-45_0090</t>
+  </si>
+  <si>
     <t>elc_spv-IT-52_0090</t>
   </si>
   <si>
-    <t>elc_spv-IT-45_0090</t>
-  </si>
-  <si>
     <t>ep_solar_pv_091</t>
   </si>
   <si>
     <t>elc_spv-ITA_0091</t>
   </si>
   <si>
+    <t>elc_spv-IT-45_0091</t>
+  </si>
+  <si>
+    <t>elc_spv-IT-34_0091</t>
+  </si>
+  <si>
     <t>elc_spv-IT-25_0091</t>
   </si>
   <si>
-    <t>elc_spv-IT-45_0091</t>
-  </si>
-  <si>
-    <t>elc_spv-IT-34_0091</t>
-  </si>
-  <si>
     <t>ep_solar_pv_092</t>
   </si>
   <si>
@@ -2394,21 +2394,21 @@
     <t>elc_spv-ITA_0093</t>
   </si>
   <si>
+    <t>elc_spv-IT-32_0093</t>
+  </si>
+  <si>
     <t>elc_spv-IT-34_0093</t>
   </si>
   <si>
-    <t>elc_spv-IT-32_0093</t>
-  </si>
-  <si>
     <t>ep_solar_pv_094</t>
   </si>
   <si>
+    <t>elc_spv-IT-32_0094</t>
+  </si>
+  <si>
     <t>elc_spv-IT-34_0094</t>
   </si>
   <si>
-    <t>elc_spv-IT-32_0094</t>
-  </si>
-  <si>
     <t>ep_solar_pv_095</t>
   </si>
   <si>
@@ -2487,12 +2487,12 @@
     <t>elc_spv-ITA_0103</t>
   </si>
   <si>
+    <t>elc_spv-IT-45_0103</t>
+  </si>
+  <si>
     <t>elc_spv-IT-55_0103</t>
   </si>
   <si>
-    <t>elc_spv-IT-45_0103</t>
-  </si>
-  <si>
     <t>elc_spv-IT-57_0103</t>
   </si>
   <si>
@@ -2634,12 +2634,12 @@
     <t>elc_spv-ITA_0118</t>
   </si>
   <si>
+    <t>elc_spv-IT-55_0118</t>
+  </si>
+  <si>
     <t>elc_spv-IT-57_0118</t>
   </si>
   <si>
-    <t>elc_spv-IT-55_0118</t>
-  </si>
-  <si>
     <t>ep_solar_pv_119</t>
   </si>
   <si>
@@ -2784,12 +2784,12 @@
     <t>ep_solar_pv_134</t>
   </si>
   <si>
+    <t>elc_spv-IT-65_0134</t>
+  </si>
+  <si>
     <t>elc_spv-IT-62_0134</t>
   </si>
   <si>
-    <t>elc_spv-IT-65_0134</t>
-  </si>
-  <si>
     <t>elc_spv-ITA_0134</t>
   </si>
   <si>
@@ -2805,15 +2805,15 @@
     <t>ep_solar_pv_136</t>
   </si>
   <si>
+    <t>elc_spv-IT-65_0136</t>
+  </si>
+  <si>
     <t>elc_spv-IT-62_0136</t>
   </si>
   <si>
     <t>elc_spv-IT-57_0136</t>
   </si>
   <si>
-    <t>elc_spv-IT-65_0136</t>
-  </si>
-  <si>
     <t>elc_spv-IT-55_0136</t>
   </si>
   <si>
@@ -2853,12 +2853,12 @@
     <t>elc_spv-ITA_0140</t>
   </si>
   <si>
+    <t>elc_spv-IT-36_0140</t>
+  </si>
+  <si>
     <t>elc_spv-IT-34_0140</t>
   </si>
   <si>
-    <t>elc_spv-IT-36_0140</t>
-  </si>
-  <si>
     <t>ep_solar_pv_141</t>
   </si>
   <si>
@@ -2907,21 +2907,21 @@
     <t>elc_spv-ITA_0146</t>
   </si>
   <si>
+    <t>elc_spv-IT-72_0146</t>
+  </si>
+  <si>
     <t>elc_spv-IT-62_0146</t>
   </si>
   <si>
-    <t>elc_spv-IT-72_0146</t>
-  </si>
-  <si>
     <t>ep_solar_pv_147</t>
   </si>
   <si>
+    <t>elc_spv-IT-72_0147</t>
+  </si>
+  <si>
     <t>elc_spv-IT-62_0147</t>
   </si>
   <si>
-    <t>elc_spv-IT-72_0147</t>
-  </si>
-  <si>
     <t>ep_solar_pv_148</t>
   </si>
   <si>
@@ -2952,15 +2952,15 @@
     <t>elc_spv-ITA_0150</t>
   </si>
   <si>
+    <t>elc_spv-IT-65_0150</t>
+  </si>
+  <si>
     <t>elc_spv-IT-62_0150</t>
   </si>
   <si>
     <t>elc_spv-IT-57_0150</t>
   </si>
   <si>
-    <t>elc_spv-IT-65_0150</t>
-  </si>
-  <si>
     <t>ep_solar_pv_151</t>
   </si>
   <si>
@@ -3069,15 +3069,15 @@
     <t>elc_spv-ITA_0163</t>
   </si>
   <si>
+    <t>elc_spv-IT-72_0163</t>
+  </si>
+  <si>
     <t>elc_spv-IT-67_0163</t>
   </si>
   <si>
     <t>elc_spv-IT-62_0163</t>
   </si>
   <si>
-    <t>elc_spv-IT-72_0163</t>
-  </si>
-  <si>
     <t>ep_solar_pv_164</t>
   </si>
   <si>
@@ -3183,12 +3183,12 @@
     <t>elc_spv-ITA_0175</t>
   </si>
   <si>
+    <t>elc_spv-IT-75_0175</t>
+  </si>
+  <si>
     <t>elc_spv-IT-67_0175</t>
   </si>
   <si>
-    <t>elc_spv-IT-75_0175</t>
-  </si>
-  <si>
     <t>elc_spv-IT-65_0175</t>
   </si>
   <si>
@@ -3198,12 +3198,12 @@
     <t>elc_spv-ITA_0176</t>
   </si>
   <si>
+    <t>elc_spv-IT-65_0176</t>
+  </si>
+  <si>
     <t>elc_spv-IT-67_0176</t>
   </si>
   <si>
-    <t>elc_spv-IT-65_0176</t>
-  </si>
-  <si>
     <t>ep_solar_pv_177</t>
   </si>
   <si>
@@ -3360,12 +3360,12 @@
     <t>elc_spv-ITA_0195</t>
   </si>
   <si>
+    <t>elc_spv-IT-77_0195</t>
+  </si>
+  <si>
     <t>elc_spv-IT-75_0195</t>
   </si>
   <si>
-    <t>elc_spv-IT-77_0195</t>
-  </si>
-  <si>
     <t>ep_solar_pv_196</t>
   </si>
   <si>
@@ -3444,21 +3444,21 @@
     <t>elc_spv-ITA_0204</t>
   </si>
   <si>
+    <t>elc_spv-IT-77_0204</t>
+  </si>
+  <si>
     <t>elc_spv-IT-75_0204</t>
   </si>
   <si>
-    <t>elc_spv-IT-77_0204</t>
-  </si>
-  <si>
     <t>ep_solar_pv_205</t>
   </si>
   <si>
+    <t>elc_spv-IT-77_0205</t>
+  </si>
+  <si>
     <t>elc_spv-IT-75_0205</t>
   </si>
   <si>
-    <t>elc_spv-IT-77_0205</t>
-  </si>
-  <si>
     <t>ep_solar_pv_206</t>
   </si>
   <si>
@@ -3501,12 +3501,12 @@
     <t>elc_spv-ITA_0210</t>
   </si>
   <si>
+    <t>elc_spv-IT-75_0210</t>
+  </si>
+  <si>
     <t>elc_spv-IT-77_0210</t>
   </si>
   <si>
-    <t>elc_spv-IT-75_0210</t>
-  </si>
-  <si>
     <t>ep_solar_pv_211</t>
   </si>
   <si>
@@ -4179,36 +4179,36 @@
     <t>ele</t>
   </si>
   <si>
+    <t>Aggregated Plant - EMBER Gap - way/81938081-380_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>TWh</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/377588191-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/105141350-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - EMBER Gap - way/116692433-220_Missing Bioenergy Capacity</t>
   </si>
   <si>
-    <t>GW</t>
-  </si>
-  <si>
-    <t>TWh</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/377588191-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/105141350-220_Missing Bioenergy Capacity</t>
+    <t>Aggregated Plant - EMBER Gap - IT67-220_Missing Bioenergy Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - EMBER Gap - IT135-220_Missing Bioenergy Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - EMBER Gap - IT67-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/81938081-380_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - EMBER Gap - way/109756016-380_Missing Bioenergy Capacity</t>
   </si>
   <si>
@@ -4602,19 +4602,19 @@
     <t>Taranto CHP power station_CET2-1</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - way/409768426-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - IT13-380_Missing Hydro Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - way/409768426-220_Missing Hydro Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - way/419423704-380_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - way/104359058-380_Missing Hydro Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - way/64200868-380_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - way/419423704-380_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - way/104359058-380_Missing Hydro Capacity</t>
   </si>
   <si>
     <t>Lana hydroelectric plant_</t>
@@ -5893,7 +5893,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBE046A9-D293-DBB5-9E9C-206F15C89C4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECE41F54-A224-CB5E-FC13-FE6084A1AF3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5948,7 +5948,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E16143CC-380C-BC3B-4A21-39C1CC769392}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{273D6752-C11C-0455-7936-9693EC0634D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6299,7 +6299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E4B4C1-4694-4BAE-BCAC-D6759CEB2859}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60502E3E-E761-43C8-9851-D23C8DA53D3D}">
   <dimension ref="A1:U192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -10559,7 +10559,7 @@
         <v>45</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D78" s="3">
         <v>0.49118125000000001</v>
@@ -10615,7 +10615,7 @@
         <v>45</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D79" s="4">
         <v>0.49118125000000001</v>
@@ -15655,7 +15655,7 @@
         <v>45</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D169" s="4">
         <v>0.28839999999999999</v>
@@ -15711,7 +15711,7 @@
         <v>45</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D170" s="3">
         <v>0.28839999999999999</v>
@@ -15767,7 +15767,7 @@
         <v>45</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D171" s="4">
         <v>0.28839999999999999</v>
@@ -16833,7 +16833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D743FEE-1423-4A6C-B0D0-C3E032BAD664}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E474BD5B-4A48-42C7-8869-12B78846F9A2}">
   <dimension ref="A1:T1240"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16949,19 +16949,19 @@
         <v>2022</v>
       </c>
       <c r="E4" s="3">
-        <v>0.41792171344165435</v>
+        <v>0.19090251107828654</v>
       </c>
       <c r="F4" s="3">
-        <v>0.36049999999999999</v>
+        <v>0.33990000000000004</v>
       </c>
       <c r="G4" s="3">
-        <v>3850.0000000000005</v>
+        <v>4427.5</v>
       </c>
       <c r="H4" s="3">
-        <v>143</v>
+        <v>157.30000000000001</v>
       </c>
       <c r="I4" s="3">
-        <v>8.4</v>
+        <v>9.240000000000002</v>
       </c>
       <c r="J4" s="3">
         <v>50</v>
@@ -17002,7 +17002,7 @@
         <v>2022</v>
       </c>
       <c r="E5" s="4">
-        <v>0.90807680945347113</v>
+        <v>0.47467651403249633</v>
       </c>
       <c r="F5" s="4">
         <v>0.36049999999999999</v>
@@ -17055,13 +17055,13 @@
         <v>2022</v>
       </c>
       <c r="E6" s="3">
-        <v>0.43855982274741512</v>
+        <v>0.90807680945347113</v>
       </c>
       <c r="F6" s="3">
         <v>0.36049999999999999</v>
       </c>
       <c r="G6" s="3">
-        <v>3850</v>
+        <v>3850.0000000000005</v>
       </c>
       <c r="H6" s="3">
         <v>143</v>
@@ -17108,13 +17108,13 @@
         <v>2022</v>
       </c>
       <c r="E7" s="4">
-        <v>0.33536927621861151</v>
+        <v>0.42308124076809456</v>
       </c>
       <c r="F7" s="4">
         <v>0.36049999999999999</v>
       </c>
       <c r="G7" s="4">
-        <v>3850</v>
+        <v>3850.0000000000005</v>
       </c>
       <c r="H7" s="4">
         <v>143</v>
@@ -17161,19 +17161,19 @@
         <v>2022</v>
       </c>
       <c r="E8" s="3">
-        <v>0.19090251107828654</v>
+        <v>0.30441211225997045</v>
       </c>
       <c r="F8" s="3">
-        <v>0.33990000000000004</v>
+        <v>0.36049999999999999</v>
       </c>
       <c r="G8" s="3">
-        <v>4427.5</v>
+        <v>3850.0000000000009</v>
       </c>
       <c r="H8" s="3">
-        <v>157.30000000000001</v>
+        <v>143</v>
       </c>
       <c r="I8" s="3">
-        <v>9.240000000000002</v>
+        <v>8.4</v>
       </c>
       <c r="J8" s="3">
         <v>50</v>
@@ -17214,13 +17214,13 @@
         <v>2022</v>
       </c>
       <c r="E9" s="4">
-        <v>0.30441211225997045</v>
+        <v>0.33536927621861151</v>
       </c>
       <c r="F9" s="4">
         <v>0.36049999999999999</v>
       </c>
       <c r="G9" s="4">
-        <v>3850.0000000000009</v>
+        <v>3850</v>
       </c>
       <c r="H9" s="4">
         <v>143</v>
@@ -17267,7 +17267,7 @@
         <v>2022</v>
       </c>
       <c r="E10" s="3">
-        <v>0.47467651403249633</v>
+        <v>0.41792171344165435</v>
       </c>
       <c r="F10" s="3">
         <v>0.36049999999999999</v>
@@ -17320,13 +17320,13 @@
         <v>2022</v>
       </c>
       <c r="E11" s="4">
-        <v>0.42308124076809456</v>
+        <v>0.43855982274741512</v>
       </c>
       <c r="F11" s="4">
         <v>0.36049999999999999</v>
       </c>
       <c r="G11" s="4">
-        <v>3850.0000000000005</v>
+        <v>3850</v>
       </c>
       <c r="H11" s="4">
         <v>143</v>
@@ -17367,7 +17367,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D12" s="3">
         <v>1965</v>
@@ -17420,7 +17420,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="4">
         <v>2001</v>
@@ -17473,7 +17473,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D14" s="3">
         <v>2013</v>
@@ -17526,7 +17526,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D15" s="4">
         <v>2003</v>
@@ -17579,7 +17579,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D16" s="3">
         <v>1998</v>
@@ -17632,7 +17632,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D17" s="4">
         <v>2009</v>
@@ -17685,7 +17685,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" s="3">
         <v>2008</v>
@@ -17738,7 +17738,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19" s="4">
         <v>2009</v>
@@ -17791,7 +17791,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D20" s="3">
         <v>2008</v>
@@ -17844,7 +17844,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D21" s="4">
         <v>2018</v>
@@ -21819,7 +21819,7 @@
         <v>45</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D96" s="3">
         <v>2010</v>
@@ -21872,7 +21872,7 @@
         <v>45</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D97" s="4">
         <v>2010</v>
@@ -26642,7 +26642,7 @@
         <v>45</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D187" s="4">
         <v>1978</v>
@@ -26695,7 +26695,7 @@
         <v>45</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D188" s="3">
         <v>1981</v>
@@ -26748,7 +26748,7 @@
         <v>45</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D189" s="4">
         <v>1987</v>
@@ -29080,7 +29080,7 @@
         <v>301</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D233" s="4">
         <v>2022</v>
@@ -34698,7 +34698,7 @@
         <v>301</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D339" s="4">
         <v>2015</v>
@@ -40269,16 +40269,16 @@
         <v>2022</v>
       </c>
       <c r="E444" s="3">
-        <v>5.7933603188359106E-2</v>
+        <v>5.0999999999999995E-3</v>
       </c>
       <c r="F444" s="3">
         <v>1</v>
       </c>
       <c r="G444" s="3">
-        <v>1138.5</v>
+        <v>1336.5</v>
       </c>
       <c r="H444" s="3">
-        <v>18.150000000000002</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I444" s="3">
         <v>0</v>
@@ -40322,16 +40322,16 @@
         <v>2022</v>
       </c>
       <c r="E445" s="4">
-        <v>5.0999999999999995E-3</v>
+        <v>5.7933603188359106E-2</v>
       </c>
       <c r="F445" s="4">
         <v>1</v>
       </c>
       <c r="G445" s="4">
-        <v>1336.5</v>
+        <v>1138.5</v>
       </c>
       <c r="H445" s="4">
-        <v>21.450000000000003</v>
+        <v>18.150000000000002</v>
       </c>
       <c r="I445" s="4">
         <v>0</v>
@@ -54126,22 +54126,22 @@
         <v>509</v>
       </c>
       <c r="C744" s="3" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="D744" s="3">
         <v>2022</v>
       </c>
       <c r="E744" s="3">
-        <v>9.6999999999999986E-3</v>
+        <v>6.2100650470214028E-2</v>
       </c>
       <c r="F744" s="3">
         <v>1</v>
       </c>
       <c r="G744" s="3">
-        <v>1336.5</v>
+        <v>1138.5</v>
       </c>
       <c r="H744" s="3">
-        <v>21.450000000000003</v>
+        <v>18.150000000000002</v>
       </c>
       <c r="I744" s="3">
         <v>0</v>
@@ -54158,22 +54158,22 @@
         <v>509</v>
       </c>
       <c r="C745" s="4" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D745" s="4">
         <v>2022</v>
       </c>
       <c r="E745" s="4">
-        <v>6.2100650470214028E-2</v>
+        <v>9.6999999999999986E-3</v>
       </c>
       <c r="F745" s="4">
         <v>1</v>
       </c>
       <c r="G745" s="4">
-        <v>1138.5</v>
+        <v>1336.5</v>
       </c>
       <c r="H745" s="4">
-        <v>18.150000000000002</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I745" s="4">
         <v>0</v>
@@ -54958,22 +54958,22 @@
         <v>509</v>
       </c>
       <c r="C770" s="3" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D770" s="3">
         <v>2022</v>
       </c>
       <c r="E770" s="3">
-        <v>6.9860203401605717E-2</v>
+        <v>9.6999999999999986E-3</v>
       </c>
       <c r="F770" s="3">
         <v>1</v>
       </c>
       <c r="G770" s="3">
-        <v>1138.5</v>
+        <v>1336.5</v>
       </c>
       <c r="H770" s="3">
-        <v>18.150000000000002</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I770" s="3">
         <v>0</v>
@@ -54990,22 +54990,22 @@
         <v>509</v>
       </c>
       <c r="C771" s="4" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D771" s="4">
         <v>2022</v>
       </c>
       <c r="E771" s="4">
-        <v>9.6999999999999986E-3</v>
+        <v>6.9860203401605717E-2</v>
       </c>
       <c r="F771" s="4">
         <v>1</v>
       </c>
       <c r="G771" s="4">
-        <v>1336.5</v>
+        <v>1138.5</v>
       </c>
       <c r="H771" s="4">
-        <v>21.450000000000003</v>
+        <v>18.150000000000002</v>
       </c>
       <c r="I771" s="4">
         <v>0</v>
@@ -69870,7 +69870,7 @@
         <v>1189</v>
       </c>
       <c r="C1236" s="3" t="s">
-        <v>1228</v>
+        <v>1206</v>
       </c>
       <c r="D1236" s="3">
         <v>2011</v>
@@ -69902,7 +69902,7 @@
         <v>1189</v>
       </c>
       <c r="C1237" s="4" t="s">
-        <v>1214</v>
+        <v>1228</v>
       </c>
       <c r="D1237" s="4">
         <v>2011</v>
@@ -69934,7 +69934,7 @@
         <v>1189</v>
       </c>
       <c r="C1238" s="3" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="D1238" s="3">
         <v>2011</v>
@@ -69966,7 +69966,7 @@
         <v>1189</v>
       </c>
       <c r="C1239" s="4" t="s">
-        <v>1206</v>
+        <v>1216</v>
       </c>
       <c r="D1239" s="4">
         <v>2011</v>

--- a/VerveStacks_ITA_grids/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA_grids/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F5C0E78-5D15-421B-A219-2B84712799CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{271AFB6D-FA6D-442F-9AD1-813610C7619B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{372F5411-A114-42A9-BE74-DBACEECB2871}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{C716AC73-BE4E-4545-B58E-F343D462FD4A}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -78,30 +78,30 @@
     <t>bioenergy</t>
   </si>
   <si>
+    <t>e_w377588191-220</t>
+  </si>
+  <si>
+    <t>e_w105141350-220</t>
+  </si>
+  <si>
     <t>e_w144006711-220</t>
   </si>
   <si>
+    <t>e_w116692433-220</t>
+  </si>
+  <si>
+    <t>e_w81938081-380</t>
+  </si>
+  <si>
     <t>e_w109756016-380</t>
   </si>
   <si>
-    <t>e_w377588191-220</t>
-  </si>
-  <si>
     <t>e_IT135-220</t>
   </si>
   <si>
     <t>e_IT67-220</t>
   </si>
   <si>
-    <t>e_w105141350-220</t>
-  </si>
-  <si>
-    <t>e_w81938081-380</t>
-  </si>
-  <si>
-    <t>e_w116692433-220</t>
-  </si>
-  <si>
     <t>ep_bioenergy_IT135-220</t>
   </si>
   <si>
@@ -945,21 +945,21 @@
     <t>hydro</t>
   </si>
   <si>
+    <t>e_w409768426-220</t>
+  </si>
+  <si>
+    <t>e_IT13-380</t>
+  </si>
+  <si>
     <t>e_w104359058-380</t>
   </si>
   <si>
-    <t>e_w409768426-220</t>
+    <t>e_w64200868-380</t>
   </si>
   <si>
     <t>e_w419423704-380</t>
   </si>
   <si>
-    <t>e_IT13-380</t>
-  </si>
-  <si>
-    <t>e_w64200868-380</t>
-  </si>
-  <si>
     <t>ep_hydro_dam_G100000602237</t>
   </si>
   <si>
@@ -1629,12 +1629,12 @@
     <t>ep_solar_pv_008</t>
   </si>
   <si>
+    <t>elc_spv-IT-21_0008</t>
+  </si>
+  <si>
     <t>elc_spv-IT-23_0008</t>
   </si>
   <si>
-    <t>elc_spv-IT-21_0008</t>
-  </si>
-  <si>
     <t>elc_spv-ITA_0008</t>
   </si>
   <si>
@@ -1809,24 +1809,24 @@
     <t>elc_spv-ITA_0029</t>
   </si>
   <si>
+    <t>elc_spv-IT-25_0029</t>
+  </si>
+  <si>
     <t>elc_spv-IT-42_0029</t>
   </si>
   <si>
-    <t>elc_spv-IT-25_0029</t>
-  </si>
-  <si>
     <t>elc_spv-IT-21_0029</t>
   </si>
   <si>
     <t>ep_solar_pv_030</t>
   </si>
   <si>
+    <t>elc_spv-IT-21_0030</t>
+  </si>
+  <si>
     <t>elc_spv-IT-25_0030</t>
   </si>
   <si>
-    <t>elc_spv-IT-21_0030</t>
-  </si>
-  <si>
     <t>ep_solar_pv_031</t>
   </si>
   <si>
@@ -1905,42 +1905,42 @@
     <t>ep_solar_pv_040</t>
   </si>
   <si>
+    <t>elc_spv-IT-45_0040</t>
+  </si>
+  <si>
+    <t>elc_spv-IT-21_0040</t>
+  </si>
+  <si>
     <t>elc_spv-IT-42_0040</t>
   </si>
   <si>
-    <t>elc_spv-IT-45_0040</t>
-  </si>
-  <si>
-    <t>elc_spv-IT-21_0040</t>
-  </si>
-  <si>
     <t>ep_solar_pv_041</t>
   </si>
   <si>
+    <t>elc_spv-IT-25_0041</t>
+  </si>
+  <si>
+    <t>elc_spv-IT-45_0041</t>
+  </si>
+  <si>
     <t>elc_spv-IT-42_0041</t>
   </si>
   <si>
-    <t>elc_spv-IT-45_0041</t>
-  </si>
-  <si>
     <t>elc_spv-IT-21_0041</t>
   </si>
   <si>
-    <t>elc_spv-IT-25_0041</t>
-  </si>
-  <si>
     <t>ep_solar_pv_042</t>
   </si>
   <si>
     <t>elc_spv-ITA_0042</t>
   </si>
   <si>
+    <t>elc_spv-IT-25_0042</t>
+  </si>
+  <si>
     <t>elc_spv-IT-45_0042</t>
   </si>
   <si>
-    <t>elc_spv-IT-25_0042</t>
-  </si>
-  <si>
     <t>ep_solar_pv_043</t>
   </si>
   <si>
@@ -1977,21 +1977,21 @@
     <t>ep_solar_pv_048</t>
   </si>
   <si>
+    <t>elc_spv-IT-88_0048</t>
+  </si>
+  <si>
     <t>elc_spv-ITA_0048</t>
   </si>
   <si>
-    <t>elc_spv-IT-88_0048</t>
-  </si>
-  <si>
     <t>ep_solar_pv_049</t>
   </si>
   <si>
+    <t>elc_spv-ITA_0049</t>
+  </si>
+  <si>
     <t>elc_spv-IT-88_0049</t>
   </si>
   <si>
-    <t>elc_spv-ITA_0049</t>
-  </si>
-  <si>
     <t>ep_solar_pv_050</t>
   </si>
   <si>
@@ -2031,15 +2031,15 @@
     <t>ep_solar_pv_056</t>
   </si>
   <si>
+    <t>elc_spv-IT-45_0056</t>
+  </si>
+  <si>
     <t>elc_spv-IT-42_0056</t>
   </si>
   <si>
     <t>elc_spv-IT-52_0056</t>
   </si>
   <si>
-    <t>elc_spv-IT-45_0056</t>
-  </si>
-  <si>
     <t>ep_solar_pv_057</t>
   </si>
   <si>
@@ -2058,12 +2058,12 @@
     <t>elc_spv-ITA_0058</t>
   </si>
   <si>
+    <t>elc_spv-IT-45_0058</t>
+  </si>
+  <si>
     <t>elc_spv-IT-25_0058</t>
   </si>
   <si>
-    <t>elc_spv-IT-45_0058</t>
-  </si>
-  <si>
     <t>ep_solar_pv_059</t>
   </si>
   <si>
@@ -2121,12 +2121,12 @@
     <t>ep_solar_pv_066</t>
   </si>
   <si>
+    <t>elc_spv-IT-52_0066</t>
+  </si>
+  <si>
     <t>elc_spv-IT-45_0066</t>
   </si>
   <si>
-    <t>elc_spv-IT-52_0066</t>
-  </si>
-  <si>
     <t>ep_solar_pv_067</t>
   </si>
   <si>
@@ -2238,12 +2238,12 @@
     <t>elc_spv-ITA_0078</t>
   </si>
   <si>
+    <t>elc_spv-IT-52_0078</t>
+  </si>
+  <si>
     <t>elc_spv-IT-45_0078</t>
   </si>
   <si>
-    <t>elc_spv-IT-52_0078</t>
-  </si>
-  <si>
     <t>ep_solar_pv_079</t>
   </si>
   <si>
@@ -2256,15 +2256,15 @@
     <t>ep_solar_pv_080</t>
   </si>
   <si>
+    <t>elc_spv-IT-34_0080</t>
+  </si>
+  <si>
+    <t>elc_spv-IT-45_0080</t>
+  </si>
+  <si>
     <t>elc_spv-IT-25_0080</t>
   </si>
   <si>
-    <t>elc_spv-IT-34_0080</t>
-  </si>
-  <si>
-    <t>elc_spv-IT-45_0080</t>
-  </si>
-  <si>
     <t>ep_solar_pv_081</t>
   </si>
   <si>
@@ -2325,12 +2325,12 @@
     <t>elc_spv-ITA_0086</t>
   </si>
   <si>
+    <t>elc_spv-IT-52_0086</t>
+  </si>
+  <si>
     <t>elc_spv-IT-62_0086</t>
   </si>
   <si>
-    <t>elc_spv-IT-52_0086</t>
-  </si>
-  <si>
     <t>ep_solar_pv_087</t>
   </si>
   <si>
@@ -2394,21 +2394,21 @@
     <t>elc_spv-ITA_0093</t>
   </si>
   <si>
+    <t>elc_spv-IT-34_0093</t>
+  </si>
+  <si>
     <t>elc_spv-IT-32_0093</t>
   </si>
   <si>
-    <t>elc_spv-IT-34_0093</t>
-  </si>
-  <si>
     <t>ep_solar_pv_094</t>
   </si>
   <si>
+    <t>elc_spv-IT-34_0094</t>
+  </si>
+  <si>
     <t>elc_spv-IT-32_0094</t>
   </si>
   <si>
-    <t>elc_spv-IT-34_0094</t>
-  </si>
-  <si>
     <t>ep_solar_pv_095</t>
   </si>
   <si>
@@ -2493,24 +2493,24 @@
     <t>elc_spv-IT-55_0103</t>
   </si>
   <si>
+    <t>elc_spv-IT-52_0103</t>
+  </si>
+  <si>
     <t>elc_spv-IT-57_0103</t>
   </si>
   <si>
-    <t>elc_spv-IT-52_0103</t>
-  </si>
-  <si>
     <t>ep_solar_pv_104</t>
   </si>
   <si>
     <t>elc_spv-ITA_0104</t>
   </si>
   <si>
+    <t>elc_spv-IT-57_0104</t>
+  </si>
+  <si>
     <t>elc_spv-IT-52_0104</t>
   </si>
   <si>
-    <t>elc_spv-IT-57_0104</t>
-  </si>
-  <si>
     <t>elc_spv-IT-45_0104</t>
   </si>
   <si>
@@ -2529,12 +2529,12 @@
     <t>elc_spv-ITA_0106</t>
   </si>
   <si>
+    <t>elc_spv-IT-45_0106</t>
+  </si>
+  <si>
     <t>elc_spv-IT-34_0106</t>
   </si>
   <si>
-    <t>elc_spv-IT-45_0106</t>
-  </si>
-  <si>
     <t>ep_solar_pv_107</t>
   </si>
   <si>
@@ -2634,12 +2634,12 @@
     <t>elc_spv-ITA_0118</t>
   </si>
   <si>
+    <t>elc_spv-IT-57_0118</t>
+  </si>
+  <si>
     <t>elc_spv-IT-55_0118</t>
   </si>
   <si>
-    <t>elc_spv-IT-57_0118</t>
-  </si>
-  <si>
     <t>ep_solar_pv_119</t>
   </si>
   <si>
@@ -2676,12 +2676,12 @@
     <t>ep_solar_pv_122</t>
   </si>
   <si>
+    <t>elc_spv-IT-45_0122</t>
+  </si>
+  <si>
     <t>elc_spv-IT-34_0122</t>
   </si>
   <si>
-    <t>elc_spv-IT-45_0122</t>
-  </si>
-  <si>
     <t>ep_solar_pv_123</t>
   </si>
   <si>
@@ -2697,12 +2697,12 @@
     <t>elc_spv-ITA_0124</t>
   </si>
   <si>
+    <t>elc_spv-IT-34_0124</t>
+  </si>
+  <si>
     <t>elc_spv-IT-36_0124</t>
   </si>
   <si>
-    <t>elc_spv-IT-34_0124</t>
-  </si>
-  <si>
     <t>ep_solar_pv_125</t>
   </si>
   <si>
@@ -2805,18 +2805,18 @@
     <t>ep_solar_pv_136</t>
   </si>
   <si>
+    <t>elc_spv-IT-57_0136</t>
+  </si>
+  <si>
+    <t>elc_spv-IT-62_0136</t>
+  </si>
+  <si>
+    <t>elc_spv-IT-55_0136</t>
+  </si>
+  <si>
     <t>elc_spv-IT-65_0136</t>
   </si>
   <si>
-    <t>elc_spv-IT-62_0136</t>
-  </si>
-  <si>
-    <t>elc_spv-IT-57_0136</t>
-  </si>
-  <si>
-    <t>elc_spv-IT-55_0136</t>
-  </si>
-  <si>
     <t>ep_solar_pv_137</t>
   </si>
   <si>
@@ -2853,12 +2853,12 @@
     <t>elc_spv-ITA_0140</t>
   </si>
   <si>
+    <t>elc_spv-IT-34_0140</t>
+  </si>
+  <si>
     <t>elc_spv-IT-36_0140</t>
   </si>
   <si>
-    <t>elc_spv-IT-34_0140</t>
-  </si>
-  <si>
     <t>ep_solar_pv_141</t>
   </si>
   <si>
@@ -2907,12 +2907,12 @@
     <t>elc_spv-ITA_0146</t>
   </si>
   <si>
+    <t>elc_spv-IT-62_0146</t>
+  </si>
+  <si>
     <t>elc_spv-IT-72_0146</t>
   </si>
   <si>
-    <t>elc_spv-IT-62_0146</t>
-  </si>
-  <si>
     <t>ep_solar_pv_147</t>
   </si>
   <si>
@@ -2928,15 +2928,15 @@
     <t>elc_spv-ITA_0148</t>
   </si>
   <si>
+    <t>elc_spv-IT-67_0148</t>
+  </si>
+  <si>
     <t>elc_spv-IT-62_0148</t>
   </si>
   <si>
     <t>elc_spv-IT-65_0148</t>
   </si>
   <si>
-    <t>elc_spv-IT-67_0148</t>
-  </si>
-  <si>
     <t>ep_solar_pv_149</t>
   </si>
   <si>
@@ -2952,15 +2952,15 @@
     <t>elc_spv-ITA_0150</t>
   </si>
   <si>
+    <t>elc_spv-IT-57_0150</t>
+  </si>
+  <si>
+    <t>elc_spv-IT-62_0150</t>
+  </si>
+  <si>
     <t>elc_spv-IT-65_0150</t>
   </si>
   <si>
-    <t>elc_spv-IT-62_0150</t>
-  </si>
-  <si>
-    <t>elc_spv-IT-57_0150</t>
-  </si>
-  <si>
     <t>ep_solar_pv_151</t>
   </si>
   <si>
@@ -3069,27 +3069,27 @@
     <t>elc_spv-ITA_0163</t>
   </si>
   <si>
+    <t>elc_spv-IT-67_0163</t>
+  </si>
+  <si>
+    <t>elc_spv-IT-62_0163</t>
+  </si>
+  <si>
     <t>elc_spv-IT-72_0163</t>
   </si>
   <si>
-    <t>elc_spv-IT-67_0163</t>
-  </si>
-  <si>
-    <t>elc_spv-IT-62_0163</t>
-  </si>
-  <si>
     <t>ep_solar_pv_164</t>
   </si>
   <si>
     <t>elc_spv-ITA_0164</t>
   </si>
   <si>
+    <t>elc_spv-IT-67_0164</t>
+  </si>
+  <si>
     <t>elc_spv-IT-65_0164</t>
   </si>
   <si>
-    <t>elc_spv-IT-67_0164</t>
-  </si>
-  <si>
     <t>elc_spv-IT-62_0164</t>
   </si>
   <si>
@@ -3168,15 +3168,15 @@
     <t>elc_spv-ITA_0174</t>
   </si>
   <si>
+    <t>elc_spv-IT-67_0174</t>
+  </si>
+  <si>
+    <t>elc_spv-IT-72_0174</t>
+  </si>
+  <si>
     <t>elc_spv-IT-75_0174</t>
   </si>
   <si>
-    <t>elc_spv-IT-72_0174</t>
-  </si>
-  <si>
-    <t>elc_spv-IT-67_0174</t>
-  </si>
-  <si>
     <t>ep_solar_pv_175</t>
   </si>
   <si>
@@ -3261,15 +3261,15 @@
     <t>elc_spv-ITA_0184</t>
   </si>
   <si>
+    <t>elc_spv-IT-75_0184</t>
+  </si>
+  <si>
+    <t>elc_spv-IT-77_0184</t>
+  </si>
+  <si>
     <t>elc_spv-IT-72_0184</t>
   </si>
   <si>
-    <t>elc_spv-IT-75_0184</t>
-  </si>
-  <si>
-    <t>elc_spv-IT-77_0184</t>
-  </si>
-  <si>
     <t>ep_solar_pv_185</t>
   </si>
   <si>
@@ -3288,12 +3288,12 @@
     <t>ep_solar_pv_186</t>
   </si>
   <si>
+    <t>elc_spv-IT-67_0186</t>
+  </si>
+  <si>
     <t>elc_spv-IT-75_0186</t>
   </si>
   <si>
-    <t>elc_spv-IT-67_0186</t>
-  </si>
-  <si>
     <t>ep_solar_pv_187</t>
   </si>
   <si>
@@ -3306,12 +3306,12 @@
     <t>elc_spv-ITA_0189</t>
   </si>
   <si>
+    <t>elc_spv-IT-78_0189</t>
+  </si>
+  <si>
     <t>elc_spv-IT-82_0189</t>
   </si>
   <si>
-    <t>elc_spv-IT-78_0189</t>
-  </si>
-  <si>
     <t>ep_solar_pv_190</t>
   </si>
   <si>
@@ -3339,12 +3339,12 @@
     <t>elc_spv-IT-78_0193</t>
   </si>
   <si>
+    <t>elc_spv-IT-77_0193</t>
+  </si>
+  <si>
     <t>elc_spv-IT-72_0193</t>
   </si>
   <si>
-    <t>elc_spv-IT-77_0193</t>
-  </si>
-  <si>
     <t>ep_solar_pv_194</t>
   </si>
   <si>
@@ -4194,27 +4194,27 @@
     <t>yes</t>
   </si>
   <si>
+    <t>Aggregated Plant - EMBER Gap - way/116692433-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - EMBER Gap - way/377588191-220_Missing Bioenergy Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - EMBER Gap - way/105141350-220_Missing Bioenergy Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - EMBER Gap - way/116692433-220_Missing Bioenergy Capacity</t>
+    <t>Aggregated Plant - EMBER Gap - way/144006711-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - IT135-220_Missing Bioenergy Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - EMBER Gap - IT67-220_Missing Bioenergy Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - EMBER Gap - IT135-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - EMBER Gap - way/109756016-380_Missing Bioenergy Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - EMBER Gap - way/144006711-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant</t>
   </si>
   <si>
@@ -4608,10 +4608,10 @@
     <t>Aggregated Plant - IRENA Gap - IT13-380_Missing Hydro Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - way/104359058-380_Missing Hydro Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - way/419423704-380_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - way/104359058-380_Missing Hydro Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - way/64200868-380_Missing Hydro Capacity</t>
@@ -5893,7 +5893,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECE41F54-A224-CB5E-FC13-FE6084A1AF3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C699BD8-7302-7FB4-31DF-4C00B9906151}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5948,7 +5948,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{273D6752-C11C-0455-7936-9693EC0634D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0889061D-D085-4848-5922-66AB9ED8866C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6299,7 +6299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60502E3E-E761-43C8-9851-D23C8DA53D3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8B6210-7F2D-4BB7-BBB4-64A36F13AA50}">
   <dimension ref="A1:U192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -10559,7 +10559,7 @@
         <v>45</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D78" s="3">
         <v>0.49118125000000001</v>
@@ -10615,7 +10615,7 @@
         <v>45</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D79" s="4">
         <v>0.49118125000000001</v>
@@ -15655,7 +15655,7 @@
         <v>45</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D169" s="4">
         <v>0.28839999999999999</v>
@@ -15711,7 +15711,7 @@
         <v>45</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D170" s="3">
         <v>0.28839999999999999</v>
@@ -15767,7 +15767,7 @@
         <v>45</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D171" s="4">
         <v>0.28839999999999999</v>
@@ -16833,7 +16833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E474BD5B-4A48-42C7-8869-12B78846F9A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FB788B-0246-44E9-BD2C-312803E4A78B}">
   <dimension ref="A1:T1240"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16949,19 +16949,19 @@
         <v>2022</v>
       </c>
       <c r="E4" s="3">
-        <v>0.19090251107828654</v>
+        <v>0.90807680945347113</v>
       </c>
       <c r="F4" s="3">
-        <v>0.33990000000000004</v>
+        <v>0.36049999999999999</v>
       </c>
       <c r="G4" s="3">
-        <v>4427.5</v>
+        <v>3850.0000000000005</v>
       </c>
       <c r="H4" s="3">
-        <v>157.30000000000001</v>
+        <v>143</v>
       </c>
       <c r="I4" s="3">
-        <v>9.240000000000002</v>
+        <v>8.4</v>
       </c>
       <c r="J4" s="3">
         <v>50</v>
@@ -17002,13 +17002,13 @@
         <v>2022</v>
       </c>
       <c r="E5" s="4">
-        <v>0.47467651403249633</v>
+        <v>0.33536927621861151</v>
       </c>
       <c r="F5" s="4">
         <v>0.36049999999999999</v>
       </c>
       <c r="G5" s="4">
-        <v>3850.0000000000005</v>
+        <v>3850</v>
       </c>
       <c r="H5" s="4">
         <v>143</v>
@@ -17055,19 +17055,19 @@
         <v>2022</v>
       </c>
       <c r="E6" s="3">
-        <v>0.90807680945347113</v>
+        <v>0.19090251107828654</v>
       </c>
       <c r="F6" s="3">
-        <v>0.36049999999999999</v>
+        <v>0.33990000000000004</v>
       </c>
       <c r="G6" s="3">
-        <v>3850.0000000000005</v>
+        <v>4427.5</v>
       </c>
       <c r="H6" s="3">
-        <v>143</v>
+        <v>157.30000000000001</v>
       </c>
       <c r="I6" s="3">
-        <v>8.4</v>
+        <v>9.240000000000002</v>
       </c>
       <c r="J6" s="3">
         <v>50</v>
@@ -17108,13 +17108,13 @@
         <v>2022</v>
       </c>
       <c r="E7" s="4">
-        <v>0.42308124076809456</v>
+        <v>0.43855982274741512</v>
       </c>
       <c r="F7" s="4">
         <v>0.36049999999999999</v>
       </c>
       <c r="G7" s="4">
-        <v>3850.0000000000005</v>
+        <v>3850</v>
       </c>
       <c r="H7" s="4">
         <v>143</v>
@@ -17161,13 +17161,13 @@
         <v>2022</v>
       </c>
       <c r="E8" s="3">
-        <v>0.30441211225997045</v>
+        <v>0.41792171344165435</v>
       </c>
       <c r="F8" s="3">
         <v>0.36049999999999999</v>
       </c>
       <c r="G8" s="3">
-        <v>3850.0000000000009</v>
+        <v>3850.0000000000005</v>
       </c>
       <c r="H8" s="3">
         <v>143</v>
@@ -17214,13 +17214,13 @@
         <v>2022</v>
       </c>
       <c r="E9" s="4">
-        <v>0.33536927621861151</v>
+        <v>0.47467651403249633</v>
       </c>
       <c r="F9" s="4">
         <v>0.36049999999999999</v>
       </c>
       <c r="G9" s="4">
-        <v>3850</v>
+        <v>3850.0000000000005</v>
       </c>
       <c r="H9" s="4">
         <v>143</v>
@@ -17267,7 +17267,7 @@
         <v>2022</v>
       </c>
       <c r="E10" s="3">
-        <v>0.41792171344165435</v>
+        <v>0.42308124076809456</v>
       </c>
       <c r="F10" s="3">
         <v>0.36049999999999999</v>
@@ -17320,13 +17320,13 @@
         <v>2022</v>
       </c>
       <c r="E11" s="4">
-        <v>0.43855982274741512</v>
+        <v>0.30441211225997045</v>
       </c>
       <c r="F11" s="4">
         <v>0.36049999999999999</v>
       </c>
       <c r="G11" s="4">
-        <v>3850</v>
+        <v>3850.0000000000009</v>
       </c>
       <c r="H11" s="4">
         <v>143</v>
@@ -17367,7 +17367,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D12" s="3">
         <v>1965</v>
@@ -17420,7 +17420,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D13" s="4">
         <v>2001</v>
@@ -17473,7 +17473,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D14" s="3">
         <v>2013</v>
@@ -17526,7 +17526,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D15" s="4">
         <v>2003</v>
@@ -17579,7 +17579,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D16" s="3">
         <v>1998</v>
@@ -17632,7 +17632,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D17" s="4">
         <v>2009</v>
@@ -17685,7 +17685,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D18" s="3">
         <v>2008</v>
@@ -17738,7 +17738,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D19" s="4">
         <v>2009</v>
@@ -17791,7 +17791,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D20" s="3">
         <v>2008</v>
@@ -17844,7 +17844,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D21" s="4">
         <v>2018</v>
@@ -21819,7 +21819,7 @@
         <v>45</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D96" s="3">
         <v>2010</v>
@@ -21872,7 +21872,7 @@
         <v>45</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D97" s="4">
         <v>2010</v>
@@ -26642,7 +26642,7 @@
         <v>45</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D187" s="4">
         <v>1978</v>
@@ -26695,7 +26695,7 @@
         <v>45</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D188" s="3">
         <v>1981</v>
@@ -26748,7 +26748,7 @@
         <v>45</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D189" s="4">
         <v>1987</v>
@@ -28344,19 +28344,19 @@
         <v>2022</v>
       </c>
       <c r="E219" s="4">
-        <v>0.55308012203143864</v>
+        <v>0.10604292333736391</v>
       </c>
       <c r="F219" s="4">
         <v>1</v>
       </c>
       <c r="G219" s="4">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H219" s="4">
-        <v>55.000000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I219" s="4">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J219" s="4">
         <v>100</v>
@@ -28397,7 +28397,7 @@
         <v>2022</v>
       </c>
       <c r="E220" s="3">
-        <v>0.10604292333736391</v>
+        <v>0.11046137847642074</v>
       </c>
       <c r="F220" s="3">
         <v>1</v>
@@ -28450,19 +28450,19 @@
         <v>2022</v>
       </c>
       <c r="E221" s="4">
-        <v>0.10880445779927443</v>
+        <v>0.55308012203143864</v>
       </c>
       <c r="F221" s="4">
         <v>1</v>
       </c>
       <c r="G221" s="4">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H221" s="4">
-        <v>60.500000000000014</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="I221" s="4">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J221" s="4">
         <v>100</v>
@@ -28503,7 +28503,7 @@
         <v>2022</v>
       </c>
       <c r="E222" s="3">
-        <v>0.11046137847642074</v>
+        <v>0.11156599226118494</v>
       </c>
       <c r="F222" s="3">
         <v>1</v>
@@ -28512,7 +28512,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H222" s="3">
-        <v>60.500000000000014</v>
+        <v>60.500000000000021</v>
       </c>
       <c r="I222" s="3">
         <v>2.3100000000000005</v>
@@ -28556,7 +28556,7 @@
         <v>2022</v>
       </c>
       <c r="E223" s="4">
-        <v>0.11156599226118494</v>
+        <v>0.10880445779927443</v>
       </c>
       <c r="F223" s="4">
         <v>1</v>
@@ -28565,7 +28565,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H223" s="4">
-        <v>60.500000000000021</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I223" s="4">
         <v>2.3100000000000005</v>
@@ -29080,7 +29080,7 @@
         <v>301</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D233" s="4">
         <v>2022</v>
@@ -32313,7 +32313,7 @@
         <v>301</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D294" s="3">
         <v>1928</v>
@@ -33002,7 +33002,7 @@
         <v>427</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D307" s="4">
         <v>2015</v>
@@ -33055,7 +33055,7 @@
         <v>427</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D308" s="3">
         <v>2015</v>
@@ -33108,7 +33108,7 @@
         <v>427</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D309" s="4">
         <v>1982</v>
@@ -33320,7 +33320,7 @@
         <v>427</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D313" s="4">
         <v>1991</v>
@@ -33479,7 +33479,7 @@
         <v>427</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D316" s="3">
         <v>1971</v>
@@ -33691,7 +33691,7 @@
         <v>427</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D320" s="3">
         <v>1978</v>
@@ -34698,7 +34698,7 @@
         <v>301</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D339" s="4">
         <v>2015</v>
@@ -35069,7 +35069,7 @@
         <v>301</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D346" s="3">
         <v>2015</v>
@@ -41541,16 +41541,16 @@
         <v>2022</v>
       </c>
       <c r="E468" s="3">
-        <v>5.0999999999999995E-3</v>
+        <v>5.6464574509461601E-2</v>
       </c>
       <c r="F468" s="3">
         <v>1</v>
       </c>
       <c r="G468" s="3">
-        <v>1336.5</v>
+        <v>1138.5</v>
       </c>
       <c r="H468" s="3">
-        <v>21.450000000000003</v>
+        <v>18.150000000000002</v>
       </c>
       <c r="I468" s="3">
         <v>0</v>
@@ -41594,16 +41594,16 @@
         <v>2022</v>
       </c>
       <c r="E469" s="4">
-        <v>5.6464574509461601E-2</v>
+        <v>5.0999999999999995E-3</v>
       </c>
       <c r="F469" s="4">
         <v>1</v>
       </c>
       <c r="G469" s="4">
-        <v>1138.5</v>
+        <v>1336.5</v>
       </c>
       <c r="H469" s="4">
-        <v>18.150000000000002</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I469" s="4">
         <v>0</v>
@@ -41647,16 +41647,16 @@
         <v>2022</v>
       </c>
       <c r="E470" s="3">
-        <v>5.7061324242603621E-2</v>
+        <v>5.0999999999999995E-3</v>
       </c>
       <c r="F470" s="3">
         <v>1</v>
       </c>
       <c r="G470" s="3">
-        <v>1138.5</v>
+        <v>1336.5</v>
       </c>
       <c r="H470" s="3">
-        <v>18.150000000000002</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I470" s="3">
         <v>0</v>
@@ -41700,16 +41700,16 @@
         <v>2022</v>
       </c>
       <c r="E471" s="4">
-        <v>5.0999999999999995E-3</v>
+        <v>5.7061324242603621E-2</v>
       </c>
       <c r="F471" s="4">
         <v>1</v>
       </c>
       <c r="G471" s="4">
-        <v>1336.5</v>
+        <v>1138.5</v>
       </c>
       <c r="H471" s="4">
-        <v>21.450000000000003</v>
+        <v>18.150000000000002</v>
       </c>
       <c r="I471" s="4">
         <v>0</v>
@@ -58990,7 +58990,7 @@
         <v>509</v>
       </c>
       <c r="C896" s="3" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="D896" s="3">
         <v>2028</v>
@@ -59022,7 +59022,7 @@
         <v>509</v>
       </c>
       <c r="C897" s="4" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D897" s="4">
         <v>2028</v>
@@ -59054,7 +59054,7 @@
         <v>509</v>
       </c>
       <c r="C898" s="3" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D898" s="3">
         <v>2025</v>
@@ -59086,7 +59086,7 @@
         <v>509</v>
       </c>
       <c r="C899" s="4" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="D899" s="4">
         <v>2025</v>

--- a/VerveStacks_ITA_grids/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA_grids/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{979B7E81-66FC-4D1D-BDB4-C8F4E13CAE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C83BAB4-D452-4C7E-B908-68237A3F94C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{A3A4CCFD-0939-4CA5-A35C-2F6B44945462}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B55284FA-1DC2-4F96-8B1C-65D207315258}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -81,18 +81,18 @@
     <t>e_w144006711-220</t>
   </si>
   <si>
+    <t>e_w81938081-380</t>
+  </si>
+  <si>
+    <t>e_IT135-220</t>
+  </si>
+  <si>
+    <t>e_IT67-220</t>
+  </si>
+  <si>
     <t>e_w116692433-220</t>
   </si>
   <si>
-    <t>e_IT135-220</t>
-  </si>
-  <si>
-    <t>e_w81938081-380</t>
-  </si>
-  <si>
-    <t>e_IT67-220</t>
-  </si>
-  <si>
     <t>e_w105141350-220</t>
   </si>
   <si>
@@ -1569,108 +1569,108 @@
     <t>solar</t>
   </si>
   <si>
+    <t>elc_spv-ITA_0080</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0168</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0092</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0023</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0205</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0029</t>
+  </si>
+  <si>
     <t>elc_spv-ITA_0077</t>
   </si>
   <si>
     <t>elc_spv-ITA_0124</t>
   </si>
   <si>
-    <t>elc_spv-ITA_0092</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0023</t>
+    <t>elc_spv-ITA_0215</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0157</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0018</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0091</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0112</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0069</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0068</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0216</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0101</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0167</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0116</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0105</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0024</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0100</t>
   </si>
   <si>
     <t>elc_spv-ITA_0030</t>
   </si>
   <si>
-    <t>elc_spv-ITA_0205</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0029</t>
+    <t>elc_spv-ITA_0115</t>
   </si>
   <si>
     <t>elc_spv-ITA_0019</t>
   </si>
   <si>
-    <t>elc_spv-ITA_0080</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0157</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0018</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0091</t>
+    <t>elc_spv-ITA_0196</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0042</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0073</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0058</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0211</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0213</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0007</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0081</t>
   </si>
   <si>
     <t>elc_spv-ITA_0186</t>
   </si>
   <si>
-    <t>elc_spv-ITA_0081</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0211</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0216</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0101</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0168</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0024</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0213</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0069</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0100</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0196</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0068</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0167</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0116</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0115</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0105</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0007</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0042</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0112</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0215</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0073</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0058</t>
-  </si>
-  <si>
     <t>ep_solar_pv_000</t>
   </si>
   <si>
@@ -3426,42 +3426,42 @@
     <t>ele</t>
   </si>
   <si>
+    <t>Aggregated Plant - EMBER Gap - way/109756016-380_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>TWh</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/144006711-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - IT67-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - IT135-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/377588191-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/105141350-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - EMBER Gap - way/116692433-220_Missing Bioenergy Capacity</t>
   </si>
   <si>
-    <t>GW</t>
-  </si>
-  <si>
-    <t>TWh</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - IT67-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/377588191-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/105141350-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/109756016-380_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/144006711-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - EMBER Gap - way/81938081-380_Missing Bioenergy Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - EMBER Gap - IT135-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant</t>
   </si>
   <si>
@@ -3849,18 +3849,18 @@
     <t>Taranto CHP power station_CET2-1</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - way/409768426-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - way/104359058-380_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - way/64200868-380_Missing Hydro Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - IT13-380_Missing Hydro Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - way/409768426-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - way/64200868-380_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - way/104359058-380_Missing Hydro Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - IRENA Gap - way/419423704-380_Missing Hydro Capacity</t>
   </si>
   <si>
@@ -4014,109 +4014,109 @@
     <t>San Filippo del Mela power station_1</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_19_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>annual</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_115_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_29_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_216_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_211_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_105_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_58_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_92_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_112_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_168_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_167_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_30_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_73_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_7_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_77_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_81_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_24_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_124_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_42_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_23_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_205_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_100_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - ITA_196_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>annual</t>
+    <t>Aggregated Plant - IRENA Gap - ITA_116_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_68_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_101_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_157_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_213_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_80_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - ITA_69_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_101_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_68_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_80_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_81_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_77_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_100_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_205_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_167_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_112_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_168_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_24_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_124_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_115_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_216_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_29_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_19_Missing Solar Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - ITA_18_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_91_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_186_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - ITA_215_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_18_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_42_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_91_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_186_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_116_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_30_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_7_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_157_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_73_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_58_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_211_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_105_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_92_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_23_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_213_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Tuscania solar farm_--</t>
@@ -5242,7 +5242,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B87E785-7270-DE70-76C8-2218B21EAE73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{383F851A-B1C9-2E52-E89A-037FBE75E403}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5297,7 +5297,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57693616-949C-093B-470C-F50E38A54E38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEEFBB3A-227A-8551-F4AA-78D30913F594}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5648,7 +5648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC93403-632E-4829-99DA-55D95DAED59D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809646E8-D6A4-442A-8BC3-FD728B7DD468}">
   <dimension ref="A1:U192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -15004,7 +15004,7 @@
         <v>45</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D169" s="4">
         <v>0.28839999999999999</v>
@@ -15060,7 +15060,7 @@
         <v>45</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D170" s="3">
         <v>0.28839999999999999</v>
@@ -15116,7 +15116,7 @@
         <v>45</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D171" s="4">
         <v>0.28839999999999999</v>
@@ -16182,7 +16182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34F5409-E7FB-4638-92E9-200F9C92F0D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9832D497-315C-4FD8-8CFA-4CDD75C22D1A}">
   <dimension ref="A1:T1127"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16351,13 +16351,13 @@
         <v>2022</v>
       </c>
       <c r="E5" s="4">
-        <v>0.43855982274741512</v>
+        <v>0.41792171344165435</v>
       </c>
       <c r="F5" s="4">
         <v>0.36049999999999999</v>
       </c>
       <c r="G5" s="4">
-        <v>3850</v>
+        <v>3850.0000000000005</v>
       </c>
       <c r="H5" s="4">
         <v>143</v>
@@ -16457,13 +16457,13 @@
         <v>2022</v>
       </c>
       <c r="E7" s="4">
-        <v>0.41792171344165435</v>
+        <v>0.30441211225997045</v>
       </c>
       <c r="F7" s="4">
         <v>0.36049999999999999</v>
       </c>
       <c r="G7" s="4">
-        <v>3850.0000000000005</v>
+        <v>3850.0000000000009</v>
       </c>
       <c r="H7" s="4">
         <v>143</v>
@@ -16510,13 +16510,13 @@
         <v>2022</v>
       </c>
       <c r="E8" s="3">
-        <v>0.30441211225997045</v>
+        <v>0.43855982274741512</v>
       </c>
       <c r="F8" s="3">
         <v>0.36049999999999999</v>
       </c>
       <c r="G8" s="3">
-        <v>3850.0000000000009</v>
+        <v>3850</v>
       </c>
       <c r="H8" s="3">
         <v>143</v>
@@ -16769,7 +16769,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="4">
         <v>2001</v>
@@ -16928,7 +16928,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D16" s="3">
         <v>1998</v>
@@ -17140,7 +17140,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D20" s="3">
         <v>2008</v>
@@ -17193,7 +17193,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D21" s="4">
         <v>2018</v>
@@ -25991,7 +25991,7 @@
         <v>45</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D187" s="4">
         <v>1978</v>
@@ -26044,7 +26044,7 @@
         <v>45</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D188" s="3">
         <v>1981</v>
@@ -26097,7 +26097,7 @@
         <v>45</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D189" s="4">
         <v>1987</v>
@@ -35961,7 +35961,7 @@
         <v>2022</v>
       </c>
       <c r="E375" s="4">
-        <v>0.10128313836498157</v>
+        <v>0.11255980974057808</v>
       </c>
       <c r="F375" s="4">
         <v>1</v>
@@ -36014,7 +36014,7 @@
         <v>2022</v>
       </c>
       <c r="E376" s="3">
-        <v>0.10281889750798776</v>
+        <v>0.106881944919879</v>
       </c>
       <c r="F376" s="3">
         <v>1</v>
@@ -36173,7 +36173,7 @@
         <v>2022</v>
       </c>
       <c r="E379" s="4">
-        <v>0.11384197057678677</v>
+        <v>0.10954770591501538</v>
       </c>
       <c r="F379" s="4">
         <v>1</v>
@@ -36226,7 +36226,7 @@
         <v>2022</v>
       </c>
       <c r="E380" s="3">
-        <v>0.10954770591501538</v>
+        <v>0.10772034897289151</v>
       </c>
       <c r="F380" s="3">
         <v>1</v>
@@ -36279,7 +36279,7 @@
         <v>2022</v>
       </c>
       <c r="E381" s="4">
-        <v>0.10772034897289151</v>
+        <v>0.10128313836498157</v>
       </c>
       <c r="F381" s="4">
         <v>1</v>
@@ -36332,7 +36332,7 @@
         <v>2022</v>
       </c>
       <c r="E382" s="3">
-        <v>0.10930731082165113</v>
+        <v>0.10281889750798776</v>
       </c>
       <c r="F382" s="3">
         <v>1</v>
@@ -36385,7 +36385,7 @@
         <v>2022</v>
       </c>
       <c r="E383" s="4">
-        <v>0.11255980974057808</v>
+        <v>0.10090008416061882</v>
       </c>
       <c r="F383" s="4">
         <v>1</v>
@@ -36597,7 +36597,7 @@
         <v>2022</v>
       </c>
       <c r="E387" s="4">
-        <v>0.10652175481682753</v>
+        <v>0.1015976002654105</v>
       </c>
       <c r="F387" s="4">
         <v>1</v>
@@ -36650,7 +36650,7 @@
         <v>2022</v>
       </c>
       <c r="E388" s="3">
-        <v>0.10762824850845455</v>
+        <v>0.11243953168649698</v>
       </c>
       <c r="F388" s="3">
         <v>1</v>
@@ -36703,7 +36703,7 @@
         <v>2022</v>
       </c>
       <c r="E389" s="4">
-        <v>0.11708432556344184</v>
+        <v>0.11265722369334792</v>
       </c>
       <c r="F389" s="4">
         <v>1</v>
@@ -36862,7 +36862,7 @@
         <v>2022</v>
       </c>
       <c r="E392" s="3">
-        <v>0.106881944919879</v>
+        <v>0.10585966196758853</v>
       </c>
       <c r="F392" s="3">
         <v>1</v>
@@ -36915,7 +36915,7 @@
         <v>2022</v>
       </c>
       <c r="E393" s="4">
-        <v>0.10382330781770392</v>
+        <v>0.1053582618867203</v>
       </c>
       <c r="F393" s="4">
         <v>1</v>
@@ -36968,7 +36968,7 @@
         <v>2022</v>
       </c>
       <c r="E394" s="3">
-        <v>0.10717740707414788</v>
+        <v>0.10127750284705274</v>
       </c>
       <c r="F394" s="3">
         <v>1</v>
@@ -37021,7 +37021,7 @@
         <v>2022</v>
       </c>
       <c r="E395" s="4">
-        <v>0.11243953168649698</v>
+        <v>0.10382330781770392</v>
       </c>
       <c r="F395" s="4">
         <v>1</v>
@@ -37127,7 +37127,7 @@
         <v>2022</v>
       </c>
       <c r="E397" s="4">
-        <v>0.112250983358078</v>
+        <v>0.11384197057678677</v>
       </c>
       <c r="F397" s="4">
         <v>1</v>
@@ -37180,7 +37180,7 @@
         <v>2022</v>
       </c>
       <c r="E398" s="3">
-        <v>0.11265722369334792</v>
+        <v>0.1111795908924077</v>
       </c>
       <c r="F398" s="3">
         <v>1</v>
@@ -37233,7 +37233,7 @@
         <v>2022</v>
       </c>
       <c r="E399" s="4">
-        <v>0.10585966196758853</v>
+        <v>0.10930731082165113</v>
       </c>
       <c r="F399" s="4">
         <v>1</v>
@@ -37286,7 +37286,7 @@
         <v>2022</v>
       </c>
       <c r="E400" s="3">
-        <v>0.1053582618867203</v>
+        <v>0.112250983358078</v>
       </c>
       <c r="F400" s="3">
         <v>1</v>
@@ -37339,7 +37339,7 @@
         <v>2022</v>
       </c>
       <c r="E401" s="4">
-        <v>0.1111795908924077</v>
+        <v>0.11326730876284366</v>
       </c>
       <c r="F401" s="4">
         <v>1</v>
@@ -37392,7 +37392,7 @@
         <v>2022</v>
       </c>
       <c r="E402" s="3">
-        <v>0.10127750284705274</v>
+        <v>0.10603516809737222</v>
       </c>
       <c r="F402" s="3">
         <v>1</v>
@@ -37445,7 +37445,7 @@
         <v>2022</v>
       </c>
       <c r="E403" s="4">
-        <v>0.11050268468175577</v>
+        <v>0.11350287341226893</v>
       </c>
       <c r="F403" s="4">
         <v>1</v>
@@ -37454,7 +37454,7 @@
         <v>1138.5</v>
       </c>
       <c r="H403" s="4">
-        <v>18.150000000000002</v>
+        <v>18.149999999999999</v>
       </c>
       <c r="I403" s="4">
         <v>0</v>
@@ -37498,7 +37498,7 @@
         <v>2022</v>
       </c>
       <c r="E404" s="3">
-        <v>0.11326730876284366</v>
+        <v>0.11708432556344184</v>
       </c>
       <c r="F404" s="3">
         <v>1</v>
@@ -37551,7 +37551,7 @@
         <v>2022</v>
       </c>
       <c r="E405" s="4">
-        <v>0.1015976002654105</v>
+        <v>0.10717740707414788</v>
       </c>
       <c r="F405" s="4">
         <v>1</v>
@@ -37604,7 +37604,7 @@
         <v>2022</v>
       </c>
       <c r="E406" s="3">
-        <v>0.10090008416061882</v>
+        <v>0.11050268468175577</v>
       </c>
       <c r="F406" s="3">
         <v>1</v>
@@ -37657,7 +37657,7 @@
         <v>2022</v>
       </c>
       <c r="E407" s="4">
-        <v>0.10603516809737222</v>
+        <v>0.10762824850845455</v>
       </c>
       <c r="F407" s="4">
         <v>1</v>
@@ -37710,7 +37710,7 @@
         <v>2022</v>
       </c>
       <c r="E408" s="3">
-        <v>0.11350287341226893</v>
+        <v>0.10652175481682753</v>
       </c>
       <c r="F408" s="3">
         <v>1</v>
@@ -37719,7 +37719,7 @@
         <v>1138.5</v>
       </c>
       <c r="H408" s="3">
-        <v>18.149999999999999</v>
+        <v>18.150000000000002</v>
       </c>
       <c r="I408" s="3">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>509</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="D417" s="4">
         <v>2011</v>
@@ -38234,7 +38234,7 @@
         <v>509</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="D418" s="3">
         <v>2015</v>
@@ -39082,7 +39082,7 @@
         <v>509</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="D434" s="3">
         <v>2015</v>
@@ -39453,7 +39453,7 @@
         <v>509</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D441" s="4">
         <v>2015</v>
@@ -39877,7 +39877,7 @@
         <v>509</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D449" s="4">
         <v>2015</v>
@@ -40831,7 +40831,7 @@
         <v>509</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D467" s="4">
         <v>2015</v>
@@ -41785,7 +41785,7 @@
         <v>509</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D485" s="4">
         <v>2015</v>
@@ -42527,7 +42527,7 @@
         <v>509</v>
       </c>
       <c r="C499" s="4" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="D499" s="4">
         <v>2010</v>
@@ -42580,7 +42580,7 @@
         <v>509</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="D500" s="3">
         <v>2015</v>
@@ -42633,7 +42633,7 @@
         <v>509</v>
       </c>
       <c r="C501" s="4" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="D501" s="4">
         <v>2015</v>
@@ -42898,7 +42898,7 @@
         <v>509</v>
       </c>
       <c r="C506" s="3" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D506" s="3">
         <v>2011</v>
@@ -42951,7 +42951,7 @@
         <v>509</v>
       </c>
       <c r="C507" s="4" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D507" s="4">
         <v>2015</v>
@@ -43481,7 +43481,7 @@
         <v>509</v>
       </c>
       <c r="C517" s="4" t="s">
-        <v>523</v>
+        <v>542</v>
       </c>
       <c r="D517" s="4">
         <v>2015</v>
@@ -46184,7 +46184,7 @@
         <v>509</v>
       </c>
       <c r="C568" s="3" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="D568" s="3">
         <v>2015</v>
@@ -46661,7 +46661,7 @@
         <v>509</v>
       </c>
       <c r="C577" s="4" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="D577" s="4">
         <v>2011</v>
@@ -46714,7 +46714,7 @@
         <v>509</v>
       </c>
       <c r="C578" s="3" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="D578" s="3">
         <v>2015</v>
@@ -46767,7 +46767,7 @@
         <v>509</v>
       </c>
       <c r="C579" s="4" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="D579" s="4">
         <v>2024</v>
@@ -47191,7 +47191,7 @@
         <v>509</v>
       </c>
       <c r="C587" s="4" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D587" s="4">
         <v>2011</v>
@@ -47244,7 +47244,7 @@
         <v>509</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D588" s="3">
         <v>2015</v>
@@ -47297,7 +47297,7 @@
         <v>509</v>
       </c>
       <c r="C589" s="4" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D589" s="4">
         <v>2025</v>
@@ -48092,7 +48092,7 @@
         <v>509</v>
       </c>
       <c r="C604" s="3" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="D604" s="3">
         <v>2015</v>
@@ -52165,7 +52165,7 @@
         <v>509</v>
       </c>
       <c r="C686" s="3" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D686" s="3">
         <v>2012</v>
@@ -52197,7 +52197,7 @@
         <v>509</v>
       </c>
       <c r="C687" s="4" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D687" s="4">
         <v>2015</v>
@@ -52229,7 +52229,7 @@
         <v>509</v>
       </c>
       <c r="C688" s="3" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D688" s="3">
         <v>2022</v>
@@ -52261,7 +52261,7 @@
         <v>509</v>
       </c>
       <c r="C689" s="4" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="D689" s="4">
         <v>2011</v>
@@ -52293,7 +52293,7 @@
         <v>509</v>
       </c>
       <c r="C690" s="3" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="D690" s="3">
         <v>2023</v>
@@ -53861,7 +53861,7 @@
         <v>509</v>
       </c>
       <c r="C739" s="4" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D739" s="4">
         <v>2011</v>
@@ -53893,7 +53893,7 @@
         <v>509</v>
       </c>
       <c r="C740" s="3" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D740" s="3">
         <v>2012</v>
@@ -53925,7 +53925,7 @@
         <v>509</v>
       </c>
       <c r="C741" s="4" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D741" s="4">
         <v>2028</v>
@@ -54789,7 +54789,7 @@
         <v>509</v>
       </c>
       <c r="C768" s="3" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="D768" s="3">
         <v>2009</v>
@@ -54821,7 +54821,7 @@
         <v>509</v>
       </c>
       <c r="C769" s="4" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="D769" s="4">
         <v>2012</v>
@@ -54853,7 +54853,7 @@
         <v>509</v>
       </c>
       <c r="C770" s="3" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="D770" s="3">
         <v>2015</v>
@@ -54949,7 +54949,7 @@
         <v>509</v>
       </c>
       <c r="C773" s="4" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="D773" s="4">
         <v>2013</v>
@@ -54981,7 +54981,7 @@
         <v>509</v>
       </c>
       <c r="C774" s="3" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="D774" s="3">
         <v>2015</v>
@@ -55077,7 +55077,7 @@
         <v>509</v>
       </c>
       <c r="C777" s="4" t="s">
-        <v>541</v>
+        <v>518</v>
       </c>
       <c r="D777" s="4">
         <v>2010</v>
@@ -55109,7 +55109,7 @@
         <v>509</v>
       </c>
       <c r="C778" s="3" t="s">
-        <v>541</v>
+        <v>518</v>
       </c>
       <c r="D778" s="3">
         <v>2011</v>
@@ -55141,7 +55141,7 @@
         <v>509</v>
       </c>
       <c r="C779" s="4" t="s">
-        <v>541</v>
+        <v>518</v>
       </c>
       <c r="D779" s="4">
         <v>2015</v>
@@ -55269,7 +55269,7 @@
         <v>509</v>
       </c>
       <c r="C783" s="4" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="D783" s="4">
         <v>2028</v>
@@ -55301,7 +55301,7 @@
         <v>509</v>
       </c>
       <c r="C784" s="3" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D784" s="3">
         <v>2028</v>
@@ -55333,7 +55333,7 @@
         <v>509</v>
       </c>
       <c r="C785" s="4" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D785" s="4">
         <v>2025</v>
@@ -55365,7 +55365,7 @@
         <v>509</v>
       </c>
       <c r="C786" s="3" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="D786" s="3">
         <v>2025</v>
@@ -55397,7 +55397,7 @@
         <v>509</v>
       </c>
       <c r="C787" s="4" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D787" s="4">
         <v>2028</v>
@@ -55493,7 +55493,7 @@
         <v>509</v>
       </c>
       <c r="C790" s="3" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="D790" s="3">
         <v>2028</v>
@@ -66149,7 +66149,7 @@
         <v>938</v>
       </c>
       <c r="C1123" s="4" t="s">
-        <v>965</v>
+        <v>977</v>
       </c>
       <c r="D1123" s="4">
         <v>2011</v>
@@ -66181,7 +66181,7 @@
         <v>938</v>
       </c>
       <c r="C1124" s="3" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="D1124" s="3">
         <v>2011</v>
@@ -66213,7 +66213,7 @@
         <v>938</v>
       </c>
       <c r="C1125" s="4" t="s">
-        <v>977</v>
+        <v>963</v>
       </c>
       <c r="D1125" s="4">
         <v>2011</v>
@@ -66245,7 +66245,7 @@
         <v>938</v>
       </c>
       <c r="C1126" s="3" t="s">
-        <v>955</v>
+        <v>965</v>
       </c>
       <c r="D1126" s="3">
         <v>2011</v>

--- a/VerveStacks_ITA_grids/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA_grids/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C83BAB4-D452-4C7E-B908-68237A3F94C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9895F55D-19CF-4CA3-94F5-2852548B6BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B55284FA-1DC2-4F96-8B1C-65D207315258}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{32C0C483-157F-491C-AE91-17566E736158}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -78,30 +78,30 @@
     <t>bioenergy</t>
   </si>
   <si>
+    <t>e_IT67-220</t>
+  </si>
+  <si>
+    <t>e_w109756016-380</t>
+  </si>
+  <si>
+    <t>e_w377588191-220</t>
+  </si>
+  <si>
+    <t>e_w105141350-220</t>
+  </si>
+  <si>
     <t>e_w144006711-220</t>
   </si>
   <si>
+    <t>e_IT135-220</t>
+  </si>
+  <si>
+    <t>e_w116692433-220</t>
+  </si>
+  <si>
     <t>e_w81938081-380</t>
   </si>
   <si>
-    <t>e_IT135-220</t>
-  </si>
-  <si>
-    <t>e_IT67-220</t>
-  </si>
-  <si>
-    <t>e_w116692433-220</t>
-  </si>
-  <si>
-    <t>e_w105141350-220</t>
-  </si>
-  <si>
-    <t>e_w377588191-220</t>
-  </si>
-  <si>
-    <t>e_w109756016-380</t>
-  </si>
-  <si>
     <t>ep_bioenergy_IT135-220</t>
   </si>
   <si>
@@ -1569,108 +1569,108 @@
     <t>solar</t>
   </si>
   <si>
+    <t>elc_spv-ITA_0205</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0018</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0157</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0069</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0124</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0042</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0007</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0019</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0029</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0077</t>
+  </si>
+  <si>
     <t>elc_spv-ITA_0080</t>
   </si>
   <si>
+    <t>elc_spv-ITA_0215</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0115</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0030</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0211</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0112</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0068</t>
+  </si>
+  <si>
     <t>elc_spv-ITA_0168</t>
   </si>
   <si>
+    <t>elc_spv-ITA_0196</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0081</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0186</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0167</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0023</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0216</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0101</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0100</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0105</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0024</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0213</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0091</t>
+  </si>
+  <si>
     <t>elc_spv-ITA_0092</t>
   </si>
   <si>
-    <t>elc_spv-ITA_0023</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0205</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0029</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0077</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0124</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0215</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0157</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0018</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0091</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0112</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0069</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0068</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0216</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0101</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0167</t>
-  </si>
-  <si>
     <t>elc_spv-ITA_0116</t>
   </si>
   <si>
-    <t>elc_spv-ITA_0105</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0024</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0100</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0030</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0115</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0019</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0196</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0042</t>
-  </si>
-  <si>
     <t>elc_spv-ITA_0073</t>
   </si>
   <si>
     <t>elc_spv-ITA_0058</t>
   </si>
   <si>
-    <t>elc_spv-ITA_0211</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0213</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0007</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0081</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0186</t>
-  </si>
-  <si>
     <t>ep_solar_pv_000</t>
   </si>
   <si>
@@ -3426,42 +3426,42 @@
     <t>ele</t>
   </si>
   <si>
+    <t>Aggregated Plant - EMBER Gap - IT135-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>TWh</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>Aggregated Plant - EMBER Gap - way/109756016-380_Missing Bioenergy Capacity</t>
   </si>
   <si>
-    <t>GW</t>
-  </si>
-  <si>
-    <t>TWh</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>Aggregated Plant - EMBER Gap - way/144006711-220_Missing Bioenergy Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - EMBER Gap - way/81938081-380_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - EMBER Gap - IT67-220_Missing Bioenergy Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - EMBER Gap - IT135-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - EMBER Gap - way/377588191-220_Missing Bioenergy Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - EMBER Gap - way/116692433-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - EMBER Gap - way/105141350-220_Missing Bioenergy Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - EMBER Gap - way/116692433-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/81938081-380_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant</t>
   </si>
   <si>
@@ -3849,21 +3849,21 @@
     <t>Taranto CHP power station_CET2-1</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - way/64200868-380_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - way/419423704-380_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - way/104359058-380_Missing Hydro Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - way/409768426-220_Missing Hydro Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - way/104359058-380_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - way/64200868-380_Missing Hydro Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - IRENA Gap - IT13-380_Missing Hydro Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - way/419423704-380_Missing Hydro Capacity</t>
-  </si>
-  <si>
     <t>Lana hydroelectric plant_</t>
   </si>
   <si>
@@ -4014,109 +4014,109 @@
     <t>San Filippo del Mela power station_1</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_7_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>annual</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_30_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_73_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_213_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_157_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_18_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_105_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_92_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_211_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_58_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_116_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_81_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_167_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_112_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_168_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_115_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_124_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_29_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - ITA_19_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>annual</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_115_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_29_Missing Solar Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - IRENA Gap - ITA_216_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_211_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_105_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_58_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_92_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_112_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_168_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_167_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_30_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_73_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_7_Missing Solar Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - ITA_42_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_24_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_186_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_91_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - ITA_77_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_81_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_24_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_124_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_42_Missing Solar Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - ITA_215_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - ITA_23_Missing Solar Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_68_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_196_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_101_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_69_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_80_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - ITA_205_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - ITA_100_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_196_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_116_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_68_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_101_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_157_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_213_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_80_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_69_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_18_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_91_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_186_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_215_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Tuscania solar farm_--</t>
@@ -5242,7 +5242,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{383F851A-B1C9-2E52-E89A-037FBE75E403}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{634BE889-EEB4-C0E5-4333-7F879DF4DB1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5297,7 +5297,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEEFBB3A-227A-8551-F4AA-78D30913F594}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F2367E3-DBEA-8825-96E6-F248EE3ECC8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5648,7 +5648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809646E8-D6A4-442A-8BC3-FD728B7DD468}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711DFD1E-7F14-4D42-829A-CFF1051BE082}">
   <dimension ref="A1:U192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -9908,7 +9908,7 @@
         <v>45</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D78" s="3">
         <v>0.49118125000000001</v>
@@ -9964,7 +9964,7 @@
         <v>45</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D79" s="4">
         <v>0.49118125000000001</v>
@@ -15004,7 +15004,7 @@
         <v>45</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D169" s="4">
         <v>0.28839999999999999</v>
@@ -15060,7 +15060,7 @@
         <v>45</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D170" s="3">
         <v>0.28839999999999999</v>
@@ -15116,7 +15116,7 @@
         <v>45</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D171" s="4">
         <v>0.28839999999999999</v>
@@ -16182,7 +16182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9832D497-315C-4FD8-8CFA-4CDD75C22D1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C15E84-226F-4B1A-82AC-EB56B26D7FDB}">
   <dimension ref="A1:T1127"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16298,19 +16298,19 @@
         <v>2022</v>
       </c>
       <c r="E4" s="3">
-        <v>0.19090251107828654</v>
+        <v>0.30441211225997045</v>
       </c>
       <c r="F4" s="3">
-        <v>0.33990000000000004</v>
+        <v>0.36049999999999999</v>
       </c>
       <c r="G4" s="3">
-        <v>4427.5</v>
+        <v>3850.0000000000009</v>
       </c>
       <c r="H4" s="3">
-        <v>157.30000000000001</v>
+        <v>143</v>
       </c>
       <c r="I4" s="3">
-        <v>9.240000000000002</v>
+        <v>8.4</v>
       </c>
       <c r="J4" s="3">
         <v>50</v>
@@ -16351,7 +16351,7 @@
         <v>2022</v>
       </c>
       <c r="E5" s="4">
-        <v>0.41792171344165435</v>
+        <v>0.47467651403249633</v>
       </c>
       <c r="F5" s="4">
         <v>0.36049999999999999</v>
@@ -16404,7 +16404,7 @@
         <v>2022</v>
       </c>
       <c r="E6" s="3">
-        <v>0.42308124076809456</v>
+        <v>0.90807680945347113</v>
       </c>
       <c r="F6" s="3">
         <v>0.36049999999999999</v>
@@ -16457,13 +16457,13 @@
         <v>2022</v>
       </c>
       <c r="E7" s="4">
-        <v>0.30441211225997045</v>
+        <v>0.33536927621861151</v>
       </c>
       <c r="F7" s="4">
         <v>0.36049999999999999</v>
       </c>
       <c r="G7" s="4">
-        <v>3850.0000000000009</v>
+        <v>3850</v>
       </c>
       <c r="H7" s="4">
         <v>143</v>
@@ -16510,19 +16510,19 @@
         <v>2022</v>
       </c>
       <c r="E8" s="3">
-        <v>0.43855982274741512</v>
+        <v>0.19090251107828654</v>
       </c>
       <c r="F8" s="3">
-        <v>0.36049999999999999</v>
+        <v>0.33990000000000004</v>
       </c>
       <c r="G8" s="3">
-        <v>3850</v>
+        <v>4427.5</v>
       </c>
       <c r="H8" s="3">
-        <v>143</v>
+        <v>157.30000000000001</v>
       </c>
       <c r="I8" s="3">
-        <v>8.4</v>
+        <v>9.240000000000002</v>
       </c>
       <c r="J8" s="3">
         <v>50</v>
@@ -16563,13 +16563,13 @@
         <v>2022</v>
       </c>
       <c r="E9" s="4">
-        <v>0.33536927621861151</v>
+        <v>0.42308124076809456</v>
       </c>
       <c r="F9" s="4">
         <v>0.36049999999999999</v>
       </c>
       <c r="G9" s="4">
-        <v>3850</v>
+        <v>3850.0000000000005</v>
       </c>
       <c r="H9" s="4">
         <v>143</v>
@@ -16616,13 +16616,13 @@
         <v>2022</v>
       </c>
       <c r="E10" s="3">
-        <v>0.90807680945347113</v>
+        <v>0.43855982274741512</v>
       </c>
       <c r="F10" s="3">
         <v>0.36049999999999999</v>
       </c>
       <c r="G10" s="3">
-        <v>3850.0000000000005</v>
+        <v>3850</v>
       </c>
       <c r="H10" s="3">
         <v>143</v>
@@ -16669,7 +16669,7 @@
         <v>2022</v>
       </c>
       <c r="E11" s="4">
-        <v>0.47467651403249633</v>
+        <v>0.41792171344165435</v>
       </c>
       <c r="F11" s="4">
         <v>0.36049999999999999</v>
@@ -16716,7 +16716,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D12" s="3">
         <v>1965</v>
@@ -16769,7 +16769,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D13" s="4">
         <v>2001</v>
@@ -16822,7 +16822,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D14" s="3">
         <v>2013</v>
@@ -16875,7 +16875,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D15" s="4">
         <v>2003</v>
@@ -16928,7 +16928,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D16" s="3">
         <v>1998</v>
@@ -16981,7 +16981,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D17" s="4">
         <v>2009</v>
@@ -17034,7 +17034,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D18" s="3">
         <v>2008</v>
@@ -17087,7 +17087,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D19" s="4">
         <v>2009</v>
@@ -17140,7 +17140,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D20" s="3">
         <v>2008</v>
@@ -17193,7 +17193,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D21" s="4">
         <v>2018</v>
@@ -21168,7 +21168,7 @@
         <v>45</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D96" s="3">
         <v>2010</v>
@@ -21221,7 +21221,7 @@
         <v>45</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D97" s="4">
         <v>2010</v>
@@ -25991,7 +25991,7 @@
         <v>45</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D187" s="4">
         <v>1978</v>
@@ -26044,7 +26044,7 @@
         <v>45</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D188" s="3">
         <v>1981</v>
@@ -26097,7 +26097,7 @@
         <v>45</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D189" s="4">
         <v>1987</v>
@@ -28429,7 +28429,7 @@
         <v>301</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D233" s="4">
         <v>2022</v>
@@ -34047,7 +34047,7 @@
         <v>301</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D339" s="4">
         <v>2015</v>
@@ -35961,7 +35961,7 @@
         <v>2022</v>
       </c>
       <c r="E375" s="4">
-        <v>0.11255980974057808</v>
+        <v>0.10954770591501538</v>
       </c>
       <c r="F375" s="4">
         <v>1</v>
@@ -36014,7 +36014,7 @@
         <v>2022</v>
       </c>
       <c r="E376" s="3">
-        <v>0.106881944919879</v>
+        <v>0.10420603999247074</v>
       </c>
       <c r="F376" s="3">
         <v>1</v>
@@ -36067,7 +36067,7 @@
         <v>2022</v>
       </c>
       <c r="E377" s="4">
-        <v>0.10351496447959772</v>
+        <v>0.10214633869688095</v>
       </c>
       <c r="F377" s="4">
         <v>1</v>
@@ -36120,7 +36120,7 @@
         <v>2022</v>
       </c>
       <c r="E378" s="3">
-        <v>0.10724052487495081</v>
+        <v>0.11243953168649698</v>
       </c>
       <c r="F378" s="3">
         <v>1</v>
@@ -36173,7 +36173,7 @@
         <v>2022</v>
       </c>
       <c r="E379" s="4">
-        <v>0.10954770591501538</v>
+        <v>0.10281889750798776</v>
       </c>
       <c r="F379" s="4">
         <v>1</v>
@@ -36226,7 +36226,7 @@
         <v>2022</v>
       </c>
       <c r="E380" s="3">
-        <v>0.10772034897289151</v>
+        <v>0.11326730876284366</v>
       </c>
       <c r="F380" s="3">
         <v>1</v>
@@ -36279,7 +36279,7 @@
         <v>2022</v>
       </c>
       <c r="E381" s="4">
-        <v>0.10128313836498157</v>
+        <v>0.11050268468175577</v>
       </c>
       <c r="F381" s="4">
         <v>1</v>
@@ -36332,7 +36332,7 @@
         <v>2022</v>
       </c>
       <c r="E382" s="3">
-        <v>0.10281889750798776</v>
+        <v>0.10930731082165113</v>
       </c>
       <c r="F382" s="3">
         <v>1</v>
@@ -36385,7 +36385,7 @@
         <v>2022</v>
       </c>
       <c r="E383" s="4">
-        <v>0.10090008416061882</v>
+        <v>0.10772034897289151</v>
       </c>
       <c r="F383" s="4">
         <v>1</v>
@@ -36438,7 +36438,7 @@
         <v>2022</v>
       </c>
       <c r="E384" s="3">
-        <v>0.10214633869688095</v>
+        <v>0.10128313836498157</v>
       </c>
       <c r="F384" s="3">
         <v>1</v>
@@ -36491,7 +36491,7 @@
         <v>2022</v>
       </c>
       <c r="E385" s="4">
-        <v>0.10420603999247074</v>
+        <v>0.11255980974057808</v>
       </c>
       <c r="F385" s="4">
         <v>1</v>
@@ -36544,7 +36544,7 @@
         <v>2022</v>
       </c>
       <c r="E386" s="3">
-        <v>0.11132675841774924</v>
+        <v>0.10090008416061882</v>
       </c>
       <c r="F386" s="3">
         <v>1</v>
@@ -36597,7 +36597,7 @@
         <v>2022</v>
       </c>
       <c r="E387" s="4">
-        <v>0.1015976002654105</v>
+        <v>0.1111795908924077</v>
       </c>
       <c r="F387" s="4">
         <v>1</v>
@@ -36650,7 +36650,7 @@
         <v>2022</v>
       </c>
       <c r="E388" s="3">
-        <v>0.11243953168649698</v>
+        <v>0.11384197057678677</v>
       </c>
       <c r="F388" s="3">
         <v>1</v>
@@ -36703,7 +36703,7 @@
         <v>2022</v>
       </c>
       <c r="E389" s="4">
-        <v>0.11265722369334792</v>
+        <v>0.11708432556344184</v>
       </c>
       <c r="F389" s="4">
         <v>1</v>
@@ -36756,7 +36756,7 @@
         <v>2022</v>
       </c>
       <c r="E390" s="3">
-        <v>0.11048465102438351</v>
+        <v>0.1015976002654105</v>
       </c>
       <c r="F390" s="3">
         <v>1</v>
@@ -36809,7 +36809,7 @@
         <v>2022</v>
       </c>
       <c r="E391" s="4">
-        <v>0.10260861218184329</v>
+        <v>0.11265722369334792</v>
       </c>
       <c r="F391" s="4">
         <v>1</v>
@@ -36862,7 +36862,7 @@
         <v>2022</v>
       </c>
       <c r="E392" s="3">
-        <v>0.10585966196758853</v>
+        <v>0.106881944919879</v>
       </c>
       <c r="F392" s="3">
         <v>1</v>
@@ -36915,7 +36915,7 @@
         <v>2022</v>
       </c>
       <c r="E393" s="4">
-        <v>0.1053582618867203</v>
+        <v>0.112250983358078</v>
       </c>
       <c r="F393" s="4">
         <v>1</v>
@@ -36968,7 +36968,7 @@
         <v>2022</v>
       </c>
       <c r="E394" s="3">
-        <v>0.10127750284705274</v>
+        <v>0.10762824850845455</v>
       </c>
       <c r="F394" s="3">
         <v>1</v>
@@ -37021,7 +37021,7 @@
         <v>2022</v>
       </c>
       <c r="E395" s="4">
-        <v>0.10382330781770392</v>
+        <v>0.10652175481682753</v>
       </c>
       <c r="F395" s="4">
         <v>1</v>
@@ -37074,7 +37074,7 @@
         <v>2022</v>
       </c>
       <c r="E396" s="3">
-        <v>0.10352156608631437</v>
+        <v>0.10585966196758853</v>
       </c>
       <c r="F396" s="3">
         <v>1</v>
@@ -37127,7 +37127,7 @@
         <v>2022</v>
       </c>
       <c r="E397" s="4">
-        <v>0.11384197057678677</v>
+        <v>0.10724052487495081</v>
       </c>
       <c r="F397" s="4">
         <v>1</v>
@@ -37180,7 +37180,7 @@
         <v>2022</v>
       </c>
       <c r="E398" s="3">
-        <v>0.1111795908924077</v>
+        <v>0.11048465102438351</v>
       </c>
       <c r="F398" s="3">
         <v>1</v>
@@ -37233,7 +37233,7 @@
         <v>2022</v>
       </c>
       <c r="E399" s="4">
-        <v>0.10930731082165113</v>
+        <v>0.10260861218184329</v>
       </c>
       <c r="F399" s="4">
         <v>1</v>
@@ -37286,7 +37286,7 @@
         <v>2022</v>
       </c>
       <c r="E400" s="3">
-        <v>0.112250983358078</v>
+        <v>0.10352156608631437</v>
       </c>
       <c r="F400" s="3">
         <v>1</v>
@@ -37339,7 +37339,7 @@
         <v>2022</v>
       </c>
       <c r="E401" s="4">
-        <v>0.11326730876284366</v>
+        <v>0.10127750284705274</v>
       </c>
       <c r="F401" s="4">
         <v>1</v>
@@ -37392,7 +37392,7 @@
         <v>2022</v>
       </c>
       <c r="E402" s="3">
-        <v>0.10603516809737222</v>
+        <v>0.10382330781770392</v>
       </c>
       <c r="F402" s="3">
         <v>1</v>
@@ -37445,7 +37445,7 @@
         <v>2022</v>
       </c>
       <c r="E403" s="4">
-        <v>0.11350287341226893</v>
+        <v>0.10717740707414788</v>
       </c>
       <c r="F403" s="4">
         <v>1</v>
@@ -37454,7 +37454,7 @@
         <v>1138.5</v>
       </c>
       <c r="H403" s="4">
-        <v>18.149999999999999</v>
+        <v>18.150000000000002</v>
       </c>
       <c r="I403" s="4">
         <v>0</v>
@@ -37498,7 +37498,7 @@
         <v>2022</v>
       </c>
       <c r="E404" s="3">
-        <v>0.11708432556344184</v>
+        <v>0.11132675841774924</v>
       </c>
       <c r="F404" s="3">
         <v>1</v>
@@ -37551,7 +37551,7 @@
         <v>2022</v>
       </c>
       <c r="E405" s="4">
-        <v>0.10717740707414788</v>
+        <v>0.10351496447959772</v>
       </c>
       <c r="F405" s="4">
         <v>1</v>
@@ -37604,7 +37604,7 @@
         <v>2022</v>
       </c>
       <c r="E406" s="3">
-        <v>0.11050268468175577</v>
+        <v>0.1053582618867203</v>
       </c>
       <c r="F406" s="3">
         <v>1</v>
@@ -37657,7 +37657,7 @@
         <v>2022</v>
       </c>
       <c r="E407" s="4">
-        <v>0.10762824850845455</v>
+        <v>0.10603516809737222</v>
       </c>
       <c r="F407" s="4">
         <v>1</v>
@@ -37710,7 +37710,7 @@
         <v>2022</v>
       </c>
       <c r="E408" s="3">
-        <v>0.10652175481682753</v>
+        <v>0.11350287341226893</v>
       </c>
       <c r="F408" s="3">
         <v>1</v>
@@ -37719,7 +37719,7 @@
         <v>1138.5</v>
       </c>
       <c r="H408" s="3">
-        <v>18.150000000000002</v>
+        <v>18.149999999999999</v>
       </c>
       <c r="I408" s="3">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>509</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>541</v>
+        <v>516</v>
       </c>
       <c r="D417" s="4">
         <v>2011</v>
@@ -38234,7 +38234,7 @@
         <v>509</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>541</v>
+        <v>516</v>
       </c>
       <c r="D418" s="3">
         <v>2015</v>
@@ -39082,7 +39082,7 @@
         <v>509</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="D434" s="3">
         <v>2015</v>
@@ -39347,7 +39347,7 @@
         <v>509</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="D439" s="4">
         <v>2009</v>
@@ -39400,7 +39400,7 @@
         <v>509</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="D440" s="3">
         <v>2012</v>
@@ -39453,7 +39453,7 @@
         <v>509</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="D441" s="4">
         <v>2015</v>
@@ -39877,7 +39877,7 @@
         <v>509</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="D449" s="4">
         <v>2015</v>
@@ -40831,7 +40831,7 @@
         <v>509</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="D467" s="4">
         <v>2015</v>
@@ -41785,7 +41785,7 @@
         <v>509</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="D485" s="4">
         <v>2015</v>
@@ -42527,7 +42527,7 @@
         <v>509</v>
       </c>
       <c r="C499" s="4" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D499" s="4">
         <v>2010</v>
@@ -42580,7 +42580,7 @@
         <v>509</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D500" s="3">
         <v>2015</v>
@@ -42633,7 +42633,7 @@
         <v>509</v>
       </c>
       <c r="C501" s="4" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="D501" s="4">
         <v>2015</v>
@@ -42898,7 +42898,7 @@
         <v>509</v>
       </c>
       <c r="C506" s="3" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="D506" s="3">
         <v>2011</v>
@@ -42951,7 +42951,7 @@
         <v>509</v>
       </c>
       <c r="C507" s="4" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="D507" s="4">
         <v>2015</v>
@@ -43481,7 +43481,7 @@
         <v>509</v>
       </c>
       <c r="C517" s="4" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="D517" s="4">
         <v>2015</v>
@@ -44488,7 +44488,7 @@
         <v>509</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="D536" s="3">
         <v>2010</v>
@@ -44541,7 +44541,7 @@
         <v>509</v>
       </c>
       <c r="C537" s="4" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="D537" s="4">
         <v>2011</v>
@@ -44594,7 +44594,7 @@
         <v>509</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="D538" s="3">
         <v>2015</v>
@@ -44647,7 +44647,7 @@
         <v>509</v>
       </c>
       <c r="C539" s="4" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="D539" s="4">
         <v>2023</v>
@@ -45389,7 +45389,7 @@
         <v>509</v>
       </c>
       <c r="C553" s="4" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="D553" s="4">
         <v>2011</v>
@@ -45442,7 +45442,7 @@
         <v>509</v>
       </c>
       <c r="C554" s="3" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="D554" s="3">
         <v>2015</v>
@@ -45495,7 +45495,7 @@
         <v>509</v>
       </c>
       <c r="C555" s="4" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="D555" s="4">
         <v>2024</v>
@@ -45548,7 +45548,7 @@
         <v>509</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="D556" s="3">
         <v>2025</v>
@@ -45601,7 +45601,7 @@
         <v>509</v>
       </c>
       <c r="C557" s="4" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="D557" s="4">
         <v>2011</v>
@@ -45654,7 +45654,7 @@
         <v>509</v>
       </c>
       <c r="C558" s="3" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="D558" s="3">
         <v>2015</v>
@@ -45707,7 +45707,7 @@
         <v>509</v>
       </c>
       <c r="C559" s="4" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="D559" s="4">
         <v>2024</v>
@@ -45760,7 +45760,7 @@
         <v>509</v>
       </c>
       <c r="C560" s="3" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="D560" s="3">
         <v>2025</v>
@@ -46184,7 +46184,7 @@
         <v>509</v>
       </c>
       <c r="C568" s="3" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="D568" s="3">
         <v>2015</v>
@@ -46661,7 +46661,7 @@
         <v>509</v>
       </c>
       <c r="C577" s="4" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D577" s="4">
         <v>2011</v>
@@ -46714,7 +46714,7 @@
         <v>509</v>
       </c>
       <c r="C578" s="3" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D578" s="3">
         <v>2015</v>
@@ -46767,7 +46767,7 @@
         <v>509</v>
       </c>
       <c r="C579" s="4" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D579" s="4">
         <v>2024</v>
@@ -47191,7 +47191,7 @@
         <v>509</v>
       </c>
       <c r="C587" s="4" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="D587" s="4">
         <v>2011</v>
@@ -47244,7 +47244,7 @@
         <v>509</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="D588" s="3">
         <v>2015</v>
@@ -47297,7 +47297,7 @@
         <v>509</v>
       </c>
       <c r="C589" s="4" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="D589" s="4">
         <v>2025</v>
@@ -48092,7 +48092,7 @@
         <v>509</v>
       </c>
       <c r="C604" s="3" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D604" s="3">
         <v>2015</v>
@@ -51537,7 +51537,7 @@
         <v>509</v>
       </c>
       <c r="C669" s="4" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="D669" s="4">
         <v>2011</v>
@@ -52165,7 +52165,7 @@
         <v>509</v>
       </c>
       <c r="C686" s="3" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D686" s="3">
         <v>2012</v>
@@ -52197,7 +52197,7 @@
         <v>509</v>
       </c>
       <c r="C687" s="4" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D687" s="4">
         <v>2015</v>
@@ -52229,7 +52229,7 @@
         <v>509</v>
       </c>
       <c r="C688" s="3" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D688" s="3">
         <v>2022</v>
@@ -52261,7 +52261,7 @@
         <v>509</v>
       </c>
       <c r="C689" s="4" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="D689" s="4">
         <v>2011</v>
@@ -52293,7 +52293,7 @@
         <v>509</v>
       </c>
       <c r="C690" s="3" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="D690" s="3">
         <v>2023</v>
@@ -53861,7 +53861,7 @@
         <v>509</v>
       </c>
       <c r="C739" s="4" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="D739" s="4">
         <v>2011</v>
@@ -53893,7 +53893,7 @@
         <v>509</v>
       </c>
       <c r="C740" s="3" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="D740" s="3">
         <v>2012</v>
@@ -53925,7 +53925,7 @@
         <v>509</v>
       </c>
       <c r="C741" s="4" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="D741" s="4">
         <v>2028</v>
@@ -54789,7 +54789,7 @@
         <v>509</v>
       </c>
       <c r="C768" s="3" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="D768" s="3">
         <v>2009</v>
@@ -54821,7 +54821,7 @@
         <v>509</v>
       </c>
       <c r="C769" s="4" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="D769" s="4">
         <v>2012</v>
@@ -54853,7 +54853,7 @@
         <v>509</v>
       </c>
       <c r="C770" s="3" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="D770" s="3">
         <v>2015</v>
@@ -54949,7 +54949,7 @@
         <v>509</v>
       </c>
       <c r="C773" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D773" s="4">
         <v>2013</v>
@@ -54981,7 +54981,7 @@
         <v>509</v>
       </c>
       <c r="C774" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D774" s="3">
         <v>2015</v>
@@ -55077,7 +55077,7 @@
         <v>509</v>
       </c>
       <c r="C777" s="4" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D777" s="4">
         <v>2010</v>
@@ -55109,7 +55109,7 @@
         <v>509</v>
       </c>
       <c r="C778" s="3" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D778" s="3">
         <v>2011</v>
@@ -55141,7 +55141,7 @@
         <v>509</v>
       </c>
       <c r="C779" s="4" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D779" s="4">
         <v>2015</v>
@@ -55173,7 +55173,7 @@
         <v>509</v>
       </c>
       <c r="C780" s="3" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="D780" s="3">
         <v>2010</v>
@@ -55205,7 +55205,7 @@
         <v>509</v>
       </c>
       <c r="C781" s="4" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="D781" s="4">
         <v>2011</v>
@@ -55269,7 +55269,7 @@
         <v>509</v>
       </c>
       <c r="C783" s="4" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="D783" s="4">
         <v>2028</v>
@@ -55301,7 +55301,7 @@
         <v>509</v>
       </c>
       <c r="C784" s="3" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="D784" s="3">
         <v>2028</v>
@@ -55333,7 +55333,7 @@
         <v>509</v>
       </c>
       <c r="C785" s="4" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="D785" s="4">
         <v>2025</v>
@@ -55365,7 +55365,7 @@
         <v>509</v>
       </c>
       <c r="C786" s="3" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="D786" s="3">
         <v>2025</v>
@@ -55397,7 +55397,7 @@
         <v>509</v>
       </c>
       <c r="C787" s="4" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="D787" s="4">
         <v>2028</v>
@@ -55493,7 +55493,7 @@
         <v>509</v>
       </c>
       <c r="C790" s="3" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D790" s="3">
         <v>2028</v>
@@ -66149,7 +66149,7 @@
         <v>938</v>
       </c>
       <c r="C1123" s="4" t="s">
-        <v>977</v>
+        <v>965</v>
       </c>
       <c r="D1123" s="4">
         <v>2011</v>
@@ -66181,7 +66181,7 @@
         <v>938</v>
       </c>
       <c r="C1124" s="3" t="s">
-        <v>955</v>
+        <v>963</v>
       </c>
       <c r="D1124" s="3">
         <v>2011</v>
@@ -66213,7 +66213,7 @@
         <v>938</v>
       </c>
       <c r="C1125" s="4" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="D1125" s="4">
         <v>2011</v>
@@ -66245,7 +66245,7 @@
         <v>938</v>
       </c>
       <c r="C1126" s="3" t="s">
-        <v>965</v>
+        <v>977</v>
       </c>
       <c r="D1126" s="3">
         <v>2011</v>

--- a/VerveStacks_ITA_grids/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA_grids/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9895F55D-19CF-4CA3-94F5-2852548B6BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D73F5F23-C756-4967-8041-5EB941E122A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{32C0C483-157F-491C-AE91-17566E736158}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B4591238-C3B8-410E-B066-E269080BAC1E}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -81,27 +81,27 @@
     <t>e_IT67-220</t>
   </si>
   <si>
+    <t>e_w377588191-220</t>
+  </si>
+  <si>
+    <t>e_w105141350-220</t>
+  </si>
+  <si>
+    <t>e_w144006711-220</t>
+  </si>
+  <si>
+    <t>e_w81938081-380</t>
+  </si>
+  <si>
+    <t>e_w116692433-220</t>
+  </si>
+  <si>
     <t>e_w109756016-380</t>
   </si>
   <si>
-    <t>e_w377588191-220</t>
-  </si>
-  <si>
-    <t>e_w105141350-220</t>
-  </si>
-  <si>
-    <t>e_w144006711-220</t>
-  </si>
-  <si>
     <t>e_IT135-220</t>
   </si>
   <si>
-    <t>e_w116692433-220</t>
-  </si>
-  <si>
-    <t>e_w81938081-380</t>
-  </si>
-  <si>
     <t>ep_bioenergy_IT135-220</t>
   </si>
   <si>
@@ -945,21 +945,21 @@
     <t>hydro</t>
   </si>
   <si>
+    <t>e_w409768426-220</t>
+  </si>
+  <si>
+    <t>e_IT13-380</t>
+  </si>
+  <si>
     <t>e_w104359058-380</t>
   </si>
   <si>
-    <t>e_w409768426-220</t>
+    <t>e_w64200868-380</t>
   </si>
   <si>
     <t>e_w419423704-380</t>
   </si>
   <si>
-    <t>e_IT13-380</t>
-  </si>
-  <si>
-    <t>e_w64200868-380</t>
-  </si>
-  <si>
     <t>ep_hydro_dam_G100000602237</t>
   </si>
   <si>
@@ -1569,108 +1569,108 @@
     <t>solar</t>
   </si>
   <si>
+    <t>elc_spv-ITA_0030</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0168</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0024</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0213</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0112</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0069</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0215</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0029</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0100</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0101</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0216</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0023</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0092</t>
+  </si>
+  <si>
     <t>elc_spv-ITA_0205</t>
   </si>
   <si>
+    <t>elc_spv-ITA_0196</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0091</t>
+  </si>
+  <si>
     <t>elc_spv-ITA_0018</t>
   </si>
   <si>
+    <t>elc_spv-ITA_0068</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0167</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0116</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0105</t>
+  </si>
+  <si>
     <t>elc_spv-ITA_0157</t>
   </si>
   <si>
-    <t>elc_spv-ITA_0069</t>
+    <t>elc_spv-ITA_0019</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0007</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0042</t>
   </si>
   <si>
     <t>elc_spv-ITA_0124</t>
   </si>
   <si>
-    <t>elc_spv-ITA_0042</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0007</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0019</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0029</t>
-  </si>
-  <si>
     <t>elc_spv-ITA_0077</t>
   </si>
   <si>
+    <t>elc_spv-ITA_0073</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0058</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0211</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0115</t>
+  </si>
+  <si>
     <t>elc_spv-ITA_0080</t>
   </si>
   <si>
-    <t>elc_spv-ITA_0215</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0115</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0030</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0211</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0112</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0068</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0168</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0196</t>
-  </si>
-  <si>
     <t>elc_spv-ITA_0081</t>
   </si>
   <si>
     <t>elc_spv-ITA_0186</t>
   </si>
   <si>
-    <t>elc_spv-ITA_0167</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0023</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0216</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0101</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0100</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0105</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0024</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0213</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0091</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0092</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0116</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0073</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0058</t>
-  </si>
-  <si>
     <t>ep_solar_pv_000</t>
   </si>
   <si>
@@ -3426,39 +3426,39 @@
     <t>ele</t>
   </si>
   <si>
+    <t>Aggregated Plant - EMBER Gap - way/109756016-380_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>TWh</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/144006711-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/116692433-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - IT67-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/81938081-380_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - EMBER Gap - IT135-220_Missing Bioenergy Capacity</t>
   </si>
   <si>
-    <t>GW</t>
-  </si>
-  <si>
-    <t>TWh</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/109756016-380_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/144006711-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/81938081-380_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - IT67-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - EMBER Gap - way/377588191-220_Missing Bioenergy Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - EMBER Gap - way/116692433-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - EMBER Gap - way/105141350-220_Missing Bioenergy Capacity</t>
   </si>
   <si>
@@ -3849,21 +3849,21 @@
     <t>Taranto CHP power station_CET2-1</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - IT13-380_Missing Hydro Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - way/64200868-380_Missing Hydro Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - way/409768426-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - way/104359058-380_Missing Hydro Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - way/419423704-380_Missing Hydro Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - way/104359058-380_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - way/409768426-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - IT13-380_Missing Hydro Capacity</t>
-  </si>
-  <si>
     <t>Lana hydroelectric plant_</t>
   </si>
   <si>
@@ -4014,109 +4014,109 @@
     <t>San Filippo del Mela power station_1</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_19_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>annual</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_115_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_216_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_29_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_69_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_101_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_80_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_68_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_196_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_42_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_24_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_124_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_112_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_168_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_167_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_18_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_116_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_215_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_77_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_211_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_92_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_58_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_105_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_30_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_73_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - ITA_7_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>annual</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_30_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_73_Missing Solar Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - ITA_23_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_100_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_205_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_91_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_186_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_157_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_81_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - ITA_213_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_157_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_18_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_105_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_92_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_211_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_58_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_116_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_81_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_167_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_112_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_168_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_115_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_124_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_29_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_19_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_216_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_42_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_24_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_186_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_91_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_77_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_215_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_23_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_68_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_196_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_101_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_69_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_80_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_205_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_100_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Tuscania solar farm_--</t>
@@ -5242,7 +5242,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{634BE889-EEB4-C0E5-4333-7F879DF4DB1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BC3B1A0-4F2A-6CBA-E1DF-82BD6C62645E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5297,7 +5297,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F2367E3-DBEA-8825-96E6-F248EE3ECC8E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D938A87E-4ACB-AAEC-AAF3-A77FD37C3A7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5648,7 +5648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711DFD1E-7F14-4D42-829A-CFF1051BE082}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CE5F14-9AC2-4053-971E-47B7584BAD67}">
   <dimension ref="A1:U192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -9908,7 +9908,7 @@
         <v>45</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D78" s="3">
         <v>0.49118125000000001</v>
@@ -9964,7 +9964,7 @@
         <v>45</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D79" s="4">
         <v>0.49118125000000001</v>
@@ -15004,7 +15004,7 @@
         <v>45</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D169" s="4">
         <v>0.28839999999999999</v>
@@ -15060,7 +15060,7 @@
         <v>45</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D170" s="3">
         <v>0.28839999999999999</v>
@@ -15116,7 +15116,7 @@
         <v>45</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D171" s="4">
         <v>0.28839999999999999</v>
@@ -16182,7 +16182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C15E84-226F-4B1A-82AC-EB56B26D7FDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B8D03D-BBDB-448F-A516-127C111C1288}">
   <dimension ref="A1:T1127"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16351,7 +16351,7 @@
         <v>2022</v>
       </c>
       <c r="E5" s="4">
-        <v>0.47467651403249633</v>
+        <v>0.90807680945347113</v>
       </c>
       <c r="F5" s="4">
         <v>0.36049999999999999</v>
@@ -16404,13 +16404,13 @@
         <v>2022</v>
       </c>
       <c r="E6" s="3">
-        <v>0.90807680945347113</v>
+        <v>0.33536927621861151</v>
       </c>
       <c r="F6" s="3">
         <v>0.36049999999999999</v>
       </c>
       <c r="G6" s="3">
-        <v>3850.0000000000005</v>
+        <v>3850</v>
       </c>
       <c r="H6" s="3">
         <v>143</v>
@@ -16457,19 +16457,19 @@
         <v>2022</v>
       </c>
       <c r="E7" s="4">
-        <v>0.33536927621861151</v>
+        <v>0.19090251107828654</v>
       </c>
       <c r="F7" s="4">
-        <v>0.36049999999999999</v>
+        <v>0.33990000000000004</v>
       </c>
       <c r="G7" s="4">
-        <v>3850</v>
+        <v>4427.5</v>
       </c>
       <c r="H7" s="4">
-        <v>143</v>
+        <v>157.30000000000001</v>
       </c>
       <c r="I7" s="4">
-        <v>8.4</v>
+        <v>9.240000000000002</v>
       </c>
       <c r="J7" s="4">
         <v>50</v>
@@ -16510,19 +16510,19 @@
         <v>2022</v>
       </c>
       <c r="E8" s="3">
-        <v>0.19090251107828654</v>
+        <v>0.41792171344165435</v>
       </c>
       <c r="F8" s="3">
-        <v>0.33990000000000004</v>
+        <v>0.36049999999999999</v>
       </c>
       <c r="G8" s="3">
-        <v>4427.5</v>
+        <v>3850.0000000000005</v>
       </c>
       <c r="H8" s="3">
-        <v>157.30000000000001</v>
+        <v>143</v>
       </c>
       <c r="I8" s="3">
-        <v>9.240000000000002</v>
+        <v>8.4</v>
       </c>
       <c r="J8" s="3">
         <v>50</v>
@@ -16563,13 +16563,13 @@
         <v>2022</v>
       </c>
       <c r="E9" s="4">
-        <v>0.42308124076809456</v>
+        <v>0.43855982274741512</v>
       </c>
       <c r="F9" s="4">
         <v>0.36049999999999999</v>
       </c>
       <c r="G9" s="4">
-        <v>3850.0000000000005</v>
+        <v>3850</v>
       </c>
       <c r="H9" s="4">
         <v>143</v>
@@ -16616,13 +16616,13 @@
         <v>2022</v>
       </c>
       <c r="E10" s="3">
-        <v>0.43855982274741512</v>
+        <v>0.47467651403249633</v>
       </c>
       <c r="F10" s="3">
         <v>0.36049999999999999</v>
       </c>
       <c r="G10" s="3">
-        <v>3850</v>
+        <v>3850.0000000000005</v>
       </c>
       <c r="H10" s="3">
         <v>143</v>
@@ -16669,7 +16669,7 @@
         <v>2022</v>
       </c>
       <c r="E11" s="4">
-        <v>0.41792171344165435</v>
+        <v>0.42308124076809456</v>
       </c>
       <c r="F11" s="4">
         <v>0.36049999999999999</v>
@@ -16716,7 +16716,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D12" s="3">
         <v>1965</v>
@@ -16822,7 +16822,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="3">
         <v>2013</v>
@@ -16875,7 +16875,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D15" s="4">
         <v>2003</v>
@@ -16928,7 +16928,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="3">
         <v>1998</v>
@@ -16981,7 +16981,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="4">
         <v>2009</v>
@@ -17034,7 +17034,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="3">
         <v>2008</v>
@@ -17087,7 +17087,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="4">
         <v>2009</v>
@@ -17140,7 +17140,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D20" s="3">
         <v>2008</v>
@@ -17193,7 +17193,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D21" s="4">
         <v>2018</v>
@@ -21168,7 +21168,7 @@
         <v>45</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D96" s="3">
         <v>2010</v>
@@ -21221,7 +21221,7 @@
         <v>45</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D97" s="4">
         <v>2010</v>
@@ -25991,7 +25991,7 @@
         <v>45</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D187" s="4">
         <v>1978</v>
@@ -26044,7 +26044,7 @@
         <v>45</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D188" s="3">
         <v>1981</v>
@@ -26097,7 +26097,7 @@
         <v>45</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D189" s="4">
         <v>1987</v>
@@ -27693,19 +27693,19 @@
         <v>2022</v>
       </c>
       <c r="E219" s="4">
-        <v>0.55308012203143864</v>
+        <v>0.10604292333736391</v>
       </c>
       <c r="F219" s="4">
         <v>1</v>
       </c>
       <c r="G219" s="4">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H219" s="4">
-        <v>55.000000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I219" s="4">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J219" s="4">
         <v>100</v>
@@ -27746,7 +27746,7 @@
         <v>2022</v>
       </c>
       <c r="E220" s="3">
-        <v>0.10604292333736391</v>
+        <v>0.11046137847642074</v>
       </c>
       <c r="F220" s="3">
         <v>1</v>
@@ -27799,19 +27799,19 @@
         <v>2022</v>
       </c>
       <c r="E221" s="4">
-        <v>0.10880445779927443</v>
+        <v>0.55308012203143864</v>
       </c>
       <c r="F221" s="4">
         <v>1</v>
       </c>
       <c r="G221" s="4">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H221" s="4">
-        <v>60.500000000000014</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="I221" s="4">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J221" s="4">
         <v>100</v>
@@ -27852,7 +27852,7 @@
         <v>2022</v>
       </c>
       <c r="E222" s="3">
-        <v>0.11046137847642074</v>
+        <v>0.11156599226118494</v>
       </c>
       <c r="F222" s="3">
         <v>1</v>
@@ -27861,7 +27861,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H222" s="3">
-        <v>60.500000000000014</v>
+        <v>60.500000000000021</v>
       </c>
       <c r="I222" s="3">
         <v>2.3100000000000005</v>
@@ -27905,7 +27905,7 @@
         <v>2022</v>
       </c>
       <c r="E223" s="4">
-        <v>0.11156599226118494</v>
+        <v>0.10880445779927443</v>
       </c>
       <c r="F223" s="4">
         <v>1</v>
@@ -27914,7 +27914,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H223" s="4">
-        <v>60.500000000000021</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I223" s="4">
         <v>2.3100000000000005</v>
@@ -28429,7 +28429,7 @@
         <v>301</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D233" s="4">
         <v>2022</v>
@@ -31662,7 +31662,7 @@
         <v>301</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D294" s="3">
         <v>1928</v>
@@ -32351,7 +32351,7 @@
         <v>427</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D307" s="4">
         <v>2015</v>
@@ -32404,7 +32404,7 @@
         <v>427</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D308" s="3">
         <v>2015</v>
@@ -32457,7 +32457,7 @@
         <v>427</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D309" s="4">
         <v>1982</v>
@@ -32669,7 +32669,7 @@
         <v>427</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D313" s="4">
         <v>1991</v>
@@ -32828,7 +32828,7 @@
         <v>427</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D316" s="3">
         <v>1971</v>
@@ -33040,7 +33040,7 @@
         <v>427</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D320" s="3">
         <v>1978</v>
@@ -34047,7 +34047,7 @@
         <v>301</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D339" s="4">
         <v>2015</v>
@@ -34418,7 +34418,7 @@
         <v>301</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D346" s="3">
         <v>2015</v>
@@ -35961,7 +35961,7 @@
         <v>2022</v>
       </c>
       <c r="E375" s="4">
-        <v>0.10954770591501538</v>
+        <v>0.11384197057678677</v>
       </c>
       <c r="F375" s="4">
         <v>1</v>
@@ -36014,7 +36014,7 @@
         <v>2022</v>
       </c>
       <c r="E376" s="3">
-        <v>0.10420603999247074</v>
+        <v>0.106881944919879</v>
       </c>
       <c r="F376" s="3">
         <v>1</v>
@@ -36067,7 +36067,7 @@
         <v>2022</v>
       </c>
       <c r="E377" s="4">
-        <v>0.10214633869688095</v>
+        <v>0.10382330781770392</v>
       </c>
       <c r="F377" s="4">
         <v>1</v>
@@ -36120,7 +36120,7 @@
         <v>2022</v>
       </c>
       <c r="E378" s="3">
-        <v>0.11243953168649698</v>
+        <v>0.10717740707414788</v>
       </c>
       <c r="F378" s="3">
         <v>1</v>
@@ -36173,7 +36173,7 @@
         <v>2022</v>
       </c>
       <c r="E379" s="4">
-        <v>0.10281889750798776</v>
+        <v>0.1015976002654105</v>
       </c>
       <c r="F379" s="4">
         <v>1</v>
@@ -36226,7 +36226,7 @@
         <v>2022</v>
       </c>
       <c r="E380" s="3">
-        <v>0.11326730876284366</v>
+        <v>0.11243953168649698</v>
       </c>
       <c r="F380" s="3">
         <v>1</v>
@@ -36279,7 +36279,7 @@
         <v>2022</v>
       </c>
       <c r="E381" s="4">
-        <v>0.11050268468175577</v>
+        <v>0.10090008416061882</v>
       </c>
       <c r="F381" s="4">
         <v>1</v>
@@ -36332,7 +36332,7 @@
         <v>2022</v>
       </c>
       <c r="E382" s="3">
-        <v>0.10930731082165113</v>
+        <v>0.10772034897289151</v>
       </c>
       <c r="F382" s="3">
         <v>1</v>
@@ -36385,7 +36385,7 @@
         <v>2022</v>
       </c>
       <c r="E383" s="4">
-        <v>0.10772034897289151</v>
+        <v>0.10352156608631437</v>
       </c>
       <c r="F383" s="4">
         <v>1</v>
@@ -36438,7 +36438,7 @@
         <v>2022</v>
       </c>
       <c r="E384" s="3">
-        <v>0.10128313836498157</v>
+        <v>0.10260861218184329</v>
       </c>
       <c r="F384" s="3">
         <v>1</v>
@@ -36491,7 +36491,7 @@
         <v>2022</v>
       </c>
       <c r="E385" s="4">
-        <v>0.11255980974057808</v>
+        <v>0.11048465102438351</v>
       </c>
       <c r="F385" s="4">
         <v>1</v>
@@ -36544,7 +36544,7 @@
         <v>2022</v>
       </c>
       <c r="E386" s="3">
-        <v>0.10090008416061882</v>
+        <v>0.10724052487495081</v>
       </c>
       <c r="F386" s="3">
         <v>1</v>
@@ -36597,7 +36597,7 @@
         <v>2022</v>
       </c>
       <c r="E387" s="4">
-        <v>0.1111795908924077</v>
+        <v>0.10351496447959772</v>
       </c>
       <c r="F387" s="4">
         <v>1</v>
@@ -36650,7 +36650,7 @@
         <v>2022</v>
       </c>
       <c r="E388" s="3">
-        <v>0.11384197057678677</v>
+        <v>0.10954770591501538</v>
       </c>
       <c r="F388" s="3">
         <v>1</v>
@@ -36703,7 +36703,7 @@
         <v>2022</v>
       </c>
       <c r="E389" s="4">
-        <v>0.11708432556344184</v>
+        <v>0.112250983358078</v>
       </c>
       <c r="F389" s="4">
         <v>1</v>
@@ -36756,7 +36756,7 @@
         <v>2022</v>
       </c>
       <c r="E390" s="3">
-        <v>0.1015976002654105</v>
+        <v>0.11132675841774924</v>
       </c>
       <c r="F390" s="3">
         <v>1</v>
@@ -36809,7 +36809,7 @@
         <v>2022</v>
       </c>
       <c r="E391" s="4">
-        <v>0.11265722369334792</v>
+        <v>0.10420603999247074</v>
       </c>
       <c r="F391" s="4">
         <v>1</v>
@@ -36862,7 +36862,7 @@
         <v>2022</v>
       </c>
       <c r="E392" s="3">
-        <v>0.106881944919879</v>
+        <v>0.11265722369334792</v>
       </c>
       <c r="F392" s="3">
         <v>1</v>
@@ -36915,7 +36915,7 @@
         <v>2022</v>
       </c>
       <c r="E393" s="4">
-        <v>0.112250983358078</v>
+        <v>0.10585966196758853</v>
       </c>
       <c r="F393" s="4">
         <v>1</v>
@@ -36968,7 +36968,7 @@
         <v>2022</v>
       </c>
       <c r="E394" s="3">
-        <v>0.10762824850845455</v>
+        <v>0.1053582618867203</v>
       </c>
       <c r="F394" s="3">
         <v>1</v>
@@ -37021,7 +37021,7 @@
         <v>2022</v>
       </c>
       <c r="E395" s="4">
-        <v>0.10652175481682753</v>
+        <v>0.10127750284705274</v>
       </c>
       <c r="F395" s="4">
         <v>1</v>
@@ -37074,7 +37074,7 @@
         <v>2022</v>
       </c>
       <c r="E396" s="3">
-        <v>0.10585966196758853</v>
+        <v>0.10214633869688095</v>
       </c>
       <c r="F396" s="3">
         <v>1</v>
@@ -37127,7 +37127,7 @@
         <v>2022</v>
       </c>
       <c r="E397" s="4">
-        <v>0.10724052487495081</v>
+        <v>0.10930731082165113</v>
       </c>
       <c r="F397" s="4">
         <v>1</v>
@@ -37180,7 +37180,7 @@
         <v>2022</v>
       </c>
       <c r="E398" s="3">
-        <v>0.11048465102438351</v>
+        <v>0.11050268468175577</v>
       </c>
       <c r="F398" s="3">
         <v>1</v>
@@ -37233,7 +37233,7 @@
         <v>2022</v>
       </c>
       <c r="E399" s="4">
-        <v>0.10260861218184329</v>
+        <v>0.11326730876284366</v>
       </c>
       <c r="F399" s="4">
         <v>1</v>
@@ -37286,7 +37286,7 @@
         <v>2022</v>
       </c>
       <c r="E400" s="3">
-        <v>0.10352156608631437</v>
+        <v>0.10281889750798776</v>
       </c>
       <c r="F400" s="3">
         <v>1</v>
@@ -37339,7 +37339,7 @@
         <v>2022</v>
       </c>
       <c r="E401" s="4">
-        <v>0.10127750284705274</v>
+        <v>0.10128313836498157</v>
       </c>
       <c r="F401" s="4">
         <v>1</v>
@@ -37392,7 +37392,7 @@
         <v>2022</v>
       </c>
       <c r="E402" s="3">
-        <v>0.10382330781770392</v>
+        <v>0.10603516809737222</v>
       </c>
       <c r="F402" s="3">
         <v>1</v>
@@ -37445,7 +37445,7 @@
         <v>2022</v>
       </c>
       <c r="E403" s="4">
-        <v>0.10717740707414788</v>
+        <v>0.11350287341226893</v>
       </c>
       <c r="F403" s="4">
         <v>1</v>
@@ -37454,7 +37454,7 @@
         <v>1138.5</v>
       </c>
       <c r="H403" s="4">
-        <v>18.150000000000002</v>
+        <v>18.149999999999999</v>
       </c>
       <c r="I403" s="4">
         <v>0</v>
@@ -37498,7 +37498,7 @@
         <v>2022</v>
       </c>
       <c r="E404" s="3">
-        <v>0.11132675841774924</v>
+        <v>0.11708432556344184</v>
       </c>
       <c r="F404" s="3">
         <v>1</v>
@@ -37551,7 +37551,7 @@
         <v>2022</v>
       </c>
       <c r="E405" s="4">
-        <v>0.10351496447959772</v>
+        <v>0.1111795908924077</v>
       </c>
       <c r="F405" s="4">
         <v>1</v>
@@ -37604,7 +37604,7 @@
         <v>2022</v>
       </c>
       <c r="E406" s="3">
-        <v>0.1053582618867203</v>
+        <v>0.11255980974057808</v>
       </c>
       <c r="F406" s="3">
         <v>1</v>
@@ -37657,7 +37657,7 @@
         <v>2022</v>
       </c>
       <c r="E407" s="4">
-        <v>0.10603516809737222</v>
+        <v>0.10762824850845455</v>
       </c>
       <c r="F407" s="4">
         <v>1</v>
@@ -37710,7 +37710,7 @@
         <v>2022</v>
       </c>
       <c r="E408" s="3">
-        <v>0.11350287341226893</v>
+        <v>0.10652175481682753</v>
       </c>
       <c r="F408" s="3">
         <v>1</v>
@@ -37719,7 +37719,7 @@
         <v>1138.5</v>
       </c>
       <c r="H408" s="3">
-        <v>18.149999999999999</v>
+        <v>18.150000000000002</v>
       </c>
       <c r="I408" s="3">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>509</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="D417" s="4">
         <v>2011</v>
@@ -38234,7 +38234,7 @@
         <v>509</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="D418" s="3">
         <v>2015</v>
@@ -39082,7 +39082,7 @@
         <v>509</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="D434" s="3">
         <v>2015</v>
@@ -39347,7 +39347,7 @@
         <v>509</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="D439" s="4">
         <v>2009</v>
@@ -39400,7 +39400,7 @@
         <v>509</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="D440" s="3">
         <v>2012</v>
@@ -39453,7 +39453,7 @@
         <v>509</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>537</v>
+        <v>512</v>
       </c>
       <c r="D441" s="4">
         <v>2015</v>
@@ -39877,7 +39877,7 @@
         <v>509</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D449" s="4">
         <v>2015</v>
@@ -40831,7 +40831,7 @@
         <v>509</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="D467" s="4">
         <v>2015</v>
@@ -41785,7 +41785,7 @@
         <v>509</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D485" s="4">
         <v>2015</v>
@@ -42527,7 +42527,7 @@
         <v>509</v>
       </c>
       <c r="C499" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D499" s="4">
         <v>2010</v>
@@ -42580,7 +42580,7 @@
         <v>509</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D500" s="3">
         <v>2015</v>
@@ -42633,7 +42633,7 @@
         <v>509</v>
       </c>
       <c r="C501" s="4" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D501" s="4">
         <v>2015</v>
@@ -42898,7 +42898,7 @@
         <v>509</v>
       </c>
       <c r="C506" s="3" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D506" s="3">
         <v>2011</v>
@@ -42951,7 +42951,7 @@
         <v>509</v>
       </c>
       <c r="C507" s="4" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D507" s="4">
         <v>2015</v>
@@ -43481,7 +43481,7 @@
         <v>509</v>
       </c>
       <c r="C517" s="4" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="D517" s="4">
         <v>2015</v>
@@ -44488,7 +44488,7 @@
         <v>509</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="D536" s="3">
         <v>2010</v>
@@ -44541,7 +44541,7 @@
         <v>509</v>
       </c>
       <c r="C537" s="4" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="D537" s="4">
         <v>2011</v>
@@ -44594,7 +44594,7 @@
         <v>509</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="D538" s="3">
         <v>2015</v>
@@ -44647,7 +44647,7 @@
         <v>509</v>
       </c>
       <c r="C539" s="4" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="D539" s="4">
         <v>2023</v>
@@ -45389,7 +45389,7 @@
         <v>509</v>
       </c>
       <c r="C553" s="4" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="D553" s="4">
         <v>2011</v>
@@ -45442,7 +45442,7 @@
         <v>509</v>
       </c>
       <c r="C554" s="3" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="D554" s="3">
         <v>2015</v>
@@ -45495,7 +45495,7 @@
         <v>509</v>
       </c>
       <c r="C555" s="4" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="D555" s="4">
         <v>2024</v>
@@ -45548,7 +45548,7 @@
         <v>509</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="D556" s="3">
         <v>2025</v>
@@ -45601,7 +45601,7 @@
         <v>509</v>
       </c>
       <c r="C557" s="4" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="D557" s="4">
         <v>2011</v>
@@ -45654,7 +45654,7 @@
         <v>509</v>
       </c>
       <c r="C558" s="3" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="D558" s="3">
         <v>2015</v>
@@ -45707,7 +45707,7 @@
         <v>509</v>
       </c>
       <c r="C559" s="4" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="D559" s="4">
         <v>2024</v>
@@ -45760,7 +45760,7 @@
         <v>509</v>
       </c>
       <c r="C560" s="3" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="D560" s="3">
         <v>2025</v>
@@ -46184,7 +46184,7 @@
         <v>509</v>
       </c>
       <c r="C568" s="3" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="D568" s="3">
         <v>2015</v>
@@ -46661,7 +46661,7 @@
         <v>509</v>
       </c>
       <c r="C577" s="4" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="D577" s="4">
         <v>2011</v>
@@ -46714,7 +46714,7 @@
         <v>509</v>
       </c>
       <c r="C578" s="3" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="D578" s="3">
         <v>2015</v>
@@ -46767,7 +46767,7 @@
         <v>509</v>
       </c>
       <c r="C579" s="4" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="D579" s="4">
         <v>2024</v>
@@ -47191,7 +47191,7 @@
         <v>509</v>
       </c>
       <c r="C587" s="4" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="D587" s="4">
         <v>2011</v>
@@ -47244,7 +47244,7 @@
         <v>509</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="D588" s="3">
         <v>2015</v>
@@ -47297,7 +47297,7 @@
         <v>509</v>
       </c>
       <c r="C589" s="4" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="D589" s="4">
         <v>2025</v>
@@ -48092,7 +48092,7 @@
         <v>509</v>
       </c>
       <c r="C604" s="3" t="s">
-        <v>514</v>
+        <v>535</v>
       </c>
       <c r="D604" s="3">
         <v>2015</v>
@@ -51537,7 +51537,7 @@
         <v>509</v>
       </c>
       <c r="C669" s="4" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
       <c r="D669" s="4">
         <v>2011</v>
@@ -52165,7 +52165,7 @@
         <v>509</v>
       </c>
       <c r="C686" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D686" s="3">
         <v>2012</v>
@@ -52197,7 +52197,7 @@
         <v>509</v>
       </c>
       <c r="C687" s="4" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D687" s="4">
         <v>2015</v>
@@ -52229,7 +52229,7 @@
         <v>509</v>
       </c>
       <c r="C688" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D688" s="3">
         <v>2022</v>
@@ -52261,7 +52261,7 @@
         <v>509</v>
       </c>
       <c r="C689" s="4" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="D689" s="4">
         <v>2011</v>
@@ -52293,7 +52293,7 @@
         <v>509</v>
       </c>
       <c r="C690" s="3" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="D690" s="3">
         <v>2023</v>
@@ -53861,7 +53861,7 @@
         <v>509</v>
       </c>
       <c r="C739" s="4" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D739" s="4">
         <v>2011</v>
@@ -53893,7 +53893,7 @@
         <v>509</v>
       </c>
       <c r="C740" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D740" s="3">
         <v>2012</v>
@@ -53925,7 +53925,7 @@
         <v>509</v>
       </c>
       <c r="C741" s="4" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D741" s="4">
         <v>2028</v>
@@ -54789,7 +54789,7 @@
         <v>509</v>
       </c>
       <c r="C768" s="3" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="D768" s="3">
         <v>2009</v>
@@ -54821,7 +54821,7 @@
         <v>509</v>
       </c>
       <c r="C769" s="4" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="D769" s="4">
         <v>2012</v>
@@ -54853,7 +54853,7 @@
         <v>509</v>
       </c>
       <c r="C770" s="3" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="D770" s="3">
         <v>2015</v>
@@ -54949,7 +54949,7 @@
         <v>509</v>
       </c>
       <c r="C773" s="4" t="s">
-        <v>538</v>
+        <v>513</v>
       </c>
       <c r="D773" s="4">
         <v>2013</v>
@@ -54981,7 +54981,7 @@
         <v>509</v>
       </c>
       <c r="C774" s="3" t="s">
-        <v>538</v>
+        <v>513</v>
       </c>
       <c r="D774" s="3">
         <v>2015</v>
@@ -55077,7 +55077,7 @@
         <v>509</v>
       </c>
       <c r="C777" s="4" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D777" s="4">
         <v>2010</v>
@@ -55109,7 +55109,7 @@
         <v>509</v>
       </c>
       <c r="C778" s="3" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D778" s="3">
         <v>2011</v>
@@ -55141,7 +55141,7 @@
         <v>509</v>
       </c>
       <c r="C779" s="4" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D779" s="4">
         <v>2015</v>
@@ -55173,7 +55173,7 @@
         <v>509</v>
       </c>
       <c r="C780" s="3" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="D780" s="3">
         <v>2010</v>
@@ -55205,7 +55205,7 @@
         <v>509</v>
       </c>
       <c r="C781" s="4" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="D781" s="4">
         <v>2011</v>
@@ -55269,7 +55269,7 @@
         <v>509</v>
       </c>
       <c r="C783" s="4" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="D783" s="4">
         <v>2028</v>
@@ -55301,7 +55301,7 @@
         <v>509</v>
       </c>
       <c r="C784" s="3" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="D784" s="3">
         <v>2028</v>
@@ -55333,7 +55333,7 @@
         <v>509</v>
       </c>
       <c r="C785" s="4" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="D785" s="4">
         <v>2025</v>
@@ -55365,7 +55365,7 @@
         <v>509</v>
       </c>
       <c r="C786" s="3" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="D786" s="3">
         <v>2025</v>
@@ -55397,7 +55397,7 @@
         <v>509</v>
       </c>
       <c r="C787" s="4" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D787" s="4">
         <v>2028</v>
@@ -55493,7 +55493,7 @@
         <v>509</v>
       </c>
       <c r="C790" s="3" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="D790" s="3">
         <v>2028</v>
@@ -66149,7 +66149,7 @@
         <v>938</v>
       </c>
       <c r="C1123" s="4" t="s">
-        <v>965</v>
+        <v>977</v>
       </c>
       <c r="D1123" s="4">
         <v>2011</v>
@@ -66181,7 +66181,7 @@
         <v>938</v>
       </c>
       <c r="C1124" s="3" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="D1124" s="3">
         <v>2011</v>
@@ -66213,7 +66213,7 @@
         <v>938</v>
       </c>
       <c r="C1125" s="4" t="s">
-        <v>955</v>
+        <v>963</v>
       </c>
       <c r="D1125" s="4">
         <v>2011</v>
@@ -66245,7 +66245,7 @@
         <v>938</v>
       </c>
       <c r="C1126" s="3" t="s">
-        <v>977</v>
+        <v>965</v>
       </c>
       <c r="D1126" s="3">
         <v>2011</v>

--- a/VerveStacks_ITA_grids/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA_grids/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D73F5F23-C756-4967-8041-5EB941E122A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F157125-36A8-4DE5-B05A-4EE71CD65A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B4591238-C3B8-410E-B066-E269080BAC1E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{942AD9E1-1ADF-4976-979F-841C601EFE8D}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -78,9 +78,15 @@
     <t>bioenergy</t>
   </si>
   <si>
+    <t>e_w81938081-380</t>
+  </si>
+  <si>
     <t>e_IT67-220</t>
   </si>
   <si>
+    <t>e_w109756016-380</t>
+  </si>
+  <si>
     <t>e_w377588191-220</t>
   </si>
   <si>
@@ -90,18 +96,12 @@
     <t>e_w144006711-220</t>
   </si>
   <si>
-    <t>e_w81938081-380</t>
+    <t>e_IT135-220</t>
   </si>
   <si>
     <t>e_w116692433-220</t>
   </si>
   <si>
-    <t>e_w109756016-380</t>
-  </si>
-  <si>
-    <t>e_IT135-220</t>
-  </si>
-  <si>
     <t>ep_bioenergy_IT135-220</t>
   </si>
   <si>
@@ -945,21 +945,21 @@
     <t>hydro</t>
   </si>
   <si>
+    <t>e_w104359058-380</t>
+  </si>
+  <si>
     <t>e_w409768426-220</t>
   </si>
   <si>
+    <t>e_w419423704-380</t>
+  </si>
+  <si>
     <t>e_IT13-380</t>
   </si>
   <si>
-    <t>e_w104359058-380</t>
-  </si>
-  <si>
     <t>e_w64200868-380</t>
   </si>
   <si>
-    <t>e_w419423704-380</t>
-  </si>
-  <si>
     <t>ep_hydro_dam_G100000602237</t>
   </si>
   <si>
@@ -1569,10 +1569,61 @@
     <t>solar</t>
   </si>
   <si>
+    <t>elc_spv-ITA_0115</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0168</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0080</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0077</t>
+  </si>
+  <si>
     <t>elc_spv-ITA_0030</t>
   </si>
   <si>
-    <t>elc_spv-ITA_0168</t>
+    <t>elc_spv-ITA_0112</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0069</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0101</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0105</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0116</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0167</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0068</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0019</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0100</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0124</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0029</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0205</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0081</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0186</t>
   </si>
   <si>
     <t>elc_spv-ITA_0024</t>
@@ -1581,96 +1632,45 @@
     <t>elc_spv-ITA_0213</t>
   </si>
   <si>
-    <t>elc_spv-ITA_0112</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0069</t>
+    <t>elc_spv-ITA_0092</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0018</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0157</t>
   </si>
   <si>
     <t>elc_spv-ITA_0215</t>
   </si>
   <si>
-    <t>elc_spv-ITA_0029</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0100</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0101</t>
+    <t>elc_spv-ITA_0196</t>
   </si>
   <si>
     <t>elc_spv-ITA_0216</t>
   </si>
   <si>
+    <t>elc_spv-ITA_0073</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0058</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0211</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0091</t>
+  </si>
+  <si>
     <t>elc_spv-ITA_0023</t>
   </si>
   <si>
-    <t>elc_spv-ITA_0092</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0205</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0196</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0091</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0018</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0068</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0167</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0116</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0105</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0157</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0019</t>
-  </si>
-  <si>
     <t>elc_spv-ITA_0007</t>
   </si>
   <si>
     <t>elc_spv-ITA_0042</t>
   </si>
   <si>
-    <t>elc_spv-ITA_0124</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0077</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0073</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0058</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0211</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0115</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0080</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0081</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0186</t>
-  </si>
-  <si>
     <t>ep_solar_pv_000</t>
   </si>
   <si>
@@ -3426,42 +3426,42 @@
     <t>ele</t>
   </si>
   <si>
+    <t>Aggregated Plant - EMBER Gap - way/81938081-380_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>TWh</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/377588191-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/105141350-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - EMBER Gap - way/109756016-380_Missing Bioenergy Capacity</t>
   </si>
   <si>
-    <t>GW</t>
-  </si>
-  <si>
-    <t>TWh</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>Aggregated Plant - EMBER Gap - way/144006711-220_Missing Bioenergy Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - EMBER Gap - IT67-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - IT135-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - EMBER Gap - way/116692433-220_Missing Bioenergy Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - EMBER Gap - IT67-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/81938081-380_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - IT135-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/377588191-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/105141350-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant</t>
   </si>
   <si>
@@ -3849,21 +3849,21 @@
     <t>Taranto CHP power station_CET2-1</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - way/419423704-380_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - way/104359058-380_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - way/409768426-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - way/64200868-380_Missing Hydro Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - IT13-380_Missing Hydro Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - way/64200868-380_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - way/409768426-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - way/104359058-380_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - way/419423704-380_Missing Hydro Capacity</t>
-  </si>
-  <si>
     <t>Lana hydroelectric plant_</t>
   </si>
   <si>
@@ -4014,109 +4014,109 @@
     <t>San Filippo del Mela power station_1</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_23_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>annual</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_112_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_167_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_168_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_92_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_105_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_211_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_58_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_215_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_116_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_18_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_157_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_213_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_91_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_186_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_100_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_205_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_216_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_29_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_115_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - ITA_19_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>annual</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_115_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_216_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_29_Missing Solar Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - ITA_7_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_73_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_30_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_77_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_196_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_68_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_80_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_101_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - ITA_69_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_101_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_80_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_68_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_196_Missing Solar Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - ITA_24_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_124_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - ITA_42_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_24_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_124_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_112_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_168_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_167_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_18_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_116_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_215_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_77_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_211_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_92_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_58_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_105_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_30_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_73_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_7_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_23_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_100_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_205_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_91_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_186_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_157_Missing Solar Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - IRENA Gap - ITA_81_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_213_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Tuscania solar farm_--</t>
@@ -5242,7 +5242,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BC3B1A0-4F2A-6CBA-E1DF-82BD6C62645E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A47DB57D-376D-693C-687A-13ABA5BF589E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5297,7 +5297,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D938A87E-4ACB-AAEC-AAF3-A77FD37C3A7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2002039F-30E0-593C-03C1-2EC156A21529}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5648,7 +5648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CE5F14-9AC2-4053-971E-47B7584BAD67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBF8A90-9FC7-468F-82A7-9BE96781E051}">
   <dimension ref="A1:U192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -9908,7 +9908,7 @@
         <v>45</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D78" s="3">
         <v>0.49118125000000001</v>
@@ -9964,7 +9964,7 @@
         <v>45</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D79" s="4">
         <v>0.49118125000000001</v>
@@ -15004,7 +15004,7 @@
         <v>45</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D169" s="4">
         <v>0.28839999999999999</v>
@@ -15060,7 +15060,7 @@
         <v>45</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D170" s="3">
         <v>0.28839999999999999</v>
@@ -15116,7 +15116,7 @@
         <v>45</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D171" s="4">
         <v>0.28839999999999999</v>
@@ -16182,7 +16182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B8D03D-BBDB-448F-A516-127C111C1288}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FCF5386-71AD-49DD-8372-E3497048F69F}">
   <dimension ref="A1:T1127"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16298,13 +16298,13 @@
         <v>2022</v>
       </c>
       <c r="E4" s="3">
-        <v>0.30441211225997045</v>
+        <v>0.41792171344165435</v>
       </c>
       <c r="F4" s="3">
         <v>0.36049999999999999</v>
       </c>
       <c r="G4" s="3">
-        <v>3850.0000000000009</v>
+        <v>3850.0000000000005</v>
       </c>
       <c r="H4" s="3">
         <v>143</v>
@@ -16351,13 +16351,13 @@
         <v>2022</v>
       </c>
       <c r="E5" s="4">
-        <v>0.90807680945347113</v>
+        <v>0.30441211225997045</v>
       </c>
       <c r="F5" s="4">
         <v>0.36049999999999999</v>
       </c>
       <c r="G5" s="4">
-        <v>3850.0000000000005</v>
+        <v>3850.0000000000009</v>
       </c>
       <c r="H5" s="4">
         <v>143</v>
@@ -16404,13 +16404,13 @@
         <v>2022</v>
       </c>
       <c r="E6" s="3">
-        <v>0.33536927621861151</v>
+        <v>0.47467651403249633</v>
       </c>
       <c r="F6" s="3">
         <v>0.36049999999999999</v>
       </c>
       <c r="G6" s="3">
-        <v>3850</v>
+        <v>3850.0000000000005</v>
       </c>
       <c r="H6" s="3">
         <v>143</v>
@@ -16457,19 +16457,19 @@
         <v>2022</v>
       </c>
       <c r="E7" s="4">
-        <v>0.19090251107828654</v>
+        <v>0.90807680945347113</v>
       </c>
       <c r="F7" s="4">
-        <v>0.33990000000000004</v>
+        <v>0.36049999999999999</v>
       </c>
       <c r="G7" s="4">
-        <v>4427.5</v>
+        <v>3850.0000000000005</v>
       </c>
       <c r="H7" s="4">
-        <v>157.30000000000001</v>
+        <v>143</v>
       </c>
       <c r="I7" s="4">
-        <v>9.240000000000002</v>
+        <v>8.4</v>
       </c>
       <c r="J7" s="4">
         <v>50</v>
@@ -16510,13 +16510,13 @@
         <v>2022</v>
       </c>
       <c r="E8" s="3">
-        <v>0.41792171344165435</v>
+        <v>0.33536927621861151</v>
       </c>
       <c r="F8" s="3">
         <v>0.36049999999999999</v>
       </c>
       <c r="G8" s="3">
-        <v>3850.0000000000005</v>
+        <v>3850</v>
       </c>
       <c r="H8" s="3">
         <v>143</v>
@@ -16563,19 +16563,19 @@
         <v>2022</v>
       </c>
       <c r="E9" s="4">
-        <v>0.43855982274741512</v>
+        <v>0.19090251107828654</v>
       </c>
       <c r="F9" s="4">
-        <v>0.36049999999999999</v>
+        <v>0.33990000000000004</v>
       </c>
       <c r="G9" s="4">
-        <v>3850</v>
+        <v>4427.5</v>
       </c>
       <c r="H9" s="4">
-        <v>143</v>
+        <v>157.30000000000001</v>
       </c>
       <c r="I9" s="4">
-        <v>8.4</v>
+        <v>9.240000000000002</v>
       </c>
       <c r="J9" s="4">
         <v>50</v>
@@ -16616,7 +16616,7 @@
         <v>2022</v>
       </c>
       <c r="E10" s="3">
-        <v>0.47467651403249633</v>
+        <v>0.42308124076809456</v>
       </c>
       <c r="F10" s="3">
         <v>0.36049999999999999</v>
@@ -16669,13 +16669,13 @@
         <v>2022</v>
       </c>
       <c r="E11" s="4">
-        <v>0.42308124076809456</v>
+        <v>0.43855982274741512</v>
       </c>
       <c r="F11" s="4">
         <v>0.36049999999999999</v>
       </c>
       <c r="G11" s="4">
-        <v>3850.0000000000005</v>
+        <v>3850</v>
       </c>
       <c r="H11" s="4">
         <v>143</v>
@@ -16716,7 +16716,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="3">
         <v>1965</v>
@@ -16769,7 +16769,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" s="4">
         <v>2001</v>
@@ -16822,7 +16822,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D14" s="3">
         <v>2013</v>
@@ -16875,7 +16875,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D15" s="4">
         <v>2003</v>
@@ -16928,7 +16928,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D16" s="3">
         <v>1998</v>
@@ -16981,7 +16981,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D17" s="4">
         <v>2009</v>
@@ -17034,7 +17034,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D18" s="3">
         <v>2008</v>
@@ -17087,7 +17087,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D19" s="4">
         <v>2009</v>
@@ -17140,7 +17140,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D20" s="3">
         <v>2008</v>
@@ -17193,7 +17193,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D21" s="4">
         <v>2018</v>
@@ -21168,7 +21168,7 @@
         <v>45</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D96" s="3">
         <v>2010</v>
@@ -21221,7 +21221,7 @@
         <v>45</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D97" s="4">
         <v>2010</v>
@@ -25991,7 +25991,7 @@
         <v>45</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D187" s="4">
         <v>1978</v>
@@ -26044,7 +26044,7 @@
         <v>45</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D188" s="3">
         <v>1981</v>
@@ -26097,7 +26097,7 @@
         <v>45</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D189" s="4">
         <v>1987</v>
@@ -27693,19 +27693,19 @@
         <v>2022</v>
       </c>
       <c r="E219" s="4">
-        <v>0.10604292333736391</v>
+        <v>0.55308012203143864</v>
       </c>
       <c r="F219" s="4">
         <v>1</v>
       </c>
       <c r="G219" s="4">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H219" s="4">
-        <v>60.500000000000014</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="I219" s="4">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J219" s="4">
         <v>100</v>
@@ -27746,7 +27746,7 @@
         <v>2022</v>
       </c>
       <c r="E220" s="3">
-        <v>0.11046137847642074</v>
+        <v>0.10604292333736391</v>
       </c>
       <c r="F220" s="3">
         <v>1</v>
@@ -27799,19 +27799,19 @@
         <v>2022</v>
       </c>
       <c r="E221" s="4">
-        <v>0.55308012203143864</v>
+        <v>0.10880445779927443</v>
       </c>
       <c r="F221" s="4">
         <v>1</v>
       </c>
       <c r="G221" s="4">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H221" s="4">
-        <v>55.000000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I221" s="4">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J221" s="4">
         <v>100</v>
@@ -27852,7 +27852,7 @@
         <v>2022</v>
       </c>
       <c r="E222" s="3">
-        <v>0.11156599226118494</v>
+        <v>0.11046137847642074</v>
       </c>
       <c r="F222" s="3">
         <v>1</v>
@@ -27861,7 +27861,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H222" s="3">
-        <v>60.500000000000021</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I222" s="3">
         <v>2.3100000000000005</v>
@@ -27905,7 +27905,7 @@
         <v>2022</v>
       </c>
       <c r="E223" s="4">
-        <v>0.10880445779927443</v>
+        <v>0.11156599226118494</v>
       </c>
       <c r="F223" s="4">
         <v>1</v>
@@ -27914,7 +27914,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H223" s="4">
-        <v>60.500000000000014</v>
+        <v>60.500000000000021</v>
       </c>
       <c r="I223" s="4">
         <v>2.3100000000000005</v>
@@ -28429,7 +28429,7 @@
         <v>301</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D233" s="4">
         <v>2022</v>
@@ -31662,7 +31662,7 @@
         <v>301</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D294" s="3">
         <v>1928</v>
@@ -32351,7 +32351,7 @@
         <v>427</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D307" s="4">
         <v>2015</v>
@@ -32404,7 +32404,7 @@
         <v>427</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D308" s="3">
         <v>2015</v>
@@ -32457,7 +32457,7 @@
         <v>427</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D309" s="4">
         <v>1982</v>
@@ -32669,7 +32669,7 @@
         <v>427</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D313" s="4">
         <v>1991</v>
@@ -32828,7 +32828,7 @@
         <v>427</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D316" s="3">
         <v>1971</v>
@@ -33040,7 +33040,7 @@
         <v>427</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D320" s="3">
         <v>1978</v>
@@ -34047,7 +34047,7 @@
         <v>301</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D339" s="4">
         <v>2015</v>
@@ -34418,7 +34418,7 @@
         <v>301</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D346" s="3">
         <v>2015</v>
@@ -35961,7 +35961,7 @@
         <v>2022</v>
       </c>
       <c r="E375" s="4">
-        <v>0.11384197057678677</v>
+        <v>0.1111795908924077</v>
       </c>
       <c r="F375" s="4">
         <v>1</v>
@@ -36067,7 +36067,7 @@
         <v>2022</v>
       </c>
       <c r="E377" s="4">
-        <v>0.10382330781770392</v>
+        <v>0.11255980974057808</v>
       </c>
       <c r="F377" s="4">
         <v>1</v>
@@ -36120,7 +36120,7 @@
         <v>2022</v>
       </c>
       <c r="E378" s="3">
-        <v>0.10717740707414788</v>
+        <v>0.10128313836498157</v>
       </c>
       <c r="F378" s="3">
         <v>1</v>
@@ -36173,7 +36173,7 @@
         <v>2022</v>
       </c>
       <c r="E379" s="4">
-        <v>0.1015976002654105</v>
+        <v>0.11384197057678677</v>
       </c>
       <c r="F379" s="4">
         <v>1</v>
@@ -36226,7 +36226,7 @@
         <v>2022</v>
       </c>
       <c r="E380" s="3">
-        <v>0.11243953168649698</v>
+        <v>0.1015976002654105</v>
       </c>
       <c r="F380" s="3">
         <v>1</v>
@@ -36279,7 +36279,7 @@
         <v>2022</v>
       </c>
       <c r="E381" s="4">
-        <v>0.10090008416061882</v>
+        <v>0.11243953168649698</v>
       </c>
       <c r="F381" s="4">
         <v>1</v>
@@ -36332,7 +36332,7 @@
         <v>2022</v>
       </c>
       <c r="E382" s="3">
-        <v>0.10772034897289151</v>
+        <v>0.10260861218184329</v>
       </c>
       <c r="F382" s="3">
         <v>1</v>
@@ -36385,7 +36385,7 @@
         <v>2022</v>
       </c>
       <c r="E383" s="4">
-        <v>0.10352156608631437</v>
+        <v>0.10127750284705274</v>
       </c>
       <c r="F383" s="4">
         <v>1</v>
@@ -36438,7 +36438,7 @@
         <v>2022</v>
       </c>
       <c r="E384" s="3">
-        <v>0.10260861218184329</v>
+        <v>0.1053582618867203</v>
       </c>
       <c r="F384" s="3">
         <v>1</v>
@@ -36491,7 +36491,7 @@
         <v>2022</v>
       </c>
       <c r="E385" s="4">
-        <v>0.11048465102438351</v>
+        <v>0.10585966196758853</v>
       </c>
       <c r="F385" s="4">
         <v>1</v>
@@ -36544,7 +36544,7 @@
         <v>2022</v>
       </c>
       <c r="E386" s="3">
-        <v>0.10724052487495081</v>
+        <v>0.11265722369334792</v>
       </c>
       <c r="F386" s="3">
         <v>1</v>
@@ -36597,7 +36597,7 @@
         <v>2022</v>
       </c>
       <c r="E387" s="4">
-        <v>0.10351496447959772</v>
+        <v>0.10930731082165113</v>
       </c>
       <c r="F387" s="4">
         <v>1</v>
@@ -36650,7 +36650,7 @@
         <v>2022</v>
       </c>
       <c r="E388" s="3">
-        <v>0.10954770591501538</v>
+        <v>0.10352156608631437</v>
       </c>
       <c r="F388" s="3">
         <v>1</v>
@@ -36703,7 +36703,7 @@
         <v>2022</v>
       </c>
       <c r="E389" s="4">
-        <v>0.112250983358078</v>
+        <v>0.10281889750798776</v>
       </c>
       <c r="F389" s="4">
         <v>1</v>
@@ -36756,7 +36756,7 @@
         <v>2022</v>
       </c>
       <c r="E390" s="3">
-        <v>0.11132675841774924</v>
+        <v>0.10772034897289151</v>
       </c>
       <c r="F390" s="3">
         <v>1</v>
@@ -36809,7 +36809,7 @@
         <v>2022</v>
       </c>
       <c r="E391" s="4">
-        <v>0.10420603999247074</v>
+        <v>0.10954770591501538</v>
       </c>
       <c r="F391" s="4">
         <v>1</v>
@@ -36862,7 +36862,7 @@
         <v>2022</v>
       </c>
       <c r="E392" s="3">
-        <v>0.11265722369334792</v>
+        <v>0.10762824850845455</v>
       </c>
       <c r="F392" s="3">
         <v>1</v>
@@ -36915,7 +36915,7 @@
         <v>2022</v>
       </c>
       <c r="E393" s="4">
-        <v>0.10585966196758853</v>
+        <v>0.10652175481682753</v>
       </c>
       <c r="F393" s="4">
         <v>1</v>
@@ -36968,7 +36968,7 @@
         <v>2022</v>
       </c>
       <c r="E394" s="3">
-        <v>0.1053582618867203</v>
+        <v>0.10382330781770392</v>
       </c>
       <c r="F394" s="3">
         <v>1</v>
@@ -37021,7 +37021,7 @@
         <v>2022</v>
       </c>
       <c r="E395" s="4">
-        <v>0.10127750284705274</v>
+        <v>0.10717740707414788</v>
       </c>
       <c r="F395" s="4">
         <v>1</v>
@@ -37074,7 +37074,7 @@
         <v>2022</v>
       </c>
       <c r="E396" s="3">
-        <v>0.10214633869688095</v>
+        <v>0.10351496447959772</v>
       </c>
       <c r="F396" s="3">
         <v>1</v>
@@ -37127,7 +37127,7 @@
         <v>2022</v>
       </c>
       <c r="E397" s="4">
-        <v>0.10930731082165113</v>
+        <v>0.10420603999247074</v>
       </c>
       <c r="F397" s="4">
         <v>1</v>
@@ -37180,7 +37180,7 @@
         <v>2022</v>
       </c>
       <c r="E398" s="3">
-        <v>0.11050268468175577</v>
+        <v>0.10214633869688095</v>
       </c>
       <c r="F398" s="3">
         <v>1</v>
@@ -37233,7 +37233,7 @@
         <v>2022</v>
       </c>
       <c r="E399" s="4">
-        <v>0.11326730876284366</v>
+        <v>0.10090008416061882</v>
       </c>
       <c r="F399" s="4">
         <v>1</v>
@@ -37286,7 +37286,7 @@
         <v>2022</v>
       </c>
       <c r="E400" s="3">
-        <v>0.10281889750798776</v>
+        <v>0.112250983358078</v>
       </c>
       <c r="F400" s="3">
         <v>1</v>
@@ -37339,7 +37339,7 @@
         <v>2022</v>
       </c>
       <c r="E401" s="4">
-        <v>0.10128313836498157</v>
+        <v>0.11048465102438351</v>
       </c>
       <c r="F401" s="4">
         <v>1</v>
@@ -37551,7 +37551,7 @@
         <v>2022</v>
       </c>
       <c r="E405" s="4">
-        <v>0.1111795908924077</v>
+        <v>0.11132675841774924</v>
       </c>
       <c r="F405" s="4">
         <v>1</v>
@@ -37604,7 +37604,7 @@
         <v>2022</v>
       </c>
       <c r="E406" s="3">
-        <v>0.11255980974057808</v>
+        <v>0.10724052487495081</v>
       </c>
       <c r="F406" s="3">
         <v>1</v>
@@ -37657,7 +37657,7 @@
         <v>2022</v>
       </c>
       <c r="E407" s="4">
-        <v>0.10762824850845455</v>
+        <v>0.11050268468175577</v>
       </c>
       <c r="F407" s="4">
         <v>1</v>
@@ -37710,7 +37710,7 @@
         <v>2022</v>
       </c>
       <c r="E408" s="3">
-        <v>0.10652175481682753</v>
+        <v>0.11326730876284366</v>
       </c>
       <c r="F408" s="3">
         <v>1</v>
@@ -38181,7 +38181,7 @@
         <v>509</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="D417" s="4">
         <v>2011</v>
@@ -38234,7 +38234,7 @@
         <v>509</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="D418" s="3">
         <v>2015</v>
@@ -39082,7 +39082,7 @@
         <v>509</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="D434" s="3">
         <v>2015</v>
@@ -39347,7 +39347,7 @@
         <v>509</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="D439" s="4">
         <v>2009</v>
@@ -39400,7 +39400,7 @@
         <v>509</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="D440" s="3">
         <v>2012</v>
@@ -39453,7 +39453,7 @@
         <v>509</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="D441" s="4">
         <v>2015</v>
@@ -39877,7 +39877,7 @@
         <v>509</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="D449" s="4">
         <v>2015</v>
@@ -40831,7 +40831,7 @@
         <v>509</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="D467" s="4">
         <v>2015</v>
@@ -42527,7 +42527,7 @@
         <v>509</v>
       </c>
       <c r="C499" s="4" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D499" s="4">
         <v>2010</v>
@@ -42580,7 +42580,7 @@
         <v>509</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D500" s="3">
         <v>2015</v>
@@ -42633,7 +42633,7 @@
         <v>509</v>
       </c>
       <c r="C501" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D501" s="4">
         <v>2015</v>
@@ -43481,7 +43481,7 @@
         <v>509</v>
       </c>
       <c r="C517" s="4" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="D517" s="4">
         <v>2015</v>
@@ -44488,7 +44488,7 @@
         <v>509</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="D536" s="3">
         <v>2010</v>
@@ -44541,7 +44541,7 @@
         <v>509</v>
       </c>
       <c r="C537" s="4" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="D537" s="4">
         <v>2011</v>
@@ -44594,7 +44594,7 @@
         <v>509</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="D538" s="3">
         <v>2015</v>
@@ -44647,7 +44647,7 @@
         <v>509</v>
       </c>
       <c r="C539" s="4" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="D539" s="4">
         <v>2023</v>
@@ -45389,7 +45389,7 @@
         <v>509</v>
       </c>
       <c r="C553" s="4" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="D553" s="4">
         <v>2011</v>
@@ -45442,7 +45442,7 @@
         <v>509</v>
       </c>
       <c r="C554" s="3" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="D554" s="3">
         <v>2015</v>
@@ -45495,7 +45495,7 @@
         <v>509</v>
       </c>
       <c r="C555" s="4" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="D555" s="4">
         <v>2024</v>
@@ -45548,7 +45548,7 @@
         <v>509</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="D556" s="3">
         <v>2025</v>
@@ -45601,7 +45601,7 @@
         <v>509</v>
       </c>
       <c r="C557" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D557" s="4">
         <v>2011</v>
@@ -45654,7 +45654,7 @@
         <v>509</v>
       </c>
       <c r="C558" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D558" s="3">
         <v>2015</v>
@@ -45707,7 +45707,7 @@
         <v>509</v>
       </c>
       <c r="C559" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D559" s="4">
         <v>2024</v>
@@ -45760,7 +45760,7 @@
         <v>509</v>
       </c>
       <c r="C560" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D560" s="3">
         <v>2025</v>
@@ -46184,7 +46184,7 @@
         <v>509</v>
       </c>
       <c r="C568" s="3" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="D568" s="3">
         <v>2015</v>
@@ -46661,7 +46661,7 @@
         <v>509</v>
       </c>
       <c r="C577" s="4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D577" s="4">
         <v>2011</v>
@@ -46714,7 +46714,7 @@
         <v>509</v>
       </c>
       <c r="C578" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D578" s="3">
         <v>2015</v>
@@ -46767,7 +46767,7 @@
         <v>509</v>
       </c>
       <c r="C579" s="4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D579" s="4">
         <v>2024</v>
@@ -47191,7 +47191,7 @@
         <v>509</v>
       </c>
       <c r="C587" s="4" t="s">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="D587" s="4">
         <v>2011</v>
@@ -47244,7 +47244,7 @@
         <v>509</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="D588" s="3">
         <v>2015</v>
@@ -47297,7 +47297,7 @@
         <v>509</v>
       </c>
       <c r="C589" s="4" t="s">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="D589" s="4">
         <v>2025</v>
@@ -48092,7 +48092,7 @@
         <v>509</v>
       </c>
       <c r="C604" s="3" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="D604" s="3">
         <v>2015</v>
@@ -51537,7 +51537,7 @@
         <v>509</v>
       </c>
       <c r="C669" s="4" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D669" s="4">
         <v>2011</v>
@@ -52165,7 +52165,7 @@
         <v>509</v>
       </c>
       <c r="C686" s="3" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="D686" s="3">
         <v>2012</v>
@@ -52197,7 +52197,7 @@
         <v>509</v>
       </c>
       <c r="C687" s="4" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="D687" s="4">
         <v>2015</v>
@@ -52229,7 +52229,7 @@
         <v>509</v>
       </c>
       <c r="C688" s="3" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="D688" s="3">
         <v>2022</v>
@@ -53861,7 +53861,7 @@
         <v>509</v>
       </c>
       <c r="C739" s="4" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="D739" s="4">
         <v>2011</v>
@@ -53893,7 +53893,7 @@
         <v>509</v>
       </c>
       <c r="C740" s="3" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="D740" s="3">
         <v>2012</v>
@@ -53925,7 +53925,7 @@
         <v>509</v>
       </c>
       <c r="C741" s="4" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="D741" s="4">
         <v>2028</v>
@@ -54949,7 +54949,7 @@
         <v>509</v>
       </c>
       <c r="C773" s="4" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="D773" s="4">
         <v>2013</v>
@@ -54981,7 +54981,7 @@
         <v>509</v>
       </c>
       <c r="C774" s="3" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="D774" s="3">
         <v>2015</v>
@@ -55077,7 +55077,7 @@
         <v>509</v>
       </c>
       <c r="C777" s="4" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="D777" s="4">
         <v>2010</v>
@@ -55109,7 +55109,7 @@
         <v>509</v>
       </c>
       <c r="C778" s="3" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="D778" s="3">
         <v>2011</v>
@@ -55141,7 +55141,7 @@
         <v>509</v>
       </c>
       <c r="C779" s="4" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="D779" s="4">
         <v>2015</v>
@@ -55173,7 +55173,7 @@
         <v>509</v>
       </c>
       <c r="C780" s="3" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="D780" s="3">
         <v>2010</v>
@@ -55205,7 +55205,7 @@
         <v>509</v>
       </c>
       <c r="C781" s="4" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="D781" s="4">
         <v>2011</v>
@@ -55269,7 +55269,7 @@
         <v>509</v>
       </c>
       <c r="C783" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D783" s="4">
         <v>2028</v>
@@ -55301,7 +55301,7 @@
         <v>509</v>
       </c>
       <c r="C784" s="3" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="D784" s="3">
         <v>2028</v>
@@ -55333,7 +55333,7 @@
         <v>509</v>
       </c>
       <c r="C785" s="4" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="D785" s="4">
         <v>2025</v>
@@ -55365,7 +55365,7 @@
         <v>509</v>
       </c>
       <c r="C786" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D786" s="3">
         <v>2025</v>
@@ -55493,7 +55493,7 @@
         <v>509</v>
       </c>
       <c r="C790" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D790" s="3">
         <v>2028</v>
@@ -66181,7 +66181,7 @@
         <v>938</v>
       </c>
       <c r="C1124" s="3" t="s">
-        <v>955</v>
+        <v>965</v>
       </c>
       <c r="D1124" s="3">
         <v>2011</v>
@@ -66213,7 +66213,7 @@
         <v>938</v>
       </c>
       <c r="C1125" s="4" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="D1125" s="4">
         <v>2011</v>
@@ -66245,7 +66245,7 @@
         <v>938</v>
       </c>
       <c r="C1126" s="3" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D1126" s="3">
         <v>2011</v>

--- a/VerveStacks_ITA_grids/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA_grids/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F157125-36A8-4DE5-B05A-4EE71CD65A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BB24B01-0DE2-485D-BD15-3C423689F676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{942AD9E1-1ADF-4976-979F-841C601EFE8D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{696A323E-130C-4861-A680-58E703A09138}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -78,30 +78,30 @@
     <t>bioenergy</t>
   </si>
   <si>
+    <t>e_IT67-220</t>
+  </si>
+  <si>
+    <t>e_w105141350-220</t>
+  </si>
+  <si>
+    <t>e_w144006711-220</t>
+  </si>
+  <si>
     <t>e_w81938081-380</t>
   </si>
   <si>
-    <t>e_IT67-220</t>
+    <t>e_w116692433-220</t>
+  </si>
+  <si>
+    <t>e_IT135-220</t>
+  </si>
+  <si>
+    <t>e_w377588191-220</t>
   </si>
   <si>
     <t>e_w109756016-380</t>
   </si>
   <si>
-    <t>e_w377588191-220</t>
-  </si>
-  <si>
-    <t>e_w105141350-220</t>
-  </si>
-  <si>
-    <t>e_w144006711-220</t>
-  </si>
-  <si>
-    <t>e_IT135-220</t>
-  </si>
-  <si>
-    <t>e_w116692433-220</t>
-  </si>
-  <si>
     <t>ep_bioenergy_IT135-220</t>
   </si>
   <si>
@@ -945,21 +945,21 @@
     <t>hydro</t>
   </si>
   <si>
+    <t>e_w409768426-220</t>
+  </si>
+  <si>
+    <t>e_IT13-380</t>
+  </si>
+  <si>
     <t>e_w104359058-380</t>
   </si>
   <si>
-    <t>e_w409768426-220</t>
+    <t>e_w64200868-380</t>
   </si>
   <si>
     <t>e_w419423704-380</t>
   </si>
   <si>
-    <t>e_IT13-380</t>
-  </si>
-  <si>
-    <t>e_w64200868-380</t>
-  </si>
-  <si>
     <t>ep_hydro_dam_G100000602237</t>
   </si>
   <si>
@@ -1569,108 +1569,108 @@
     <t>solar</t>
   </si>
   <si>
+    <t>elc_spv-ITA_0077</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0024</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0213</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0069</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0030</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0205</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0029</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0081</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0080</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0215</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0157</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0018</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0091</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0186</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0023</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0112</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0068</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0216</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0101</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0100</t>
+  </si>
+  <si>
     <t>elc_spv-ITA_0115</t>
   </si>
   <si>
+    <t>elc_spv-ITA_0167</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0073</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0058</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0211</t>
+  </si>
+  <si>
     <t>elc_spv-ITA_0168</t>
   </si>
   <si>
-    <t>elc_spv-ITA_0080</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0077</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0030</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0112</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0069</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0101</t>
-  </si>
-  <si>
     <t>elc_spv-ITA_0105</t>
   </si>
   <si>
+    <t>elc_spv-ITA_0007</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0042</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0124</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0019</t>
+  </si>
+  <si>
     <t>elc_spv-ITA_0116</t>
   </si>
   <si>
-    <t>elc_spv-ITA_0167</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0068</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0019</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0100</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0124</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0029</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0205</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0081</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0186</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0024</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0213</t>
+    <t>elc_spv-ITA_0196</t>
   </si>
   <si>
     <t>elc_spv-ITA_0092</t>
   </si>
   <si>
-    <t>elc_spv-ITA_0018</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0157</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0215</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0196</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0216</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0073</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0058</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0211</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0091</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0023</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0007</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0042</t>
-  </si>
-  <si>
     <t>ep_solar_pv_000</t>
   </si>
   <si>
@@ -3426,42 +3426,42 @@
     <t>ele</t>
   </si>
   <si>
+    <t>Aggregated Plant - EMBER Gap - way/109756016-380_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>TWh</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/144006711-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - IT67-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/116692433-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/377588191-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/105141350-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - EMBER Gap - way/81938081-380_Missing Bioenergy Capacity</t>
   </si>
   <si>
-    <t>GW</t>
-  </si>
-  <si>
-    <t>TWh</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/377588191-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/105141350-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/109756016-380_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/144006711-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - IT67-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - EMBER Gap - IT135-220_Missing Bioenergy Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - EMBER Gap - way/116692433-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant</t>
   </si>
   <si>
@@ -3849,10 +3849,13 @@
     <t>Taranto CHP power station_CET2-1</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - way/104359058-380_Missing Hydro Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - way/419423704-380_Missing Hydro Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - way/104359058-380_Missing Hydro Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - IT13-380_Missing Hydro Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - way/409768426-220_Missing Hydro Capacity</t>
@@ -3861,9 +3864,6 @@
     <t>Aggregated Plant - IRENA Gap - way/64200868-380_Missing Hydro Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - IT13-380_Missing Hydro Capacity</t>
-  </si>
-  <si>
     <t>Lana hydroelectric plant_</t>
   </si>
   <si>
@@ -4014,109 +4014,109 @@
     <t>San Filippo del Mela power station_1</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_186_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>annual</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_91_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_157_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_213_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_115_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_216_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_29_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_19_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_92_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - ITA_23_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>annual</t>
+    <t>Aggregated Plant - IRENA Gap - ITA_58_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_211_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_105_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_81_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_77_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_80_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_68_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_69_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_101_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_196_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_205_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_100_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_24_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_124_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_42_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_215_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_18_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_116_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_167_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - ITA_112_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_167_Missing Solar Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - IRENA Gap - ITA_168_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_92_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_105_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_211_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_58_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_215_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_116_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_18_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_157_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_213_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_91_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_186_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_100_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_205_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_216_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_29_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_115_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_19_Missing Solar Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - ITA_30_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - ITA_7_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - ITA_73_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_30_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_77_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_196_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_68_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_80_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_101_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_69_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_24_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_124_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_42_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_81_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Tuscania solar farm_--</t>
@@ -5242,7 +5242,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A47DB57D-376D-693C-687A-13ABA5BF589E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E1A0266-15CB-7501-D80B-5A60990EDA3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5297,7 +5297,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2002039F-30E0-593C-03C1-2EC156A21529}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C0A8B89-C9BD-8F66-BA8B-0A722AEEB05C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5648,7 +5648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBF8A90-9FC7-468F-82A7-9BE96781E051}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F41E9F41-8AD6-4B47-B970-7513148BD7F2}">
   <dimension ref="A1:U192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -9908,7 +9908,7 @@
         <v>45</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D78" s="3">
         <v>0.49118125000000001</v>
@@ -9964,7 +9964,7 @@
         <v>45</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D79" s="4">
         <v>0.49118125000000001</v>
@@ -15004,7 +15004,7 @@
         <v>45</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D169" s="4">
         <v>0.28839999999999999</v>
@@ -15060,7 +15060,7 @@
         <v>45</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D170" s="3">
         <v>0.28839999999999999</v>
@@ -15116,7 +15116,7 @@
         <v>45</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D171" s="4">
         <v>0.28839999999999999</v>
@@ -16182,7 +16182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FCF5386-71AD-49DD-8372-E3497048F69F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BABCAA-9687-4D01-BBB9-F0DDF7631AD9}">
   <dimension ref="A1:T1127"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16298,13 +16298,13 @@
         <v>2022</v>
       </c>
       <c r="E4" s="3">
-        <v>0.41792171344165435</v>
+        <v>0.30441211225997045</v>
       </c>
       <c r="F4" s="3">
         <v>0.36049999999999999</v>
       </c>
       <c r="G4" s="3">
-        <v>3850.0000000000005</v>
+        <v>3850.0000000000009</v>
       </c>
       <c r="H4" s="3">
         <v>143</v>
@@ -16351,13 +16351,13 @@
         <v>2022</v>
       </c>
       <c r="E5" s="4">
-        <v>0.30441211225997045</v>
+        <v>0.33536927621861151</v>
       </c>
       <c r="F5" s="4">
         <v>0.36049999999999999</v>
       </c>
       <c r="G5" s="4">
-        <v>3850.0000000000009</v>
+        <v>3850</v>
       </c>
       <c r="H5" s="4">
         <v>143</v>
@@ -16404,19 +16404,19 @@
         <v>2022</v>
       </c>
       <c r="E6" s="3">
-        <v>0.47467651403249633</v>
+        <v>0.19090251107828654</v>
       </c>
       <c r="F6" s="3">
-        <v>0.36049999999999999</v>
+        <v>0.33990000000000004</v>
       </c>
       <c r="G6" s="3">
-        <v>3850.0000000000005</v>
+        <v>4427.5</v>
       </c>
       <c r="H6" s="3">
-        <v>143</v>
+        <v>157.30000000000001</v>
       </c>
       <c r="I6" s="3">
-        <v>8.4</v>
+        <v>9.240000000000002</v>
       </c>
       <c r="J6" s="3">
         <v>50</v>
@@ -16457,7 +16457,7 @@
         <v>2022</v>
       </c>
       <c r="E7" s="4">
-        <v>0.90807680945347113</v>
+        <v>0.41792171344165435</v>
       </c>
       <c r="F7" s="4">
         <v>0.36049999999999999</v>
@@ -16510,7 +16510,7 @@
         <v>2022</v>
       </c>
       <c r="E8" s="3">
-        <v>0.33536927621861151</v>
+        <v>0.43855982274741512</v>
       </c>
       <c r="F8" s="3">
         <v>0.36049999999999999</v>
@@ -16563,19 +16563,19 @@
         <v>2022</v>
       </c>
       <c r="E9" s="4">
-        <v>0.19090251107828654</v>
+        <v>0.42308124076809456</v>
       </c>
       <c r="F9" s="4">
-        <v>0.33990000000000004</v>
+        <v>0.36049999999999999</v>
       </c>
       <c r="G9" s="4">
-        <v>4427.5</v>
+        <v>3850.0000000000005</v>
       </c>
       <c r="H9" s="4">
-        <v>157.30000000000001</v>
+        <v>143</v>
       </c>
       <c r="I9" s="4">
-        <v>9.240000000000002</v>
+        <v>8.4</v>
       </c>
       <c r="J9" s="4">
         <v>50</v>
@@ -16616,7 +16616,7 @@
         <v>2022</v>
       </c>
       <c r="E10" s="3">
-        <v>0.42308124076809456</v>
+        <v>0.90807680945347113</v>
       </c>
       <c r="F10" s="3">
         <v>0.36049999999999999</v>
@@ -16669,13 +16669,13 @@
         <v>2022</v>
       </c>
       <c r="E11" s="4">
-        <v>0.43855982274741512</v>
+        <v>0.47467651403249633</v>
       </c>
       <c r="F11" s="4">
         <v>0.36049999999999999</v>
       </c>
       <c r="G11" s="4">
-        <v>3850</v>
+        <v>3850.0000000000005</v>
       </c>
       <c r="H11" s="4">
         <v>143</v>
@@ -16716,7 +16716,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="3">
         <v>1965</v>
@@ -16769,7 +16769,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="4">
         <v>2001</v>
@@ -16822,7 +16822,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D14" s="3">
         <v>2013</v>
@@ -16875,7 +16875,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D15" s="4">
         <v>2003</v>
@@ -16928,7 +16928,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D16" s="3">
         <v>1998</v>
@@ -16981,7 +16981,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D17" s="4">
         <v>2009</v>
@@ -17034,7 +17034,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D18" s="3">
         <v>2008</v>
@@ -17087,7 +17087,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D19" s="4">
         <v>2009</v>
@@ -17140,7 +17140,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D20" s="3">
         <v>2008</v>
@@ -17193,7 +17193,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D21" s="4">
         <v>2018</v>
@@ -21168,7 +21168,7 @@
         <v>45</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D96" s="3">
         <v>2010</v>
@@ -21221,7 +21221,7 @@
         <v>45</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D97" s="4">
         <v>2010</v>
@@ -25991,7 +25991,7 @@
         <v>45</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D187" s="4">
         <v>1978</v>
@@ -26044,7 +26044,7 @@
         <v>45</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D188" s="3">
         <v>1981</v>
@@ -26097,7 +26097,7 @@
         <v>45</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D189" s="4">
         <v>1987</v>
@@ -27693,19 +27693,19 @@
         <v>2022</v>
       </c>
       <c r="E219" s="4">
-        <v>0.55308012203143864</v>
+        <v>0.10604292333736391</v>
       </c>
       <c r="F219" s="4">
         <v>1</v>
       </c>
       <c r="G219" s="4">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H219" s="4">
-        <v>55.000000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I219" s="4">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J219" s="4">
         <v>100</v>
@@ -27746,7 +27746,7 @@
         <v>2022</v>
       </c>
       <c r="E220" s="3">
-        <v>0.10604292333736391</v>
+        <v>0.11046137847642074</v>
       </c>
       <c r="F220" s="3">
         <v>1</v>
@@ -27799,19 +27799,19 @@
         <v>2022</v>
       </c>
       <c r="E221" s="4">
-        <v>0.10880445779927443</v>
+        <v>0.55308012203143864</v>
       </c>
       <c r="F221" s="4">
         <v>1</v>
       </c>
       <c r="G221" s="4">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H221" s="4">
-        <v>60.500000000000014</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="I221" s="4">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J221" s="4">
         <v>100</v>
@@ -27852,7 +27852,7 @@
         <v>2022</v>
       </c>
       <c r="E222" s="3">
-        <v>0.11046137847642074</v>
+        <v>0.11156599226118494</v>
       </c>
       <c r="F222" s="3">
         <v>1</v>
@@ -27861,7 +27861,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H222" s="3">
-        <v>60.500000000000014</v>
+        <v>60.500000000000021</v>
       </c>
       <c r="I222" s="3">
         <v>2.3100000000000005</v>
@@ -27905,7 +27905,7 @@
         <v>2022</v>
       </c>
       <c r="E223" s="4">
-        <v>0.11156599226118494</v>
+        <v>0.10880445779927443</v>
       </c>
       <c r="F223" s="4">
         <v>1</v>
@@ -27914,7 +27914,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H223" s="4">
-        <v>60.500000000000021</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I223" s="4">
         <v>2.3100000000000005</v>
@@ -28429,7 +28429,7 @@
         <v>301</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D233" s="4">
         <v>2022</v>
@@ -31662,7 +31662,7 @@
         <v>301</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D294" s="3">
         <v>1928</v>
@@ -32351,7 +32351,7 @@
         <v>427</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D307" s="4">
         <v>2015</v>
@@ -32404,7 +32404,7 @@
         <v>427</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D308" s="3">
         <v>2015</v>
@@ -32457,7 +32457,7 @@
         <v>427</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D309" s="4">
         <v>1982</v>
@@ -32669,7 +32669,7 @@
         <v>427</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D313" s="4">
         <v>1991</v>
@@ -32828,7 +32828,7 @@
         <v>427</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D316" s="3">
         <v>1971</v>
@@ -33040,7 +33040,7 @@
         <v>427</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D320" s="3">
         <v>1978</v>
@@ -34047,7 +34047,7 @@
         <v>301</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D339" s="4">
         <v>2015</v>
@@ -34418,7 +34418,7 @@
         <v>301</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D346" s="3">
         <v>2015</v>
@@ -35961,7 +35961,7 @@
         <v>2022</v>
       </c>
       <c r="E375" s="4">
-        <v>0.1111795908924077</v>
+        <v>0.10128313836498157</v>
       </c>
       <c r="F375" s="4">
         <v>1</v>
@@ -36014,7 +36014,7 @@
         <v>2022</v>
       </c>
       <c r="E376" s="3">
-        <v>0.106881944919879</v>
+        <v>0.10382330781770392</v>
       </c>
       <c r="F376" s="3">
         <v>1</v>
@@ -36067,7 +36067,7 @@
         <v>2022</v>
       </c>
       <c r="E377" s="4">
-        <v>0.11255980974057808</v>
+        <v>0.10717740707414788</v>
       </c>
       <c r="F377" s="4">
         <v>1</v>
@@ -36120,7 +36120,7 @@
         <v>2022</v>
       </c>
       <c r="E378" s="3">
-        <v>0.10128313836498157</v>
+        <v>0.11243953168649698</v>
       </c>
       <c r="F378" s="3">
         <v>1</v>
@@ -36226,7 +36226,7 @@
         <v>2022</v>
       </c>
       <c r="E380" s="3">
-        <v>0.1015976002654105</v>
+        <v>0.10954770591501538</v>
       </c>
       <c r="F380" s="3">
         <v>1</v>
@@ -36279,7 +36279,7 @@
         <v>2022</v>
       </c>
       <c r="E381" s="4">
-        <v>0.11243953168649698</v>
+        <v>0.10772034897289151</v>
       </c>
       <c r="F381" s="4">
         <v>1</v>
@@ -36332,7 +36332,7 @@
         <v>2022</v>
       </c>
       <c r="E382" s="3">
-        <v>0.10260861218184329</v>
+        <v>0.10762824850845455</v>
       </c>
       <c r="F382" s="3">
         <v>1</v>
@@ -36385,7 +36385,7 @@
         <v>2022</v>
       </c>
       <c r="E383" s="4">
-        <v>0.10127750284705274</v>
+        <v>0.11255980974057808</v>
       </c>
       <c r="F383" s="4">
         <v>1</v>
@@ -36438,7 +36438,7 @@
         <v>2022</v>
       </c>
       <c r="E384" s="3">
-        <v>0.1053582618867203</v>
+        <v>0.10090008416061882</v>
       </c>
       <c r="F384" s="3">
         <v>1</v>
@@ -36491,7 +36491,7 @@
         <v>2022</v>
       </c>
       <c r="E385" s="4">
-        <v>0.10585966196758853</v>
+        <v>0.10214633869688095</v>
       </c>
       <c r="F385" s="4">
         <v>1</v>
@@ -36544,7 +36544,7 @@
         <v>2022</v>
       </c>
       <c r="E386" s="3">
-        <v>0.11265722369334792</v>
+        <v>0.10420603999247074</v>
       </c>
       <c r="F386" s="3">
         <v>1</v>
@@ -36597,7 +36597,7 @@
         <v>2022</v>
       </c>
       <c r="E387" s="4">
-        <v>0.10930731082165113</v>
+        <v>0.11132675841774924</v>
       </c>
       <c r="F387" s="4">
         <v>1</v>
@@ -36650,7 +36650,7 @@
         <v>2022</v>
       </c>
       <c r="E388" s="3">
-        <v>0.10352156608631437</v>
+        <v>0.10652175481682753</v>
       </c>
       <c r="F388" s="3">
         <v>1</v>
@@ -36703,7 +36703,7 @@
         <v>2022</v>
       </c>
       <c r="E389" s="4">
-        <v>0.10281889750798776</v>
+        <v>0.10724052487495081</v>
       </c>
       <c r="F389" s="4">
         <v>1</v>
@@ -36756,7 +36756,7 @@
         <v>2022</v>
       </c>
       <c r="E390" s="3">
-        <v>0.10772034897289151</v>
+        <v>0.1015976002654105</v>
       </c>
       <c r="F390" s="3">
         <v>1</v>
@@ -36809,7 +36809,7 @@
         <v>2022</v>
       </c>
       <c r="E391" s="4">
-        <v>0.10954770591501538</v>
+        <v>0.11265722369334792</v>
       </c>
       <c r="F391" s="4">
         <v>1</v>
@@ -36862,7 +36862,7 @@
         <v>2022</v>
       </c>
       <c r="E392" s="3">
-        <v>0.10762824850845455</v>
+        <v>0.11048465102438351</v>
       </c>
       <c r="F392" s="3">
         <v>1</v>
@@ -36915,7 +36915,7 @@
         <v>2022</v>
       </c>
       <c r="E393" s="4">
-        <v>0.10652175481682753</v>
+        <v>0.10260861218184329</v>
       </c>
       <c r="F393" s="4">
         <v>1</v>
@@ -36968,7 +36968,7 @@
         <v>2022</v>
       </c>
       <c r="E394" s="3">
-        <v>0.10382330781770392</v>
+        <v>0.10352156608631437</v>
       </c>
       <c r="F394" s="3">
         <v>1</v>
@@ -37021,7 +37021,7 @@
         <v>2022</v>
       </c>
       <c r="E395" s="4">
-        <v>0.10717740707414788</v>
+        <v>0.1111795908924077</v>
       </c>
       <c r="F395" s="4">
         <v>1</v>
@@ -37074,7 +37074,7 @@
         <v>2022</v>
       </c>
       <c r="E396" s="3">
-        <v>0.10351496447959772</v>
+        <v>0.10585966196758853</v>
       </c>
       <c r="F396" s="3">
         <v>1</v>
@@ -37127,7 +37127,7 @@
         <v>2022</v>
       </c>
       <c r="E397" s="4">
-        <v>0.10420603999247074</v>
+        <v>0.10603516809737222</v>
       </c>
       <c r="F397" s="4">
         <v>1</v>
@@ -37180,7 +37180,7 @@
         <v>2022</v>
       </c>
       <c r="E398" s="3">
-        <v>0.10214633869688095</v>
+        <v>0.11350287341226893</v>
       </c>
       <c r="F398" s="3">
         <v>1</v>
@@ -37189,7 +37189,7 @@
         <v>1138.5</v>
       </c>
       <c r="H398" s="3">
-        <v>18.150000000000002</v>
+        <v>18.149999999999999</v>
       </c>
       <c r="I398" s="3">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>2022</v>
       </c>
       <c r="E399" s="4">
-        <v>0.10090008416061882</v>
+        <v>0.11708432556344184</v>
       </c>
       <c r="F399" s="4">
         <v>1</v>
@@ -37286,7 +37286,7 @@
         <v>2022</v>
       </c>
       <c r="E400" s="3">
-        <v>0.112250983358078</v>
+        <v>0.106881944919879</v>
       </c>
       <c r="F400" s="3">
         <v>1</v>
@@ -37339,7 +37339,7 @@
         <v>2022</v>
       </c>
       <c r="E401" s="4">
-        <v>0.11048465102438351</v>
+        <v>0.10127750284705274</v>
       </c>
       <c r="F401" s="4">
         <v>1</v>
@@ -37392,7 +37392,7 @@
         <v>2022</v>
       </c>
       <c r="E402" s="3">
-        <v>0.10603516809737222</v>
+        <v>0.11050268468175577</v>
       </c>
       <c r="F402" s="3">
         <v>1</v>
@@ -37445,7 +37445,7 @@
         <v>2022</v>
       </c>
       <c r="E403" s="4">
-        <v>0.11350287341226893</v>
+        <v>0.11326730876284366</v>
       </c>
       <c r="F403" s="4">
         <v>1</v>
@@ -37454,7 +37454,7 @@
         <v>1138.5</v>
       </c>
       <c r="H403" s="4">
-        <v>18.149999999999999</v>
+        <v>18.150000000000002</v>
       </c>
       <c r="I403" s="4">
         <v>0</v>
@@ -37498,7 +37498,7 @@
         <v>2022</v>
       </c>
       <c r="E404" s="3">
-        <v>0.11708432556344184</v>
+        <v>0.10281889750798776</v>
       </c>
       <c r="F404" s="3">
         <v>1</v>
@@ -37551,7 +37551,7 @@
         <v>2022</v>
       </c>
       <c r="E405" s="4">
-        <v>0.11132675841774924</v>
+        <v>0.10930731082165113</v>
       </c>
       <c r="F405" s="4">
         <v>1</v>
@@ -37604,7 +37604,7 @@
         <v>2022</v>
       </c>
       <c r="E406" s="3">
-        <v>0.10724052487495081</v>
+        <v>0.1053582618867203</v>
       </c>
       <c r="F406" s="3">
         <v>1</v>
@@ -37657,7 +37657,7 @@
         <v>2022</v>
       </c>
       <c r="E407" s="4">
-        <v>0.11050268468175577</v>
+        <v>0.112250983358078</v>
       </c>
       <c r="F407" s="4">
         <v>1</v>
@@ -37710,7 +37710,7 @@
         <v>2022</v>
       </c>
       <c r="E408" s="3">
-        <v>0.11326730876284366</v>
+        <v>0.10351496447959772</v>
       </c>
       <c r="F408" s="3">
         <v>1</v>
@@ -38181,7 +38181,7 @@
         <v>509</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D417" s="4">
         <v>2011</v>
@@ -38234,7 +38234,7 @@
         <v>509</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D418" s="3">
         <v>2015</v>
@@ -39082,7 +39082,7 @@
         <v>509</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="D434" s="3">
         <v>2015</v>
@@ -39347,7 +39347,7 @@
         <v>509</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="D439" s="4">
         <v>2009</v>
@@ -39400,7 +39400,7 @@
         <v>509</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="D440" s="3">
         <v>2012</v>
@@ -39453,7 +39453,7 @@
         <v>509</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="D441" s="4">
         <v>2015</v>
@@ -39877,7 +39877,7 @@
         <v>509</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="D449" s="4">
         <v>2015</v>
@@ -40831,7 +40831,7 @@
         <v>509</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D467" s="4">
         <v>2015</v>
@@ -41785,7 +41785,7 @@
         <v>509</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D485" s="4">
         <v>2015</v>
@@ -42527,7 +42527,7 @@
         <v>509</v>
       </c>
       <c r="C499" s="4" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="D499" s="4">
         <v>2010</v>
@@ -42580,7 +42580,7 @@
         <v>509</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="D500" s="3">
         <v>2015</v>
@@ -42633,7 +42633,7 @@
         <v>509</v>
       </c>
       <c r="C501" s="4" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D501" s="4">
         <v>2015</v>
@@ -42898,7 +42898,7 @@
         <v>509</v>
       </c>
       <c r="C506" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D506" s="3">
         <v>2011</v>
@@ -42951,7 +42951,7 @@
         <v>509</v>
       </c>
       <c r="C507" s="4" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D507" s="4">
         <v>2015</v>
@@ -43481,7 +43481,7 @@
         <v>509</v>
       </c>
       <c r="C517" s="4" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="D517" s="4">
         <v>2015</v>
@@ -44488,7 +44488,7 @@
         <v>509</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="D536" s="3">
         <v>2010</v>
@@ -44541,7 +44541,7 @@
         <v>509</v>
       </c>
       <c r="C537" s="4" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="D537" s="4">
         <v>2011</v>
@@ -44594,7 +44594,7 @@
         <v>509</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="D538" s="3">
         <v>2015</v>
@@ -44647,7 +44647,7 @@
         <v>509</v>
       </c>
       <c r="C539" s="4" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="D539" s="4">
         <v>2023</v>
@@ -45389,7 +45389,7 @@
         <v>509</v>
       </c>
       <c r="C553" s="4" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="D553" s="4">
         <v>2011</v>
@@ -45442,7 +45442,7 @@
         <v>509</v>
       </c>
       <c r="C554" s="3" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="D554" s="3">
         <v>2015</v>
@@ -45495,7 +45495,7 @@
         <v>509</v>
       </c>
       <c r="C555" s="4" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="D555" s="4">
         <v>2024</v>
@@ -45548,7 +45548,7 @@
         <v>509</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="D556" s="3">
         <v>2025</v>
@@ -45601,7 +45601,7 @@
         <v>509</v>
       </c>
       <c r="C557" s="4" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="D557" s="4">
         <v>2011</v>
@@ -45654,7 +45654,7 @@
         <v>509</v>
       </c>
       <c r="C558" s="3" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="D558" s="3">
         <v>2015</v>
@@ -45707,7 +45707,7 @@
         <v>509</v>
       </c>
       <c r="C559" s="4" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="D559" s="4">
         <v>2024</v>
@@ -45760,7 +45760,7 @@
         <v>509</v>
       </c>
       <c r="C560" s="3" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="D560" s="3">
         <v>2025</v>
@@ -46184,7 +46184,7 @@
         <v>509</v>
       </c>
       <c r="C568" s="3" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="D568" s="3">
         <v>2015</v>
@@ -46661,7 +46661,7 @@
         <v>509</v>
       </c>
       <c r="C577" s="4" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="D577" s="4">
         <v>2011</v>
@@ -46714,7 +46714,7 @@
         <v>509</v>
       </c>
       <c r="C578" s="3" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="D578" s="3">
         <v>2015</v>
@@ -46767,7 +46767,7 @@
         <v>509</v>
       </c>
       <c r="C579" s="4" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="D579" s="4">
         <v>2024</v>
@@ -47191,7 +47191,7 @@
         <v>509</v>
       </c>
       <c r="C587" s="4" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="D587" s="4">
         <v>2011</v>
@@ -47244,7 +47244,7 @@
         <v>509</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="D588" s="3">
         <v>2015</v>
@@ -47297,7 +47297,7 @@
         <v>509</v>
       </c>
       <c r="C589" s="4" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="D589" s="4">
         <v>2025</v>
@@ -48092,7 +48092,7 @@
         <v>509</v>
       </c>
       <c r="C604" s="3" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="D604" s="3">
         <v>2015</v>
@@ -51537,7 +51537,7 @@
         <v>509</v>
       </c>
       <c r="C669" s="4" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="D669" s="4">
         <v>2011</v>
@@ -52165,7 +52165,7 @@
         <v>509</v>
       </c>
       <c r="C686" s="3" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="D686" s="3">
         <v>2012</v>
@@ -52197,7 +52197,7 @@
         <v>509</v>
       </c>
       <c r="C687" s="4" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="D687" s="4">
         <v>2015</v>
@@ -52229,7 +52229,7 @@
         <v>509</v>
       </c>
       <c r="C688" s="3" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="D688" s="3">
         <v>2022</v>
@@ -52261,7 +52261,7 @@
         <v>509</v>
       </c>
       <c r="C689" s="4" t="s">
-        <v>511</v>
+        <v>535</v>
       </c>
       <c r="D689" s="4">
         <v>2011</v>
@@ -52293,7 +52293,7 @@
         <v>509</v>
       </c>
       <c r="C690" s="3" t="s">
-        <v>511</v>
+        <v>535</v>
       </c>
       <c r="D690" s="3">
         <v>2023</v>
@@ -53861,7 +53861,7 @@
         <v>509</v>
       </c>
       <c r="C739" s="4" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="D739" s="4">
         <v>2011</v>
@@ -53893,7 +53893,7 @@
         <v>509</v>
       </c>
       <c r="C740" s="3" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="D740" s="3">
         <v>2012</v>
@@ -53925,7 +53925,7 @@
         <v>509</v>
       </c>
       <c r="C741" s="4" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="D741" s="4">
         <v>2028</v>
@@ -54789,7 +54789,7 @@
         <v>509</v>
       </c>
       <c r="C768" s="3" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D768" s="3">
         <v>2009</v>
@@ -54821,7 +54821,7 @@
         <v>509</v>
       </c>
       <c r="C769" s="4" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D769" s="4">
         <v>2012</v>
@@ -54853,7 +54853,7 @@
         <v>509</v>
       </c>
       <c r="C770" s="3" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D770" s="3">
         <v>2015</v>
@@ -54949,7 +54949,7 @@
         <v>509</v>
       </c>
       <c r="C773" s="4" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="D773" s="4">
         <v>2013</v>
@@ -54981,7 +54981,7 @@
         <v>509</v>
       </c>
       <c r="C774" s="3" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="D774" s="3">
         <v>2015</v>
@@ -55077,7 +55077,7 @@
         <v>509</v>
       </c>
       <c r="C777" s="4" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="D777" s="4">
         <v>2010</v>
@@ -55109,7 +55109,7 @@
         <v>509</v>
       </c>
       <c r="C778" s="3" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="D778" s="3">
         <v>2011</v>
@@ -55141,7 +55141,7 @@
         <v>509</v>
       </c>
       <c r="C779" s="4" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="D779" s="4">
         <v>2015</v>
@@ -55173,7 +55173,7 @@
         <v>509</v>
       </c>
       <c r="C780" s="3" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="D780" s="3">
         <v>2010</v>
@@ -55205,7 +55205,7 @@
         <v>509</v>
       </c>
       <c r="C781" s="4" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="D781" s="4">
         <v>2011</v>
@@ -55269,7 +55269,7 @@
         <v>509</v>
       </c>
       <c r="C783" s="4" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="D783" s="4">
         <v>2028</v>
@@ -55301,7 +55301,7 @@
         <v>509</v>
       </c>
       <c r="C784" s="3" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="D784" s="3">
         <v>2028</v>
@@ -55333,7 +55333,7 @@
         <v>509</v>
       </c>
       <c r="C785" s="4" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="D785" s="4">
         <v>2025</v>
@@ -55365,7 +55365,7 @@
         <v>509</v>
       </c>
       <c r="C786" s="3" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="D786" s="3">
         <v>2025</v>
@@ -55397,7 +55397,7 @@
         <v>509</v>
       </c>
       <c r="C787" s="4" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D787" s="4">
         <v>2028</v>
@@ -55493,7 +55493,7 @@
         <v>509</v>
       </c>
       <c r="C790" s="3" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="D790" s="3">
         <v>2028</v>
@@ -66149,7 +66149,7 @@
         <v>938</v>
       </c>
       <c r="C1123" s="4" t="s">
-        <v>977</v>
+        <v>955</v>
       </c>
       <c r="D1123" s="4">
         <v>2011</v>
@@ -66213,7 +66213,7 @@
         <v>938</v>
       </c>
       <c r="C1125" s="4" t="s">
-        <v>955</v>
+        <v>977</v>
       </c>
       <c r="D1125" s="4">
         <v>2011</v>

--- a/VerveStacks_ITA_grids/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA_grids/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BB24B01-0DE2-485D-BD15-3C423689F676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D8CDD6D-DC9D-447A-B7F8-02BEAB2AA12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{696A323E-130C-4861-A680-58E703A09138}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{D6267BE7-F73F-4B93-8F92-1BCC50C66170}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -78,30 +78,30 @@
     <t>bioenergy</t>
   </si>
   <si>
+    <t>e_w81938081-380</t>
+  </si>
+  <si>
+    <t>e_w109756016-380</t>
+  </si>
+  <si>
+    <t>e_w377588191-220</t>
+  </si>
+  <si>
+    <t>e_w105141350-220</t>
+  </si>
+  <si>
+    <t>e_w144006711-220</t>
+  </si>
+  <si>
     <t>e_IT67-220</t>
   </si>
   <si>
-    <t>e_w105141350-220</t>
-  </si>
-  <si>
-    <t>e_w144006711-220</t>
-  </si>
-  <si>
-    <t>e_w81938081-380</t>
+    <t>e_IT135-220</t>
   </si>
   <si>
     <t>e_w116692433-220</t>
   </si>
   <si>
-    <t>e_IT135-220</t>
-  </si>
-  <si>
-    <t>e_w377588191-220</t>
-  </si>
-  <si>
-    <t>e_w109756016-380</t>
-  </si>
-  <si>
     <t>ep_bioenergy_IT135-220</t>
   </si>
   <si>
@@ -945,21 +945,21 @@
     <t>hydro</t>
   </si>
   <si>
+    <t>e_w104359058-380</t>
+  </si>
+  <si>
     <t>e_w409768426-220</t>
   </si>
   <si>
+    <t>e_w419423704-380</t>
+  </si>
+  <si>
     <t>e_IT13-380</t>
   </si>
   <si>
-    <t>e_w104359058-380</t>
-  </si>
-  <si>
     <t>e_w64200868-380</t>
   </si>
   <si>
-    <t>e_w419423704-380</t>
-  </si>
-  <si>
     <t>ep_hydro_dam_G100000602237</t>
   </si>
   <si>
@@ -1569,108 +1569,108 @@
     <t>solar</t>
   </si>
   <si>
+    <t>elc_spv-ITA_0167</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0092</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0023</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0216</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0019</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0105</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0116</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0029</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0068</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0112</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0069</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0186</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0081</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0205</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0211</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0101</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0100</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0168</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0215</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0007</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0042</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0115</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0196</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0030</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0024</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0213</t>
+  </si>
+  <si>
     <t>elc_spv-ITA_0077</t>
   </si>
   <si>
-    <t>elc_spv-ITA_0024</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0213</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0069</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0030</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0205</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0029</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0081</t>
+    <t>elc_spv-ITA_0091</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0018</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0157</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0124</t>
   </si>
   <si>
     <t>elc_spv-ITA_0080</t>
   </si>
   <si>
-    <t>elc_spv-ITA_0215</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0157</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0018</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0091</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0186</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0023</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0112</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0068</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0216</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0101</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0100</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0115</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0167</t>
-  </si>
-  <si>
     <t>elc_spv-ITA_0073</t>
   </si>
   <si>
     <t>elc_spv-ITA_0058</t>
   </si>
   <si>
-    <t>elc_spv-ITA_0211</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0168</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0105</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0007</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0042</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0124</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0019</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0116</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0196</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0092</t>
-  </si>
-  <si>
     <t>ep_solar_pv_000</t>
   </si>
   <si>
@@ -3426,42 +3426,42 @@
     <t>ele</t>
   </si>
   <si>
+    <t>Aggregated Plant - EMBER Gap - IT67-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>TWh</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/377588191-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/105141350-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - IT135-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/81938081-380_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - EMBER Gap - way/109756016-380_Missing Bioenergy Capacity</t>
   </si>
   <si>
-    <t>GW</t>
-  </si>
-  <si>
-    <t>TWh</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>Aggregated Plant - EMBER Gap - way/144006711-220_Missing Bioenergy Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - EMBER Gap - IT67-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - EMBER Gap - way/116692433-220_Missing Bioenergy Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - EMBER Gap - way/377588191-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/105141350-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/81938081-380_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - IT135-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant</t>
   </si>
   <si>
@@ -3849,21 +3849,21 @@
     <t>Taranto CHP power station_CET2-1</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - way/409768426-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - way/104359058-380_Missing Hydro Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - way/64200868-380_Missing Hydro Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - way/419423704-380_Missing Hydro Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - IT13-380_Missing Hydro Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - way/409768426-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - way/64200868-380_Missing Hydro Capacity</t>
-  </si>
-  <si>
     <t>Lana hydroelectric plant_</t>
   </si>
   <si>
@@ -4014,19 +4014,79 @@
     <t>San Filippo del Mela power station_1</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_167_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>annual</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_112_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_168_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_77_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_81_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_205_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_100_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_7_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_157_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_211_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_30_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_213_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_73_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_124_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_42_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_105_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_92_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_58_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_215_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_24_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - ITA_186_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>annual</t>
-  </si>
-  <si>
     <t>Aggregated Plant - IRENA Gap - ITA_91_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_157_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_213_Missing Solar Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - ITA_116_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_18_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - ITA_115_Missing Solar Capacity</t>
@@ -4035,88 +4095,28 @@
     <t>Aggregated Plant - IRENA Gap - ITA_216_Missing Solar Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_19_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - ITA_29_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_19_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_92_Missing Solar Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - IRENA Gap - ITA_23_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_58_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_211_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_105_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_81_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_77_Missing Solar Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - ITA_68_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_69_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - ITA_80_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_68_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_69_Missing Solar Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - IRENA Gap - ITA_101_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - ITA_196_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_205_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_100_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_24_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_124_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_42_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_215_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_18_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_116_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_167_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_112_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_168_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_30_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_7_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_73_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Tuscania solar farm_--</t>
@@ -5242,7 +5242,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E1A0266-15CB-7501-D80B-5A60990EDA3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9901493-C0D2-E149-AA40-460D991FB319}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5297,7 +5297,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C0A8B89-C9BD-8F66-BA8B-0A722AEEB05C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF298194-C914-20E3-82C1-DD6D6D9FCEF2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5648,7 +5648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F41E9F41-8AD6-4B47-B970-7513148BD7F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA74A9A8-EDAC-43AC-812C-0531093BA31B}">
   <dimension ref="A1:U192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -9908,7 +9908,7 @@
         <v>45</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D78" s="3">
         <v>0.49118125000000001</v>
@@ -9964,7 +9964,7 @@
         <v>45</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D79" s="4">
         <v>0.49118125000000001</v>
@@ -15004,7 +15004,7 @@
         <v>45</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D169" s="4">
         <v>0.28839999999999999</v>
@@ -15060,7 +15060,7 @@
         <v>45</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D170" s="3">
         <v>0.28839999999999999</v>
@@ -15116,7 +15116,7 @@
         <v>45</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D171" s="4">
         <v>0.28839999999999999</v>
@@ -16182,7 +16182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BABCAA-9687-4D01-BBB9-F0DDF7631AD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E089CE-E73B-4B68-889C-793E8AD817DC}">
   <dimension ref="A1:T1127"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16298,13 +16298,13 @@
         <v>2022</v>
       </c>
       <c r="E4" s="3">
-        <v>0.30441211225997045</v>
+        <v>0.41792171344165435</v>
       </c>
       <c r="F4" s="3">
         <v>0.36049999999999999</v>
       </c>
       <c r="G4" s="3">
-        <v>3850.0000000000009</v>
+        <v>3850.0000000000005</v>
       </c>
       <c r="H4" s="3">
         <v>143</v>
@@ -16351,13 +16351,13 @@
         <v>2022</v>
       </c>
       <c r="E5" s="4">
-        <v>0.33536927621861151</v>
+        <v>0.47467651403249633</v>
       </c>
       <c r="F5" s="4">
         <v>0.36049999999999999</v>
       </c>
       <c r="G5" s="4">
-        <v>3850</v>
+        <v>3850.0000000000005</v>
       </c>
       <c r="H5" s="4">
         <v>143</v>
@@ -16404,19 +16404,19 @@
         <v>2022</v>
       </c>
       <c r="E6" s="3">
-        <v>0.19090251107828654</v>
+        <v>0.90807680945347113</v>
       </c>
       <c r="F6" s="3">
-        <v>0.33990000000000004</v>
+        <v>0.36049999999999999</v>
       </c>
       <c r="G6" s="3">
-        <v>4427.5</v>
+        <v>3850.0000000000005</v>
       </c>
       <c r="H6" s="3">
-        <v>157.30000000000001</v>
+        <v>143</v>
       </c>
       <c r="I6" s="3">
-        <v>9.240000000000002</v>
+        <v>8.4</v>
       </c>
       <c r="J6" s="3">
         <v>50</v>
@@ -16457,13 +16457,13 @@
         <v>2022</v>
       </c>
       <c r="E7" s="4">
-        <v>0.41792171344165435</v>
+        <v>0.33536927621861151</v>
       </c>
       <c r="F7" s="4">
         <v>0.36049999999999999</v>
       </c>
       <c r="G7" s="4">
-        <v>3850.0000000000005</v>
+        <v>3850</v>
       </c>
       <c r="H7" s="4">
         <v>143</v>
@@ -16510,19 +16510,19 @@
         <v>2022</v>
       </c>
       <c r="E8" s="3">
-        <v>0.43855982274741512</v>
+        <v>0.19090251107828654</v>
       </c>
       <c r="F8" s="3">
-        <v>0.36049999999999999</v>
+        <v>0.33990000000000004</v>
       </c>
       <c r="G8" s="3">
-        <v>3850</v>
+        <v>4427.5</v>
       </c>
       <c r="H8" s="3">
-        <v>143</v>
+        <v>157.30000000000001</v>
       </c>
       <c r="I8" s="3">
-        <v>8.4</v>
+        <v>9.240000000000002</v>
       </c>
       <c r="J8" s="3">
         <v>50</v>
@@ -16563,13 +16563,13 @@
         <v>2022</v>
       </c>
       <c r="E9" s="4">
-        <v>0.42308124076809456</v>
+        <v>0.30441211225997045</v>
       </c>
       <c r="F9" s="4">
         <v>0.36049999999999999</v>
       </c>
       <c r="G9" s="4">
-        <v>3850.0000000000005</v>
+        <v>3850.0000000000009</v>
       </c>
       <c r="H9" s="4">
         <v>143</v>
@@ -16616,7 +16616,7 @@
         <v>2022</v>
       </c>
       <c r="E10" s="3">
-        <v>0.90807680945347113</v>
+        <v>0.42308124076809456</v>
       </c>
       <c r="F10" s="3">
         <v>0.36049999999999999</v>
@@ -16669,13 +16669,13 @@
         <v>2022</v>
       </c>
       <c r="E11" s="4">
-        <v>0.47467651403249633</v>
+        <v>0.43855982274741512</v>
       </c>
       <c r="F11" s="4">
         <v>0.36049999999999999</v>
       </c>
       <c r="G11" s="4">
-        <v>3850.0000000000005</v>
+        <v>3850</v>
       </c>
       <c r="H11" s="4">
         <v>143</v>
@@ -16716,7 +16716,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" s="3">
         <v>1965</v>
@@ -16769,7 +16769,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D13" s="4">
         <v>2001</v>
@@ -16822,7 +16822,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D14" s="3">
         <v>2013</v>
@@ -16875,7 +16875,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D15" s="4">
         <v>2003</v>
@@ -16928,7 +16928,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D16" s="3">
         <v>1998</v>
@@ -16981,7 +16981,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D17" s="4">
         <v>2009</v>
@@ -17034,7 +17034,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D18" s="3">
         <v>2008</v>
@@ -17087,7 +17087,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D19" s="4">
         <v>2009</v>
@@ -17140,7 +17140,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D20" s="3">
         <v>2008</v>
@@ -17193,7 +17193,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D21" s="4">
         <v>2018</v>
@@ -21168,7 +21168,7 @@
         <v>45</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D96" s="3">
         <v>2010</v>
@@ -21221,7 +21221,7 @@
         <v>45</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D97" s="4">
         <v>2010</v>
@@ -25991,7 +25991,7 @@
         <v>45</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D187" s="4">
         <v>1978</v>
@@ -26044,7 +26044,7 @@
         <v>45</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D188" s="3">
         <v>1981</v>
@@ -26097,7 +26097,7 @@
         <v>45</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D189" s="4">
         <v>1987</v>
@@ -27693,19 +27693,19 @@
         <v>2022</v>
       </c>
       <c r="E219" s="4">
-        <v>0.10604292333736391</v>
+        <v>0.55308012203143864</v>
       </c>
       <c r="F219" s="4">
         <v>1</v>
       </c>
       <c r="G219" s="4">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H219" s="4">
-        <v>60.500000000000014</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="I219" s="4">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J219" s="4">
         <v>100</v>
@@ -27746,7 +27746,7 @@
         <v>2022</v>
       </c>
       <c r="E220" s="3">
-        <v>0.11046137847642074</v>
+        <v>0.10604292333736391</v>
       </c>
       <c r="F220" s="3">
         <v>1</v>
@@ -27799,19 +27799,19 @@
         <v>2022</v>
       </c>
       <c r="E221" s="4">
-        <v>0.55308012203143864</v>
+        <v>0.10880445779927443</v>
       </c>
       <c r="F221" s="4">
         <v>1</v>
       </c>
       <c r="G221" s="4">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H221" s="4">
-        <v>55.000000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I221" s="4">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J221" s="4">
         <v>100</v>
@@ -27852,7 +27852,7 @@
         <v>2022</v>
       </c>
       <c r="E222" s="3">
-        <v>0.11156599226118494</v>
+        <v>0.11046137847642074</v>
       </c>
       <c r="F222" s="3">
         <v>1</v>
@@ -27861,7 +27861,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H222" s="3">
-        <v>60.500000000000021</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I222" s="3">
         <v>2.3100000000000005</v>
@@ -27905,7 +27905,7 @@
         <v>2022</v>
       </c>
       <c r="E223" s="4">
-        <v>0.10880445779927443</v>
+        <v>0.11156599226118494</v>
       </c>
       <c r="F223" s="4">
         <v>1</v>
@@ -27914,7 +27914,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H223" s="4">
-        <v>60.500000000000014</v>
+        <v>60.500000000000021</v>
       </c>
       <c r="I223" s="4">
         <v>2.3100000000000005</v>
@@ -28429,7 +28429,7 @@
         <v>301</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D233" s="4">
         <v>2022</v>
@@ -31662,7 +31662,7 @@
         <v>301</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D294" s="3">
         <v>1928</v>
@@ -32351,7 +32351,7 @@
         <v>427</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D307" s="4">
         <v>2015</v>
@@ -32404,7 +32404,7 @@
         <v>427</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D308" s="3">
         <v>2015</v>
@@ -32457,7 +32457,7 @@
         <v>427</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D309" s="4">
         <v>1982</v>
@@ -32669,7 +32669,7 @@
         <v>427</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D313" s="4">
         <v>1991</v>
@@ -32828,7 +32828,7 @@
         <v>427</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D316" s="3">
         <v>1971</v>
@@ -33040,7 +33040,7 @@
         <v>427</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D320" s="3">
         <v>1978</v>
@@ -34047,7 +34047,7 @@
         <v>301</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D339" s="4">
         <v>2015</v>
@@ -34418,7 +34418,7 @@
         <v>301</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D346" s="3">
         <v>2015</v>
@@ -35961,7 +35961,7 @@
         <v>2022</v>
       </c>
       <c r="E375" s="4">
-        <v>0.10128313836498157</v>
+        <v>0.10585966196758853</v>
       </c>
       <c r="F375" s="4">
         <v>1</v>
@@ -36014,7 +36014,7 @@
         <v>2022</v>
       </c>
       <c r="E376" s="3">
-        <v>0.10382330781770392</v>
+        <v>0.10351496447959772</v>
       </c>
       <c r="F376" s="3">
         <v>1</v>
@@ -36067,7 +36067,7 @@
         <v>2022</v>
       </c>
       <c r="E377" s="4">
-        <v>0.10717740707414788</v>
+        <v>0.10724052487495081</v>
       </c>
       <c r="F377" s="4">
         <v>1</v>
@@ -36120,7 +36120,7 @@
         <v>2022</v>
       </c>
       <c r="E378" s="3">
-        <v>0.11243953168649698</v>
+        <v>0.11048465102438351</v>
       </c>
       <c r="F378" s="3">
         <v>1</v>
@@ -36173,7 +36173,7 @@
         <v>2022</v>
       </c>
       <c r="E379" s="4">
-        <v>0.11384197057678677</v>
+        <v>0.10930731082165113</v>
       </c>
       <c r="F379" s="4">
         <v>1</v>
@@ -36226,7 +36226,7 @@
         <v>2022</v>
       </c>
       <c r="E380" s="3">
-        <v>0.10954770591501538</v>
+        <v>0.10127750284705274</v>
       </c>
       <c r="F380" s="3">
         <v>1</v>
@@ -36279,7 +36279,7 @@
         <v>2022</v>
       </c>
       <c r="E381" s="4">
-        <v>0.10772034897289151</v>
+        <v>0.1053582618867203</v>
       </c>
       <c r="F381" s="4">
         <v>1</v>
@@ -36332,7 +36332,7 @@
         <v>2022</v>
       </c>
       <c r="E382" s="3">
-        <v>0.10762824850845455</v>
+        <v>0.10772034897289151</v>
       </c>
       <c r="F382" s="3">
         <v>1</v>
@@ -36385,7 +36385,7 @@
         <v>2022</v>
       </c>
       <c r="E383" s="4">
-        <v>0.11255980974057808</v>
+        <v>0.11265722369334792</v>
       </c>
       <c r="F383" s="4">
         <v>1</v>
@@ -36438,7 +36438,7 @@
         <v>2022</v>
       </c>
       <c r="E384" s="3">
-        <v>0.10090008416061882</v>
+        <v>0.1015976002654105</v>
       </c>
       <c r="F384" s="3">
         <v>1</v>
@@ -36491,7 +36491,7 @@
         <v>2022</v>
       </c>
       <c r="E385" s="4">
-        <v>0.10214633869688095</v>
+        <v>0.11243953168649698</v>
       </c>
       <c r="F385" s="4">
         <v>1</v>
@@ -36544,7 +36544,7 @@
         <v>2022</v>
       </c>
       <c r="E386" s="3">
-        <v>0.10420603999247074</v>
+        <v>0.10652175481682753</v>
       </c>
       <c r="F386" s="3">
         <v>1</v>
@@ -36597,7 +36597,7 @@
         <v>2022</v>
       </c>
       <c r="E387" s="4">
-        <v>0.11132675841774924</v>
+        <v>0.10762824850845455</v>
       </c>
       <c r="F387" s="4">
         <v>1</v>
@@ -36650,7 +36650,7 @@
         <v>2022</v>
       </c>
       <c r="E388" s="3">
-        <v>0.10652175481682753</v>
+        <v>0.10954770591501538</v>
       </c>
       <c r="F388" s="3">
         <v>1</v>
@@ -36703,7 +36703,7 @@
         <v>2022</v>
       </c>
       <c r="E389" s="4">
-        <v>0.10724052487495081</v>
+        <v>0.11708432556344184</v>
       </c>
       <c r="F389" s="4">
         <v>1</v>
@@ -36756,7 +36756,7 @@
         <v>2022</v>
       </c>
       <c r="E390" s="3">
-        <v>0.1015976002654105</v>
+        <v>0.10260861218184329</v>
       </c>
       <c r="F390" s="3">
         <v>1</v>
@@ -36809,7 +36809,7 @@
         <v>2022</v>
       </c>
       <c r="E391" s="4">
-        <v>0.11265722369334792</v>
+        <v>0.10352156608631437</v>
       </c>
       <c r="F391" s="4">
         <v>1</v>
@@ -36862,7 +36862,7 @@
         <v>2022</v>
       </c>
       <c r="E392" s="3">
-        <v>0.11048465102438351</v>
+        <v>0.106881944919879</v>
       </c>
       <c r="F392" s="3">
         <v>1</v>
@@ -36915,7 +36915,7 @@
         <v>2022</v>
       </c>
       <c r="E393" s="4">
-        <v>0.10260861218184329</v>
+        <v>0.10090008416061882</v>
       </c>
       <c r="F393" s="4">
         <v>1</v>
@@ -36968,7 +36968,7 @@
         <v>2022</v>
       </c>
       <c r="E394" s="3">
-        <v>0.10352156608631437</v>
+        <v>0.11050268468175577</v>
       </c>
       <c r="F394" s="3">
         <v>1</v>
@@ -37021,7 +37021,7 @@
         <v>2022</v>
       </c>
       <c r="E395" s="4">
-        <v>0.1111795908924077</v>
+        <v>0.11326730876284366</v>
       </c>
       <c r="F395" s="4">
         <v>1</v>
@@ -37074,7 +37074,7 @@
         <v>2022</v>
       </c>
       <c r="E396" s="3">
-        <v>0.10585966196758853</v>
+        <v>0.1111795908924077</v>
       </c>
       <c r="F396" s="3">
         <v>1</v>
@@ -37127,7 +37127,7 @@
         <v>2022</v>
       </c>
       <c r="E397" s="4">
-        <v>0.10603516809737222</v>
+        <v>0.112250983358078</v>
       </c>
       <c r="F397" s="4">
         <v>1</v>
@@ -37180,7 +37180,7 @@
         <v>2022</v>
       </c>
       <c r="E398" s="3">
-        <v>0.11350287341226893</v>
+        <v>0.11384197057678677</v>
       </c>
       <c r="F398" s="3">
         <v>1</v>
@@ -37189,7 +37189,7 @@
         <v>1138.5</v>
       </c>
       <c r="H398" s="3">
-        <v>18.149999999999999</v>
+        <v>18.150000000000002</v>
       </c>
       <c r="I398" s="3">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>2022</v>
       </c>
       <c r="E399" s="4">
-        <v>0.11708432556344184</v>
+        <v>0.10382330781770392</v>
       </c>
       <c r="F399" s="4">
         <v>1</v>
@@ -37286,7 +37286,7 @@
         <v>2022</v>
       </c>
       <c r="E400" s="3">
-        <v>0.106881944919879</v>
+        <v>0.10717740707414788</v>
       </c>
       <c r="F400" s="3">
         <v>1</v>
@@ -37339,7 +37339,7 @@
         <v>2022</v>
       </c>
       <c r="E401" s="4">
-        <v>0.10127750284705274</v>
+        <v>0.10128313836498157</v>
       </c>
       <c r="F401" s="4">
         <v>1</v>
@@ -37392,7 +37392,7 @@
         <v>2022</v>
       </c>
       <c r="E402" s="3">
-        <v>0.11050268468175577</v>
+        <v>0.11132675841774924</v>
       </c>
       <c r="F402" s="3">
         <v>1</v>
@@ -37445,7 +37445,7 @@
         <v>2022</v>
       </c>
       <c r="E403" s="4">
-        <v>0.11326730876284366</v>
+        <v>0.10420603999247074</v>
       </c>
       <c r="F403" s="4">
         <v>1</v>
@@ -37498,7 +37498,7 @@
         <v>2022</v>
       </c>
       <c r="E404" s="3">
-        <v>0.10281889750798776</v>
+        <v>0.10214633869688095</v>
       </c>
       <c r="F404" s="3">
         <v>1</v>
@@ -37551,7 +37551,7 @@
         <v>2022</v>
       </c>
       <c r="E405" s="4">
-        <v>0.10930731082165113</v>
+        <v>0.10281889750798776</v>
       </c>
       <c r="F405" s="4">
         <v>1</v>
@@ -37604,7 +37604,7 @@
         <v>2022</v>
       </c>
       <c r="E406" s="3">
-        <v>0.1053582618867203</v>
+        <v>0.11255980974057808</v>
       </c>
       <c r="F406" s="3">
         <v>1</v>
@@ -37657,7 +37657,7 @@
         <v>2022</v>
       </c>
       <c r="E407" s="4">
-        <v>0.112250983358078</v>
+        <v>0.10603516809737222</v>
       </c>
       <c r="F407" s="4">
         <v>1</v>
@@ -37710,7 +37710,7 @@
         <v>2022</v>
       </c>
       <c r="E408" s="3">
-        <v>0.10351496447959772</v>
+        <v>0.11350287341226893</v>
       </c>
       <c r="F408" s="3">
         <v>1</v>
@@ -37719,7 +37719,7 @@
         <v>1138.5</v>
       </c>
       <c r="H408" s="3">
-        <v>18.150000000000002</v>
+        <v>18.149999999999999</v>
       </c>
       <c r="I408" s="3">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>509</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="D417" s="4">
         <v>2011</v>
@@ -38234,7 +38234,7 @@
         <v>509</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="D418" s="3">
         <v>2015</v>
@@ -39082,7 +39082,7 @@
         <v>509</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>540</v>
+        <v>514</v>
       </c>
       <c r="D434" s="3">
         <v>2015</v>
@@ -39347,7 +39347,7 @@
         <v>509</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="D439" s="4">
         <v>2009</v>
@@ -39400,7 +39400,7 @@
         <v>509</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="D440" s="3">
         <v>2012</v>
@@ -39453,7 +39453,7 @@
         <v>509</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="D441" s="4">
         <v>2015</v>
@@ -39877,7 +39877,7 @@
         <v>509</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D449" s="4">
         <v>2015</v>
@@ -40831,7 +40831,7 @@
         <v>509</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="D467" s="4">
         <v>2015</v>
@@ -41785,7 +41785,7 @@
         <v>509</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="D485" s="4">
         <v>2015</v>
@@ -42527,7 +42527,7 @@
         <v>509</v>
       </c>
       <c r="C499" s="4" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="D499" s="4">
         <v>2010</v>
@@ -42580,7 +42580,7 @@
         <v>509</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="D500" s="3">
         <v>2015</v>
@@ -42633,7 +42633,7 @@
         <v>509</v>
       </c>
       <c r="C501" s="4" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="D501" s="4">
         <v>2015</v>
@@ -42898,7 +42898,7 @@
         <v>509</v>
       </c>
       <c r="C506" s="3" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="D506" s="3">
         <v>2011</v>
@@ -42951,7 +42951,7 @@
         <v>509</v>
       </c>
       <c r="C507" s="4" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="D507" s="4">
         <v>2015</v>
@@ -43481,7 +43481,7 @@
         <v>509</v>
       </c>
       <c r="C517" s="4" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="D517" s="4">
         <v>2015</v>
@@ -44488,7 +44488,7 @@
         <v>509</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="D536" s="3">
         <v>2010</v>
@@ -44541,7 +44541,7 @@
         <v>509</v>
       </c>
       <c r="C537" s="4" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="D537" s="4">
         <v>2011</v>
@@ -44594,7 +44594,7 @@
         <v>509</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="D538" s="3">
         <v>2015</v>
@@ -44647,7 +44647,7 @@
         <v>509</v>
       </c>
       <c r="C539" s="4" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="D539" s="4">
         <v>2023</v>
@@ -45389,7 +45389,7 @@
         <v>509</v>
       </c>
       <c r="C553" s="4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D553" s="4">
         <v>2011</v>
@@ -45442,7 +45442,7 @@
         <v>509</v>
       </c>
       <c r="C554" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D554" s="3">
         <v>2015</v>
@@ -45495,7 +45495,7 @@
         <v>509</v>
       </c>
       <c r="C555" s="4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D555" s="4">
         <v>2024</v>
@@ -45548,7 +45548,7 @@
         <v>509</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D556" s="3">
         <v>2025</v>
@@ -45601,7 +45601,7 @@
         <v>509</v>
       </c>
       <c r="C557" s="4" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D557" s="4">
         <v>2011</v>
@@ -45654,7 +45654,7 @@
         <v>509</v>
       </c>
       <c r="C558" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D558" s="3">
         <v>2015</v>
@@ -45707,7 +45707,7 @@
         <v>509</v>
       </c>
       <c r="C559" s="4" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D559" s="4">
         <v>2024</v>
@@ -45760,7 +45760,7 @@
         <v>509</v>
       </c>
       <c r="C560" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D560" s="3">
         <v>2025</v>
@@ -46184,7 +46184,7 @@
         <v>509</v>
       </c>
       <c r="C568" s="3" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="D568" s="3">
         <v>2015</v>
@@ -46661,7 +46661,7 @@
         <v>509</v>
       </c>
       <c r="C577" s="4" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D577" s="4">
         <v>2011</v>
@@ -46714,7 +46714,7 @@
         <v>509</v>
       </c>
       <c r="C578" s="3" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D578" s="3">
         <v>2015</v>
@@ -46767,7 +46767,7 @@
         <v>509</v>
       </c>
       <c r="C579" s="4" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D579" s="4">
         <v>2024</v>
@@ -47191,7 +47191,7 @@
         <v>509</v>
       </c>
       <c r="C587" s="4" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D587" s="4">
         <v>2011</v>
@@ -47244,7 +47244,7 @@
         <v>509</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D588" s="3">
         <v>2015</v>
@@ -47297,7 +47297,7 @@
         <v>509</v>
       </c>
       <c r="C589" s="4" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D589" s="4">
         <v>2025</v>
@@ -48092,7 +48092,7 @@
         <v>509</v>
       </c>
       <c r="C604" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D604" s="3">
         <v>2015</v>
@@ -51537,7 +51537,7 @@
         <v>509</v>
       </c>
       <c r="C669" s="4" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="D669" s="4">
         <v>2011</v>
@@ -52165,7 +52165,7 @@
         <v>509</v>
       </c>
       <c r="C686" s="3" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="D686" s="3">
         <v>2012</v>
@@ -52197,7 +52197,7 @@
         <v>509</v>
       </c>
       <c r="C687" s="4" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="D687" s="4">
         <v>2015</v>
@@ -52229,7 +52229,7 @@
         <v>509</v>
       </c>
       <c r="C688" s="3" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="D688" s="3">
         <v>2022</v>
@@ -52261,7 +52261,7 @@
         <v>509</v>
       </c>
       <c r="C689" s="4" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="D689" s="4">
         <v>2011</v>
@@ -52293,7 +52293,7 @@
         <v>509</v>
       </c>
       <c r="C690" s="3" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="D690" s="3">
         <v>2023</v>
@@ -53861,7 +53861,7 @@
         <v>509</v>
       </c>
       <c r="C739" s="4" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="D739" s="4">
         <v>2011</v>
@@ -53893,7 +53893,7 @@
         <v>509</v>
       </c>
       <c r="C740" s="3" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="D740" s="3">
         <v>2012</v>
@@ -53925,7 +53925,7 @@
         <v>509</v>
       </c>
       <c r="C741" s="4" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="D741" s="4">
         <v>2028</v>
@@ -54789,7 +54789,7 @@
         <v>509</v>
       </c>
       <c r="C768" s="3" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="D768" s="3">
         <v>2009</v>
@@ -54821,7 +54821,7 @@
         <v>509</v>
       </c>
       <c r="C769" s="4" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="D769" s="4">
         <v>2012</v>
@@ -54853,7 +54853,7 @@
         <v>509</v>
       </c>
       <c r="C770" s="3" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="D770" s="3">
         <v>2015</v>
@@ -54949,7 +54949,7 @@
         <v>509</v>
       </c>
       <c r="C773" s="4" t="s">
-        <v>512</v>
+        <v>535</v>
       </c>
       <c r="D773" s="4">
         <v>2013</v>
@@ -54981,7 +54981,7 @@
         <v>509</v>
       </c>
       <c r="C774" s="3" t="s">
-        <v>512</v>
+        <v>535</v>
       </c>
       <c r="D774" s="3">
         <v>2015</v>
@@ -55077,7 +55077,7 @@
         <v>509</v>
       </c>
       <c r="C777" s="4" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="D777" s="4">
         <v>2010</v>
@@ -55109,7 +55109,7 @@
         <v>509</v>
       </c>
       <c r="C778" s="3" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="D778" s="3">
         <v>2011</v>
@@ -55141,7 +55141,7 @@
         <v>509</v>
       </c>
       <c r="C779" s="4" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="D779" s="4">
         <v>2015</v>
@@ -55173,7 +55173,7 @@
         <v>509</v>
       </c>
       <c r="C780" s="3" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="D780" s="3">
         <v>2010</v>
@@ -55205,7 +55205,7 @@
         <v>509</v>
       </c>
       <c r="C781" s="4" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="D781" s="4">
         <v>2011</v>
@@ -55269,7 +55269,7 @@
         <v>509</v>
       </c>
       <c r="C783" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D783" s="4">
         <v>2028</v>
@@ -55301,7 +55301,7 @@
         <v>509</v>
       </c>
       <c r="C784" s="3" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D784" s="3">
         <v>2028</v>
@@ -55333,7 +55333,7 @@
         <v>509</v>
       </c>
       <c r="C785" s="4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D785" s="4">
         <v>2025</v>
@@ -55365,7 +55365,7 @@
         <v>509</v>
       </c>
       <c r="C786" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D786" s="3">
         <v>2025</v>
@@ -55397,7 +55397,7 @@
         <v>509</v>
       </c>
       <c r="C787" s="4" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="D787" s="4">
         <v>2028</v>
@@ -55493,7 +55493,7 @@
         <v>509</v>
       </c>
       <c r="C790" s="3" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D790" s="3">
         <v>2028</v>
@@ -66149,7 +66149,7 @@
         <v>938</v>
       </c>
       <c r="C1123" s="4" t="s">
-        <v>955</v>
+        <v>965</v>
       </c>
       <c r="D1123" s="4">
         <v>2011</v>
@@ -66181,7 +66181,7 @@
         <v>938</v>
       </c>
       <c r="C1124" s="3" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D1124" s="3">
         <v>2011</v>
@@ -66245,7 +66245,7 @@
         <v>938</v>
       </c>
       <c r="C1126" s="3" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="D1126" s="3">
         <v>2011</v>

--- a/VerveStacks_ITA_grids/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA_grids/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D8CDD6D-DC9D-447A-B7F8-02BEAB2AA12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FD6B6E2-2520-40CA-95AF-6BBFCFFD2F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{D6267BE7-F73F-4B93-8F92-1BCC50C66170}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{45E25DD5-17F3-450A-BCBA-381894C4C264}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -78,6 +78,15 @@
     <t>bioenergy</t>
   </si>
   <si>
+    <t>e_IT135-220</t>
+  </si>
+  <si>
+    <t>e_w105141350-220</t>
+  </si>
+  <si>
+    <t>e_w144006711-220</t>
+  </si>
+  <si>
     <t>e_w81938081-380</t>
   </si>
   <si>
@@ -87,21 +96,12 @@
     <t>e_w377588191-220</t>
   </si>
   <si>
-    <t>e_w105141350-220</t>
-  </si>
-  <si>
-    <t>e_w144006711-220</t>
+    <t>e_w116692433-220</t>
   </si>
   <si>
     <t>e_IT67-220</t>
   </si>
   <si>
-    <t>e_IT135-220</t>
-  </si>
-  <si>
-    <t>e_w116692433-220</t>
-  </si>
-  <si>
     <t>ep_bioenergy_IT135-220</t>
   </si>
   <si>
@@ -945,21 +945,21 @@
     <t>hydro</t>
   </si>
   <si>
+    <t>e_w409768426-220</t>
+  </si>
+  <si>
+    <t>e_IT13-380</t>
+  </si>
+  <si>
     <t>e_w104359058-380</t>
   </si>
   <si>
-    <t>e_w409768426-220</t>
+    <t>e_w64200868-380</t>
   </si>
   <si>
     <t>e_w419423704-380</t>
   </si>
   <si>
-    <t>e_IT13-380</t>
-  </si>
-  <si>
-    <t>e_w64200868-380</t>
-  </si>
-  <si>
     <t>ep_hydro_dam_G100000602237</t>
   </si>
   <si>
@@ -1569,108 +1569,108 @@
     <t>solar</t>
   </si>
   <si>
+    <t>elc_spv-ITA_0080</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0105</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0030</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0215</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0205</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0029</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0077</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0024</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0112</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0069</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0196</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0019</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0115</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0213</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0216</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0081</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0186</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0101</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0100</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0091</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0018</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0007</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0073</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0058</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0211</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0168</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0124</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0068</t>
+  </si>
+  <si>
     <t>elc_spv-ITA_0167</t>
   </si>
   <si>
+    <t>elc_spv-ITA_0116</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0157</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0042</t>
+  </si>
+  <si>
     <t>elc_spv-ITA_0092</t>
   </si>
   <si>
     <t>elc_spv-ITA_0023</t>
   </si>
   <si>
-    <t>elc_spv-ITA_0216</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0019</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0105</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0116</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0029</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0068</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0112</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0069</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0186</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0081</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0205</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0211</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0101</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0100</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0168</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0215</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0007</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0042</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0115</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0196</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0030</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0024</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0213</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0077</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0091</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0018</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0157</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0124</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0080</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0073</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0058</t>
-  </si>
-  <si>
     <t>ep_solar_pv_000</t>
   </si>
   <si>
@@ -3426,39 +3426,39 @@
     <t>ele</t>
   </si>
   <si>
+    <t>Aggregated Plant - EMBER Gap - way/81938081-380_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>TWh</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/144006711-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/109756016-380_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/105141350-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/377588191-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - EMBER Gap - IT67-220_Missing Bioenergy Capacity</t>
   </si>
   <si>
-    <t>GW</t>
-  </si>
-  <si>
-    <t>TWh</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/377588191-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/105141350-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - EMBER Gap - IT135-220_Missing Bioenergy Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - EMBER Gap - way/81938081-380_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/109756016-380_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/144006711-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - EMBER Gap - way/116692433-220_Missing Bioenergy Capacity</t>
   </si>
   <si>
@@ -3849,18 +3849,18 @@
     <t>Taranto CHP power station_CET2-1</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - way/104359058-380_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - way/419423704-380_Missing Hydro Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - way/409768426-220_Missing Hydro Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - way/104359058-380_Missing Hydro Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - IRENA Gap - way/64200868-380_Missing Hydro Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - way/419423704-380_Missing Hydro Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - IRENA Gap - IT13-380_Missing Hydro Capacity</t>
   </si>
   <si>
@@ -4014,109 +4014,109 @@
     <t>San Filippo del Mela power station_1</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_213_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>annual</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_157_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_215_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_216_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_115_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_19_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_29_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_112_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - ITA_167_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>annual</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_112_Missing Solar Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - IRENA Gap - ITA_168_Missing Solar Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_205_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_100_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_23_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - ITA_77_Missing Solar Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_186_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_91_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_7_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_30_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_73_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_80_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_69_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_196_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_68_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_101_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - ITA_81_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_205_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_100_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_7_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_157_Missing Solar Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - ITA_116_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_92_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_58_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - ITA_211_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_30_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_213_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_73_Missing Solar Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - ITA_105_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_18_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_42_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_24_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - ITA_124_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_42_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_105_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_92_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_58_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_215_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_24_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_186_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_91_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_116_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_18_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_115_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_216_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_19_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_29_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_23_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_68_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_69_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_80_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_101_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_196_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Tuscania solar farm_--</t>
@@ -5242,7 +5242,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9901493-C0D2-E149-AA40-460D991FB319}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54875AC1-45F0-6C28-2467-A22448A59736}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5297,7 +5297,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF298194-C914-20E3-82C1-DD6D6D9FCEF2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79C2746F-6AE2-6320-4B35-2C7B637AC12C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5648,7 +5648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA74A9A8-EDAC-43AC-812C-0531093BA31B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DCF002C-2A3C-4D92-8755-B18CD10875DC}">
   <dimension ref="A1:U192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -9908,7 +9908,7 @@
         <v>45</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D78" s="3">
         <v>0.49118125000000001</v>
@@ -9964,7 +9964,7 @@
         <v>45</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D79" s="4">
         <v>0.49118125000000001</v>
@@ -15004,7 +15004,7 @@
         <v>45</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D169" s="4">
         <v>0.28839999999999999</v>
@@ -15060,7 +15060,7 @@
         <v>45</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D170" s="3">
         <v>0.28839999999999999</v>
@@ -15116,7 +15116,7 @@
         <v>45</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D171" s="4">
         <v>0.28839999999999999</v>
@@ -16182,7 +16182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E089CE-E73B-4B68-889C-793E8AD817DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8600E5-9916-42C7-8165-2647257DDC88}">
   <dimension ref="A1:T1127"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16298,7 +16298,7 @@
         <v>2022</v>
       </c>
       <c r="E4" s="3">
-        <v>0.41792171344165435</v>
+        <v>0.42308124076809456</v>
       </c>
       <c r="F4" s="3">
         <v>0.36049999999999999</v>
@@ -16351,13 +16351,13 @@
         <v>2022</v>
       </c>
       <c r="E5" s="4">
-        <v>0.47467651403249633</v>
+        <v>0.33536927621861151</v>
       </c>
       <c r="F5" s="4">
         <v>0.36049999999999999</v>
       </c>
       <c r="G5" s="4">
-        <v>3850.0000000000005</v>
+        <v>3850</v>
       </c>
       <c r="H5" s="4">
         <v>143</v>
@@ -16404,19 +16404,19 @@
         <v>2022</v>
       </c>
       <c r="E6" s="3">
-        <v>0.90807680945347113</v>
+        <v>0.19090251107828654</v>
       </c>
       <c r="F6" s="3">
-        <v>0.36049999999999999</v>
+        <v>0.33990000000000004</v>
       </c>
       <c r="G6" s="3">
-        <v>3850.0000000000005</v>
+        <v>4427.5</v>
       </c>
       <c r="H6" s="3">
-        <v>143</v>
+        <v>157.30000000000001</v>
       </c>
       <c r="I6" s="3">
-        <v>8.4</v>
+        <v>9.240000000000002</v>
       </c>
       <c r="J6" s="3">
         <v>50</v>
@@ -16457,13 +16457,13 @@
         <v>2022</v>
       </c>
       <c r="E7" s="4">
-        <v>0.33536927621861151</v>
+        <v>0.41792171344165435</v>
       </c>
       <c r="F7" s="4">
         <v>0.36049999999999999</v>
       </c>
       <c r="G7" s="4">
-        <v>3850</v>
+        <v>3850.0000000000005</v>
       </c>
       <c r="H7" s="4">
         <v>143</v>
@@ -16510,19 +16510,19 @@
         <v>2022</v>
       </c>
       <c r="E8" s="3">
-        <v>0.19090251107828654</v>
+        <v>0.47467651403249633</v>
       </c>
       <c r="F8" s="3">
-        <v>0.33990000000000004</v>
+        <v>0.36049999999999999</v>
       </c>
       <c r="G8" s="3">
-        <v>4427.5</v>
+        <v>3850.0000000000005</v>
       </c>
       <c r="H8" s="3">
-        <v>157.30000000000001</v>
+        <v>143</v>
       </c>
       <c r="I8" s="3">
-        <v>9.240000000000002</v>
+        <v>8.4</v>
       </c>
       <c r="J8" s="3">
         <v>50</v>
@@ -16563,13 +16563,13 @@
         <v>2022</v>
       </c>
       <c r="E9" s="4">
-        <v>0.30441211225997045</v>
+        <v>0.90807680945347113</v>
       </c>
       <c r="F9" s="4">
         <v>0.36049999999999999</v>
       </c>
       <c r="G9" s="4">
-        <v>3850.0000000000009</v>
+        <v>3850.0000000000005</v>
       </c>
       <c r="H9" s="4">
         <v>143</v>
@@ -16616,13 +16616,13 @@
         <v>2022</v>
       </c>
       <c r="E10" s="3">
-        <v>0.42308124076809456</v>
+        <v>0.43855982274741512</v>
       </c>
       <c r="F10" s="3">
         <v>0.36049999999999999</v>
       </c>
       <c r="G10" s="3">
-        <v>3850.0000000000005</v>
+        <v>3850</v>
       </c>
       <c r="H10" s="3">
         <v>143</v>
@@ -16669,13 +16669,13 @@
         <v>2022</v>
       </c>
       <c r="E11" s="4">
-        <v>0.43855982274741512</v>
+        <v>0.30441211225997045</v>
       </c>
       <c r="F11" s="4">
         <v>0.36049999999999999</v>
       </c>
       <c r="G11" s="4">
-        <v>3850</v>
+        <v>3850.0000000000009</v>
       </c>
       <c r="H11" s="4">
         <v>143</v>
@@ -16716,7 +16716,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D12" s="3">
         <v>1965</v>
@@ -16769,7 +16769,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D13" s="4">
         <v>2001</v>
@@ -16822,7 +16822,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14" s="3">
         <v>2013</v>
@@ -16875,7 +16875,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D15" s="4">
         <v>2003</v>
@@ -16928,7 +16928,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="3">
         <v>1998</v>
@@ -16981,7 +16981,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" s="4">
         <v>2009</v>
@@ -17034,7 +17034,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D18" s="3">
         <v>2008</v>
@@ -17087,7 +17087,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D19" s="4">
         <v>2009</v>
@@ -17140,7 +17140,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D20" s="3">
         <v>2008</v>
@@ -17193,7 +17193,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D21" s="4">
         <v>2018</v>
@@ -21168,7 +21168,7 @@
         <v>45</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D96" s="3">
         <v>2010</v>
@@ -21221,7 +21221,7 @@
         <v>45</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D97" s="4">
         <v>2010</v>
@@ -25991,7 +25991,7 @@
         <v>45</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D187" s="4">
         <v>1978</v>
@@ -26044,7 +26044,7 @@
         <v>45</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D188" s="3">
         <v>1981</v>
@@ -26097,7 +26097,7 @@
         <v>45</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D189" s="4">
         <v>1987</v>
@@ -27693,19 +27693,19 @@
         <v>2022</v>
       </c>
       <c r="E219" s="4">
-        <v>0.55308012203143864</v>
+        <v>0.10604292333736391</v>
       </c>
       <c r="F219" s="4">
         <v>1</v>
       </c>
       <c r="G219" s="4">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H219" s="4">
-        <v>55.000000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I219" s="4">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J219" s="4">
         <v>100</v>
@@ -27746,7 +27746,7 @@
         <v>2022</v>
       </c>
       <c r="E220" s="3">
-        <v>0.10604292333736391</v>
+        <v>0.11046137847642074</v>
       </c>
       <c r="F220" s="3">
         <v>1</v>
@@ -27799,19 +27799,19 @@
         <v>2022</v>
       </c>
       <c r="E221" s="4">
-        <v>0.10880445779927443</v>
+        <v>0.55308012203143864</v>
       </c>
       <c r="F221" s="4">
         <v>1</v>
       </c>
       <c r="G221" s="4">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H221" s="4">
-        <v>60.500000000000014</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="I221" s="4">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J221" s="4">
         <v>100</v>
@@ -27852,7 +27852,7 @@
         <v>2022</v>
       </c>
       <c r="E222" s="3">
-        <v>0.11046137847642074</v>
+        <v>0.11156599226118494</v>
       </c>
       <c r="F222" s="3">
         <v>1</v>
@@ -27861,7 +27861,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H222" s="3">
-        <v>60.500000000000014</v>
+        <v>60.500000000000021</v>
       </c>
       <c r="I222" s="3">
         <v>2.3100000000000005</v>
@@ -27905,7 +27905,7 @@
         <v>2022</v>
       </c>
       <c r="E223" s="4">
-        <v>0.11156599226118494</v>
+        <v>0.10880445779927443</v>
       </c>
       <c r="F223" s="4">
         <v>1</v>
@@ -27914,7 +27914,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H223" s="4">
-        <v>60.500000000000021</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I223" s="4">
         <v>2.3100000000000005</v>
@@ -28429,7 +28429,7 @@
         <v>301</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D233" s="4">
         <v>2022</v>
@@ -31662,7 +31662,7 @@
         <v>301</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D294" s="3">
         <v>1928</v>
@@ -32351,7 +32351,7 @@
         <v>427</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D307" s="4">
         <v>2015</v>
@@ -32404,7 +32404,7 @@
         <v>427</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D308" s="3">
         <v>2015</v>
@@ -32457,7 +32457,7 @@
         <v>427</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D309" s="4">
         <v>1982</v>
@@ -32669,7 +32669,7 @@
         <v>427</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D313" s="4">
         <v>1991</v>
@@ -32828,7 +32828,7 @@
         <v>427</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D316" s="3">
         <v>1971</v>
@@ -33040,7 +33040,7 @@
         <v>427</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D320" s="3">
         <v>1978</v>
@@ -34047,7 +34047,7 @@
         <v>301</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D339" s="4">
         <v>2015</v>
@@ -34418,7 +34418,7 @@
         <v>301</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D346" s="3">
         <v>2015</v>
@@ -35961,7 +35961,7 @@
         <v>2022</v>
       </c>
       <c r="E375" s="4">
-        <v>0.10585966196758853</v>
+        <v>0.11255980974057808</v>
       </c>
       <c r="F375" s="4">
         <v>1</v>
@@ -36014,7 +36014,7 @@
         <v>2022</v>
       </c>
       <c r="E376" s="3">
-        <v>0.10351496447959772</v>
+        <v>0.10127750284705274</v>
       </c>
       <c r="F376" s="3">
         <v>1</v>
@@ -36067,7 +36067,7 @@
         <v>2022</v>
       </c>
       <c r="E377" s="4">
-        <v>0.10724052487495081</v>
+        <v>0.11384197057678677</v>
       </c>
       <c r="F377" s="4">
         <v>1</v>
@@ -36120,7 +36120,7 @@
         <v>2022</v>
       </c>
       <c r="E378" s="3">
-        <v>0.11048465102438351</v>
+        <v>0.10090008416061882</v>
       </c>
       <c r="F378" s="3">
         <v>1</v>
@@ -36173,7 +36173,7 @@
         <v>2022</v>
       </c>
       <c r="E379" s="4">
-        <v>0.10930731082165113</v>
+        <v>0.10954770591501538</v>
       </c>
       <c r="F379" s="4">
         <v>1</v>
@@ -36226,7 +36226,7 @@
         <v>2022</v>
       </c>
       <c r="E380" s="3">
-        <v>0.10127750284705274</v>
+        <v>0.10772034897289151</v>
       </c>
       <c r="F380" s="3">
         <v>1</v>
@@ -36279,7 +36279,7 @@
         <v>2022</v>
       </c>
       <c r="E381" s="4">
-        <v>0.1053582618867203</v>
+        <v>0.10128313836498157</v>
       </c>
       <c r="F381" s="4">
         <v>1</v>
@@ -36332,7 +36332,7 @@
         <v>2022</v>
       </c>
       <c r="E382" s="3">
-        <v>0.10772034897289151</v>
+        <v>0.10382330781770392</v>
       </c>
       <c r="F382" s="3">
         <v>1</v>
@@ -36385,7 +36385,7 @@
         <v>2022</v>
       </c>
       <c r="E383" s="4">
-        <v>0.11265722369334792</v>
+        <v>0.1015976002654105</v>
       </c>
       <c r="F383" s="4">
         <v>1</v>
@@ -36438,7 +36438,7 @@
         <v>2022</v>
       </c>
       <c r="E384" s="3">
-        <v>0.1015976002654105</v>
+        <v>0.11243953168649698</v>
       </c>
       <c r="F384" s="3">
         <v>1</v>
@@ -36491,7 +36491,7 @@
         <v>2022</v>
       </c>
       <c r="E385" s="4">
-        <v>0.11243953168649698</v>
+        <v>0.112250983358078</v>
       </c>
       <c r="F385" s="4">
         <v>1</v>
@@ -36544,7 +36544,7 @@
         <v>2022</v>
       </c>
       <c r="E386" s="3">
-        <v>0.10652175481682753</v>
+        <v>0.10930731082165113</v>
       </c>
       <c r="F386" s="3">
         <v>1</v>
@@ -36597,7 +36597,7 @@
         <v>2022</v>
       </c>
       <c r="E387" s="4">
-        <v>0.10762824850845455</v>
+        <v>0.1111795908924077</v>
       </c>
       <c r="F387" s="4">
         <v>1</v>
@@ -36650,7 +36650,7 @@
         <v>2022</v>
       </c>
       <c r="E388" s="3">
-        <v>0.10954770591501538</v>
+        <v>0.10717740707414788</v>
       </c>
       <c r="F388" s="3">
         <v>1</v>
@@ -36703,7 +36703,7 @@
         <v>2022</v>
       </c>
       <c r="E389" s="4">
-        <v>0.11708432556344184</v>
+        <v>0.11048465102438351</v>
       </c>
       <c r="F389" s="4">
         <v>1</v>
@@ -36756,7 +36756,7 @@
         <v>2022</v>
       </c>
       <c r="E390" s="3">
-        <v>0.10260861218184329</v>
+        <v>0.10762824850845455</v>
       </c>
       <c r="F390" s="3">
         <v>1</v>
@@ -36809,7 +36809,7 @@
         <v>2022</v>
       </c>
       <c r="E391" s="4">
-        <v>0.10352156608631437</v>
+        <v>0.10652175481682753</v>
       </c>
       <c r="F391" s="4">
         <v>1</v>
@@ -36862,7 +36862,7 @@
         <v>2022</v>
       </c>
       <c r="E392" s="3">
-        <v>0.106881944919879</v>
+        <v>0.10260861218184329</v>
       </c>
       <c r="F392" s="3">
         <v>1</v>
@@ -36915,7 +36915,7 @@
         <v>2022</v>
       </c>
       <c r="E393" s="4">
-        <v>0.10090008416061882</v>
+        <v>0.10352156608631437</v>
       </c>
       <c r="F393" s="4">
         <v>1</v>
@@ -36968,7 +36968,7 @@
         <v>2022</v>
       </c>
       <c r="E394" s="3">
-        <v>0.11050268468175577</v>
+        <v>0.11132675841774924</v>
       </c>
       <c r="F394" s="3">
         <v>1</v>
@@ -37021,7 +37021,7 @@
         <v>2022</v>
       </c>
       <c r="E395" s="4">
-        <v>0.11326730876284366</v>
+        <v>0.10420603999247074</v>
       </c>
       <c r="F395" s="4">
         <v>1</v>
@@ -37074,7 +37074,7 @@
         <v>2022</v>
       </c>
       <c r="E396" s="3">
-        <v>0.1111795908924077</v>
+        <v>0.11050268468175577</v>
       </c>
       <c r="F396" s="3">
         <v>1</v>
@@ -37127,7 +37127,7 @@
         <v>2022</v>
       </c>
       <c r="E397" s="4">
-        <v>0.112250983358078</v>
+        <v>0.10603516809737222</v>
       </c>
       <c r="F397" s="4">
         <v>1</v>
@@ -37180,7 +37180,7 @@
         <v>2022</v>
       </c>
       <c r="E398" s="3">
-        <v>0.11384197057678677</v>
+        <v>0.11350287341226893</v>
       </c>
       <c r="F398" s="3">
         <v>1</v>
@@ -37189,7 +37189,7 @@
         <v>1138.5</v>
       </c>
       <c r="H398" s="3">
-        <v>18.150000000000002</v>
+        <v>18.149999999999999</v>
       </c>
       <c r="I398" s="3">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>2022</v>
       </c>
       <c r="E399" s="4">
-        <v>0.10382330781770392</v>
+        <v>0.11708432556344184</v>
       </c>
       <c r="F399" s="4">
         <v>1</v>
@@ -37286,7 +37286,7 @@
         <v>2022</v>
       </c>
       <c r="E400" s="3">
-        <v>0.10717740707414788</v>
+        <v>0.106881944919879</v>
       </c>
       <c r="F400" s="3">
         <v>1</v>
@@ -37339,7 +37339,7 @@
         <v>2022</v>
       </c>
       <c r="E401" s="4">
-        <v>0.10128313836498157</v>
+        <v>0.10281889750798776</v>
       </c>
       <c r="F401" s="4">
         <v>1</v>
@@ -37392,7 +37392,7 @@
         <v>2022</v>
       </c>
       <c r="E402" s="3">
-        <v>0.11132675841774924</v>
+        <v>0.11265722369334792</v>
       </c>
       <c r="F402" s="3">
         <v>1</v>
@@ -37445,7 +37445,7 @@
         <v>2022</v>
       </c>
       <c r="E403" s="4">
-        <v>0.10420603999247074</v>
+        <v>0.10585966196758853</v>
       </c>
       <c r="F403" s="4">
         <v>1</v>
@@ -37498,7 +37498,7 @@
         <v>2022</v>
       </c>
       <c r="E404" s="3">
-        <v>0.10214633869688095</v>
+        <v>0.1053582618867203</v>
       </c>
       <c r="F404" s="3">
         <v>1</v>
@@ -37551,7 +37551,7 @@
         <v>2022</v>
       </c>
       <c r="E405" s="4">
-        <v>0.10281889750798776</v>
+        <v>0.10214633869688095</v>
       </c>
       <c r="F405" s="4">
         <v>1</v>
@@ -37604,7 +37604,7 @@
         <v>2022</v>
       </c>
       <c r="E406" s="3">
-        <v>0.11255980974057808</v>
+        <v>0.11326730876284366</v>
       </c>
       <c r="F406" s="3">
         <v>1</v>
@@ -37657,7 +37657,7 @@
         <v>2022</v>
       </c>
       <c r="E407" s="4">
-        <v>0.10603516809737222</v>
+        <v>0.10351496447959772</v>
       </c>
       <c r="F407" s="4">
         <v>1</v>
@@ -37710,7 +37710,7 @@
         <v>2022</v>
       </c>
       <c r="E408" s="3">
-        <v>0.11350287341226893</v>
+        <v>0.10724052487495081</v>
       </c>
       <c r="F408" s="3">
         <v>1</v>
@@ -37719,7 +37719,7 @@
         <v>1138.5</v>
       </c>
       <c r="H408" s="3">
-        <v>18.149999999999999</v>
+        <v>18.150000000000002</v>
       </c>
       <c r="I408" s="3">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>509</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D417" s="4">
         <v>2011</v>
@@ -38234,7 +38234,7 @@
         <v>509</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D418" s="3">
         <v>2015</v>
@@ -39082,7 +39082,7 @@
         <v>509</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="D434" s="3">
         <v>2015</v>
@@ -39347,7 +39347,7 @@
         <v>509</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>512</v>
+        <v>543</v>
       </c>
       <c r="D439" s="4">
         <v>2009</v>
@@ -39400,7 +39400,7 @@
         <v>509</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>512</v>
+        <v>543</v>
       </c>
       <c r="D440" s="3">
         <v>2012</v>
@@ -39453,7 +39453,7 @@
         <v>509</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="D441" s="4">
         <v>2015</v>
@@ -39877,7 +39877,7 @@
         <v>509</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D449" s="4">
         <v>2015</v>
@@ -40831,7 +40831,7 @@
         <v>509</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="D467" s="4">
         <v>2015</v>
@@ -41785,7 +41785,7 @@
         <v>509</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="D485" s="4">
         <v>2015</v>
@@ -42527,7 +42527,7 @@
         <v>509</v>
       </c>
       <c r="C499" s="4" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="D499" s="4">
         <v>2010</v>
@@ -42580,7 +42580,7 @@
         <v>509</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="D500" s="3">
         <v>2015</v>
@@ -42633,7 +42633,7 @@
         <v>509</v>
       </c>
       <c r="C501" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D501" s="4">
         <v>2015</v>
@@ -42898,7 +42898,7 @@
         <v>509</v>
       </c>
       <c r="C506" s="3" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="D506" s="3">
         <v>2011</v>
@@ -42951,7 +42951,7 @@
         <v>509</v>
       </c>
       <c r="C507" s="4" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="D507" s="4">
         <v>2015</v>
@@ -43481,7 +43481,7 @@
         <v>509</v>
       </c>
       <c r="C517" s="4" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D517" s="4">
         <v>2015</v>
@@ -44488,7 +44488,7 @@
         <v>509</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="D536" s="3">
         <v>2010</v>
@@ -44541,7 +44541,7 @@
         <v>509</v>
       </c>
       <c r="C537" s="4" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="D537" s="4">
         <v>2011</v>
@@ -44594,7 +44594,7 @@
         <v>509</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="D538" s="3">
         <v>2015</v>
@@ -44647,7 +44647,7 @@
         <v>509</v>
       </c>
       <c r="C539" s="4" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="D539" s="4">
         <v>2023</v>
@@ -45389,7 +45389,7 @@
         <v>509</v>
       </c>
       <c r="C553" s="4" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D553" s="4">
         <v>2011</v>
@@ -45442,7 +45442,7 @@
         <v>509</v>
       </c>
       <c r="C554" s="3" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D554" s="3">
         <v>2015</v>
@@ -45495,7 +45495,7 @@
         <v>509</v>
       </c>
       <c r="C555" s="4" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D555" s="4">
         <v>2024</v>
@@ -45548,7 +45548,7 @@
         <v>509</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D556" s="3">
         <v>2025</v>
@@ -45601,7 +45601,7 @@
         <v>509</v>
       </c>
       <c r="C557" s="4" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D557" s="4">
         <v>2011</v>
@@ -45654,7 +45654,7 @@
         <v>509</v>
       </c>
       <c r="C558" s="3" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D558" s="3">
         <v>2015</v>
@@ -45707,7 +45707,7 @@
         <v>509</v>
       </c>
       <c r="C559" s="4" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D559" s="4">
         <v>2024</v>
@@ -45760,7 +45760,7 @@
         <v>509</v>
       </c>
       <c r="C560" s="3" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D560" s="3">
         <v>2025</v>
@@ -46184,7 +46184,7 @@
         <v>509</v>
       </c>
       <c r="C568" s="3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D568" s="3">
         <v>2015</v>
@@ -46661,7 +46661,7 @@
         <v>509</v>
       </c>
       <c r="C577" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D577" s="4">
         <v>2011</v>
@@ -46714,7 +46714,7 @@
         <v>509</v>
       </c>
       <c r="C578" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D578" s="3">
         <v>2015</v>
@@ -46767,7 +46767,7 @@
         <v>509</v>
       </c>
       <c r="C579" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D579" s="4">
         <v>2024</v>
@@ -47191,7 +47191,7 @@
         <v>509</v>
       </c>
       <c r="C587" s="4" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="D587" s="4">
         <v>2011</v>
@@ -47244,7 +47244,7 @@
         <v>509</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="D588" s="3">
         <v>2015</v>
@@ -47297,7 +47297,7 @@
         <v>509</v>
       </c>
       <c r="C589" s="4" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="D589" s="4">
         <v>2025</v>
@@ -48092,7 +48092,7 @@
         <v>509</v>
       </c>
       <c r="C604" s="3" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D604" s="3">
         <v>2015</v>
@@ -51537,7 +51537,7 @@
         <v>509</v>
       </c>
       <c r="C669" s="4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D669" s="4">
         <v>2011</v>
@@ -52165,7 +52165,7 @@
         <v>509</v>
       </c>
       <c r="C686" s="3" t="s">
-        <v>510</v>
+        <v>538</v>
       </c>
       <c r="D686" s="3">
         <v>2012</v>
@@ -52197,7 +52197,7 @@
         <v>509</v>
       </c>
       <c r="C687" s="4" t="s">
-        <v>510</v>
+        <v>538</v>
       </c>
       <c r="D687" s="4">
         <v>2015</v>
@@ -52229,7 +52229,7 @@
         <v>509</v>
       </c>
       <c r="C688" s="3" t="s">
-        <v>510</v>
+        <v>538</v>
       </c>
       <c r="D688" s="3">
         <v>2022</v>
@@ -52261,7 +52261,7 @@
         <v>509</v>
       </c>
       <c r="C689" s="4" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="D689" s="4">
         <v>2011</v>
@@ -52293,7 +52293,7 @@
         <v>509</v>
       </c>
       <c r="C690" s="3" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="D690" s="3">
         <v>2023</v>
@@ -53861,7 +53861,7 @@
         <v>509</v>
       </c>
       <c r="C739" s="4" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="D739" s="4">
         <v>2011</v>
@@ -53893,7 +53893,7 @@
         <v>509</v>
       </c>
       <c r="C740" s="3" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="D740" s="3">
         <v>2012</v>
@@ -53925,7 +53925,7 @@
         <v>509</v>
       </c>
       <c r="C741" s="4" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="D741" s="4">
         <v>2028</v>
@@ -54789,7 +54789,7 @@
         <v>509</v>
       </c>
       <c r="C768" s="3" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="D768" s="3">
         <v>2009</v>
@@ -54821,7 +54821,7 @@
         <v>509</v>
       </c>
       <c r="C769" s="4" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="D769" s="4">
         <v>2012</v>
@@ -54853,7 +54853,7 @@
         <v>509</v>
       </c>
       <c r="C770" s="3" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="D770" s="3">
         <v>2015</v>
@@ -54949,7 +54949,7 @@
         <v>509</v>
       </c>
       <c r="C773" s="4" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="D773" s="4">
         <v>2013</v>
@@ -54981,7 +54981,7 @@
         <v>509</v>
       </c>
       <c r="C774" s="3" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="D774" s="3">
         <v>2015</v>
@@ -55077,7 +55077,7 @@
         <v>509</v>
       </c>
       <c r="C777" s="4" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="D777" s="4">
         <v>2010</v>
@@ -55109,7 +55109,7 @@
         <v>509</v>
       </c>
       <c r="C778" s="3" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="D778" s="3">
         <v>2011</v>
@@ -55141,7 +55141,7 @@
         <v>509</v>
       </c>
       <c r="C779" s="4" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="D779" s="4">
         <v>2015</v>
@@ -55173,7 +55173,7 @@
         <v>509</v>
       </c>
       <c r="C780" s="3" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="D780" s="3">
         <v>2010</v>
@@ -55205,7 +55205,7 @@
         <v>509</v>
       </c>
       <c r="C781" s="4" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="D781" s="4">
         <v>2011</v>
@@ -55269,7 +55269,7 @@
         <v>509</v>
       </c>
       <c r="C783" s="4" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D783" s="4">
         <v>2028</v>
@@ -55301,7 +55301,7 @@
         <v>509</v>
       </c>
       <c r="C784" s="3" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D784" s="3">
         <v>2028</v>
@@ -55333,7 +55333,7 @@
         <v>509</v>
       </c>
       <c r="C785" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D785" s="4">
         <v>2025</v>
@@ -55365,7 +55365,7 @@
         <v>509</v>
       </c>
       <c r="C786" s="3" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="D786" s="3">
         <v>2025</v>
@@ -55397,7 +55397,7 @@
         <v>509</v>
       </c>
       <c r="C787" s="4" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="D787" s="4">
         <v>2028</v>
@@ -55493,7 +55493,7 @@
         <v>509</v>
       </c>
       <c r="C790" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D790" s="3">
         <v>2028</v>
@@ -66213,7 +66213,7 @@
         <v>938</v>
       </c>
       <c r="C1125" s="4" t="s">
-        <v>977</v>
+        <v>955</v>
       </c>
       <c r="D1125" s="4">
         <v>2011</v>
@@ -66245,7 +66245,7 @@
         <v>938</v>
       </c>
       <c r="C1126" s="3" t="s">
-        <v>955</v>
+        <v>977</v>
       </c>
       <c r="D1126" s="3">
         <v>2011</v>

--- a/VerveStacks_ITA_grids/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA_grids/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FD6B6E2-2520-40CA-95AF-6BBFCFFD2F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8C1A660-DA3E-4689-A410-906C8F630E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{45E25DD5-17F3-450A-BCBA-381894C4C264}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{9F1F4F77-4A31-4541-AC7A-70184F65F238}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -78,30 +78,30 @@
     <t>bioenergy</t>
   </si>
   <si>
+    <t>e_w144006711-220</t>
+  </si>
+  <si>
+    <t>e_IT67-220</t>
+  </si>
+  <si>
+    <t>e_w109756016-380</t>
+  </si>
+  <si>
+    <t>e_w377588191-220</t>
+  </si>
+  <si>
     <t>e_IT135-220</t>
   </si>
   <si>
     <t>e_w105141350-220</t>
   </si>
   <si>
-    <t>e_w144006711-220</t>
-  </si>
-  <si>
     <t>e_w81938081-380</t>
   </si>
   <si>
-    <t>e_w109756016-380</t>
-  </si>
-  <si>
-    <t>e_w377588191-220</t>
-  </si>
-  <si>
     <t>e_w116692433-220</t>
   </si>
   <si>
-    <t>e_IT67-220</t>
-  </si>
-  <si>
     <t>ep_bioenergy_IT135-220</t>
   </si>
   <si>
@@ -1569,108 +1569,108 @@
     <t>solar</t>
   </si>
   <si>
+    <t>elc_spv-ITA_0007</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0105</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0091</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0018</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0115</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0124</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0042</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0215</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0196</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0019</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0205</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0029</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0077</t>
+  </si>
+  <si>
     <t>elc_spv-ITA_0080</t>
   </si>
   <si>
-    <t>elc_spv-ITA_0105</t>
+    <t>elc_spv-ITA_0092</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0157</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0069</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0023</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0216</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0101</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0100</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0112</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0058</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0211</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0168</t>
   </si>
   <si>
     <t>elc_spv-ITA_0030</t>
   </si>
   <si>
-    <t>elc_spv-ITA_0215</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0205</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0029</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0077</t>
+    <t>elc_spv-ITA_0186</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0068</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0167</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0116</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0073</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0081</t>
   </si>
   <si>
     <t>elc_spv-ITA_0024</t>
   </si>
   <si>
-    <t>elc_spv-ITA_0112</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0069</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0196</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0019</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0115</t>
-  </si>
-  <si>
     <t>elc_spv-ITA_0213</t>
   </si>
   <si>
-    <t>elc_spv-ITA_0216</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0081</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0186</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0101</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0100</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0091</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0018</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0007</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0073</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0058</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0211</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0168</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0124</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0068</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0167</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0116</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0157</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0042</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0092</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0023</t>
-  </si>
-  <si>
     <t>ep_solar_pv_000</t>
   </si>
   <si>
@@ -3447,21 +3447,21 @@
     <t>Aggregated Plant - EMBER Gap - way/109756016-380_Missing Bioenergy Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - EMBER Gap - IT135-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - EMBER Gap - way/105141350-220_Missing Bioenergy Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - EMBER Gap - way/377588191-220_Missing Bioenergy Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - EMBER Gap - way/116692433-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - EMBER Gap - IT67-220_Missing Bioenergy Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - EMBER Gap - IT135-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/116692433-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant</t>
   </si>
   <si>
@@ -3849,18 +3849,18 @@
     <t>Taranto CHP power station_CET2-1</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - way/419423704-380_Missing Hydro Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - way/104359058-380_Missing Hydro Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - way/419423704-380_Missing Hydro Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - way/64200868-380_Missing Hydro Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - way/409768426-220_Missing Hydro Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - way/64200868-380_Missing Hydro Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - IRENA Gap - IT13-380_Missing Hydro Capacity</t>
   </si>
   <si>
@@ -4014,109 +4014,109 @@
     <t>San Filippo del Mela power station_1</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_215_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>annual</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_105_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_58_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_124_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_115_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_19_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_29_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_216_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_42_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_24_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_73_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_18_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_23_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_92_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - ITA_213_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>annual</t>
+    <t>Aggregated Plant - IRENA Gap - ITA_116_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_112_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - ITA_157_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_215_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_216_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_115_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_19_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_29_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_112_Missing Solar Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - ITA_211_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_81_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_7_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_168_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - ITA_167_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_168_Missing Solar Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - ITA_91_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_186_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_30_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_100_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - ITA_205_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_100_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_23_Missing Solar Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - ITA_196_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_80_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_69_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_68_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_101_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - ITA_77_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_186_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_91_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_7_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_30_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_73_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_80_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_69_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_196_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_68_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_101_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_81_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_116_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_92_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_58_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_211_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_105_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_18_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_42_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_24_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_124_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Tuscania solar farm_--</t>
@@ -5242,7 +5242,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54875AC1-45F0-6C28-2467-A22448A59736}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15EC6DB7-A659-98CC-61BF-06244F288971}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5297,7 +5297,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79C2746F-6AE2-6320-4B35-2C7B637AC12C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E0A89D9-4880-82FA-C2E9-A80F1B9979B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5648,7 +5648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DCF002C-2A3C-4D92-8755-B18CD10875DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397D641A-79E2-4041-9A01-715D95D569D3}">
   <dimension ref="A1:U192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -9908,7 +9908,7 @@
         <v>45</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D78" s="3">
         <v>0.49118125000000001</v>
@@ -9964,7 +9964,7 @@
         <v>45</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D79" s="4">
         <v>0.49118125000000001</v>
@@ -15004,7 +15004,7 @@
         <v>45</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D169" s="4">
         <v>0.28839999999999999</v>
@@ -15060,7 +15060,7 @@
         <v>45</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D170" s="3">
         <v>0.28839999999999999</v>
@@ -15116,7 +15116,7 @@
         <v>45</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D171" s="4">
         <v>0.28839999999999999</v>
@@ -16182,7 +16182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8600E5-9916-42C7-8165-2647257DDC88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59822EAB-5FD0-4802-BB02-5794D1CB2332}">
   <dimension ref="A1:T1127"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16298,19 +16298,19 @@
         <v>2022</v>
       </c>
       <c r="E4" s="3">
-        <v>0.42308124076809456</v>
+        <v>0.19090251107828654</v>
       </c>
       <c r="F4" s="3">
-        <v>0.36049999999999999</v>
+        <v>0.33990000000000004</v>
       </c>
       <c r="G4" s="3">
-        <v>3850.0000000000005</v>
+        <v>4427.5</v>
       </c>
       <c r="H4" s="3">
-        <v>143</v>
+        <v>157.30000000000001</v>
       </c>
       <c r="I4" s="3">
-        <v>8.4</v>
+        <v>9.240000000000002</v>
       </c>
       <c r="J4" s="3">
         <v>50</v>
@@ -16351,13 +16351,13 @@
         <v>2022</v>
       </c>
       <c r="E5" s="4">
-        <v>0.33536927621861151</v>
+        <v>0.30441211225997045</v>
       </c>
       <c r="F5" s="4">
         <v>0.36049999999999999</v>
       </c>
       <c r="G5" s="4">
-        <v>3850</v>
+        <v>3850.0000000000009</v>
       </c>
       <c r="H5" s="4">
         <v>143</v>
@@ -16404,19 +16404,19 @@
         <v>2022</v>
       </c>
       <c r="E6" s="3">
-        <v>0.19090251107828654</v>
+        <v>0.47467651403249633</v>
       </c>
       <c r="F6" s="3">
-        <v>0.33990000000000004</v>
+        <v>0.36049999999999999</v>
       </c>
       <c r="G6" s="3">
-        <v>4427.5</v>
+        <v>3850.0000000000005</v>
       </c>
       <c r="H6" s="3">
-        <v>157.30000000000001</v>
+        <v>143</v>
       </c>
       <c r="I6" s="3">
-        <v>9.240000000000002</v>
+        <v>8.4</v>
       </c>
       <c r="J6" s="3">
         <v>50</v>
@@ -16457,7 +16457,7 @@
         <v>2022</v>
       </c>
       <c r="E7" s="4">
-        <v>0.41792171344165435</v>
+        <v>0.90807680945347113</v>
       </c>
       <c r="F7" s="4">
         <v>0.36049999999999999</v>
@@ -16510,7 +16510,7 @@
         <v>2022</v>
       </c>
       <c r="E8" s="3">
-        <v>0.47467651403249633</v>
+        <v>0.42308124076809456</v>
       </c>
       <c r="F8" s="3">
         <v>0.36049999999999999</v>
@@ -16563,13 +16563,13 @@
         <v>2022</v>
       </c>
       <c r="E9" s="4">
-        <v>0.90807680945347113</v>
+        <v>0.33536927621861151</v>
       </c>
       <c r="F9" s="4">
         <v>0.36049999999999999</v>
       </c>
       <c r="G9" s="4">
-        <v>3850.0000000000005</v>
+        <v>3850</v>
       </c>
       <c r="H9" s="4">
         <v>143</v>
@@ -16616,13 +16616,13 @@
         <v>2022</v>
       </c>
       <c r="E10" s="3">
-        <v>0.43855982274741512</v>
+        <v>0.41792171344165435</v>
       </c>
       <c r="F10" s="3">
         <v>0.36049999999999999</v>
       </c>
       <c r="G10" s="3">
-        <v>3850</v>
+        <v>3850.0000000000005</v>
       </c>
       <c r="H10" s="3">
         <v>143</v>
@@ -16669,13 +16669,13 @@
         <v>2022</v>
       </c>
       <c r="E11" s="4">
-        <v>0.30441211225997045</v>
+        <v>0.43855982274741512</v>
       </c>
       <c r="F11" s="4">
         <v>0.36049999999999999</v>
       </c>
       <c r="G11" s="4">
-        <v>3850.0000000000009</v>
+        <v>3850</v>
       </c>
       <c r="H11" s="4">
         <v>143</v>
@@ -16716,7 +16716,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D12" s="3">
         <v>1965</v>
@@ -16769,7 +16769,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D13" s="4">
         <v>2001</v>
@@ -16822,7 +16822,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D14" s="3">
         <v>2013</v>
@@ -16875,7 +16875,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D15" s="4">
         <v>2003</v>
@@ -16928,7 +16928,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" s="3">
         <v>1998</v>
@@ -16981,7 +16981,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D17" s="4">
         <v>2009</v>
@@ -17034,7 +17034,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D18" s="3">
         <v>2008</v>
@@ -17087,7 +17087,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D19" s="4">
         <v>2009</v>
@@ -17140,7 +17140,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D20" s="3">
         <v>2008</v>
@@ -17193,7 +17193,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D21" s="4">
         <v>2018</v>
@@ -21168,7 +21168,7 @@
         <v>45</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D96" s="3">
         <v>2010</v>
@@ -21221,7 +21221,7 @@
         <v>45</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D97" s="4">
         <v>2010</v>
@@ -25991,7 +25991,7 @@
         <v>45</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D187" s="4">
         <v>1978</v>
@@ -26044,7 +26044,7 @@
         <v>45</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D188" s="3">
         <v>1981</v>
@@ -26097,7 +26097,7 @@
         <v>45</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D189" s="4">
         <v>1987</v>
@@ -28429,7 +28429,7 @@
         <v>301</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D233" s="4">
         <v>2022</v>
@@ -34047,7 +34047,7 @@
         <v>301</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D339" s="4">
         <v>2015</v>
@@ -35961,7 +35961,7 @@
         <v>2022</v>
       </c>
       <c r="E375" s="4">
-        <v>0.11255980974057808</v>
+        <v>0.11050268468175577</v>
       </c>
       <c r="F375" s="4">
         <v>1</v>
@@ -36067,7 +36067,7 @@
         <v>2022</v>
       </c>
       <c r="E377" s="4">
-        <v>0.11384197057678677</v>
+        <v>0.11132675841774924</v>
       </c>
       <c r="F377" s="4">
         <v>1</v>
@@ -36120,7 +36120,7 @@
         <v>2022</v>
       </c>
       <c r="E378" s="3">
-        <v>0.10090008416061882</v>
+        <v>0.10420603999247074</v>
       </c>
       <c r="F378" s="3">
         <v>1</v>
@@ -36173,7 +36173,7 @@
         <v>2022</v>
       </c>
       <c r="E379" s="4">
-        <v>0.10954770591501538</v>
+        <v>0.1111795908924077</v>
       </c>
       <c r="F379" s="4">
         <v>1</v>
@@ -36226,7 +36226,7 @@
         <v>2022</v>
       </c>
       <c r="E380" s="3">
-        <v>0.10772034897289151</v>
+        <v>0.10281889750798776</v>
       </c>
       <c r="F380" s="3">
         <v>1</v>
@@ -36279,7 +36279,7 @@
         <v>2022</v>
       </c>
       <c r="E381" s="4">
-        <v>0.10128313836498157</v>
+        <v>0.11326730876284366</v>
       </c>
       <c r="F381" s="4">
         <v>1</v>
@@ -36332,7 +36332,7 @@
         <v>2022</v>
       </c>
       <c r="E382" s="3">
-        <v>0.10382330781770392</v>
+        <v>0.10090008416061882</v>
       </c>
       <c r="F382" s="3">
         <v>1</v>
@@ -36385,7 +36385,7 @@
         <v>2022</v>
       </c>
       <c r="E383" s="4">
-        <v>0.1015976002654105</v>
+        <v>0.112250983358078</v>
       </c>
       <c r="F383" s="4">
         <v>1</v>
@@ -36438,7 +36438,7 @@
         <v>2022</v>
       </c>
       <c r="E384" s="3">
-        <v>0.11243953168649698</v>
+        <v>0.10930731082165113</v>
       </c>
       <c r="F384" s="3">
         <v>1</v>
@@ -36491,7 +36491,7 @@
         <v>2022</v>
       </c>
       <c r="E385" s="4">
-        <v>0.112250983358078</v>
+        <v>0.10954770591501538</v>
       </c>
       <c r="F385" s="4">
         <v>1</v>
@@ -36544,7 +36544,7 @@
         <v>2022</v>
       </c>
       <c r="E386" s="3">
-        <v>0.10930731082165113</v>
+        <v>0.10772034897289151</v>
       </c>
       <c r="F386" s="3">
         <v>1</v>
@@ -36597,7 +36597,7 @@
         <v>2022</v>
       </c>
       <c r="E387" s="4">
-        <v>0.1111795908924077</v>
+        <v>0.10128313836498157</v>
       </c>
       <c r="F387" s="4">
         <v>1</v>
@@ -36650,7 +36650,7 @@
         <v>2022</v>
       </c>
       <c r="E388" s="3">
-        <v>0.10717740707414788</v>
+        <v>0.11255980974057808</v>
       </c>
       <c r="F388" s="3">
         <v>1</v>
@@ -36703,7 +36703,7 @@
         <v>2022</v>
       </c>
       <c r="E389" s="4">
-        <v>0.11048465102438351</v>
+        <v>0.10351496447959772</v>
       </c>
       <c r="F389" s="4">
         <v>1</v>
@@ -36756,7 +36756,7 @@
         <v>2022</v>
       </c>
       <c r="E390" s="3">
-        <v>0.10762824850845455</v>
+        <v>0.10214633869688095</v>
       </c>
       <c r="F390" s="3">
         <v>1</v>
@@ -36809,7 +36809,7 @@
         <v>2022</v>
       </c>
       <c r="E391" s="4">
-        <v>0.10652175481682753</v>
+        <v>0.11243953168649698</v>
       </c>
       <c r="F391" s="4">
         <v>1</v>
@@ -36862,7 +36862,7 @@
         <v>2022</v>
       </c>
       <c r="E392" s="3">
-        <v>0.10260861218184329</v>
+        <v>0.10724052487495081</v>
       </c>
       <c r="F392" s="3">
         <v>1</v>
@@ -36915,7 +36915,7 @@
         <v>2022</v>
       </c>
       <c r="E393" s="4">
-        <v>0.10352156608631437</v>
+        <v>0.11048465102438351</v>
       </c>
       <c r="F393" s="4">
         <v>1</v>
@@ -36968,7 +36968,7 @@
         <v>2022</v>
       </c>
       <c r="E394" s="3">
-        <v>0.11132675841774924</v>
+        <v>0.10260861218184329</v>
       </c>
       <c r="F394" s="3">
         <v>1</v>
@@ -37021,7 +37021,7 @@
         <v>2022</v>
       </c>
       <c r="E395" s="4">
-        <v>0.10420603999247074</v>
+        <v>0.10352156608631437</v>
       </c>
       <c r="F395" s="4">
         <v>1</v>
@@ -37074,7 +37074,7 @@
         <v>2022</v>
       </c>
       <c r="E396" s="3">
-        <v>0.11050268468175577</v>
+        <v>0.1015976002654105</v>
       </c>
       <c r="F396" s="3">
         <v>1</v>
@@ -37127,7 +37127,7 @@
         <v>2022</v>
       </c>
       <c r="E397" s="4">
-        <v>0.10603516809737222</v>
+        <v>0.11350287341226893</v>
       </c>
       <c r="F397" s="4">
         <v>1</v>
@@ -37136,7 +37136,7 @@
         <v>1138.5</v>
       </c>
       <c r="H397" s="4">
-        <v>18.150000000000002</v>
+        <v>18.149999999999999</v>
       </c>
       <c r="I397" s="4">
         <v>0</v>
@@ -37180,7 +37180,7 @@
         <v>2022</v>
       </c>
       <c r="E398" s="3">
-        <v>0.11350287341226893</v>
+        <v>0.11708432556344184</v>
       </c>
       <c r="F398" s="3">
         <v>1</v>
@@ -37189,7 +37189,7 @@
         <v>1138.5</v>
       </c>
       <c r="H398" s="3">
-        <v>18.149999999999999</v>
+        <v>18.150000000000002</v>
       </c>
       <c r="I398" s="3">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>2022</v>
       </c>
       <c r="E399" s="4">
-        <v>0.11708432556344184</v>
+        <v>0.106881944919879</v>
       </c>
       <c r="F399" s="4">
         <v>1</v>
@@ -37286,7 +37286,7 @@
         <v>2022</v>
       </c>
       <c r="E400" s="3">
-        <v>0.106881944919879</v>
+        <v>0.11384197057678677</v>
       </c>
       <c r="F400" s="3">
         <v>1</v>
@@ -37339,7 +37339,7 @@
         <v>2022</v>
       </c>
       <c r="E401" s="4">
-        <v>0.10281889750798776</v>
+        <v>0.10652175481682753</v>
       </c>
       <c r="F401" s="4">
         <v>1</v>
@@ -37551,7 +37551,7 @@
         <v>2022</v>
       </c>
       <c r="E405" s="4">
-        <v>0.10214633869688095</v>
+        <v>0.10603516809737222</v>
       </c>
       <c r="F405" s="4">
         <v>1</v>
@@ -37604,7 +37604,7 @@
         <v>2022</v>
       </c>
       <c r="E406" s="3">
-        <v>0.11326730876284366</v>
+        <v>0.10762824850845455</v>
       </c>
       <c r="F406" s="3">
         <v>1</v>
@@ -37657,7 +37657,7 @@
         <v>2022</v>
       </c>
       <c r="E407" s="4">
-        <v>0.10351496447959772</v>
+        <v>0.10382330781770392</v>
       </c>
       <c r="F407" s="4">
         <v>1</v>
@@ -37710,7 +37710,7 @@
         <v>2022</v>
       </c>
       <c r="E408" s="3">
-        <v>0.10724052487495081</v>
+        <v>0.10717740707414788</v>
       </c>
       <c r="F408" s="3">
         <v>1</v>
@@ -38181,7 +38181,7 @@
         <v>509</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="D417" s="4">
         <v>2011</v>
@@ -38234,7 +38234,7 @@
         <v>509</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="D418" s="3">
         <v>2015</v>
@@ -39082,7 +39082,7 @@
         <v>509</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D434" s="3">
         <v>2015</v>
@@ -39347,7 +39347,7 @@
         <v>509</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="D439" s="4">
         <v>2009</v>
@@ -39400,7 +39400,7 @@
         <v>509</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="D440" s="3">
         <v>2012</v>
@@ -39453,7 +39453,7 @@
         <v>509</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="D441" s="4">
         <v>2015</v>
@@ -39877,7 +39877,7 @@
         <v>509</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="D449" s="4">
         <v>2015</v>
@@ -40831,7 +40831,7 @@
         <v>509</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>541</v>
+        <v>516</v>
       </c>
       <c r="D467" s="4">
         <v>2015</v>
@@ -41785,7 +41785,7 @@
         <v>509</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D485" s="4">
         <v>2015</v>
@@ -42633,7 +42633,7 @@
         <v>509</v>
       </c>
       <c r="C501" s="4" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="D501" s="4">
         <v>2015</v>
@@ -42898,7 +42898,7 @@
         <v>509</v>
       </c>
       <c r="C506" s="3" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="D506" s="3">
         <v>2011</v>
@@ -42951,7 +42951,7 @@
         <v>509</v>
       </c>
       <c r="C507" s="4" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="D507" s="4">
         <v>2015</v>
@@ -43481,7 +43481,7 @@
         <v>509</v>
       </c>
       <c r="C517" s="4" t="s">
-        <v>525</v>
+        <v>541</v>
       </c>
       <c r="D517" s="4">
         <v>2015</v>
@@ -44488,7 +44488,7 @@
         <v>509</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="D536" s="3">
         <v>2010</v>
@@ -44541,7 +44541,7 @@
         <v>509</v>
       </c>
       <c r="C537" s="4" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="D537" s="4">
         <v>2011</v>
@@ -44594,7 +44594,7 @@
         <v>509</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="D538" s="3">
         <v>2015</v>
@@ -44647,7 +44647,7 @@
         <v>509</v>
       </c>
       <c r="C539" s="4" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="D539" s="4">
         <v>2023</v>
@@ -45389,7 +45389,7 @@
         <v>509</v>
       </c>
       <c r="C553" s="4" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D553" s="4">
         <v>2011</v>
@@ -45442,7 +45442,7 @@
         <v>509</v>
       </c>
       <c r="C554" s="3" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D554" s="3">
         <v>2015</v>
@@ -45495,7 +45495,7 @@
         <v>509</v>
       </c>
       <c r="C555" s="4" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D555" s="4">
         <v>2024</v>
@@ -45548,7 +45548,7 @@
         <v>509</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D556" s="3">
         <v>2025</v>
@@ -45601,7 +45601,7 @@
         <v>509</v>
       </c>
       <c r="C557" s="4" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D557" s="4">
         <v>2011</v>
@@ -45654,7 +45654,7 @@
         <v>509</v>
       </c>
       <c r="C558" s="3" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D558" s="3">
         <v>2015</v>
@@ -45707,7 +45707,7 @@
         <v>509</v>
       </c>
       <c r="C559" s="4" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D559" s="4">
         <v>2024</v>
@@ -45760,7 +45760,7 @@
         <v>509</v>
       </c>
       <c r="C560" s="3" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D560" s="3">
         <v>2025</v>
@@ -46661,7 +46661,7 @@
         <v>509</v>
       </c>
       <c r="C577" s="4" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="D577" s="4">
         <v>2011</v>
@@ -46714,7 +46714,7 @@
         <v>509</v>
       </c>
       <c r="C578" s="3" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="D578" s="3">
         <v>2015</v>
@@ -46767,7 +46767,7 @@
         <v>509</v>
       </c>
       <c r="C579" s="4" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="D579" s="4">
         <v>2024</v>
@@ -47191,7 +47191,7 @@
         <v>509</v>
       </c>
       <c r="C587" s="4" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="D587" s="4">
         <v>2011</v>
@@ -47244,7 +47244,7 @@
         <v>509</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="D588" s="3">
         <v>2015</v>
@@ -47297,7 +47297,7 @@
         <v>509</v>
       </c>
       <c r="C589" s="4" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="D589" s="4">
         <v>2025</v>
@@ -48092,7 +48092,7 @@
         <v>509</v>
       </c>
       <c r="C604" s="3" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="D604" s="3">
         <v>2015</v>
@@ -51537,7 +51537,7 @@
         <v>509</v>
       </c>
       <c r="C669" s="4" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="D669" s="4">
         <v>2011</v>
@@ -52261,7 +52261,7 @@
         <v>509</v>
       </c>
       <c r="C689" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D689" s="4">
         <v>2011</v>
@@ -52293,7 +52293,7 @@
         <v>509</v>
       </c>
       <c r="C690" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D690" s="3">
         <v>2023</v>
@@ -53861,7 +53861,7 @@
         <v>509</v>
       </c>
       <c r="C739" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D739" s="4">
         <v>2011</v>
@@ -53893,7 +53893,7 @@
         <v>509</v>
       </c>
       <c r="C740" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D740" s="3">
         <v>2012</v>
@@ -53925,7 +53925,7 @@
         <v>509</v>
       </c>
       <c r="C741" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D741" s="4">
         <v>2028</v>
@@ -54789,7 +54789,7 @@
         <v>509</v>
       </c>
       <c r="C768" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D768" s="3">
         <v>2009</v>
@@ -54821,7 +54821,7 @@
         <v>509</v>
       </c>
       <c r="C769" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D769" s="4">
         <v>2012</v>
@@ -54853,7 +54853,7 @@
         <v>509</v>
       </c>
       <c r="C770" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D770" s="3">
         <v>2015</v>
@@ -54949,7 +54949,7 @@
         <v>509</v>
       </c>
       <c r="C773" s="4" t="s">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="D773" s="4">
         <v>2013</v>
@@ -54981,7 +54981,7 @@
         <v>509</v>
       </c>
       <c r="C774" s="3" t="s">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="D774" s="3">
         <v>2015</v>
@@ -55077,7 +55077,7 @@
         <v>509</v>
       </c>
       <c r="C777" s="4" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D777" s="4">
         <v>2010</v>
@@ -55109,7 +55109,7 @@
         <v>509</v>
       </c>
       <c r="C778" s="3" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D778" s="3">
         <v>2011</v>
@@ -55141,7 +55141,7 @@
         <v>509</v>
       </c>
       <c r="C779" s="4" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D779" s="4">
         <v>2015</v>
@@ -55173,7 +55173,7 @@
         <v>509</v>
       </c>
       <c r="C780" s="3" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="D780" s="3">
         <v>2010</v>
@@ -55205,7 +55205,7 @@
         <v>509</v>
       </c>
       <c r="C781" s="4" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="D781" s="4">
         <v>2011</v>
@@ -55269,7 +55269,7 @@
         <v>509</v>
       </c>
       <c r="C783" s="4" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D783" s="4">
         <v>2028</v>
@@ -55301,7 +55301,7 @@
         <v>509</v>
       </c>
       <c r="C784" s="3" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D784" s="3">
         <v>2028</v>
@@ -55333,7 +55333,7 @@
         <v>509</v>
       </c>
       <c r="C785" s="4" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D785" s="4">
         <v>2025</v>
@@ -55365,7 +55365,7 @@
         <v>509</v>
       </c>
       <c r="C786" s="3" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D786" s="3">
         <v>2025</v>
@@ -55397,7 +55397,7 @@
         <v>509</v>
       </c>
       <c r="C787" s="4" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="D787" s="4">
         <v>2028</v>
@@ -55493,7 +55493,7 @@
         <v>509</v>
       </c>
       <c r="C790" s="3" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="D790" s="3">
         <v>2028</v>

--- a/VerveStacks_ITA_grids/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA_grids/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8C1A660-DA3E-4689-A410-906C8F630E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF464E72-AB76-4FB3-A04D-4F811D2CDE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{9F1F4F77-4A31-4541-AC7A-70184F65F238}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{325250D2-D2C2-4B62-8E99-15D7F6F052DA}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -78,30 +78,30 @@
     <t>bioenergy</t>
   </si>
   <si>
+    <t>e_IT67-220</t>
+  </si>
+  <si>
+    <t>e_w81938081-380</t>
+  </si>
+  <si>
+    <t>e_w105141350-220</t>
+  </si>
+  <si>
     <t>e_w144006711-220</t>
   </si>
   <si>
-    <t>e_IT67-220</t>
+    <t>e_IT135-220</t>
+  </si>
+  <si>
+    <t>e_w116692433-220</t>
+  </si>
+  <si>
+    <t>e_w377588191-220</t>
   </si>
   <si>
     <t>e_w109756016-380</t>
   </si>
   <si>
-    <t>e_w377588191-220</t>
-  </si>
-  <si>
-    <t>e_IT135-220</t>
-  </si>
-  <si>
-    <t>e_w105141350-220</t>
-  </si>
-  <si>
-    <t>e_w81938081-380</t>
-  </si>
-  <si>
-    <t>e_w116692433-220</t>
-  </si>
-  <si>
     <t>ep_bioenergy_IT135-220</t>
   </si>
   <si>
@@ -1569,108 +1569,108 @@
     <t>solar</t>
   </si>
   <si>
+    <t>elc_spv-ITA_0091</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0073</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0058</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0211</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0030</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0157</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0018</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0124</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0112</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0069</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0205</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0029</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0077</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0080</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0116</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0168</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0024</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0105</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0215</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0196</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0019</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0213</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0186</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0115</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0092</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0023</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0042</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0216</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0101</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0100</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0081</t>
+  </si>
+  <si>
     <t>elc_spv-ITA_0007</t>
   </si>
   <si>
-    <t>elc_spv-ITA_0105</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0091</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0018</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0115</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0124</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0042</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0215</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0196</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0019</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0205</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0029</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0077</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0080</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0092</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0157</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0069</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0023</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0216</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0101</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0100</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0112</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0058</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0211</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0168</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0030</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0186</t>
-  </si>
-  <si>
     <t>elc_spv-ITA_0068</t>
   </si>
   <si>
     <t>elc_spv-ITA_0167</t>
   </si>
   <si>
-    <t>elc_spv-ITA_0116</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0073</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0081</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0024</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0213</t>
-  </si>
-  <si>
     <t>ep_solar_pv_000</t>
   </si>
   <si>
@@ -3441,12 +3441,15 @@
     <t>yes</t>
   </si>
   <si>
+    <t>Aggregated Plant - EMBER Gap - way/116692433-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/109756016-380_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - EMBER Gap - way/144006711-220_Missing Bioenergy Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - EMBER Gap - way/109756016-380_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - EMBER Gap - IT135-220_Missing Bioenergy Capacity</t>
   </si>
   <si>
@@ -3456,9 +3459,6 @@
     <t>Aggregated Plant - EMBER Gap - way/377588191-220_Missing Bioenergy Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - EMBER Gap - way/116692433-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - EMBER Gap - IT67-220_Missing Bioenergy Capacity</t>
   </si>
   <si>
@@ -3852,6 +3852,9 @@
     <t>Aggregated Plant - IRENA Gap - way/419423704-380_Missing Hydro Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - IT13-380_Missing Hydro Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - way/104359058-380_Missing Hydro Capacity</t>
   </si>
   <si>
@@ -3861,9 +3864,6 @@
     <t>Aggregated Plant - IRENA Gap - way/409768426-220_Missing Hydro Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - IT13-380_Missing Hydro Capacity</t>
-  </si>
-  <si>
     <t>Lana hydroelectric plant_</t>
   </si>
   <si>
@@ -4020,100 +4020,100 @@
     <t>annual</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_81_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_112_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_168_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - ITA_105_Missing Solar Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_92_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - ITA_58_Missing Solar Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_211_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_167_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_196_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_116_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_68_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_101_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_157_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_213_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_69_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_80_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_18_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_115_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_19_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_29_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_216_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_30_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_7_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_73_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_23_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_186_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_91_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_205_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_100_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_24_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - ITA_124_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_115_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_19_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_29_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_216_Missing Solar Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - IRENA Gap - ITA_42_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_24_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_73_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_18_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_23_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_92_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_213_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_116_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_112_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_157_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_211_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_81_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_7_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_168_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_167_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_91_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_186_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_30_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_100_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_205_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_196_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_80_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_69_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_68_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_101_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - ITA_77_Missing Solar Capacity</t>
@@ -5242,7 +5242,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15EC6DB7-A659-98CC-61BF-06244F288971}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC58EB4C-9BB3-2CDD-7646-4F22478B5715}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5297,7 +5297,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E0A89D9-4880-82FA-C2E9-A80F1B9979B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E84081A5-0E13-DD29-7449-AAEEBB91FC04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5648,7 +5648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397D641A-79E2-4041-9A01-715D95D569D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECDB8702-A2C0-4680-BC0E-2B58492E2339}">
   <dimension ref="A1:U192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -9908,7 +9908,7 @@
         <v>45</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D78" s="3">
         <v>0.49118125000000001</v>
@@ -9964,7 +9964,7 @@
         <v>45</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D79" s="4">
         <v>0.49118125000000001</v>
@@ -15004,7 +15004,7 @@
         <v>45</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D169" s="4">
         <v>0.28839999999999999</v>
@@ -15060,7 +15060,7 @@
         <v>45</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D170" s="3">
         <v>0.28839999999999999</v>
@@ -15116,7 +15116,7 @@
         <v>45</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D171" s="4">
         <v>0.28839999999999999</v>
@@ -16182,7 +16182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59822EAB-5FD0-4802-BB02-5794D1CB2332}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A987502-15FE-4796-A84F-D07AC471648C}">
   <dimension ref="A1:T1127"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16298,19 +16298,19 @@
         <v>2022</v>
       </c>
       <c r="E4" s="3">
-        <v>0.19090251107828654</v>
+        <v>0.30441211225997045</v>
       </c>
       <c r="F4" s="3">
-        <v>0.33990000000000004</v>
+        <v>0.36049999999999999</v>
       </c>
       <c r="G4" s="3">
-        <v>4427.5</v>
+        <v>3850.0000000000009</v>
       </c>
       <c r="H4" s="3">
-        <v>157.30000000000001</v>
+        <v>143</v>
       </c>
       <c r="I4" s="3">
-        <v>9.240000000000002</v>
+        <v>8.4</v>
       </c>
       <c r="J4" s="3">
         <v>50</v>
@@ -16351,13 +16351,13 @@
         <v>2022</v>
       </c>
       <c r="E5" s="4">
-        <v>0.30441211225997045</v>
+        <v>0.41792171344165435</v>
       </c>
       <c r="F5" s="4">
         <v>0.36049999999999999</v>
       </c>
       <c r="G5" s="4">
-        <v>3850.0000000000009</v>
+        <v>3850.0000000000005</v>
       </c>
       <c r="H5" s="4">
         <v>143</v>
@@ -16404,13 +16404,13 @@
         <v>2022</v>
       </c>
       <c r="E6" s="3">
-        <v>0.47467651403249633</v>
+        <v>0.33536927621861151</v>
       </c>
       <c r="F6" s="3">
         <v>0.36049999999999999</v>
       </c>
       <c r="G6" s="3">
-        <v>3850.0000000000005</v>
+        <v>3850</v>
       </c>
       <c r="H6" s="3">
         <v>143</v>
@@ -16457,19 +16457,19 @@
         <v>2022</v>
       </c>
       <c r="E7" s="4">
-        <v>0.90807680945347113</v>
+        <v>0.19090251107828654</v>
       </c>
       <c r="F7" s="4">
-        <v>0.36049999999999999</v>
+        <v>0.33990000000000004</v>
       </c>
       <c r="G7" s="4">
-        <v>3850.0000000000005</v>
+        <v>4427.5</v>
       </c>
       <c r="H7" s="4">
-        <v>143</v>
+        <v>157.30000000000001</v>
       </c>
       <c r="I7" s="4">
-        <v>8.4</v>
+        <v>9.240000000000002</v>
       </c>
       <c r="J7" s="4">
         <v>50</v>
@@ -16563,7 +16563,7 @@
         <v>2022</v>
       </c>
       <c r="E9" s="4">
-        <v>0.33536927621861151</v>
+        <v>0.43855982274741512</v>
       </c>
       <c r="F9" s="4">
         <v>0.36049999999999999</v>
@@ -16616,7 +16616,7 @@
         <v>2022</v>
       </c>
       <c r="E10" s="3">
-        <v>0.41792171344165435</v>
+        <v>0.90807680945347113</v>
       </c>
       <c r="F10" s="3">
         <v>0.36049999999999999</v>
@@ -16669,13 +16669,13 @@
         <v>2022</v>
       </c>
       <c r="E11" s="4">
-        <v>0.43855982274741512</v>
+        <v>0.47467651403249633</v>
       </c>
       <c r="F11" s="4">
         <v>0.36049999999999999</v>
       </c>
       <c r="G11" s="4">
-        <v>3850</v>
+        <v>3850.0000000000005</v>
       </c>
       <c r="H11" s="4">
         <v>143</v>
@@ -16769,7 +16769,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="4">
         <v>2001</v>
@@ -16822,7 +16822,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D14" s="3">
         <v>2013</v>
@@ -16875,7 +16875,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D15" s="4">
         <v>2003</v>
@@ -16928,7 +16928,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D16" s="3">
         <v>1998</v>
@@ -16981,7 +16981,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D17" s="4">
         <v>2009</v>
@@ -17034,7 +17034,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D18" s="3">
         <v>2008</v>
@@ -17087,7 +17087,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D19" s="4">
         <v>2009</v>
@@ -17140,7 +17140,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D20" s="3">
         <v>2008</v>
@@ -17193,7 +17193,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D21" s="4">
         <v>2018</v>
@@ -21168,7 +21168,7 @@
         <v>45</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D96" s="3">
         <v>2010</v>
@@ -21221,7 +21221,7 @@
         <v>45</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D97" s="4">
         <v>2010</v>
@@ -25991,7 +25991,7 @@
         <v>45</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D187" s="4">
         <v>1978</v>
@@ -26044,7 +26044,7 @@
         <v>45</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D188" s="3">
         <v>1981</v>
@@ -26097,7 +26097,7 @@
         <v>45</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D189" s="4">
         <v>1987</v>
@@ -35961,7 +35961,7 @@
         <v>2022</v>
       </c>
       <c r="E375" s="4">
-        <v>0.11050268468175577</v>
+        <v>0.11132675841774924</v>
       </c>
       <c r="F375" s="4">
         <v>1</v>
@@ -36014,7 +36014,7 @@
         <v>2022</v>
       </c>
       <c r="E376" s="3">
-        <v>0.10127750284705274</v>
+        <v>0.10603516809737222</v>
       </c>
       <c r="F376" s="3">
         <v>1</v>
@@ -36067,7 +36067,7 @@
         <v>2022</v>
       </c>
       <c r="E377" s="4">
-        <v>0.11132675841774924</v>
+        <v>0.11350287341226893</v>
       </c>
       <c r="F377" s="4">
         <v>1</v>
@@ -36076,7 +36076,7 @@
         <v>1138.5</v>
       </c>
       <c r="H377" s="4">
-        <v>18.150000000000002</v>
+        <v>18.149999999999999</v>
       </c>
       <c r="I377" s="4">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>2022</v>
       </c>
       <c r="E378" s="3">
-        <v>0.10420603999247074</v>
+        <v>0.11708432556344184</v>
       </c>
       <c r="F378" s="3">
         <v>1</v>
@@ -36173,7 +36173,7 @@
         <v>2022</v>
       </c>
       <c r="E379" s="4">
-        <v>0.1111795908924077</v>
+        <v>0.11384197057678677</v>
       </c>
       <c r="F379" s="4">
         <v>1</v>
@@ -36226,7 +36226,7 @@
         <v>2022</v>
       </c>
       <c r="E380" s="3">
-        <v>0.10281889750798776</v>
+        <v>0.10214633869688095</v>
       </c>
       <c r="F380" s="3">
         <v>1</v>
@@ -36279,7 +36279,7 @@
         <v>2022</v>
       </c>
       <c r="E381" s="4">
-        <v>0.11326730876284366</v>
+        <v>0.10420603999247074</v>
       </c>
       <c r="F381" s="4">
         <v>1</v>
@@ -36332,7 +36332,7 @@
         <v>2022</v>
       </c>
       <c r="E382" s="3">
-        <v>0.10090008416061882</v>
+        <v>0.10281889750798776</v>
       </c>
       <c r="F382" s="3">
         <v>1</v>
@@ -36385,7 +36385,7 @@
         <v>2022</v>
       </c>
       <c r="E383" s="4">
-        <v>0.112250983358078</v>
+        <v>0.1015976002654105</v>
       </c>
       <c r="F383" s="4">
         <v>1</v>
@@ -36438,7 +36438,7 @@
         <v>2022</v>
       </c>
       <c r="E384" s="3">
-        <v>0.10930731082165113</v>
+        <v>0.11243953168649698</v>
       </c>
       <c r="F384" s="3">
         <v>1</v>
@@ -36703,7 +36703,7 @@
         <v>2022</v>
       </c>
       <c r="E389" s="4">
-        <v>0.10351496447959772</v>
+        <v>0.1053582618867203</v>
       </c>
       <c r="F389" s="4">
         <v>1</v>
@@ -36756,7 +36756,7 @@
         <v>2022</v>
       </c>
       <c r="E390" s="3">
-        <v>0.10214633869688095</v>
+        <v>0.106881944919879</v>
       </c>
       <c r="F390" s="3">
         <v>1</v>
@@ -36809,7 +36809,7 @@
         <v>2022</v>
       </c>
       <c r="E391" s="4">
-        <v>0.11243953168649698</v>
+        <v>0.10382330781770392</v>
       </c>
       <c r="F391" s="4">
         <v>1</v>
@@ -36862,7 +36862,7 @@
         <v>2022</v>
       </c>
       <c r="E392" s="3">
-        <v>0.10724052487495081</v>
+        <v>0.10127750284705274</v>
       </c>
       <c r="F392" s="3">
         <v>1</v>
@@ -36915,7 +36915,7 @@
         <v>2022</v>
       </c>
       <c r="E393" s="4">
-        <v>0.11048465102438351</v>
+        <v>0.10090008416061882</v>
       </c>
       <c r="F393" s="4">
         <v>1</v>
@@ -36968,7 +36968,7 @@
         <v>2022</v>
       </c>
       <c r="E394" s="3">
-        <v>0.10260861218184329</v>
+        <v>0.112250983358078</v>
       </c>
       <c r="F394" s="3">
         <v>1</v>
@@ -37021,7 +37021,7 @@
         <v>2022</v>
       </c>
       <c r="E395" s="4">
-        <v>0.10352156608631437</v>
+        <v>0.10930731082165113</v>
       </c>
       <c r="F395" s="4">
         <v>1</v>
@@ -37074,7 +37074,7 @@
         <v>2022</v>
       </c>
       <c r="E396" s="3">
-        <v>0.1015976002654105</v>
+        <v>0.10717740707414788</v>
       </c>
       <c r="F396" s="3">
         <v>1</v>
@@ -37127,7 +37127,7 @@
         <v>2022</v>
       </c>
       <c r="E397" s="4">
-        <v>0.11350287341226893</v>
+        <v>0.10652175481682753</v>
       </c>
       <c r="F397" s="4">
         <v>1</v>
@@ -37136,7 +37136,7 @@
         <v>1138.5</v>
       </c>
       <c r="H397" s="4">
-        <v>18.149999999999999</v>
+        <v>18.150000000000002</v>
       </c>
       <c r="I397" s="4">
         <v>0</v>
@@ -37180,7 +37180,7 @@
         <v>2022</v>
       </c>
       <c r="E398" s="3">
-        <v>0.11708432556344184</v>
+        <v>0.1111795908924077</v>
       </c>
       <c r="F398" s="3">
         <v>1</v>
@@ -37233,7 +37233,7 @@
         <v>2022</v>
       </c>
       <c r="E399" s="4">
-        <v>0.106881944919879</v>
+        <v>0.10351496447959772</v>
       </c>
       <c r="F399" s="4">
         <v>1</v>
@@ -37286,7 +37286,7 @@
         <v>2022</v>
       </c>
       <c r="E400" s="3">
-        <v>0.11384197057678677</v>
+        <v>0.10724052487495081</v>
       </c>
       <c r="F400" s="3">
         <v>1</v>
@@ -37339,7 +37339,7 @@
         <v>2022</v>
       </c>
       <c r="E401" s="4">
-        <v>0.10652175481682753</v>
+        <v>0.11326730876284366</v>
       </c>
       <c r="F401" s="4">
         <v>1</v>
@@ -37392,7 +37392,7 @@
         <v>2022</v>
       </c>
       <c r="E402" s="3">
-        <v>0.11265722369334792</v>
+        <v>0.11048465102438351</v>
       </c>
       <c r="F402" s="3">
         <v>1</v>
@@ -37445,7 +37445,7 @@
         <v>2022</v>
       </c>
       <c r="E403" s="4">
-        <v>0.10585966196758853</v>
+        <v>0.10260861218184329</v>
       </c>
       <c r="F403" s="4">
         <v>1</v>
@@ -37498,7 +37498,7 @@
         <v>2022</v>
       </c>
       <c r="E404" s="3">
-        <v>0.1053582618867203</v>
+        <v>0.10352156608631437</v>
       </c>
       <c r="F404" s="3">
         <v>1</v>
@@ -37551,7 +37551,7 @@
         <v>2022</v>
       </c>
       <c r="E405" s="4">
-        <v>0.10603516809737222</v>
+        <v>0.10762824850845455</v>
       </c>
       <c r="F405" s="4">
         <v>1</v>
@@ -37604,7 +37604,7 @@
         <v>2022</v>
       </c>
       <c r="E406" s="3">
-        <v>0.10762824850845455</v>
+        <v>0.11050268468175577</v>
       </c>
       <c r="F406" s="3">
         <v>1</v>
@@ -37657,7 +37657,7 @@
         <v>2022</v>
       </c>
       <c r="E407" s="4">
-        <v>0.10382330781770392</v>
+        <v>0.11265722369334792</v>
       </c>
       <c r="F407" s="4">
         <v>1</v>
@@ -37710,7 +37710,7 @@
         <v>2022</v>
       </c>
       <c r="E408" s="3">
-        <v>0.10717740707414788</v>
+        <v>0.10585966196758853</v>
       </c>
       <c r="F408" s="3">
         <v>1</v>
@@ -38181,7 +38181,7 @@
         <v>509</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>510</v>
+        <v>541</v>
       </c>
       <c r="D417" s="4">
         <v>2011</v>
@@ -38234,7 +38234,7 @@
         <v>509</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>510</v>
+        <v>541</v>
       </c>
       <c r="D418" s="3">
         <v>2015</v>
@@ -39082,7 +39082,7 @@
         <v>509</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="D434" s="3">
         <v>2015</v>
@@ -39347,7 +39347,7 @@
         <v>509</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="D439" s="4">
         <v>2009</v>
@@ -39400,7 +39400,7 @@
         <v>509</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="D440" s="3">
         <v>2012</v>
@@ -39453,7 +39453,7 @@
         <v>509</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="D441" s="4">
         <v>2015</v>
@@ -40831,7 +40831,7 @@
         <v>509</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>516</v>
+        <v>536</v>
       </c>
       <c r="D467" s="4">
         <v>2015</v>
@@ -41785,7 +41785,7 @@
         <v>509</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="D485" s="4">
         <v>2015</v>
@@ -42527,7 +42527,7 @@
         <v>509</v>
       </c>
       <c r="C499" s="4" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="D499" s="4">
         <v>2010</v>
@@ -42580,7 +42580,7 @@
         <v>509</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="D500" s="3">
         <v>2015</v>
@@ -42633,7 +42633,7 @@
         <v>509</v>
       </c>
       <c r="C501" s="4" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="D501" s="4">
         <v>2015</v>
@@ -42898,7 +42898,7 @@
         <v>509</v>
       </c>
       <c r="C506" s="3" t="s">
-        <v>540</v>
+        <v>511</v>
       </c>
       <c r="D506" s="3">
         <v>2011</v>
@@ -42951,7 +42951,7 @@
         <v>509</v>
       </c>
       <c r="C507" s="4" t="s">
-        <v>540</v>
+        <v>511</v>
       </c>
       <c r="D507" s="4">
         <v>2015</v>
@@ -43481,7 +43481,7 @@
         <v>509</v>
       </c>
       <c r="C517" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D517" s="4">
         <v>2015</v>
@@ -44488,7 +44488,7 @@
         <v>509</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D536" s="3">
         <v>2010</v>
@@ -44541,7 +44541,7 @@
         <v>509</v>
       </c>
       <c r="C537" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D537" s="4">
         <v>2011</v>
@@ -44594,7 +44594,7 @@
         <v>509</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D538" s="3">
         <v>2015</v>
@@ -44647,7 +44647,7 @@
         <v>509</v>
       </c>
       <c r="C539" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D539" s="4">
         <v>2023</v>
@@ -45389,7 +45389,7 @@
         <v>509</v>
       </c>
       <c r="C553" s="4" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="D553" s="4">
         <v>2011</v>
@@ -45442,7 +45442,7 @@
         <v>509</v>
       </c>
       <c r="C554" s="3" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="D554" s="3">
         <v>2015</v>
@@ -45495,7 +45495,7 @@
         <v>509</v>
       </c>
       <c r="C555" s="4" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="D555" s="4">
         <v>2024</v>
@@ -45548,7 +45548,7 @@
         <v>509</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="D556" s="3">
         <v>2025</v>
@@ -45601,7 +45601,7 @@
         <v>509</v>
       </c>
       <c r="C557" s="4" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="D557" s="4">
         <v>2011</v>
@@ -45654,7 +45654,7 @@
         <v>509</v>
       </c>
       <c r="C558" s="3" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="D558" s="3">
         <v>2015</v>
@@ -45707,7 +45707,7 @@
         <v>509</v>
       </c>
       <c r="C559" s="4" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="D559" s="4">
         <v>2024</v>
@@ -45760,7 +45760,7 @@
         <v>509</v>
       </c>
       <c r="C560" s="3" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="D560" s="3">
         <v>2025</v>
@@ -46184,7 +46184,7 @@
         <v>509</v>
       </c>
       <c r="C568" s="3" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="D568" s="3">
         <v>2015</v>
@@ -46661,7 +46661,7 @@
         <v>509</v>
       </c>
       <c r="C577" s="4" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="D577" s="4">
         <v>2011</v>
@@ -46714,7 +46714,7 @@
         <v>509</v>
       </c>
       <c r="C578" s="3" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="D578" s="3">
         <v>2015</v>
@@ -46767,7 +46767,7 @@
         <v>509</v>
       </c>
       <c r="C579" s="4" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="D579" s="4">
         <v>2024</v>
@@ -47191,7 +47191,7 @@
         <v>509</v>
       </c>
       <c r="C587" s="4" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="D587" s="4">
         <v>2011</v>
@@ -47244,7 +47244,7 @@
         <v>509</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="D588" s="3">
         <v>2015</v>
@@ -47297,7 +47297,7 @@
         <v>509</v>
       </c>
       <c r="C589" s="4" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="D589" s="4">
         <v>2025</v>
@@ -48092,7 +48092,7 @@
         <v>509</v>
       </c>
       <c r="C604" s="3" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D604" s="3">
         <v>2015</v>
@@ -51537,7 +51537,7 @@
         <v>509</v>
       </c>
       <c r="C669" s="4" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="D669" s="4">
         <v>2011</v>
@@ -52165,7 +52165,7 @@
         <v>509</v>
       </c>
       <c r="C686" s="3" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="D686" s="3">
         <v>2012</v>
@@ -52197,7 +52197,7 @@
         <v>509</v>
       </c>
       <c r="C687" s="4" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="D687" s="4">
         <v>2015</v>
@@ -52229,7 +52229,7 @@
         <v>509</v>
       </c>
       <c r="C688" s="3" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="D688" s="3">
         <v>2022</v>
@@ -52261,7 +52261,7 @@
         <v>509</v>
       </c>
       <c r="C689" s="4" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="D689" s="4">
         <v>2011</v>
@@ -52293,7 +52293,7 @@
         <v>509</v>
       </c>
       <c r="C690" s="3" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="D690" s="3">
         <v>2023</v>
@@ -53861,7 +53861,7 @@
         <v>509</v>
       </c>
       <c r="C739" s="4" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="D739" s="4">
         <v>2011</v>
@@ -53893,7 +53893,7 @@
         <v>509</v>
       </c>
       <c r="C740" s="3" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="D740" s="3">
         <v>2012</v>
@@ -53925,7 +53925,7 @@
         <v>509</v>
       </c>
       <c r="C741" s="4" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="D741" s="4">
         <v>2028</v>
@@ -54789,7 +54789,7 @@
         <v>509</v>
       </c>
       <c r="C768" s="3" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="D768" s="3">
         <v>2009</v>
@@ -54821,7 +54821,7 @@
         <v>509</v>
       </c>
       <c r="C769" s="4" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="D769" s="4">
         <v>2012</v>
@@ -54853,7 +54853,7 @@
         <v>509</v>
       </c>
       <c r="C770" s="3" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="D770" s="3">
         <v>2015</v>
@@ -54949,7 +54949,7 @@
         <v>509</v>
       </c>
       <c r="C773" s="4" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="D773" s="4">
         <v>2013</v>
@@ -54981,7 +54981,7 @@
         <v>509</v>
       </c>
       <c r="C774" s="3" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="D774" s="3">
         <v>2015</v>
@@ -55077,7 +55077,7 @@
         <v>509</v>
       </c>
       <c r="C777" s="4" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="D777" s="4">
         <v>2010</v>
@@ -55109,7 +55109,7 @@
         <v>509</v>
       </c>
       <c r="C778" s="3" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="D778" s="3">
         <v>2011</v>
@@ -55141,7 +55141,7 @@
         <v>509</v>
       </c>
       <c r="C779" s="4" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="D779" s="4">
         <v>2015</v>
@@ -55173,7 +55173,7 @@
         <v>509</v>
       </c>
       <c r="C780" s="3" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="D780" s="3">
         <v>2010</v>
@@ -55205,7 +55205,7 @@
         <v>509</v>
       </c>
       <c r="C781" s="4" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="D781" s="4">
         <v>2011</v>
@@ -55269,7 +55269,7 @@
         <v>509</v>
       </c>
       <c r="C783" s="4" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="D783" s="4">
         <v>2028</v>
@@ -55301,7 +55301,7 @@
         <v>509</v>
       </c>
       <c r="C784" s="3" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="D784" s="3">
         <v>2028</v>
@@ -55333,7 +55333,7 @@
         <v>509</v>
       </c>
       <c r="C785" s="4" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="D785" s="4">
         <v>2025</v>
@@ -55365,7 +55365,7 @@
         <v>509</v>
       </c>
       <c r="C786" s="3" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="D786" s="3">
         <v>2025</v>
@@ -55397,7 +55397,7 @@
         <v>509</v>
       </c>
       <c r="C787" s="4" t="s">
-        <v>540</v>
+        <v>511</v>
       </c>
       <c r="D787" s="4">
         <v>2028</v>
@@ -55493,7 +55493,7 @@
         <v>509</v>
       </c>
       <c r="C790" s="3" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="D790" s="3">
         <v>2028</v>
@@ -66149,7 +66149,7 @@
         <v>938</v>
       </c>
       <c r="C1123" s="4" t="s">
-        <v>965</v>
+        <v>977</v>
       </c>
       <c r="D1123" s="4">
         <v>2011</v>
@@ -66181,7 +66181,7 @@
         <v>938</v>
       </c>
       <c r="C1124" s="3" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="D1124" s="3">
         <v>2011</v>
@@ -66213,7 +66213,7 @@
         <v>938</v>
       </c>
       <c r="C1125" s="4" t="s">
-        <v>955</v>
+        <v>963</v>
       </c>
       <c r="D1125" s="4">
         <v>2011</v>
@@ -66245,7 +66245,7 @@
         <v>938</v>
       </c>
       <c r="C1126" s="3" t="s">
-        <v>977</v>
+        <v>965</v>
       </c>
       <c r="D1126" s="3">
         <v>2011</v>

--- a/VerveStacks_ITA_grids/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA_grids/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF464E72-AB76-4FB3-A04D-4F811D2CDE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1074059-6DC3-474C-B382-3B9660D679CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{325250D2-D2C2-4B62-8E99-15D7F6F052DA}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{D9E9E058-320E-4230-A13E-AF822EDDFFB8}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -78,30 +78,30 @@
     <t>bioenergy</t>
   </si>
   <si>
+    <t>e_w377588191-220</t>
+  </si>
+  <si>
+    <t>e_w144006711-220</t>
+  </si>
+  <si>
+    <t>e_IT135-220</t>
+  </si>
+  <si>
+    <t>e_w81938081-380</t>
+  </si>
+  <si>
     <t>e_IT67-220</t>
   </si>
   <si>
-    <t>e_w81938081-380</t>
+    <t>e_w109756016-380</t>
   </si>
   <si>
     <t>e_w105141350-220</t>
   </si>
   <si>
-    <t>e_w144006711-220</t>
-  </si>
-  <si>
-    <t>e_IT135-220</t>
-  </si>
-  <si>
     <t>e_w116692433-220</t>
   </si>
   <si>
-    <t>e_w377588191-220</t>
-  </si>
-  <si>
-    <t>e_w109756016-380</t>
-  </si>
-  <si>
     <t>ep_bioenergy_IT135-220</t>
   </si>
   <si>
@@ -1569,102 +1569,102 @@
     <t>solar</t>
   </si>
   <si>
+    <t>elc_spv-ITA_0019</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0216</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0101</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0100</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0030</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0112</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0069</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0213</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0205</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0029</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0077</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0080</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0115</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0215</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0116</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0073</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0058</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0105</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0081</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0186</t>
+  </si>
+  <si>
     <t>elc_spv-ITA_0091</t>
   </si>
   <si>
-    <t>elc_spv-ITA_0073</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0058</t>
-  </si>
-  <si>
     <t>elc_spv-ITA_0211</t>
   </si>
   <si>
-    <t>elc_spv-ITA_0030</t>
-  </si>
-  <si>
     <t>elc_spv-ITA_0157</t>
   </si>
   <si>
+    <t>elc_spv-ITA_0196</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0007</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0042</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0024</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0124</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0092</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0023</t>
+  </si>
+  <si>
     <t>elc_spv-ITA_0018</t>
   </si>
   <si>
-    <t>elc_spv-ITA_0124</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0112</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0069</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0205</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0029</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0077</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0080</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0116</t>
-  </si>
-  <si>
     <t>elc_spv-ITA_0168</t>
   </si>
   <si>
-    <t>elc_spv-ITA_0024</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0105</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0215</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0196</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0019</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0213</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0186</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0115</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0092</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0023</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0042</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0216</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0101</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0100</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0081</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0007</t>
-  </si>
-  <si>
     <t>elc_spv-ITA_0068</t>
   </si>
   <si>
@@ -3426,39 +3426,39 @@
     <t>ele</t>
   </si>
   <si>
+    <t>Aggregated Plant - EMBER Gap - way/144006711-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>TWh</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/109756016-380_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/105141350-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/377588191-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/116692433-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - IT135-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - EMBER Gap - way/81938081-380_Missing Bioenergy Capacity</t>
   </si>
   <si>
-    <t>GW</t>
-  </si>
-  <si>
-    <t>TWh</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/116692433-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/109756016-380_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/144006711-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - IT135-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/105141350-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/377588191-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - EMBER Gap - IT67-220_Missing Bioenergy Capacity</t>
   </si>
   <si>
@@ -3849,21 +3849,21 @@
     <t>Taranto CHP power station_CET2-1</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - way/409768426-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - way/104359058-380_Missing Hydro Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - way/419423704-380_Missing Hydro Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - IT13-380_Missing Hydro Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - way/104359058-380_Missing Hydro Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - IRENA Gap - way/64200868-380_Missing Hydro Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - way/409768426-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
     <t>Lana hydroelectric plant_</t>
   </si>
   <si>
@@ -4014,106 +4014,106 @@
     <t>San Filippo del Mela power station_1</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_91_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>annual</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_186_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_112_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_168_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_167_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_18_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_116_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_205_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_100_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_42_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_24_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_115_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_216_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_19_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_29_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_124_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_213_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_157_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_196_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_68_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_80_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_101_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_69_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_81_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_58_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - ITA_215_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>annual</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_81_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_112_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_168_Missing Solar Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - ITA_23_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_211_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_92_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - ITA_105_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_92_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_58_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_211_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_167_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_196_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_116_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_68_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_101_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_157_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_213_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_69_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_80_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_18_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_115_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_19_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_29_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_216_Missing Solar Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - IRENA Gap - ITA_30_Missing Solar Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_73_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - ITA_7_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_73_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_23_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_186_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_91_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_205_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_100_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_24_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_124_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_42_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - ITA_77_Missing Solar Capacity</t>
@@ -5242,7 +5242,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC58EB4C-9BB3-2CDD-7646-4F22478B5715}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20EF5D41-E7DB-3499-4833-D2F935941E08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5297,7 +5297,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E84081A5-0E13-DD29-7449-AAEEBB91FC04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E98C7B2D-3460-9336-20F0-0B60D647F64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5648,7 +5648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECDB8702-A2C0-4680-BC0E-2B58492E2339}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC3D45E-88C5-4772-A775-4C0375253595}">
   <dimension ref="A1:U192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -9908,7 +9908,7 @@
         <v>45</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D78" s="3">
         <v>0.49118125000000001</v>
@@ -9964,7 +9964,7 @@
         <v>45</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D79" s="4">
         <v>0.49118125000000001</v>
@@ -15004,7 +15004,7 @@
         <v>45</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D169" s="4">
         <v>0.28839999999999999</v>
@@ -15060,7 +15060,7 @@
         <v>45</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D170" s="3">
         <v>0.28839999999999999</v>
@@ -15116,7 +15116,7 @@
         <v>45</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D171" s="4">
         <v>0.28839999999999999</v>
@@ -16182,7 +16182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A987502-15FE-4796-A84F-D07AC471648C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954E18BB-2F46-44AF-BB16-CC2F9BCE69BF}">
   <dimension ref="A1:T1127"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16298,13 +16298,13 @@
         <v>2022</v>
       </c>
       <c r="E4" s="3">
-        <v>0.30441211225997045</v>
+        <v>0.90807680945347113</v>
       </c>
       <c r="F4" s="3">
         <v>0.36049999999999999</v>
       </c>
       <c r="G4" s="3">
-        <v>3850.0000000000009</v>
+        <v>3850.0000000000005</v>
       </c>
       <c r="H4" s="3">
         <v>143</v>
@@ -16351,19 +16351,19 @@
         <v>2022</v>
       </c>
       <c r="E5" s="4">
-        <v>0.41792171344165435</v>
+        <v>0.19090251107828654</v>
       </c>
       <c r="F5" s="4">
-        <v>0.36049999999999999</v>
+        <v>0.33990000000000004</v>
       </c>
       <c r="G5" s="4">
-        <v>3850.0000000000005</v>
+        <v>4427.5</v>
       </c>
       <c r="H5" s="4">
-        <v>143</v>
+        <v>157.30000000000001</v>
       </c>
       <c r="I5" s="4">
-        <v>8.4</v>
+        <v>9.240000000000002</v>
       </c>
       <c r="J5" s="4">
         <v>50</v>
@@ -16404,13 +16404,13 @@
         <v>2022</v>
       </c>
       <c r="E6" s="3">
-        <v>0.33536927621861151</v>
+        <v>0.42308124076809456</v>
       </c>
       <c r="F6" s="3">
         <v>0.36049999999999999</v>
       </c>
       <c r="G6" s="3">
-        <v>3850</v>
+        <v>3850.0000000000005</v>
       </c>
       <c r="H6" s="3">
         <v>143</v>
@@ -16457,19 +16457,19 @@
         <v>2022</v>
       </c>
       <c r="E7" s="4">
-        <v>0.19090251107828654</v>
+        <v>0.41792171344165435</v>
       </c>
       <c r="F7" s="4">
-        <v>0.33990000000000004</v>
+        <v>0.36049999999999999</v>
       </c>
       <c r="G7" s="4">
-        <v>4427.5</v>
+        <v>3850.0000000000005</v>
       </c>
       <c r="H7" s="4">
-        <v>157.30000000000001</v>
+        <v>143</v>
       </c>
       <c r="I7" s="4">
-        <v>9.240000000000002</v>
+        <v>8.4</v>
       </c>
       <c r="J7" s="4">
         <v>50</v>
@@ -16510,13 +16510,13 @@
         <v>2022</v>
       </c>
       <c r="E8" s="3">
-        <v>0.42308124076809456</v>
+        <v>0.30441211225997045</v>
       </c>
       <c r="F8" s="3">
         <v>0.36049999999999999</v>
       </c>
       <c r="G8" s="3">
-        <v>3850.0000000000005</v>
+        <v>3850.0000000000009</v>
       </c>
       <c r="H8" s="3">
         <v>143</v>
@@ -16563,13 +16563,13 @@
         <v>2022</v>
       </c>
       <c r="E9" s="4">
-        <v>0.43855982274741512</v>
+        <v>0.47467651403249633</v>
       </c>
       <c r="F9" s="4">
         <v>0.36049999999999999</v>
       </c>
       <c r="G9" s="4">
-        <v>3850</v>
+        <v>3850.0000000000005</v>
       </c>
       <c r="H9" s="4">
         <v>143</v>
@@ -16616,13 +16616,13 @@
         <v>2022</v>
       </c>
       <c r="E10" s="3">
-        <v>0.90807680945347113</v>
+        <v>0.33536927621861151</v>
       </c>
       <c r="F10" s="3">
         <v>0.36049999999999999</v>
       </c>
       <c r="G10" s="3">
-        <v>3850.0000000000005</v>
+        <v>3850</v>
       </c>
       <c r="H10" s="3">
         <v>143</v>
@@ -16669,13 +16669,13 @@
         <v>2022</v>
       </c>
       <c r="E11" s="4">
-        <v>0.47467651403249633</v>
+        <v>0.43855982274741512</v>
       </c>
       <c r="F11" s="4">
         <v>0.36049999999999999</v>
       </c>
       <c r="G11" s="4">
-        <v>3850.0000000000005</v>
+        <v>3850</v>
       </c>
       <c r="H11" s="4">
         <v>143</v>
@@ -16716,7 +16716,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" s="3">
         <v>1965</v>
@@ -16769,7 +16769,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D13" s="4">
         <v>2001</v>
@@ -16822,7 +16822,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D14" s="3">
         <v>2013</v>
@@ -16875,7 +16875,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D15" s="4">
         <v>2003</v>
@@ -16928,7 +16928,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D16" s="3">
         <v>1998</v>
@@ -16981,7 +16981,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D17" s="4">
         <v>2009</v>
@@ -17034,7 +17034,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D18" s="3">
         <v>2008</v>
@@ -17087,7 +17087,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D19" s="4">
         <v>2009</v>
@@ -17140,7 +17140,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D20" s="3">
         <v>2008</v>
@@ -17193,7 +17193,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D21" s="4">
         <v>2018</v>
@@ -21168,7 +21168,7 @@
         <v>45</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D96" s="3">
         <v>2010</v>
@@ -21221,7 +21221,7 @@
         <v>45</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D97" s="4">
         <v>2010</v>
@@ -25991,7 +25991,7 @@
         <v>45</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D187" s="4">
         <v>1978</v>
@@ -26044,7 +26044,7 @@
         <v>45</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D188" s="3">
         <v>1981</v>
@@ -26097,7 +26097,7 @@
         <v>45</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D189" s="4">
         <v>1987</v>
@@ -28429,7 +28429,7 @@
         <v>301</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D233" s="4">
         <v>2022</v>
@@ -34047,7 +34047,7 @@
         <v>301</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D339" s="4">
         <v>2015</v>
@@ -35961,7 +35961,7 @@
         <v>2022</v>
       </c>
       <c r="E375" s="4">
-        <v>0.11132675841774924</v>
+        <v>0.10930731082165113</v>
       </c>
       <c r="F375" s="4">
         <v>1</v>
@@ -36014,7 +36014,7 @@
         <v>2022</v>
       </c>
       <c r="E376" s="3">
-        <v>0.10603516809737222</v>
+        <v>0.11048465102438351</v>
       </c>
       <c r="F376" s="3">
         <v>1</v>
@@ -36067,7 +36067,7 @@
         <v>2022</v>
       </c>
       <c r="E377" s="4">
-        <v>0.11350287341226893</v>
+        <v>0.10260861218184329</v>
       </c>
       <c r="F377" s="4">
         <v>1</v>
@@ -36076,7 +36076,7 @@
         <v>1138.5</v>
       </c>
       <c r="H377" s="4">
-        <v>18.149999999999999</v>
+        <v>18.150000000000002</v>
       </c>
       <c r="I377" s="4">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>2022</v>
       </c>
       <c r="E378" s="3">
-        <v>0.11708432556344184</v>
+        <v>0.10352156608631437</v>
       </c>
       <c r="F378" s="3">
         <v>1</v>
@@ -36226,7 +36226,7 @@
         <v>2022</v>
       </c>
       <c r="E380" s="3">
-        <v>0.10214633869688095</v>
+        <v>0.1015976002654105</v>
       </c>
       <c r="F380" s="3">
         <v>1</v>
@@ -36279,7 +36279,7 @@
         <v>2022</v>
       </c>
       <c r="E381" s="4">
-        <v>0.10420603999247074</v>
+        <v>0.11243953168649698</v>
       </c>
       <c r="F381" s="4">
         <v>1</v>
@@ -36332,7 +36332,7 @@
         <v>2022</v>
       </c>
       <c r="E382" s="3">
-        <v>0.10281889750798776</v>
+        <v>0.10717740707414788</v>
       </c>
       <c r="F382" s="3">
         <v>1</v>
@@ -36385,7 +36385,7 @@
         <v>2022</v>
       </c>
       <c r="E383" s="4">
-        <v>0.1015976002654105</v>
+        <v>0.10954770591501538</v>
       </c>
       <c r="F383" s="4">
         <v>1</v>
@@ -36438,7 +36438,7 @@
         <v>2022</v>
       </c>
       <c r="E384" s="3">
-        <v>0.11243953168649698</v>
+        <v>0.10772034897289151</v>
       </c>
       <c r="F384" s="3">
         <v>1</v>
@@ -36491,7 +36491,7 @@
         <v>2022</v>
       </c>
       <c r="E385" s="4">
-        <v>0.10954770591501538</v>
+        <v>0.10128313836498157</v>
       </c>
       <c r="F385" s="4">
         <v>1</v>
@@ -36544,7 +36544,7 @@
         <v>2022</v>
       </c>
       <c r="E386" s="3">
-        <v>0.10772034897289151</v>
+        <v>0.11255980974057808</v>
       </c>
       <c r="F386" s="3">
         <v>1</v>
@@ -36597,7 +36597,7 @@
         <v>2022</v>
       </c>
       <c r="E387" s="4">
-        <v>0.10128313836498157</v>
+        <v>0.1111795908924077</v>
       </c>
       <c r="F387" s="4">
         <v>1</v>
@@ -36650,7 +36650,7 @@
         <v>2022</v>
       </c>
       <c r="E388" s="3">
-        <v>0.11255980974057808</v>
+        <v>0.10090008416061882</v>
       </c>
       <c r="F388" s="3">
         <v>1</v>
@@ -36756,7 +36756,7 @@
         <v>2022</v>
       </c>
       <c r="E390" s="3">
-        <v>0.106881944919879</v>
+        <v>0.10603516809737222</v>
       </c>
       <c r="F390" s="3">
         <v>1</v>
@@ -36809,7 +36809,7 @@
         <v>2022</v>
       </c>
       <c r="E391" s="4">
-        <v>0.10382330781770392</v>
+        <v>0.11350287341226893</v>
       </c>
       <c r="F391" s="4">
         <v>1</v>
@@ -36818,7 +36818,7 @@
         <v>1138.5</v>
       </c>
       <c r="H391" s="4">
-        <v>18.150000000000002</v>
+        <v>18.149999999999999</v>
       </c>
       <c r="I391" s="4">
         <v>0</v>
@@ -36915,7 +36915,7 @@
         <v>2022</v>
       </c>
       <c r="E393" s="4">
-        <v>0.10090008416061882</v>
+        <v>0.10762824850845455</v>
       </c>
       <c r="F393" s="4">
         <v>1</v>
@@ -36968,7 +36968,7 @@
         <v>2022</v>
       </c>
       <c r="E394" s="3">
-        <v>0.112250983358078</v>
+        <v>0.10652175481682753</v>
       </c>
       <c r="F394" s="3">
         <v>1</v>
@@ -37021,7 +37021,7 @@
         <v>2022</v>
       </c>
       <c r="E395" s="4">
-        <v>0.10930731082165113</v>
+        <v>0.11132675841774924</v>
       </c>
       <c r="F395" s="4">
         <v>1</v>
@@ -37074,7 +37074,7 @@
         <v>2022</v>
       </c>
       <c r="E396" s="3">
-        <v>0.10717740707414788</v>
+        <v>0.11708432556344184</v>
       </c>
       <c r="F396" s="3">
         <v>1</v>
@@ -37127,7 +37127,7 @@
         <v>2022</v>
       </c>
       <c r="E397" s="4">
-        <v>0.10652175481682753</v>
+        <v>0.10214633869688095</v>
       </c>
       <c r="F397" s="4">
         <v>1</v>
@@ -37180,7 +37180,7 @@
         <v>2022</v>
       </c>
       <c r="E398" s="3">
-        <v>0.1111795908924077</v>
+        <v>0.112250983358078</v>
       </c>
       <c r="F398" s="3">
         <v>1</v>
@@ -37233,7 +37233,7 @@
         <v>2022</v>
       </c>
       <c r="E399" s="4">
-        <v>0.10351496447959772</v>
+        <v>0.11050268468175577</v>
       </c>
       <c r="F399" s="4">
         <v>1</v>
@@ -37286,7 +37286,7 @@
         <v>2022</v>
       </c>
       <c r="E400" s="3">
-        <v>0.10724052487495081</v>
+        <v>0.11326730876284366</v>
       </c>
       <c r="F400" s="3">
         <v>1</v>
@@ -37339,7 +37339,7 @@
         <v>2022</v>
       </c>
       <c r="E401" s="4">
-        <v>0.11326730876284366</v>
+        <v>0.10382330781770392</v>
       </c>
       <c r="F401" s="4">
         <v>1</v>
@@ -37392,7 +37392,7 @@
         <v>2022</v>
       </c>
       <c r="E402" s="3">
-        <v>0.11048465102438351</v>
+        <v>0.10281889750798776</v>
       </c>
       <c r="F402" s="3">
         <v>1</v>
@@ -37445,7 +37445,7 @@
         <v>2022</v>
       </c>
       <c r="E403" s="4">
-        <v>0.10260861218184329</v>
+        <v>0.10351496447959772</v>
       </c>
       <c r="F403" s="4">
         <v>1</v>
@@ -37498,7 +37498,7 @@
         <v>2022</v>
       </c>
       <c r="E404" s="3">
-        <v>0.10352156608631437</v>
+        <v>0.10724052487495081</v>
       </c>
       <c r="F404" s="3">
         <v>1</v>
@@ -37551,7 +37551,7 @@
         <v>2022</v>
       </c>
       <c r="E405" s="4">
-        <v>0.10762824850845455</v>
+        <v>0.10420603999247074</v>
       </c>
       <c r="F405" s="4">
         <v>1</v>
@@ -37604,7 +37604,7 @@
         <v>2022</v>
       </c>
       <c r="E406" s="3">
-        <v>0.11050268468175577</v>
+        <v>0.106881944919879</v>
       </c>
       <c r="F406" s="3">
         <v>1</v>
@@ -38181,7 +38181,7 @@
         <v>509</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="D417" s="4">
         <v>2011</v>
@@ -38234,7 +38234,7 @@
         <v>509</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="D418" s="3">
         <v>2015</v>
@@ -39082,7 +39082,7 @@
         <v>509</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="D434" s="3">
         <v>2015</v>
@@ -39347,7 +39347,7 @@
         <v>509</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="D439" s="4">
         <v>2009</v>
@@ -39400,7 +39400,7 @@
         <v>509</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="D440" s="3">
         <v>2012</v>
@@ -39453,7 +39453,7 @@
         <v>509</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="D441" s="4">
         <v>2015</v>
@@ -39877,7 +39877,7 @@
         <v>509</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D449" s="4">
         <v>2015</v>
@@ -40831,7 +40831,7 @@
         <v>509</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D467" s="4">
         <v>2015</v>
@@ -41785,7 +41785,7 @@
         <v>509</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="D485" s="4">
         <v>2015</v>
@@ -42633,7 +42633,7 @@
         <v>509</v>
       </c>
       <c r="C501" s="4" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D501" s="4">
         <v>2015</v>
@@ -42898,7 +42898,7 @@
         <v>509</v>
       </c>
       <c r="C506" s="3" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="D506" s="3">
         <v>2011</v>
@@ -42951,7 +42951,7 @@
         <v>509</v>
       </c>
       <c r="C507" s="4" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="D507" s="4">
         <v>2015</v>
@@ -43481,7 +43481,7 @@
         <v>509</v>
       </c>
       <c r="C517" s="4" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="D517" s="4">
         <v>2015</v>
@@ -44488,7 +44488,7 @@
         <v>509</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="D536" s="3">
         <v>2010</v>
@@ -44541,7 +44541,7 @@
         <v>509</v>
       </c>
       <c r="C537" s="4" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="D537" s="4">
         <v>2011</v>
@@ -44594,7 +44594,7 @@
         <v>509</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="D538" s="3">
         <v>2015</v>
@@ -44647,7 +44647,7 @@
         <v>509</v>
       </c>
       <c r="C539" s="4" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="D539" s="4">
         <v>2023</v>
@@ -45389,7 +45389,7 @@
         <v>509</v>
       </c>
       <c r="C553" s="4" t="s">
-        <v>539</v>
+        <v>513</v>
       </c>
       <c r="D553" s="4">
         <v>2011</v>
@@ -45442,7 +45442,7 @@
         <v>509</v>
       </c>
       <c r="C554" s="3" t="s">
-        <v>539</v>
+        <v>513</v>
       </c>
       <c r="D554" s="3">
         <v>2015</v>
@@ -45495,7 +45495,7 @@
         <v>509</v>
       </c>
       <c r="C555" s="4" t="s">
-        <v>539</v>
+        <v>513</v>
       </c>
       <c r="D555" s="4">
         <v>2024</v>
@@ -45548,7 +45548,7 @@
         <v>509</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>539</v>
+        <v>513</v>
       </c>
       <c r="D556" s="3">
         <v>2025</v>
@@ -45601,7 +45601,7 @@
         <v>509</v>
       </c>
       <c r="C557" s="4" t="s">
-        <v>538</v>
+        <v>512</v>
       </c>
       <c r="D557" s="4">
         <v>2011</v>
@@ -45654,7 +45654,7 @@
         <v>509</v>
       </c>
       <c r="C558" s="3" t="s">
-        <v>538</v>
+        <v>512</v>
       </c>
       <c r="D558" s="3">
         <v>2015</v>
@@ -45707,7 +45707,7 @@
         <v>509</v>
       </c>
       <c r="C559" s="4" t="s">
-        <v>538</v>
+        <v>512</v>
       </c>
       <c r="D559" s="4">
         <v>2024</v>
@@ -45760,7 +45760,7 @@
         <v>509</v>
       </c>
       <c r="C560" s="3" t="s">
-        <v>538</v>
+        <v>512</v>
       </c>
       <c r="D560" s="3">
         <v>2025</v>
@@ -46661,7 +46661,7 @@
         <v>509</v>
       </c>
       <c r="C577" s="4" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D577" s="4">
         <v>2011</v>
@@ -46714,7 +46714,7 @@
         <v>509</v>
       </c>
       <c r="C578" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D578" s="3">
         <v>2015</v>
@@ -46767,7 +46767,7 @@
         <v>509</v>
       </c>
       <c r="C579" s="4" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D579" s="4">
         <v>2024</v>
@@ -47191,7 +47191,7 @@
         <v>509</v>
       </c>
       <c r="C587" s="4" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="D587" s="4">
         <v>2011</v>
@@ -47244,7 +47244,7 @@
         <v>509</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="D588" s="3">
         <v>2015</v>
@@ -47297,7 +47297,7 @@
         <v>509</v>
       </c>
       <c r="C589" s="4" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="D589" s="4">
         <v>2025</v>
@@ -48092,7 +48092,7 @@
         <v>509</v>
       </c>
       <c r="C604" s="3" t="s">
-        <v>517</v>
+        <v>537</v>
       </c>
       <c r="D604" s="3">
         <v>2015</v>
@@ -51537,7 +51537,7 @@
         <v>509</v>
       </c>
       <c r="C669" s="4" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
       <c r="D669" s="4">
         <v>2011</v>
@@ -52261,7 +52261,7 @@
         <v>509</v>
       </c>
       <c r="C689" s="4" t="s">
-        <v>525</v>
+        <v>541</v>
       </c>
       <c r="D689" s="4">
         <v>2011</v>
@@ -52293,7 +52293,7 @@
         <v>509</v>
       </c>
       <c r="C690" s="3" t="s">
-        <v>525</v>
+        <v>541</v>
       </c>
       <c r="D690" s="3">
         <v>2023</v>
@@ -53861,7 +53861,7 @@
         <v>509</v>
       </c>
       <c r="C739" s="4" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="D739" s="4">
         <v>2011</v>
@@ -53893,7 +53893,7 @@
         <v>509</v>
       </c>
       <c r="C740" s="3" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="D740" s="3">
         <v>2012</v>
@@ -53925,7 +53925,7 @@
         <v>509</v>
       </c>
       <c r="C741" s="4" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="D741" s="4">
         <v>2028</v>
@@ -54789,7 +54789,7 @@
         <v>509</v>
       </c>
       <c r="C768" s="3" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c r="D768" s="3">
         <v>2009</v>
@@ -54821,7 +54821,7 @@
         <v>509</v>
       </c>
       <c r="C769" s="4" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c r="D769" s="4">
         <v>2012</v>
@@ -54853,7 +54853,7 @@
         <v>509</v>
       </c>
       <c r="C770" s="3" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c r="D770" s="3">
         <v>2015</v>
@@ -54949,7 +54949,7 @@
         <v>509</v>
       </c>
       <c r="C773" s="4" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="D773" s="4">
         <v>2013</v>
@@ -54981,7 +54981,7 @@
         <v>509</v>
       </c>
       <c r="C774" s="3" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="D774" s="3">
         <v>2015</v>
@@ -55077,7 +55077,7 @@
         <v>509</v>
       </c>
       <c r="C777" s="4" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="D777" s="4">
         <v>2010</v>
@@ -55109,7 +55109,7 @@
         <v>509</v>
       </c>
       <c r="C778" s="3" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="D778" s="3">
         <v>2011</v>
@@ -55141,7 +55141,7 @@
         <v>509</v>
       </c>
       <c r="C779" s="4" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="D779" s="4">
         <v>2015</v>
@@ -55173,7 +55173,7 @@
         <v>509</v>
       </c>
       <c r="C780" s="3" t="s">
-        <v>537</v>
+        <v>511</v>
       </c>
       <c r="D780" s="3">
         <v>2010</v>
@@ -55205,7 +55205,7 @@
         <v>509</v>
       </c>
       <c r="C781" s="4" t="s">
-        <v>537</v>
+        <v>511</v>
       </c>
       <c r="D781" s="4">
         <v>2011</v>
@@ -55269,7 +55269,7 @@
         <v>509</v>
       </c>
       <c r="C783" s="4" t="s">
-        <v>538</v>
+        <v>512</v>
       </c>
       <c r="D783" s="4">
         <v>2028</v>
@@ -55301,7 +55301,7 @@
         <v>509</v>
       </c>
       <c r="C784" s="3" t="s">
-        <v>539</v>
+        <v>513</v>
       </c>
       <c r="D784" s="3">
         <v>2028</v>
@@ -55333,7 +55333,7 @@
         <v>509</v>
       </c>
       <c r="C785" s="4" t="s">
-        <v>538</v>
+        <v>512</v>
       </c>
       <c r="D785" s="4">
         <v>2025</v>
@@ -55365,7 +55365,7 @@
         <v>509</v>
       </c>
       <c r="C786" s="3" t="s">
-        <v>539</v>
+        <v>513</v>
       </c>
       <c r="D786" s="3">
         <v>2025</v>
@@ -55397,7 +55397,7 @@
         <v>509</v>
       </c>
       <c r="C787" s="4" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="D787" s="4">
         <v>2028</v>
@@ -55493,7 +55493,7 @@
         <v>509</v>
       </c>
       <c r="C790" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D790" s="3">
         <v>2028</v>
@@ -66181,7 +66181,7 @@
         <v>938</v>
       </c>
       <c r="C1124" s="3" t="s">
-        <v>955</v>
+        <v>965</v>
       </c>
       <c r="D1124" s="3">
         <v>2011</v>
@@ -66213,7 +66213,7 @@
         <v>938</v>
       </c>
       <c r="C1125" s="4" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="D1125" s="4">
         <v>2011</v>
@@ -66245,7 +66245,7 @@
         <v>938</v>
       </c>
       <c r="C1126" s="3" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D1126" s="3">
         <v>2011</v>

--- a/VerveStacks_ITA_grids/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA_grids/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1074059-6DC3-474C-B382-3B9660D679CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B27D5420-B9E8-4FB5-8850-DBB57064016D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{D9E9E058-320E-4230-A13E-AF822EDDFFB8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{84743522-4839-4DFB-8F70-4F0D3F3857FB}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -78,30 +78,30 @@
     <t>bioenergy</t>
   </si>
   <si>
+    <t>e_w116692433-220</t>
+  </si>
+  <si>
+    <t>e_w109756016-380</t>
+  </si>
+  <si>
     <t>e_w377588191-220</t>
   </si>
   <si>
+    <t>e_w105141350-220</t>
+  </si>
+  <si>
     <t>e_w144006711-220</t>
   </si>
   <si>
     <t>e_IT135-220</t>
   </si>
   <si>
+    <t>e_IT67-220</t>
+  </si>
+  <si>
     <t>e_w81938081-380</t>
   </si>
   <si>
-    <t>e_IT67-220</t>
-  </si>
-  <si>
-    <t>e_w109756016-380</t>
-  </si>
-  <si>
-    <t>e_w105141350-220</t>
-  </si>
-  <si>
-    <t>e_w116692433-220</t>
-  </si>
-  <si>
     <t>ep_bioenergy_IT135-220</t>
   </si>
   <si>
@@ -945,21 +945,21 @@
     <t>hydro</t>
   </si>
   <si>
+    <t>e_w104359058-380</t>
+  </si>
+  <si>
     <t>e_w409768426-220</t>
   </si>
   <si>
+    <t>e_w419423704-380</t>
+  </si>
+  <si>
     <t>e_IT13-380</t>
   </si>
   <si>
-    <t>e_w104359058-380</t>
-  </si>
-  <si>
     <t>e_w64200868-380</t>
   </si>
   <si>
-    <t>e_w419423704-380</t>
-  </si>
-  <si>
     <t>ep_hydro_dam_G100000602237</t>
   </si>
   <si>
@@ -1569,108 +1569,108 @@
     <t>solar</t>
   </si>
   <si>
+    <t>elc_spv-ITA_0030</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0024</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0213</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0091</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0124</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0042</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0007</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0081</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0196</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0105</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0116</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0167</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0068</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0186</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0023</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0018</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0157</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0216</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0101</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0100</t>
+  </si>
+  <si>
     <t>elc_spv-ITA_0019</t>
   </si>
   <si>
-    <t>elc_spv-ITA_0216</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0101</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0100</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0030</t>
+    <t>elc_spv-ITA_0069</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0058</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0211</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0168</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0080</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0215</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0077</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0029</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0205</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0073</t>
   </si>
   <si>
     <t>elc_spv-ITA_0112</t>
   </si>
   <si>
-    <t>elc_spv-ITA_0069</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0213</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0205</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0029</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0077</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0080</t>
-  </si>
-  <si>
     <t>elc_spv-ITA_0115</t>
   </si>
   <si>
-    <t>elc_spv-ITA_0215</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0116</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0073</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0058</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0105</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0081</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0186</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0091</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0211</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0157</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0196</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0007</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0042</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0024</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0124</t>
-  </si>
-  <si>
     <t>elc_spv-ITA_0092</t>
   </si>
   <si>
-    <t>elc_spv-ITA_0023</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0018</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0168</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0068</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0167</t>
-  </si>
-  <si>
     <t>ep_solar_pv_000</t>
   </si>
   <si>
@@ -3426,42 +3426,42 @@
     <t>ele</t>
   </si>
   <si>
+    <t>Aggregated Plant - EMBER Gap - IT135-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>TWh</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - IT67-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/377588191-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/105141350-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/81938081-380_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/109756016-380_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - EMBER Gap - way/144006711-220_Missing Bioenergy Capacity</t>
   </si>
   <si>
-    <t>GW</t>
-  </si>
-  <si>
-    <t>TWh</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/109756016-380_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/105141350-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/377588191-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - EMBER Gap - way/116692433-220_Missing Bioenergy Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - EMBER Gap - IT135-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/81938081-380_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - IT67-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant</t>
   </si>
   <si>
@@ -3849,6 +3849,9 @@
     <t>Taranto CHP power station_CET2-1</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - way/64200868-380_Missing Hydro Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - way/409768426-220_Missing Hydro Capacity</t>
   </si>
   <si>
@@ -3861,9 +3864,6 @@
     <t>Aggregated Plant - IRENA Gap - IT13-380_Missing Hydro Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - way/64200868-380_Missing Hydro Capacity</t>
-  </si>
-  <si>
     <t>Lana hydroelectric plant_</t>
   </si>
   <si>
@@ -4014,28 +4014,58 @@
     <t>San Filippo del Mela power station_1</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_167_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>annual</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_112_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_168_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_116_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_18_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_186_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - ITA_91_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>annual</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_186_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_112_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_168_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_167_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_18_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_116_Missing Solar Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - ITA_30_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_81_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_7_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_73_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_23_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_77_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_211_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_92_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_58_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_105_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - ITA_205_Missing Solar Capacity</t>
@@ -4044,79 +4074,49 @@
     <t>Aggregated Plant - IRENA Gap - ITA_100_Missing Solar Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_215_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_115_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_216_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_19_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_29_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_80_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_101_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_68_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_69_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_24_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_124_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_196_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_157_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_213_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - ITA_42_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_24_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_115_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_216_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_19_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_29_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_124_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_213_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_157_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_196_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_68_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_80_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_101_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_69_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_81_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_58_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_215_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_23_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_211_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_92_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_105_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_30_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_73_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_7_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_77_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Tuscania solar farm_--</t>
@@ -5242,7 +5242,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20EF5D41-E7DB-3499-4833-D2F935941E08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3335CCC0-98BC-F7F1-E560-EE7A76EF8FAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5297,7 +5297,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E98C7B2D-3460-9336-20F0-0B60D647F64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0AAB55D-3E19-6802-7BE8-765BE7F5275D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5648,7 +5648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC3D45E-88C5-4772-A775-4C0375253595}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3E3640-5759-4EA4-82D4-2E27B100F507}">
   <dimension ref="A1:U192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -9908,7 +9908,7 @@
         <v>45</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D78" s="3">
         <v>0.49118125000000001</v>
@@ -9964,7 +9964,7 @@
         <v>45</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D79" s="4">
         <v>0.49118125000000001</v>
@@ -15004,7 +15004,7 @@
         <v>45</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D169" s="4">
         <v>0.28839999999999999</v>
@@ -15060,7 +15060,7 @@
         <v>45</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D170" s="3">
         <v>0.28839999999999999</v>
@@ -15116,7 +15116,7 @@
         <v>45</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D171" s="4">
         <v>0.28839999999999999</v>
@@ -16182,7 +16182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954E18BB-2F46-44AF-BB16-CC2F9BCE69BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA39D70B-3D5F-4E08-9AFB-328FA5914D5A}">
   <dimension ref="A1:T1127"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16298,13 +16298,13 @@
         <v>2022</v>
       </c>
       <c r="E4" s="3">
-        <v>0.90807680945347113</v>
+        <v>0.43855982274741512</v>
       </c>
       <c r="F4" s="3">
         <v>0.36049999999999999</v>
       </c>
       <c r="G4" s="3">
-        <v>3850.0000000000005</v>
+        <v>3850</v>
       </c>
       <c r="H4" s="3">
         <v>143</v>
@@ -16351,19 +16351,19 @@
         <v>2022</v>
       </c>
       <c r="E5" s="4">
-        <v>0.19090251107828654</v>
+        <v>0.47467651403249633</v>
       </c>
       <c r="F5" s="4">
-        <v>0.33990000000000004</v>
+        <v>0.36049999999999999</v>
       </c>
       <c r="G5" s="4">
-        <v>4427.5</v>
+        <v>3850.0000000000005</v>
       </c>
       <c r="H5" s="4">
-        <v>157.30000000000001</v>
+        <v>143</v>
       </c>
       <c r="I5" s="4">
-        <v>9.240000000000002</v>
+        <v>8.4</v>
       </c>
       <c r="J5" s="4">
         <v>50</v>
@@ -16404,7 +16404,7 @@
         <v>2022</v>
       </c>
       <c r="E6" s="3">
-        <v>0.42308124076809456</v>
+        <v>0.90807680945347113</v>
       </c>
       <c r="F6" s="3">
         <v>0.36049999999999999</v>
@@ -16457,13 +16457,13 @@
         <v>2022</v>
       </c>
       <c r="E7" s="4">
-        <v>0.41792171344165435</v>
+        <v>0.33536927621861151</v>
       </c>
       <c r="F7" s="4">
         <v>0.36049999999999999</v>
       </c>
       <c r="G7" s="4">
-        <v>3850.0000000000005</v>
+        <v>3850</v>
       </c>
       <c r="H7" s="4">
         <v>143</v>
@@ -16510,19 +16510,19 @@
         <v>2022</v>
       </c>
       <c r="E8" s="3">
-        <v>0.30441211225997045</v>
+        <v>0.19090251107828654</v>
       </c>
       <c r="F8" s="3">
-        <v>0.36049999999999999</v>
+        <v>0.33990000000000004</v>
       </c>
       <c r="G8" s="3">
-        <v>3850.0000000000009</v>
+        <v>4427.5</v>
       </c>
       <c r="H8" s="3">
-        <v>143</v>
+        <v>157.30000000000001</v>
       </c>
       <c r="I8" s="3">
-        <v>8.4</v>
+        <v>9.240000000000002</v>
       </c>
       <c r="J8" s="3">
         <v>50</v>
@@ -16563,7 +16563,7 @@
         <v>2022</v>
       </c>
       <c r="E9" s="4">
-        <v>0.47467651403249633</v>
+        <v>0.42308124076809456</v>
       </c>
       <c r="F9" s="4">
         <v>0.36049999999999999</v>
@@ -16616,13 +16616,13 @@
         <v>2022</v>
       </c>
       <c r="E10" s="3">
-        <v>0.33536927621861151</v>
+        <v>0.30441211225997045</v>
       </c>
       <c r="F10" s="3">
         <v>0.36049999999999999</v>
       </c>
       <c r="G10" s="3">
-        <v>3850</v>
+        <v>3850.0000000000009</v>
       </c>
       <c r="H10" s="3">
         <v>143</v>
@@ -16669,13 +16669,13 @@
         <v>2022</v>
       </c>
       <c r="E11" s="4">
-        <v>0.43855982274741512</v>
+        <v>0.41792171344165435</v>
       </c>
       <c r="F11" s="4">
         <v>0.36049999999999999</v>
       </c>
       <c r="G11" s="4">
-        <v>3850</v>
+        <v>3850.0000000000005</v>
       </c>
       <c r="H11" s="4">
         <v>143</v>
@@ -16716,7 +16716,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D12" s="3">
         <v>1965</v>
@@ -16769,7 +16769,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D13" s="4">
         <v>2001</v>
@@ -16822,7 +16822,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D14" s="3">
         <v>2013</v>
@@ -16875,7 +16875,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D15" s="4">
         <v>2003</v>
@@ -16928,7 +16928,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D16" s="3">
         <v>1998</v>
@@ -16981,7 +16981,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D17" s="4">
         <v>2009</v>
@@ -17034,7 +17034,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D18" s="3">
         <v>2008</v>
@@ -17087,7 +17087,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D19" s="4">
         <v>2009</v>
@@ -17140,7 +17140,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D20" s="3">
         <v>2008</v>
@@ -17193,7 +17193,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D21" s="4">
         <v>2018</v>
@@ -21168,7 +21168,7 @@
         <v>45</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D96" s="3">
         <v>2010</v>
@@ -21221,7 +21221,7 @@
         <v>45</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D97" s="4">
         <v>2010</v>
@@ -25991,7 +25991,7 @@
         <v>45</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D187" s="4">
         <v>1978</v>
@@ -26044,7 +26044,7 @@
         <v>45</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D188" s="3">
         <v>1981</v>
@@ -26097,7 +26097,7 @@
         <v>45</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D189" s="4">
         <v>1987</v>
@@ -27693,19 +27693,19 @@
         <v>2022</v>
       </c>
       <c r="E219" s="4">
-        <v>0.10604292333736391</v>
+        <v>0.55308012203143864</v>
       </c>
       <c r="F219" s="4">
         <v>1</v>
       </c>
       <c r="G219" s="4">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H219" s="4">
-        <v>60.500000000000014</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="I219" s="4">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J219" s="4">
         <v>100</v>
@@ -27746,7 +27746,7 @@
         <v>2022</v>
       </c>
       <c r="E220" s="3">
-        <v>0.11046137847642074</v>
+        <v>0.10604292333736391</v>
       </c>
       <c r="F220" s="3">
         <v>1</v>
@@ -27799,19 +27799,19 @@
         <v>2022</v>
       </c>
       <c r="E221" s="4">
-        <v>0.55308012203143864</v>
+        <v>0.10880445779927443</v>
       </c>
       <c r="F221" s="4">
         <v>1</v>
       </c>
       <c r="G221" s="4">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H221" s="4">
-        <v>55.000000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I221" s="4">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J221" s="4">
         <v>100</v>
@@ -27852,7 +27852,7 @@
         <v>2022</v>
       </c>
       <c r="E222" s="3">
-        <v>0.11156599226118494</v>
+        <v>0.11046137847642074</v>
       </c>
       <c r="F222" s="3">
         <v>1</v>
@@ -27861,7 +27861,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H222" s="3">
-        <v>60.500000000000021</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I222" s="3">
         <v>2.3100000000000005</v>
@@ -27905,7 +27905,7 @@
         <v>2022</v>
       </c>
       <c r="E223" s="4">
-        <v>0.10880445779927443</v>
+        <v>0.11156599226118494</v>
       </c>
       <c r="F223" s="4">
         <v>1</v>
@@ -27914,7 +27914,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H223" s="4">
-        <v>60.500000000000014</v>
+        <v>60.500000000000021</v>
       </c>
       <c r="I223" s="4">
         <v>2.3100000000000005</v>
@@ -28429,7 +28429,7 @@
         <v>301</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D233" s="4">
         <v>2022</v>
@@ -31662,7 +31662,7 @@
         <v>301</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D294" s="3">
         <v>1928</v>
@@ -32351,7 +32351,7 @@
         <v>427</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D307" s="4">
         <v>2015</v>
@@ -32404,7 +32404,7 @@
         <v>427</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D308" s="3">
         <v>2015</v>
@@ -32457,7 +32457,7 @@
         <v>427</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D309" s="4">
         <v>1982</v>
@@ -32669,7 +32669,7 @@
         <v>427</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D313" s="4">
         <v>1991</v>
@@ -32828,7 +32828,7 @@
         <v>427</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D316" s="3">
         <v>1971</v>
@@ -33040,7 +33040,7 @@
         <v>427</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D320" s="3">
         <v>1978</v>
@@ -34047,7 +34047,7 @@
         <v>301</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D339" s="4">
         <v>2015</v>
@@ -34418,7 +34418,7 @@
         <v>301</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D346" s="3">
         <v>2015</v>
@@ -35961,7 +35961,7 @@
         <v>2022</v>
       </c>
       <c r="E375" s="4">
-        <v>0.10930731082165113</v>
+        <v>0.11384197057678677</v>
       </c>
       <c r="F375" s="4">
         <v>1</v>
@@ -36014,7 +36014,7 @@
         <v>2022</v>
       </c>
       <c r="E376" s="3">
-        <v>0.11048465102438351</v>
+        <v>0.10382330781770392</v>
       </c>
       <c r="F376" s="3">
         <v>1</v>
@@ -36067,7 +36067,7 @@
         <v>2022</v>
       </c>
       <c r="E377" s="4">
-        <v>0.10260861218184329</v>
+        <v>0.10717740707414788</v>
       </c>
       <c r="F377" s="4">
         <v>1</v>
@@ -36120,7 +36120,7 @@
         <v>2022</v>
       </c>
       <c r="E378" s="3">
-        <v>0.10352156608631437</v>
+        <v>0.11132675841774924</v>
       </c>
       <c r="F378" s="3">
         <v>1</v>
@@ -36173,7 +36173,7 @@
         <v>2022</v>
       </c>
       <c r="E379" s="4">
-        <v>0.11384197057678677</v>
+        <v>0.10281889750798776</v>
       </c>
       <c r="F379" s="4">
         <v>1</v>
@@ -36226,7 +36226,7 @@
         <v>2022</v>
       </c>
       <c r="E380" s="3">
-        <v>0.1015976002654105</v>
+        <v>0.11326730876284366</v>
       </c>
       <c r="F380" s="3">
         <v>1</v>
@@ -36279,7 +36279,7 @@
         <v>2022</v>
       </c>
       <c r="E381" s="4">
-        <v>0.11243953168649698</v>
+        <v>0.11050268468175577</v>
       </c>
       <c r="F381" s="4">
         <v>1</v>
@@ -36332,7 +36332,7 @@
         <v>2022</v>
       </c>
       <c r="E382" s="3">
-        <v>0.10717740707414788</v>
+        <v>0.10762824850845455</v>
       </c>
       <c r="F382" s="3">
         <v>1</v>
@@ -36385,7 +36385,7 @@
         <v>2022</v>
       </c>
       <c r="E383" s="4">
-        <v>0.10954770591501538</v>
+        <v>0.112250983358078</v>
       </c>
       <c r="F383" s="4">
         <v>1</v>
@@ -36438,7 +36438,7 @@
         <v>2022</v>
       </c>
       <c r="E384" s="3">
-        <v>0.10772034897289151</v>
+        <v>0.10127750284705274</v>
       </c>
       <c r="F384" s="3">
         <v>1</v>
@@ -36491,7 +36491,7 @@
         <v>2022</v>
       </c>
       <c r="E385" s="4">
-        <v>0.10128313836498157</v>
+        <v>0.1053582618867203</v>
       </c>
       <c r="F385" s="4">
         <v>1</v>
@@ -36544,7 +36544,7 @@
         <v>2022</v>
       </c>
       <c r="E386" s="3">
-        <v>0.11255980974057808</v>
+        <v>0.10585966196758853</v>
       </c>
       <c r="F386" s="3">
         <v>1</v>
@@ -36597,7 +36597,7 @@
         <v>2022</v>
       </c>
       <c r="E387" s="4">
-        <v>0.1111795908924077</v>
+        <v>0.11265722369334792</v>
       </c>
       <c r="F387" s="4">
         <v>1</v>
@@ -36650,7 +36650,7 @@
         <v>2022</v>
       </c>
       <c r="E388" s="3">
-        <v>0.10090008416061882</v>
+        <v>0.10652175481682753</v>
       </c>
       <c r="F388" s="3">
         <v>1</v>
@@ -36703,7 +36703,7 @@
         <v>2022</v>
       </c>
       <c r="E389" s="4">
-        <v>0.1053582618867203</v>
+        <v>0.10724052487495081</v>
       </c>
       <c r="F389" s="4">
         <v>1</v>
@@ -36756,7 +36756,7 @@
         <v>2022</v>
       </c>
       <c r="E390" s="3">
-        <v>0.10603516809737222</v>
+        <v>0.10420603999247074</v>
       </c>
       <c r="F390" s="3">
         <v>1</v>
@@ -36809,7 +36809,7 @@
         <v>2022</v>
       </c>
       <c r="E391" s="4">
-        <v>0.11350287341226893</v>
+        <v>0.10214633869688095</v>
       </c>
       <c r="F391" s="4">
         <v>1</v>
@@ -36818,7 +36818,7 @@
         <v>1138.5</v>
       </c>
       <c r="H391" s="4">
-        <v>18.149999999999999</v>
+        <v>18.150000000000002</v>
       </c>
       <c r="I391" s="4">
         <v>0</v>
@@ -36862,7 +36862,7 @@
         <v>2022</v>
       </c>
       <c r="E392" s="3">
-        <v>0.10127750284705274</v>
+        <v>0.11048465102438351</v>
       </c>
       <c r="F392" s="3">
         <v>1</v>
@@ -36915,7 +36915,7 @@
         <v>2022</v>
       </c>
       <c r="E393" s="4">
-        <v>0.10762824850845455</v>
+        <v>0.10260861218184329</v>
       </c>
       <c r="F393" s="4">
         <v>1</v>
@@ -36968,7 +36968,7 @@
         <v>2022</v>
       </c>
       <c r="E394" s="3">
-        <v>0.10652175481682753</v>
+        <v>0.10352156608631437</v>
       </c>
       <c r="F394" s="3">
         <v>1</v>
@@ -37021,7 +37021,7 @@
         <v>2022</v>
       </c>
       <c r="E395" s="4">
-        <v>0.11132675841774924</v>
+        <v>0.10930731082165113</v>
       </c>
       <c r="F395" s="4">
         <v>1</v>
@@ -37074,7 +37074,7 @@
         <v>2022</v>
       </c>
       <c r="E396" s="3">
-        <v>0.11708432556344184</v>
+        <v>0.11243953168649698</v>
       </c>
       <c r="F396" s="3">
         <v>1</v>
@@ -37127,7 +37127,7 @@
         <v>2022</v>
       </c>
       <c r="E397" s="4">
-        <v>0.10214633869688095</v>
+        <v>0.11350287341226893</v>
       </c>
       <c r="F397" s="4">
         <v>1</v>
@@ -37136,7 +37136,7 @@
         <v>1138.5</v>
       </c>
       <c r="H397" s="4">
-        <v>18.150000000000002</v>
+        <v>18.149999999999999</v>
       </c>
       <c r="I397" s="4">
         <v>0</v>
@@ -37180,7 +37180,7 @@
         <v>2022</v>
       </c>
       <c r="E398" s="3">
-        <v>0.112250983358078</v>
+        <v>0.11708432556344184</v>
       </c>
       <c r="F398" s="3">
         <v>1</v>
@@ -37233,7 +37233,7 @@
         <v>2022</v>
       </c>
       <c r="E399" s="4">
-        <v>0.11050268468175577</v>
+        <v>0.106881944919879</v>
       </c>
       <c r="F399" s="4">
         <v>1</v>
@@ -37286,7 +37286,7 @@
         <v>2022</v>
       </c>
       <c r="E400" s="3">
-        <v>0.11326730876284366</v>
+        <v>0.11255980974057808</v>
       </c>
       <c r="F400" s="3">
         <v>1</v>
@@ -37339,7 +37339,7 @@
         <v>2022</v>
       </c>
       <c r="E401" s="4">
-        <v>0.10382330781770392</v>
+        <v>0.10090008416061882</v>
       </c>
       <c r="F401" s="4">
         <v>1</v>
@@ -37392,7 +37392,7 @@
         <v>2022</v>
       </c>
       <c r="E402" s="3">
-        <v>0.10281889750798776</v>
+        <v>0.10128313836498157</v>
       </c>
       <c r="F402" s="3">
         <v>1</v>
@@ -37445,7 +37445,7 @@
         <v>2022</v>
       </c>
       <c r="E403" s="4">
-        <v>0.10351496447959772</v>
+        <v>0.10772034897289151</v>
       </c>
       <c r="F403" s="4">
         <v>1</v>
@@ -37498,7 +37498,7 @@
         <v>2022</v>
       </c>
       <c r="E404" s="3">
-        <v>0.10724052487495081</v>
+        <v>0.10954770591501538</v>
       </c>
       <c r="F404" s="3">
         <v>1</v>
@@ -37551,7 +37551,7 @@
         <v>2022</v>
       </c>
       <c r="E405" s="4">
-        <v>0.10420603999247074</v>
+        <v>0.10603516809737222</v>
       </c>
       <c r="F405" s="4">
         <v>1</v>
@@ -37604,7 +37604,7 @@
         <v>2022</v>
       </c>
       <c r="E406" s="3">
-        <v>0.106881944919879</v>
+        <v>0.1015976002654105</v>
       </c>
       <c r="F406" s="3">
         <v>1</v>
@@ -37657,7 +37657,7 @@
         <v>2022</v>
       </c>
       <c r="E407" s="4">
-        <v>0.11265722369334792</v>
+        <v>0.1111795908924077</v>
       </c>
       <c r="F407" s="4">
         <v>1</v>
@@ -37710,7 +37710,7 @@
         <v>2022</v>
       </c>
       <c r="E408" s="3">
-        <v>0.10585966196758853</v>
+        <v>0.10351496447959772</v>
       </c>
       <c r="F408" s="3">
         <v>1</v>
@@ -38181,7 +38181,7 @@
         <v>509</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="D417" s="4">
         <v>2011</v>
@@ -38234,7 +38234,7 @@
         <v>509</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="D418" s="3">
         <v>2015</v>
@@ -39082,7 +39082,7 @@
         <v>509</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="D434" s="3">
         <v>2015</v>
@@ -39347,7 +39347,7 @@
         <v>509</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="D439" s="4">
         <v>2009</v>
@@ -39400,7 +39400,7 @@
         <v>509</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="D440" s="3">
         <v>2012</v>
@@ -39453,7 +39453,7 @@
         <v>509</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>536</v>
+        <v>511</v>
       </c>
       <c r="D441" s="4">
         <v>2015</v>
@@ -39877,7 +39877,7 @@
         <v>509</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="D449" s="4">
         <v>2015</v>
@@ -40831,7 +40831,7 @@
         <v>509</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="D467" s="4">
         <v>2015</v>
@@ -41785,7 +41785,7 @@
         <v>509</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="D485" s="4">
         <v>2015</v>
@@ -42527,7 +42527,7 @@
         <v>509</v>
       </c>
       <c r="C499" s="4" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D499" s="4">
         <v>2010</v>
@@ -42580,7 +42580,7 @@
         <v>509</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D500" s="3">
         <v>2015</v>
@@ -42633,7 +42633,7 @@
         <v>509</v>
       </c>
       <c r="C501" s="4" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="D501" s="4">
         <v>2015</v>
@@ -42898,7 +42898,7 @@
         <v>509</v>
       </c>
       <c r="C506" s="3" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="D506" s="3">
         <v>2011</v>
@@ -42951,7 +42951,7 @@
         <v>509</v>
       </c>
       <c r="C507" s="4" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="D507" s="4">
         <v>2015</v>
@@ -43481,7 +43481,7 @@
         <v>509</v>
       </c>
       <c r="C517" s="4" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="D517" s="4">
         <v>2015</v>
@@ -44488,7 +44488,7 @@
         <v>509</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="D536" s="3">
         <v>2010</v>
@@ -44541,7 +44541,7 @@
         <v>509</v>
       </c>
       <c r="C537" s="4" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="D537" s="4">
         <v>2011</v>
@@ -44594,7 +44594,7 @@
         <v>509</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="D538" s="3">
         <v>2015</v>
@@ -44647,7 +44647,7 @@
         <v>509</v>
       </c>
       <c r="C539" s="4" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="D539" s="4">
         <v>2023</v>
@@ -45389,7 +45389,7 @@
         <v>509</v>
       </c>
       <c r="C553" s="4" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="D553" s="4">
         <v>2011</v>
@@ -45442,7 +45442,7 @@
         <v>509</v>
       </c>
       <c r="C554" s="3" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="D554" s="3">
         <v>2015</v>
@@ -45495,7 +45495,7 @@
         <v>509</v>
       </c>
       <c r="C555" s="4" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="D555" s="4">
         <v>2024</v>
@@ -45548,7 +45548,7 @@
         <v>509</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="D556" s="3">
         <v>2025</v>
@@ -45601,7 +45601,7 @@
         <v>509</v>
       </c>
       <c r="C557" s="4" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="D557" s="4">
         <v>2011</v>
@@ -45654,7 +45654,7 @@
         <v>509</v>
       </c>
       <c r="C558" s="3" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="D558" s="3">
         <v>2015</v>
@@ -45707,7 +45707,7 @@
         <v>509</v>
       </c>
       <c r="C559" s="4" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="D559" s="4">
         <v>2024</v>
@@ -45760,7 +45760,7 @@
         <v>509</v>
       </c>
       <c r="C560" s="3" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="D560" s="3">
         <v>2025</v>
@@ -46184,7 +46184,7 @@
         <v>509</v>
       </c>
       <c r="C568" s="3" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="D568" s="3">
         <v>2015</v>
@@ -46661,7 +46661,7 @@
         <v>509</v>
       </c>
       <c r="C577" s="4" t="s">
-        <v>515</v>
+        <v>541</v>
       </c>
       <c r="D577" s="4">
         <v>2011</v>
@@ -46714,7 +46714,7 @@
         <v>509</v>
       </c>
       <c r="C578" s="3" t="s">
-        <v>515</v>
+        <v>541</v>
       </c>
       <c r="D578" s="3">
         <v>2015</v>
@@ -46767,7 +46767,7 @@
         <v>509</v>
       </c>
       <c r="C579" s="4" t="s">
-        <v>515</v>
+        <v>541</v>
       </c>
       <c r="D579" s="4">
         <v>2024</v>
@@ -47191,7 +47191,7 @@
         <v>509</v>
       </c>
       <c r="C587" s="4" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="D587" s="4">
         <v>2011</v>
@@ -47244,7 +47244,7 @@
         <v>509</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="D588" s="3">
         <v>2015</v>
@@ -47297,7 +47297,7 @@
         <v>509</v>
       </c>
       <c r="C589" s="4" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="D589" s="4">
         <v>2025</v>
@@ -48092,7 +48092,7 @@
         <v>509</v>
       </c>
       <c r="C604" s="3" t="s">
-        <v>537</v>
+        <v>514</v>
       </c>
       <c r="D604" s="3">
         <v>2015</v>
@@ -51537,7 +51537,7 @@
         <v>509</v>
       </c>
       <c r="C669" s="4" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="D669" s="4">
         <v>2011</v>
@@ -52165,7 +52165,7 @@
         <v>509</v>
       </c>
       <c r="C686" s="3" t="s">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="D686" s="3">
         <v>2012</v>
@@ -52197,7 +52197,7 @@
         <v>509</v>
       </c>
       <c r="C687" s="4" t="s">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="D687" s="4">
         <v>2015</v>
@@ -52229,7 +52229,7 @@
         <v>509</v>
       </c>
       <c r="C688" s="3" t="s">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="D688" s="3">
         <v>2022</v>
@@ -52261,7 +52261,7 @@
         <v>509</v>
       </c>
       <c r="C689" s="4" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="D689" s="4">
         <v>2011</v>
@@ -52293,7 +52293,7 @@
         <v>509</v>
       </c>
       <c r="C690" s="3" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="D690" s="3">
         <v>2023</v>
@@ -53861,7 +53861,7 @@
         <v>509</v>
       </c>
       <c r="C739" s="4" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="D739" s="4">
         <v>2011</v>
@@ -53893,7 +53893,7 @@
         <v>509</v>
       </c>
       <c r="C740" s="3" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="D740" s="3">
         <v>2012</v>
@@ -53925,7 +53925,7 @@
         <v>509</v>
       </c>
       <c r="C741" s="4" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="D741" s="4">
         <v>2028</v>
@@ -54789,7 +54789,7 @@
         <v>509</v>
       </c>
       <c r="C768" s="3" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D768" s="3">
         <v>2009</v>
@@ -54821,7 +54821,7 @@
         <v>509</v>
       </c>
       <c r="C769" s="4" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D769" s="4">
         <v>2012</v>
@@ -54853,7 +54853,7 @@
         <v>509</v>
       </c>
       <c r="C770" s="3" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D770" s="3">
         <v>2015</v>
@@ -54949,7 +54949,7 @@
         <v>509</v>
       </c>
       <c r="C773" s="4" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="D773" s="4">
         <v>2013</v>
@@ -54981,7 +54981,7 @@
         <v>509</v>
       </c>
       <c r="C774" s="3" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="D774" s="3">
         <v>2015</v>
@@ -55077,7 +55077,7 @@
         <v>509</v>
       </c>
       <c r="C777" s="4" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="D777" s="4">
         <v>2010</v>
@@ -55109,7 +55109,7 @@
         <v>509</v>
       </c>
       <c r="C778" s="3" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="D778" s="3">
         <v>2011</v>
@@ -55141,7 +55141,7 @@
         <v>509</v>
       </c>
       <c r="C779" s="4" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="D779" s="4">
         <v>2015</v>
@@ -55173,7 +55173,7 @@
         <v>509</v>
       </c>
       <c r="C780" s="3" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="D780" s="3">
         <v>2010</v>
@@ -55205,7 +55205,7 @@
         <v>509</v>
       </c>
       <c r="C781" s="4" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="D781" s="4">
         <v>2011</v>
@@ -55269,7 +55269,7 @@
         <v>509</v>
       </c>
       <c r="C783" s="4" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="D783" s="4">
         <v>2028</v>
@@ -55301,7 +55301,7 @@
         <v>509</v>
       </c>
       <c r="C784" s="3" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="D784" s="3">
         <v>2028</v>
@@ -55333,7 +55333,7 @@
         <v>509</v>
       </c>
       <c r="C785" s="4" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="D785" s="4">
         <v>2025</v>
@@ -55365,7 +55365,7 @@
         <v>509</v>
       </c>
       <c r="C786" s="3" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="D786" s="3">
         <v>2025</v>
@@ -55397,7 +55397,7 @@
         <v>509</v>
       </c>
       <c r="C787" s="4" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="D787" s="4">
         <v>2028</v>
@@ -55493,7 +55493,7 @@
         <v>509</v>
       </c>
       <c r="C790" s="3" t="s">
-        <v>515</v>
+        <v>541</v>
       </c>
       <c r="D790" s="3">
         <v>2028</v>
@@ -66149,7 +66149,7 @@
         <v>938</v>
       </c>
       <c r="C1123" s="4" t="s">
-        <v>977</v>
+        <v>955</v>
       </c>
       <c r="D1123" s="4">
         <v>2011</v>
@@ -66213,7 +66213,7 @@
         <v>938</v>
       </c>
       <c r="C1125" s="4" t="s">
-        <v>955</v>
+        <v>977</v>
       </c>
       <c r="D1125" s="4">
         <v>2011</v>

--- a/VerveStacks_ITA_grids/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA_grids/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFBB73D0-71F3-4EB0-ADBB-B8CF2D49E4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51FC9B69-7019-4ADD-8CE2-802AB179D18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{492E04F1-1BFC-4D54-AEBC-E676CF101C8C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{95B3CD66-5C58-43BB-9F2F-FD4B5CE4EC13}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -78,30 +78,30 @@
     <t>bioenergy</t>
   </si>
   <si>
+    <t>e_w144006711-220</t>
+  </si>
+  <si>
+    <t>e_IT135-220</t>
+  </si>
+  <si>
+    <t>e_IT67-220</t>
+  </si>
+  <si>
     <t>e_w116692433-220</t>
   </si>
   <si>
-    <t>e_IT135-220</t>
+    <t>e_w109756016-380</t>
+  </si>
+  <si>
+    <t>e_w377588191-220</t>
+  </si>
+  <si>
+    <t>e_w105141350-220</t>
   </si>
   <si>
     <t>e_w81938081-380</t>
   </si>
   <si>
-    <t>e_w105141350-220</t>
-  </si>
-  <si>
-    <t>e_w144006711-220</t>
-  </si>
-  <si>
-    <t>e_IT67-220</t>
-  </si>
-  <si>
-    <t>e_w377588191-220</t>
-  </si>
-  <si>
-    <t>e_w109756016-380</t>
-  </si>
-  <si>
     <t>ep_bioenergy_IT135-220</t>
   </si>
   <si>
@@ -135,15 +135,15 @@
     <t>e_w375892272-220</t>
   </si>
   <si>
+    <t>e_w82767145-220</t>
+  </si>
+  <si>
     <t>e_w409439916-380</t>
   </si>
   <si>
     <t>e_w418902800-380</t>
   </si>
   <si>
-    <t>e_w82767145-220</t>
-  </si>
-  <si>
     <t>ep_coal_subcritical_G100000102764</t>
   </si>
   <si>
@@ -180,123 +180,123 @@
     <t>gas</t>
   </si>
   <si>
+    <t>e_w98421779-380</t>
+  </si>
+  <si>
+    <t>e_w110330925-380</t>
+  </si>
+  <si>
+    <t>e_w162960205-220</t>
+  </si>
+  <si>
+    <t>e_w98900549-380</t>
+  </si>
+  <si>
+    <t>e_w185576620-220</t>
+  </si>
+  <si>
+    <t>e_w339104227-380</t>
+  </si>
+  <si>
+    <t>e_w59462715-380</t>
+  </si>
+  <si>
+    <t>e_w414663585-380</t>
+  </si>
+  <si>
+    <t>e_w255011550-380</t>
+  </si>
+  <si>
+    <t>e_w60616350-380</t>
+  </si>
+  <si>
+    <t>e_w199675964-380</t>
+  </si>
+  <si>
+    <t>e_w1051991398-220</t>
+  </si>
+  <si>
+    <t>e_w82084019-380</t>
+  </si>
+  <si>
+    <t>e_w421827453-380</t>
+  </si>
+  <si>
     <t>e_w419423704-220</t>
   </si>
   <si>
+    <t>e_w149997403-380</t>
+  </si>
+  <si>
+    <t>e_w103653591-380</t>
+  </si>
+  <si>
+    <t>e_w100407576-380</t>
+  </si>
+  <si>
+    <t>e_w375922076-220</t>
+  </si>
+  <si>
+    <t>e_w145665799-380</t>
+  </si>
+  <si>
+    <t>e_w116797658-220</t>
+  </si>
+  <si>
+    <t>e_w418565264-380</t>
+  </si>
+  <si>
+    <t>e_w84277460-220</t>
+  </si>
+  <si>
+    <t>e_w419423705-380</t>
+  </si>
+  <si>
+    <t>e_w109993642-380</t>
+  </si>
+  <si>
+    <t>e_w82078641-220</t>
+  </si>
+  <si>
+    <t>e_w416989699-380</t>
+  </si>
+  <si>
+    <t>e_w411026199-380</t>
+  </si>
+  <si>
+    <t>e_w107438024-380</t>
+  </si>
+  <si>
+    <t>e_w60725875-220</t>
+  </si>
+  <si>
+    <t>e_w338948868-220</t>
+  </si>
+  <si>
+    <t>e_w181125039-380</t>
+  </si>
+  <si>
+    <t>e_w162828577-220</t>
+  </si>
+  <si>
+    <t>e_w133601335-380</t>
+  </si>
+  <si>
+    <t>e_w102287716-220</t>
+  </si>
+  <si>
+    <t>e_w158739183-380</t>
+  </si>
+  <si>
     <t>e_w172302572-380</t>
   </si>
   <si>
     <t>e_w432729521-380</t>
   </si>
   <si>
-    <t>e_w1051991398-220</t>
-  </si>
-  <si>
-    <t>e_w199675964-380</t>
-  </si>
-  <si>
-    <t>e_w421827453-380</t>
-  </si>
-  <si>
-    <t>e_w116797658-220</t>
-  </si>
-  <si>
-    <t>e_w149997403-380</t>
-  </si>
-  <si>
-    <t>e_w103653591-380</t>
-  </si>
-  <si>
-    <t>e_w100407576-380</t>
-  </si>
-  <si>
-    <t>e_w375922076-220</t>
-  </si>
-  <si>
-    <t>e_w145665799-380</t>
-  </si>
-  <si>
-    <t>e_w60616350-380</t>
-  </si>
-  <si>
-    <t>e_w60725875-220</t>
-  </si>
-  <si>
-    <t>e_w338948868-220</t>
-  </si>
-  <si>
-    <t>e_w181125039-380</t>
-  </si>
-  <si>
-    <t>e_w162828577-220</t>
-  </si>
-  <si>
-    <t>e_w133601335-380</t>
-  </si>
-  <si>
-    <t>e_w102287716-220</t>
-  </si>
-  <si>
-    <t>e_w158739183-380</t>
-  </si>
-  <si>
-    <t>e_w98900549-380</t>
-  </si>
-  <si>
-    <t>e_w162960205-220</t>
-  </si>
-  <si>
-    <t>e_w110330925-380</t>
-  </si>
-  <si>
     <t>e_w105757794-380</t>
   </si>
   <si>
-    <t>e_w414663585-380</t>
-  </si>
-  <si>
-    <t>e_w59462715-380</t>
-  </si>
-  <si>
-    <t>e_w255011550-380</t>
-  </si>
-  <si>
-    <t>e_w416989699-380</t>
-  </si>
-  <si>
-    <t>e_w411026199-380</t>
-  </si>
-  <si>
-    <t>e_w107438024-380</t>
-  </si>
-  <si>
-    <t>e_w82084019-380</t>
-  </si>
-  <si>
-    <t>e_w185576620-220</t>
-  </si>
-  <si>
-    <t>e_w84277460-220</t>
-  </si>
-  <si>
-    <t>e_w419423705-380</t>
-  </si>
-  <si>
-    <t>e_w109993642-380</t>
-  </si>
-  <si>
-    <t>e_w98421779-380</t>
-  </si>
-  <si>
-    <t>e_w339104227-380</t>
-  </si>
-  <si>
-    <t>e_w82078641-220</t>
-  </si>
-  <si>
-    <t>e_w418565264-380</t>
-  </si>
-  <si>
     <t>ep_gas_combined_cycle_G100000400339</t>
   </si>
   <si>
@@ -1050,25 +1050,67 @@
     <t>hydro</t>
   </si>
   <si>
+    <t>e_w64200868-380</t>
+  </si>
+  <si>
+    <t>e_w114931087-380</t>
+  </si>
+  <si>
+    <t>e_IT4-380</t>
+  </si>
+  <si>
+    <t>e_w412967424-220</t>
+  </si>
+  <si>
+    <t>e_w61712456-380</t>
+  </si>
+  <si>
+    <t>e_w1100665914-380</t>
+  </si>
+  <si>
+    <t>e_w147466201-220</t>
+  </si>
+  <si>
+    <t>e_w409768426-220</t>
+  </si>
+  <si>
+    <t>e_w419423704-380</t>
+  </si>
+  <si>
+    <t>e_w491424937-380</t>
+  </si>
+  <si>
+    <t>e_w72466334-220</t>
+  </si>
+  <si>
+    <t>e_IT13-380</t>
+  </si>
+  <si>
+    <t>e_w104359058-380</t>
+  </si>
+  <si>
     <t>e_w163789376-220</t>
   </si>
   <si>
-    <t>e_IT13-380</t>
+    <t>e_w82793962-220</t>
+  </si>
+  <si>
+    <t>e_w155976582-220</t>
+  </si>
+  <si>
+    <t>e_w66872608-220</t>
   </si>
   <si>
     <t>e_w159158469-220</t>
   </si>
   <si>
-    <t>e_w72466334-220</t>
-  </si>
-  <si>
-    <t>e_w114931087-380</t>
-  </si>
-  <si>
-    <t>e_w61712456-380</t>
-  </si>
-  <si>
-    <t>e_w66872608-220</t>
+    <t>e_IT137-220</t>
+  </si>
+  <si>
+    <t>e_w96190189-380</t>
+  </si>
+  <si>
+    <t>e_r1377432-220</t>
   </si>
   <si>
     <t>e_w105801489-220</t>
@@ -1077,48 +1119,6 @@
     <t>e_w163056526-220</t>
   </si>
   <si>
-    <t>e_IT137-220</t>
-  </si>
-  <si>
-    <t>e_IT4-380</t>
-  </si>
-  <si>
-    <t>e_w147466201-220</t>
-  </si>
-  <si>
-    <t>e_r1377432-220</t>
-  </si>
-  <si>
-    <t>e_w409768426-220</t>
-  </si>
-  <si>
-    <t>e_w419423704-380</t>
-  </si>
-  <si>
-    <t>e_w491424937-380</t>
-  </si>
-  <si>
-    <t>e_w82793962-220</t>
-  </si>
-  <si>
-    <t>e_w104359058-380</t>
-  </si>
-  <si>
-    <t>e_w155976582-220</t>
-  </si>
-  <si>
-    <t>e_w96190189-380</t>
-  </si>
-  <si>
-    <t>e_w64200868-380</t>
-  </si>
-  <si>
-    <t>e_w1100665914-380</t>
-  </si>
-  <si>
-    <t>e_w412967424-220</t>
-  </si>
-  <si>
     <t>e_w80442466-220</t>
   </si>
   <si>
@@ -1647,192 +1647,192 @@
     <t>solar</t>
   </si>
   <si>
+    <t>elc_spv-ITA_0077</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0215</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0029</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0205</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0143</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0186</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0034</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0081</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0112</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0156</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0022</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0069</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0105</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0108</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0116</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0140</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0167</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0026</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0068</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0195</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0030</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0163</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0037</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0107</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0129</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0019</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0214</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0006</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0124</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0210</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0042</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0007</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0213</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0024</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0057</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0100</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0101</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0102</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0087</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0206</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0216</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0023</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0092</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0162</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0196</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0168</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0185</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0202</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0204</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0211</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0058</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0073</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0086</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0115</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0025</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0031</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0157</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA_0169</t>
+  </si>
+  <si>
     <t>elc_spv-ITA_0018</t>
   </si>
   <si>
-    <t>elc_spv-ITA_0019</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0169</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0157</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0215</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0214</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0006</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0115</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0025</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0031</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0100</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0101</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0102</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0206</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0216</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0023</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0092</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0107</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0143</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0205</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0029</t>
+    <t>elc_spv-ITA_0091</t>
   </si>
   <si>
     <t>elc_spv-ITA_0080</t>
   </si>
   <si>
-    <t>elc_spv-ITA_0077</t>
-  </si>
-  <si>
     <t>elc_spv-ITA_0208</t>
   </si>
   <si>
-    <t>elc_spv-ITA_0186</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0034</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0081</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0105</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0108</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0116</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0140</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0167</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0026</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0068</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0195</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0037</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0168</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0185</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0030</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0202</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0204</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0211</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0058</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0073</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0086</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0124</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0210</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0042</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0007</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0213</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0024</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0057</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0087</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0112</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0156</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0022</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0069</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0162</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0196</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0163</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0091</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA_0129</t>
-  </si>
-  <si>
     <t>elc_spv-ITA_0090</t>
   </si>
   <si>
@@ -4179,57 +4179,57 @@
     <t>ele</t>
   </si>
   <si>
+    <t>Aggregated Plant - EMBER Gap - way/144006711-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>TWh</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/109756016-380_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/81938081-380_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - IT135-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/105141350-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/377588191-220_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - EMBER Gap - IT67-220_Missing Bioenergy Capacity</t>
   </si>
   <si>
-    <t>GW</t>
-  </si>
-  <si>
-    <t>TWh</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/109756016-380_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/144006711-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/377588191-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/105141350-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/81938081-380_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - IT135-220_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - EMBER Gap - way/116692433-220_Missing Bioenergy Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant</t>
   </si>
   <si>
+    <t>Aggregated Plant - EMBER Gap - way/418902800-380_Missing Coal Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/375892272-220_Missing Coal Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/409439916-380_Missing Coal Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - EMBER Gap - way/82767145-220_Missing Coal Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - EMBER Gap - way/409439916-380_Missing Coal Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/375892272-220_Missing Coal Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/418902800-380_Missing Coal Capacity</t>
-  </si>
-  <si>
     <t>Fiume Santo power station_Unit 3</t>
   </si>
   <si>
@@ -4263,129 +4263,129 @@
     <t>Torrevaldaliga Nord power station_Unit 3</t>
   </si>
   <si>
+    <t>Aggregated Plant - EMBER Gap - way/60616350-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/162960205-220_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/414663585-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/375922076-220_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/116797658-220_Missing Gas Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - EMBER Gap - way/338948868-220_Missing Gas Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - EMBER Gap - way/339104227-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/107438024-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/60725875-220_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/411026199-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/82767145-220_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/98421779-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/109756016-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/110330925-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/82084019-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/82078641-220_Missing Gas Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - EMBER Gap - way/421827453-380_Missing Gas Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - EMBER Gap - way/82078641-220_Missing Gas Capacity</t>
+    <t>Aggregated Plant - EMBER Gap - way/416989699-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/100407576-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/133601335-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/149997403-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/419423704-220_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/419423705-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/103653591-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/418565264-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/98900549-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/181125039-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/199675964-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/432729521-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/158739183-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/109993642-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/102287716-220_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/185576620-220_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/145665799-380_Missing Gas Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - EMBER Gap - way/162828577-220_Missing Gas Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - EMBER Gap - way/107438024-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/116797658-220_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/375922076-220_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/339104227-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/103653591-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/419423705-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/414663585-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/82084019-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/411026199-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/82767145-220_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/110330925-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/60725875-220_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/109756016-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/98421779-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/158739183-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/145665799-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/98900549-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/418565264-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/162960205-220_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/60616350-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/109993642-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/185576620-220_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/102287716-220_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/133601335-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/432729521-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/149997403-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/199675964-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/181125039-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/419423704-220_Missing Gas Capacity</t>
+    <t>Aggregated Plant - EMBER Gap - way/1051991398-220_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/255011550-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/172302572-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - EMBER Gap - way/105757794-380_Missing Gas Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - EMBER Gap - way/59462715-380_Missing Gas Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - EMBER Gap - way/172302572-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/1051991398-220_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/105757794-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/255011550-380_Missing Gas Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - EMBER Gap - way/84277460-220_Missing Gas Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - EMBER Gap - way/416989699-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/100407576-380_Missing Gas Capacity</t>
-  </si>
-  <si>
     <t>Altomonte power station_1</t>
   </si>
   <si>
@@ -4737,81 +4737,81 @@
     <t>Taranto CHP power station_CET2-1</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - way/105801489-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - way/147466201-220_Missing Hydro Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - way/412967424-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - way/1100665914-380_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - way/61650514-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - IT4-380_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - way/96190189-380_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - way/155976582-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - way/159158469-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - relation/1377432-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - way/114931087-380_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - way/64200868-380_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - way/80442466-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - way/163789376-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - way/72466334-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - way/163056526-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - way/104359058-380_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - way/491424937-380_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - way/419423704-380_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - IT137-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - way/409768426-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - way/61712456-380_Missing Hydro Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - way/96190189-380_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - way/409768426-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - way/61650514-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - IT4-380_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - way/1100665914-380_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - way/159158469-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - relation/1377432-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - way/412967424-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - IT137-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - way/419423704-380_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - way/491424937-380_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - way/104359058-380_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - way/105801489-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - way/64200868-380_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - way/80442466-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - way/163056526-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - way/114931087-380_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - way/163789376-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - way/72466334-220_Missing Hydro Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - IT13-380_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - way/82793962-220_Missing Hydro Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - way/66872608-220_Missing Hydro Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - IT13-380_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - way/82793962-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - way/155976582-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
     <t>Lana hydroelectric plant_</t>
   </si>
   <si>
@@ -4962,195 +4962,195 @@
     <t>San Filippo del Mela power station_1</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_18_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>annual</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_116_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_204_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_81_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_42_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_124_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_156_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_34_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_90_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_24_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_108_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_57_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_23_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_31_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_19_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_216_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_167_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_112_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_168_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_143_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_105_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_92_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_202_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_211_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_215_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_107_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_30_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_7_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_73_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_58_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_157_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_86_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_185_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_213_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_214_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_22_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_87_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_210_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_129_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_26_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_163_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_205_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_100_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_206_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - ITA_140_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>annual</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_19_Missing Solar Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - IRENA Gap - ITA_6_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - ITA_77_Missing Solar Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_68_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_208_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_69_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_80_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_37_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_101_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_102_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - ITA_196_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - ITA_115_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - ITA_25_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_216_Missing Solar Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - IRENA Gap - ITA_29_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - ITA_195_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_90_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_205_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_100_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_206_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_129_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_26_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_163_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_24_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_124_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_42_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_34_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_156_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_108_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_143_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_215_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_204_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_81_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_31_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_23_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_57_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_157_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_214_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_185_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_86_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_210_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_213_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_22_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_30_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_7_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_73_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_107_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_18_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_116_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_87_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_168_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_167_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_58_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_211_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_202_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_105_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_92_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_112_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_208_Missing Solar Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - ITA_186_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - ITA_162_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_186_Missing Solar Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - IRENA Gap - ITA_91_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_101_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_68_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_37_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_69_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_196_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_80_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - ITA_102_Missing Solar Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - IRENA Gap - ITA_169_Missing Solar Capacity</t>
   </si>
   <si>
@@ -5835,15 +5835,15 @@
     <t>ccs retrofit of -- Sulcis power station_Unit 3</t>
   </si>
   <si>
+    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/375892272-220_Missing Coal Capacity</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/82767145-220_Missing Coal Capacity</t>
+  </si>
+  <si>
     <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/418902800-380_Missing Coal Capacity</t>
   </si>
   <si>
-    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/82767145-220_Missing Coal Capacity</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/375892272-220_Missing Coal Capacity</t>
-  </si>
-  <si>
     <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/409439916-380_Missing Coal Capacity</t>
   </si>
   <si>
@@ -6171,127 +6171,127 @@
     <t>ccs retrofit of -- Aggregated Plant</t>
   </si>
   <si>
+    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/162960205-220_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/60725875-220_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/172302572-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/82767145-220_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/82078641-220_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/109993642-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/59462715-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/60616350-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/1051991398-220_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/339104227-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/133601335-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/158739183-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/100407576-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/416989699-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/418565264-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/432729521-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/82084019-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/421827453-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/162828577-220_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/199675964-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/110330925-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/419423704-220_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/84277460-220_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/375922076-220_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/181125039-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/149997403-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/338948868-220_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/107438024-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/98421779-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/102287716-220_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/145665799-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/414663585-380_Missing Gas Capacity</t>
+  </si>
+  <si>
     <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/116797658-220_Missing Gas Capacity</t>
   </si>
   <si>
-    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/414663585-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/82078641-220_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/82767145-220_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/162960205-220_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/109993642-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/59462715-380_Missing Gas Capacity</t>
+    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/98900549-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/185576620-220_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/255011550-380_Missing Gas Capacity</t>
   </si>
   <si>
     <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/105757794-380_Missing Gas Capacity</t>
   </si>
   <si>
-    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/416989699-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/145665799-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/102287716-220_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/60616350-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/1051991398-220_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/110330925-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/419423704-220_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/84277460-220_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/100407576-380_Missing Gas Capacity</t>
+    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/411026199-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/109756016-380_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/419423705-380_Missing Gas Capacity</t>
   </si>
   <si>
     <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/103653591-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/419423705-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/411026199-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/185576620-220_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/375922076-220_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/181125039-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/255011550-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/339104227-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/158739183-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/133601335-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/432729521-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/149997403-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/418565264-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/338948868-220_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/98421779-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/98900549-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/172302572-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/60725875-220_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/107438024-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/199675964-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/421827453-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/162828577-220_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/82084019-380_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/109756016-380_Missing Gas Capacity</t>
   </si>
   <si>
     <t>ccs retrofit of -- Larino power station_1</t>
@@ -6517,7 +6517,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C41C3B7F-592D-16A8-73F5-E138D722E23A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F6C4053-0075-CF43-884D-4878C75C358D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6572,7 +6572,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3411E80-5389-67E5-E1B0-2F8A1F8F7D60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD4364B1-0A5D-3C59-5475-E7FAACA4C055}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6923,7 +6923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A6BFE6-D7F4-4096-BE15-F7DBEABF9119}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59031B3C-7311-485B-B741-A4BE6F3F831E}">
   <dimension ref="A1:U283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -7039,7 +7039,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" s="3">
         <v>0.18317520000000001</v>
@@ -7095,7 +7095,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" s="4">
         <v>0.18317520000000001</v>
@@ -7487,7 +7487,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="3">
         <v>0.30649709999999997</v>
@@ -7543,7 +7543,7 @@
         <v>30</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="4">
         <v>0.30649709999999997</v>
@@ -7599,7 +7599,7 @@
         <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" s="3">
         <v>0.30649709999999997</v>
@@ -7655,7 +7655,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" s="4">
         <v>0.33007379999999992</v>
@@ -7711,7 +7711,7 @@
         <v>30</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D16" s="3">
         <v>0.33007379999999992</v>
@@ -7767,7 +7767,7 @@
         <v>30</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17" s="4">
         <v>0.33007379999999992</v>
@@ -7823,7 +7823,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D18" s="3">
         <v>0.49118125000000001</v>
@@ -7879,7 +7879,7 @@
         <v>46</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="D19" s="4">
         <v>0.52272499999999988</v>
@@ -7991,7 +7991,7 @@
         <v>46</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D21" s="4">
         <v>0.52272499999999988</v>
@@ -8047,7 +8047,7 @@
         <v>46</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D22" s="3">
         <v>0.49118125000000001</v>
@@ -8103,7 +8103,7 @@
         <v>46</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D23" s="4">
         <v>0.49118125000000001</v>
@@ -8159,7 +8159,7 @@
         <v>46</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D24" s="3">
         <v>0.49118125000000001</v>
@@ -8215,7 +8215,7 @@
         <v>46</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D25" s="4">
         <v>0.450625</v>
@@ -8327,7 +8327,7 @@
         <v>46</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D27" s="4">
         <v>0.49118125000000001</v>
@@ -8439,7 +8439,7 @@
         <v>46</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D29" s="4">
         <v>0.450625</v>
@@ -8551,7 +8551,7 @@
         <v>46</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D31" s="4">
         <v>0.49118125000000001</v>
@@ -8607,7 +8607,7 @@
         <v>46</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D32" s="3">
         <v>0.49118125000000001</v>
@@ -8775,7 +8775,7 @@
         <v>46</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D35" s="4">
         <v>0.49118125000000001</v>
@@ -8831,7 +8831,7 @@
         <v>46</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D36" s="3">
         <v>0.49118125000000001</v>
@@ -8887,7 +8887,7 @@
         <v>46</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D37" s="4">
         <v>0.46865000000000007</v>
@@ -8943,7 +8943,7 @@
         <v>46</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D38" s="3">
         <v>0.49118125000000001</v>
@@ -8999,7 +8999,7 @@
         <v>46</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D39" s="4">
         <v>0.49118125000000001</v>
@@ -9055,7 +9055,7 @@
         <v>46</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D40" s="3">
         <v>0.49118125000000001</v>
@@ -9111,7 +9111,7 @@
         <v>46</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D41" s="4">
         <v>0.49118125000000001</v>
@@ -9223,7 +9223,7 @@
         <v>46</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D43" s="4">
         <v>0.49118125000000001</v>
@@ -9279,7 +9279,7 @@
         <v>46</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D44" s="3">
         <v>0.49118125000000001</v>
@@ -9335,7 +9335,7 @@
         <v>46</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D45" s="4">
         <v>0.49118125000000001</v>
@@ -9391,7 +9391,7 @@
         <v>46</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D46" s="3">
         <v>0.49118125000000001</v>
@@ -9447,7 +9447,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D47" s="4">
         <v>0.47315625000000006</v>
@@ -9503,7 +9503,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D48" s="3">
         <v>0.47315625000000006</v>
@@ -9671,7 +9671,7 @@
         <v>46</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D51" s="4">
         <v>0.54075000000000006</v>
@@ -9727,7 +9727,7 @@
         <v>46</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D52" s="3">
         <v>0.49118125000000001</v>
@@ -9839,7 +9839,7 @@
         <v>46</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="D54" s="3">
         <v>0.49118125000000001</v>
@@ -9895,7 +9895,7 @@
         <v>46</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D55" s="4">
         <v>0.49118125000000001</v>
@@ -9951,7 +9951,7 @@
         <v>46</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D56" s="3">
         <v>0.49118125000000001</v>
@@ -10007,7 +10007,7 @@
         <v>46</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D57" s="4">
         <v>0.47315625000000006</v>
@@ -10063,7 +10063,7 @@
         <v>46</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D58" s="3">
         <v>0.47315625000000006</v>
@@ -10119,7 +10119,7 @@
         <v>46</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D59" s="4">
         <v>0.450625</v>
@@ -10175,7 +10175,7 @@
         <v>46</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D60" s="3">
         <v>0.450625</v>
@@ -10343,7 +10343,7 @@
         <v>46</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D63" s="4">
         <v>0.4911812499999999</v>
@@ -10399,7 +10399,7 @@
         <v>46</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D64" s="3">
         <v>0.49118125000000001</v>
@@ -10455,7 +10455,7 @@
         <v>46</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D65" s="4">
         <v>0.49118125000000001</v>
@@ -10511,7 +10511,7 @@
         <v>46</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D66" s="3">
         <v>0.49118125000000001</v>
@@ -10679,7 +10679,7 @@
         <v>46</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D69" s="4">
         <v>0.49118125000000001</v>
@@ -10735,7 +10735,7 @@
         <v>46</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D70" s="3">
         <v>0.49118125000000001</v>
@@ -10847,7 +10847,7 @@
         <v>46</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D72" s="3">
         <v>0.49118125000000001</v>
@@ -10903,7 +10903,7 @@
         <v>46</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D73" s="4">
         <v>0.49118125000000001</v>
@@ -10959,7 +10959,7 @@
         <v>46</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D74" s="3">
         <v>0.49118125000000001</v>
@@ -11015,7 +11015,7 @@
         <v>46</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D75" s="4">
         <v>0.49118125000000001</v>
@@ -11071,7 +11071,7 @@
         <v>46</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="D76" s="3">
         <v>0.50470000000000004</v>
@@ -11127,7 +11127,7 @@
         <v>46</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D77" s="4">
         <v>0.49118125000000001</v>
@@ -11183,7 +11183,7 @@
         <v>46</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D78" s="3">
         <v>0.49118125000000001</v>
@@ -11295,7 +11295,7 @@
         <v>46</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D80" s="3">
         <v>0.52272499999999988</v>
@@ -11407,7 +11407,7 @@
         <v>46</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D82" s="3">
         <v>0.49118125000000001</v>
@@ -11463,7 +11463,7 @@
         <v>46</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D83" s="4">
         <v>0.49118125000000001</v>
@@ -11519,7 +11519,7 @@
         <v>46</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D84" s="3">
         <v>0.49118125000000001</v>
@@ -11575,7 +11575,7 @@
         <v>46</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D85" s="4">
         <v>0.49118125000000001</v>
@@ -11631,7 +11631,7 @@
         <v>46</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D86" s="3">
         <v>0.49118125000000001</v>
@@ -11687,7 +11687,7 @@
         <v>46</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D87" s="4">
         <v>0.49118125000000001</v>
@@ -11743,7 +11743,7 @@
         <v>46</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D88" s="3">
         <v>0.49118125000000001</v>
@@ -11799,7 +11799,7 @@
         <v>46</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D89" s="4">
         <v>0.49118125000000001</v>
@@ -11855,7 +11855,7 @@
         <v>46</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D90" s="3">
         <v>0.49118125000000001</v>
@@ -11967,7 +11967,7 @@
         <v>46</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D92" s="3">
         <v>0.52272499999999988</v>
@@ -12023,7 +12023,7 @@
         <v>46</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D93" s="4">
         <v>0.49118125000000001</v>
@@ -12079,7 +12079,7 @@
         <v>46</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D94" s="3">
         <v>0.49118125000000001</v>
@@ -12191,7 +12191,7 @@
         <v>46</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D96" s="3">
         <v>0.49118125000000001</v>
@@ -12247,7 +12247,7 @@
         <v>46</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D97" s="4">
         <v>0.49118125000000001</v>
@@ -12303,7 +12303,7 @@
         <v>46</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="D98" s="3">
         <v>0.49118125000000001</v>
@@ -12359,7 +12359,7 @@
         <v>46</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D99" s="4">
         <v>0.49118125000000001</v>
@@ -12415,7 +12415,7 @@
         <v>46</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D100" s="3">
         <v>0.49118125000000001</v>
@@ -12583,7 +12583,7 @@
         <v>46</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D103" s="4">
         <v>0.54075000000000006</v>
@@ -12639,7 +12639,7 @@
         <v>46</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D104" s="3">
         <v>0.54075000000000006</v>
@@ -12695,7 +12695,7 @@
         <v>46</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D105" s="4">
         <v>0.54075000000000006</v>
@@ -12751,7 +12751,7 @@
         <v>46</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D106" s="3">
         <v>0.49118125000000001</v>
@@ -12807,7 +12807,7 @@
         <v>46</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D107" s="4">
         <v>0.49118125000000001</v>
@@ -12863,7 +12863,7 @@
         <v>46</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D108" s="3">
         <v>0.49118125000000001</v>
@@ -12919,7 +12919,7 @@
         <v>46</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="D109" s="4">
         <v>0.49118125000000001</v>
@@ -12975,7 +12975,7 @@
         <v>46</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D110" s="3">
         <v>0.450625</v>
@@ -13031,7 +13031,7 @@
         <v>46</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D111" s="4">
         <v>0.450625</v>
@@ -13087,7 +13087,7 @@
         <v>46</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="D112" s="3">
         <v>0.47315625000000006</v>
@@ -13199,7 +13199,7 @@
         <v>46</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D114" s="3">
         <v>0.49118125000000001</v>
@@ -13255,7 +13255,7 @@
         <v>46</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D115" s="4">
         <v>0.46865000000000007</v>
@@ -13423,7 +13423,7 @@
         <v>46</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="D118" s="3">
         <v>0.49118125000000001</v>
@@ -14039,7 +14039,7 @@
         <v>46</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="D129" s="4">
         <v>0.54075000000000006</v>
@@ -14095,7 +14095,7 @@
         <v>46</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="D130" s="3">
         <v>0.54075000000000006</v>
@@ -15271,7 +15271,7 @@
         <v>46</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="D151" s="4">
         <v>0.54075000000000006</v>
@@ -15327,7 +15327,7 @@
         <v>46</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D152" s="3">
         <v>0.54075000000000006</v>
@@ -15383,7 +15383,7 @@
         <v>46</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="D153" s="4">
         <v>0.54075000000000006</v>
@@ -15999,7 +15999,7 @@
         <v>46</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D164" s="3">
         <v>0.54075000000000006</v>
@@ -16783,7 +16783,7 @@
         <v>46</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D178" s="3">
         <v>0.50470000000000004</v>
@@ -17343,7 +17343,7 @@
         <v>46</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="D188" s="3">
         <v>0.48667500000000002</v>
@@ -18295,7 +18295,7 @@
         <v>46</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D205" s="4">
         <v>0.48667500000000002</v>
@@ -19023,7 +19023,7 @@
         <v>46</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D218" s="3">
         <v>0.450625</v>
@@ -19079,7 +19079,7 @@
         <v>46</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D219" s="4">
         <v>0.450625</v>
@@ -19639,7 +19639,7 @@
         <v>46</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D229" s="4">
         <v>0.27938750000000001</v>
@@ -19695,7 +19695,7 @@
         <v>46</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D230" s="3">
         <v>0.27938750000000001</v>
@@ -19863,7 +19863,7 @@
         <v>46</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D233" s="4">
         <v>0.29741250000000002</v>
@@ -19919,7 +19919,7 @@
         <v>46</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D234" s="3">
         <v>0.28839999999999999</v>
@@ -19975,7 +19975,7 @@
         <v>46</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D235" s="4">
         <v>0.28839999999999999</v>
@@ -20031,7 +20031,7 @@
         <v>46</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="D236" s="3">
         <v>0.24784375000000003</v>
@@ -20479,7 +20479,7 @@
         <v>46</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D244" s="3">
         <v>0.25235000000000002</v>
@@ -20647,7 +20647,7 @@
         <v>46</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D247" s="4">
         <v>0.32445000000000007</v>
@@ -20927,7 +20927,7 @@
         <v>46</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D252" s="3">
         <v>0.32445000000000002</v>
@@ -21151,7 +21151,7 @@
         <v>46</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D256" s="3">
         <v>0.32445000000000002</v>
@@ -21207,7 +21207,7 @@
         <v>46</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="D257" s="4">
         <v>0.27938750000000001</v>
@@ -21263,7 +21263,7 @@
         <v>46</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="D258" s="3">
         <v>0.27938750000000001</v>
@@ -21319,7 +21319,7 @@
         <v>46</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="D259" s="4">
         <v>0.27938750000000001</v>
@@ -21375,7 +21375,7 @@
         <v>46</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D260" s="3">
         <v>0.28839999999999999</v>
@@ -21431,7 +21431,7 @@
         <v>46</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D261" s="4">
         <v>0.28839999999999999</v>
@@ -21487,7 +21487,7 @@
         <v>46</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D262" s="3">
         <v>0.28839999999999999</v>
@@ -21543,7 +21543,7 @@
         <v>46</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D263" s="4">
         <v>0.31093124999999999</v>
@@ -21578,7 +21578,7 @@
         <v>46</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D264" s="3">
         <v>0.27938750000000001</v>
@@ -21613,7 +21613,7 @@
         <v>46</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D265" s="4">
         <v>0.27938750000000001</v>
@@ -21648,7 +21648,7 @@
         <v>46</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D266" s="3">
         <v>0.26136249999999994</v>
@@ -21858,7 +21858,7 @@
         <v>514</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D272" s="3">
         <v>0.24333750000000001</v>
@@ -22280,7 +22280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6BEC02-FD08-4797-99C0-5AC04A8105BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934C28B2-B207-47FB-8CCA-62C6F31C01B8}">
   <dimension ref="A1:T1261"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -22396,19 +22396,19 @@
         <v>2022</v>
       </c>
       <c r="E4" s="3">
-        <v>0.51576271186440681</v>
+        <v>0.22450847457627116</v>
       </c>
       <c r="F4" s="3">
-        <v>0.36049999999999999</v>
+        <v>0.33990000000000004</v>
       </c>
       <c r="G4" s="3">
-        <v>3850.0000000000005</v>
+        <v>4427.5</v>
       </c>
       <c r="H4" s="3">
-        <v>143</v>
+        <v>157.30000000000001</v>
       </c>
       <c r="I4" s="3">
-        <v>8.4</v>
+        <v>9.240000000000002</v>
       </c>
       <c r="J4" s="3">
         <v>50</v>
@@ -22502,13 +22502,13 @@
         <v>2022</v>
       </c>
       <c r="E6" s="3">
-        <v>0.49149152542372881</v>
+        <v>0.35800000000000004</v>
       </c>
       <c r="F6" s="3">
-        <v>0.36049999999999999</v>
+        <v>0.36050000000000004</v>
       </c>
       <c r="G6" s="3">
-        <v>3850.0000000000005</v>
+        <v>3850.0000000000009</v>
       </c>
       <c r="H6" s="3">
         <v>143</v>
@@ -22555,7 +22555,7 @@
         <v>2022</v>
       </c>
       <c r="E7" s="4">
-        <v>0.39440677966101695</v>
+        <v>0.51576271186440681</v>
       </c>
       <c r="F7" s="4">
         <v>0.36049999999999999</v>
@@ -22608,7 +22608,7 @@
         <v>2022</v>
       </c>
       <c r="E8" s="3">
-        <v>0.22450847457627116</v>
+        <v>0.27911864406779663</v>
       </c>
       <c r="F8" s="3">
         <v>0.33990000000000004</v>
@@ -22661,13 +22661,13 @@
         <v>2022</v>
       </c>
       <c r="E9" s="4">
-        <v>0.35800000000000004</v>
+        <v>1.0679322033898306</v>
       </c>
       <c r="F9" s="4">
-        <v>0.36050000000000004</v>
+        <v>0.36049999999999999</v>
       </c>
       <c r="G9" s="4">
-        <v>3850.0000000000009</v>
+        <v>3850.0000000000005</v>
       </c>
       <c r="H9" s="4">
         <v>143</v>
@@ -22714,7 +22714,7 @@
         <v>2022</v>
       </c>
       <c r="E10" s="3">
-        <v>1.0679322033898306</v>
+        <v>0.39440677966101695</v>
       </c>
       <c r="F10" s="3">
         <v>0.36049999999999999</v>
@@ -22767,19 +22767,19 @@
         <v>2022</v>
       </c>
       <c r="E11" s="4">
-        <v>0.27911864406779663</v>
+        <v>0.49149152542372881</v>
       </c>
       <c r="F11" s="4">
-        <v>0.33990000000000004</v>
+        <v>0.36049999999999999</v>
       </c>
       <c r="G11" s="4">
-        <v>4427.5</v>
+        <v>3850.0000000000005</v>
       </c>
       <c r="H11" s="4">
-        <v>157.30000000000001</v>
+        <v>143</v>
       </c>
       <c r="I11" s="4">
-        <v>9.240000000000002</v>
+        <v>8.4</v>
       </c>
       <c r="J11" s="4">
         <v>50</v>
@@ -22867,7 +22867,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D13" s="4">
         <v>2001</v>
@@ -22920,7 +22920,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D14" s="3">
         <v>2013</v>
@@ -22973,7 +22973,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D15" s="4">
         <v>2003</v>
@@ -23026,7 +23026,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D16" s="3">
         <v>1998</v>
@@ -23079,7 +23079,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D17" s="4">
         <v>2009</v>
@@ -23132,7 +23132,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" s="3">
         <v>2008</v>
@@ -23185,7 +23185,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="4">
         <v>2009</v>
@@ -23238,7 +23238,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D20" s="3">
         <v>2008</v>
@@ -23291,7 +23291,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D21" s="4">
         <v>2018</v>
@@ -23403,19 +23403,19 @@
         <v>2022</v>
       </c>
       <c r="E23" s="4">
-        <v>0.1997687861271675</v>
+        <v>0.61803468208092449</v>
       </c>
       <c r="F23" s="4">
-        <v>0.35020000000000007</v>
+        <v>0.37080000000000002</v>
       </c>
       <c r="G23" s="4">
-        <v>2530</v>
+        <v>2200</v>
       </c>
       <c r="H23" s="4">
-        <v>72.600000000000009</v>
+        <v>66</v>
       </c>
       <c r="I23" s="4">
-        <v>5.7750000000000004</v>
+        <v>5.25</v>
       </c>
       <c r="J23" s="4">
         <v>50</v>
@@ -23456,19 +23456,19 @@
         <v>2022</v>
       </c>
       <c r="E24" s="3">
-        <v>0.61803468208092449</v>
+        <v>0.1997687861271675</v>
       </c>
       <c r="F24" s="3">
-        <v>0.37080000000000002</v>
+        <v>0.35020000000000007</v>
       </c>
       <c r="G24" s="3">
-        <v>2200</v>
+        <v>2530</v>
       </c>
       <c r="H24" s="3">
-        <v>66</v>
+        <v>72.600000000000009</v>
       </c>
       <c r="I24" s="3">
-        <v>5.25</v>
+        <v>5.7750000000000004</v>
       </c>
       <c r="J24" s="3">
         <v>50</v>
@@ -23556,7 +23556,7 @@
         <v>30</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D26" s="3">
         <v>1992</v>
@@ -23609,7 +23609,7 @@
         <v>30</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D27" s="4">
         <v>1993</v>
@@ -23768,7 +23768,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D30" s="3">
         <v>1991</v>
@@ -23821,7 +23821,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D31" s="4">
         <v>1992</v>
@@ -23874,7 +23874,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D32" s="3">
         <v>1993</v>
@@ -23927,7 +23927,7 @@
         <v>30</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D33" s="4">
         <v>2009</v>
@@ -23980,7 +23980,7 @@
         <v>30</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D34" s="3">
         <v>2010</v>
@@ -24033,7 +24033,7 @@
         <v>30</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D35" s="4">
         <v>2010</v>
@@ -24092,7 +24092,7 @@
         <v>2022</v>
       </c>
       <c r="E36" s="3">
-        <v>0.18629233979258764</v>
+        <v>0.19603311572945498</v>
       </c>
       <c r="F36" s="3">
         <v>0.59739999999999993</v>
@@ -24145,7 +24145,7 @@
         <v>2022</v>
       </c>
       <c r="E37" s="4">
-        <v>0.19481551873734657</v>
+        <v>0.19676367392472002</v>
       </c>
       <c r="F37" s="4">
         <v>0.59739999999999993</v>
@@ -24198,19 +24198,19 @@
         <v>2022</v>
       </c>
       <c r="E38" s="3">
-        <v>0.19481551873734657</v>
+        <v>0.50070023509482275</v>
       </c>
       <c r="F38" s="3">
-        <v>0.59739999999999993</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="G38" s="3">
-        <v>1265</v>
+        <v>1100</v>
       </c>
       <c r="H38" s="3">
-        <v>36.300000000000004</v>
+        <v>33</v>
       </c>
       <c r="I38" s="3">
-        <v>3.4650000000000003</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J38" s="3">
         <v>50</v>
@@ -24251,19 +24251,19 @@
         <v>2022</v>
       </c>
       <c r="E39" s="4">
-        <v>0.18994513076891292</v>
+        <v>0.30829555840185086</v>
       </c>
       <c r="F39" s="4">
-        <v>0.59739999999999993</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="G39" s="4">
-        <v>1265</v>
+        <v>1100</v>
       </c>
       <c r="H39" s="4">
-        <v>36.300000000000004</v>
+        <v>33</v>
       </c>
       <c r="I39" s="4">
-        <v>3.4650000000000003</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J39" s="4">
         <v>50</v>
@@ -24304,7 +24304,7 @@
         <v>2022</v>
       </c>
       <c r="E40" s="3">
-        <v>0.21551466760318963</v>
+        <v>0.26604494277568891</v>
       </c>
       <c r="F40" s="3">
         <v>0.59739999999999993</v>
@@ -24357,7 +24357,7 @@
         <v>2022</v>
       </c>
       <c r="E41" s="4">
-        <v>0.19627663512787666</v>
+        <v>0.19481551873734657</v>
       </c>
       <c r="F41" s="4">
         <v>0.59739999999999993</v>
@@ -24369,7 +24369,7 @@
         <v>36.300000000000004</v>
       </c>
       <c r="I41" s="4">
-        <v>3.4649999999999999</v>
+        <v>3.4650000000000003</v>
       </c>
       <c r="J41" s="4">
         <v>50</v>
@@ -24410,7 +24410,7 @@
         <v>2022</v>
       </c>
       <c r="E42" s="3">
-        <v>0.20236462008841874</v>
+        <v>0.21113131843159935</v>
       </c>
       <c r="F42" s="3">
         <v>0.59739999999999993</v>
@@ -24463,7 +24463,7 @@
         <v>2022</v>
       </c>
       <c r="E43" s="4">
-        <v>0.18824049497996109</v>
+        <v>0.22793415692269547</v>
       </c>
       <c r="F43" s="4">
         <v>0.59739999999999993</v>
@@ -24516,7 +24516,7 @@
         <v>2022</v>
       </c>
       <c r="E44" s="3">
-        <v>0.19481551873734657</v>
+        <v>0.1548783373961905</v>
       </c>
       <c r="F44" s="3">
         <v>0.59739999999999993</v>
@@ -24528,7 +24528,7 @@
         <v>36.300000000000004</v>
       </c>
       <c r="I44" s="3">
-        <v>3.4650000000000003</v>
+        <v>3.4649999999999999</v>
       </c>
       <c r="J44" s="3">
         <v>50</v>
@@ -24569,19 +24569,19 @@
         <v>2022</v>
       </c>
       <c r="E45" s="4">
-        <v>0.37648098995992219</v>
+        <v>0.21283595422055113</v>
       </c>
       <c r="F45" s="4">
-        <v>0.61799999999999999</v>
+        <v>0.59739999999999993</v>
       </c>
       <c r="G45" s="4">
-        <v>1100</v>
+        <v>1265</v>
       </c>
       <c r="H45" s="4">
-        <v>33</v>
+        <v>36.300000000000004</v>
       </c>
       <c r="I45" s="4">
-        <v>3.1500000000000004</v>
+        <v>3.4650000000000003</v>
       </c>
       <c r="J45" s="4">
         <v>50</v>
@@ -24622,19 +24622,19 @@
         <v>2022</v>
       </c>
       <c r="E46" s="3">
-        <v>0.43322100979217443</v>
+        <v>0.21551466760318963</v>
       </c>
       <c r="F46" s="3">
-        <v>0.61799999999999999</v>
+        <v>0.59739999999999993</v>
       </c>
       <c r="G46" s="3">
-        <v>1100</v>
+        <v>1265</v>
       </c>
       <c r="H46" s="3">
-        <v>33</v>
+        <v>36.300000000000004</v>
       </c>
       <c r="I46" s="3">
-        <v>3.1500000000000004</v>
+        <v>3.4650000000000003</v>
       </c>
       <c r="J46" s="3">
         <v>50</v>
@@ -24675,19 +24675,19 @@
         <v>2022</v>
       </c>
       <c r="E47" s="4">
-        <v>0.31243538817501959</v>
+        <v>0.18994513076891292</v>
       </c>
       <c r="F47" s="4">
-        <v>0.61799999999999999</v>
+        <v>0.59739999999999993</v>
       </c>
       <c r="G47" s="4">
-        <v>1100</v>
+        <v>1265</v>
       </c>
       <c r="H47" s="4">
-        <v>33</v>
+        <v>36.300000000000004</v>
       </c>
       <c r="I47" s="4">
-        <v>3.1500000000000004</v>
+        <v>3.4650000000000003</v>
       </c>
       <c r="J47" s="4">
         <v>50</v>
@@ -24728,7 +24728,7 @@
         <v>2022</v>
       </c>
       <c r="E48" s="3">
-        <v>0.21283595422055113</v>
+        <v>0.29344087509812827</v>
       </c>
       <c r="F48" s="3">
         <v>0.59739999999999993</v>
@@ -24781,7 +24781,7 @@
         <v>2022</v>
       </c>
       <c r="E49" s="4">
-        <v>0.20942668264264758</v>
+        <v>0.19627663512787666</v>
       </c>
       <c r="F49" s="4">
         <v>0.59739999999999993</v>
@@ -24793,7 +24793,7 @@
         <v>36.300000000000004</v>
       </c>
       <c r="I49" s="4">
-        <v>3.4650000000000003</v>
+        <v>3.4649999999999999</v>
       </c>
       <c r="J49" s="4">
         <v>50</v>
@@ -24834,19 +24834,19 @@
         <v>2022</v>
       </c>
       <c r="E50" s="3">
-        <v>0.39839773581787374</v>
+        <v>0.18629233979258764</v>
       </c>
       <c r="F50" s="3">
-        <v>0.61799999999999999</v>
+        <v>0.59739999999999993</v>
       </c>
       <c r="G50" s="3">
-        <v>1100</v>
+        <v>1265</v>
       </c>
       <c r="H50" s="3">
-        <v>33</v>
+        <v>36.300000000000004</v>
       </c>
       <c r="I50" s="3">
-        <v>3.1500000000000004</v>
+        <v>3.4650000000000003</v>
       </c>
       <c r="J50" s="3">
         <v>50</v>
@@ -24887,7 +24887,7 @@
         <v>2022</v>
       </c>
       <c r="E51" s="4">
-        <v>0.18556178159732259</v>
+        <v>0.18824049497996109</v>
       </c>
       <c r="F51" s="4">
         <v>0.59739999999999993</v>
@@ -24940,19 +24940,19 @@
         <v>2022</v>
       </c>
       <c r="E52" s="3">
-        <v>0.31292242697186295</v>
+        <v>0.19481551873734657</v>
       </c>
       <c r="F52" s="3">
-        <v>0.61799999999999999</v>
+        <v>0.59739999999999993</v>
       </c>
       <c r="G52" s="3">
-        <v>1100</v>
+        <v>1265</v>
       </c>
       <c r="H52" s="3">
-        <v>33</v>
+        <v>36.300000000000004</v>
       </c>
       <c r="I52" s="3">
-        <v>3.1500000000000004</v>
+        <v>3.4650000000000003</v>
       </c>
       <c r="J52" s="3">
         <v>50</v>
@@ -24993,19 +24993,19 @@
         <v>2022</v>
       </c>
       <c r="E53" s="4">
-        <v>0.23280454489112914</v>
+        <v>0.37648098995992219</v>
       </c>
       <c r="F53" s="4">
-        <v>0.59739999999999993</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="G53" s="4">
-        <v>1265</v>
+        <v>1100</v>
       </c>
       <c r="H53" s="4">
-        <v>36.300000000000004</v>
+        <v>33</v>
       </c>
       <c r="I53" s="4">
-        <v>3.4650000000000007</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J53" s="4">
         <v>50</v>
@@ -25046,19 +25046,19 @@
         <v>2022</v>
       </c>
       <c r="E54" s="3">
-        <v>0.27347228442755023</v>
+        <v>0.43322100979217443</v>
       </c>
       <c r="F54" s="3">
-        <v>0.59739999999999993</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="G54" s="3">
-        <v>1265</v>
+        <v>1100</v>
       </c>
       <c r="H54" s="3">
-        <v>36.300000000000004</v>
+        <v>33</v>
       </c>
       <c r="I54" s="3">
-        <v>3.4650000000000003</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J54" s="3">
         <v>50</v>
@@ -25099,19 +25099,19 @@
         <v>2022</v>
       </c>
       <c r="E55" s="4">
-        <v>0.17484692806676855</v>
+        <v>0.31243538817501959</v>
       </c>
       <c r="F55" s="4">
-        <v>0.59739999999999993</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="G55" s="4">
-        <v>1265</v>
+        <v>1100</v>
       </c>
       <c r="H55" s="4">
-        <v>36.300000000000004</v>
+        <v>33</v>
       </c>
       <c r="I55" s="4">
-        <v>3.4650000000000003</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J55" s="4">
         <v>50</v>
@@ -25152,19 +25152,19 @@
         <v>2022</v>
       </c>
       <c r="E56" s="3">
-        <v>0.30829555840185086</v>
+        <v>0.20236462008841874</v>
       </c>
       <c r="F56" s="3">
-        <v>0.61799999999999999</v>
+        <v>0.59739999999999993</v>
       </c>
       <c r="G56" s="3">
-        <v>1100</v>
+        <v>1265</v>
       </c>
       <c r="H56" s="3">
-        <v>33</v>
+        <v>36.300000000000004</v>
       </c>
       <c r="I56" s="3">
-        <v>3.1500000000000004</v>
+        <v>3.4650000000000003</v>
       </c>
       <c r="J56" s="3">
         <v>50</v>
@@ -25205,19 +25205,19 @@
         <v>2022</v>
       </c>
       <c r="E57" s="4">
-        <v>0.50070023509482275</v>
+        <v>0.10252166673552862</v>
       </c>
       <c r="F57" s="4">
-        <v>0.61799999999999999</v>
+        <v>0.59739999999999993</v>
       </c>
       <c r="G57" s="4">
-        <v>1100</v>
+        <v>1265</v>
       </c>
       <c r="H57" s="4">
-        <v>33</v>
+        <v>36.300000000000004</v>
       </c>
       <c r="I57" s="4">
-        <v>3.1500000000000004</v>
+        <v>3.4650000000000003</v>
       </c>
       <c r="J57" s="4">
         <v>50</v>
@@ -25258,13 +25258,13 @@
         <v>2022</v>
       </c>
       <c r="E58" s="3">
-        <v>0.19676367392472002</v>
+        <v>0.10398278312605871</v>
       </c>
       <c r="F58" s="3">
         <v>0.59739999999999993</v>
       </c>
       <c r="G58" s="3">
-        <v>1265</v>
+        <v>1264.9999999999998</v>
       </c>
       <c r="H58" s="3">
         <v>36.300000000000004</v>
@@ -25311,7 +25311,7 @@
         <v>2022</v>
       </c>
       <c r="E59" s="4">
-        <v>0.16608022972358796</v>
+        <v>0.18507474280047922</v>
       </c>
       <c r="F59" s="4">
         <v>0.59739999999999993</v>
@@ -25323,7 +25323,7 @@
         <v>36.300000000000004</v>
       </c>
       <c r="I59" s="4">
-        <v>3.4650000000000003</v>
+        <v>3.4649999999999999</v>
       </c>
       <c r="J59" s="4">
         <v>50</v>
@@ -25364,7 +25364,7 @@
         <v>2022</v>
       </c>
       <c r="E60" s="3">
-        <v>0.22793415692269547</v>
+        <v>0.18702289798785268</v>
       </c>
       <c r="F60" s="3">
         <v>0.59739999999999993</v>
@@ -25417,7 +25417,7 @@
         <v>2022</v>
       </c>
       <c r="E61" s="4">
-        <v>0.21113131843159935</v>
+        <v>0.28443065735652601</v>
       </c>
       <c r="F61" s="4">
         <v>0.59739999999999993</v>
@@ -25464,13 +25464,13 @@
         <v>46</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="D62" s="3">
         <v>2022</v>
       </c>
       <c r="E62" s="3">
-        <v>0.1548783373961905</v>
+        <v>0.27761211420071885</v>
       </c>
       <c r="F62" s="3">
         <v>0.59739999999999993</v>
@@ -25482,7 +25482,7 @@
         <v>36.300000000000004</v>
       </c>
       <c r="I62" s="3">
-        <v>3.4649999999999999</v>
+        <v>3.4650000000000003</v>
       </c>
       <c r="J62" s="3">
         <v>50</v>
@@ -25517,13 +25517,13 @@
         <v>46</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="D63" s="4">
         <v>2022</v>
       </c>
       <c r="E63" s="4">
-        <v>0.27761211420071885</v>
+        <v>0.26543614427963469</v>
       </c>
       <c r="F63" s="4">
         <v>0.59739999999999993</v>
@@ -25576,7 +25576,7 @@
         <v>2022</v>
       </c>
       <c r="E64" s="3">
-        <v>0.26543614427963469</v>
+        <v>0.20557907614758497</v>
       </c>
       <c r="F64" s="3">
         <v>0.59739999999999993</v>
@@ -25629,19 +25629,19 @@
         <v>2022</v>
       </c>
       <c r="E65" s="4">
-        <v>0.20557907614758497</v>
+        <v>0.37112356319464518</v>
       </c>
       <c r="F65" s="4">
-        <v>0.59739999999999993</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="G65" s="4">
-        <v>1265</v>
+        <v>1100</v>
       </c>
       <c r="H65" s="4">
-        <v>36.300000000000004</v>
+        <v>33</v>
       </c>
       <c r="I65" s="4">
-        <v>3.4650000000000003</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J65" s="4">
         <v>50</v>
@@ -25682,19 +25682,19 @@
         <v>2022</v>
       </c>
       <c r="E66" s="3">
-        <v>0.37112356319464518</v>
+        <v>0.20942668264264758</v>
       </c>
       <c r="F66" s="3">
-        <v>0.61799999999999999</v>
+        <v>0.59739999999999993</v>
       </c>
       <c r="G66" s="3">
-        <v>1100</v>
+        <v>1265</v>
       </c>
       <c r="H66" s="3">
-        <v>33</v>
+        <v>36.300000000000004</v>
       </c>
       <c r="I66" s="3">
-        <v>3.1500000000000004</v>
+        <v>3.4650000000000003</v>
       </c>
       <c r="J66" s="3">
         <v>50</v>
@@ -25735,19 +25735,19 @@
         <v>2022</v>
       </c>
       <c r="E67" s="4">
-        <v>0.29344087509812827</v>
+        <v>0.39839773581787374</v>
       </c>
       <c r="F67" s="4">
-        <v>0.59739999999999993</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="G67" s="4">
-        <v>1265</v>
+        <v>1100</v>
       </c>
       <c r="H67" s="4">
-        <v>36.300000000000004</v>
+        <v>33</v>
       </c>
       <c r="I67" s="4">
-        <v>3.4650000000000003</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J67" s="4">
         <v>50</v>
@@ -25788,7 +25788,7 @@
         <v>2022</v>
       </c>
       <c r="E68" s="3">
-        <v>0.26604494277568891</v>
+        <v>0.18556178159732259</v>
       </c>
       <c r="F68" s="3">
         <v>0.59739999999999993</v>
@@ -25841,19 +25841,19 @@
         <v>2022</v>
       </c>
       <c r="E69" s="4">
-        <v>0.10398278312605871</v>
+        <v>0.31292242697186295</v>
       </c>
       <c r="F69" s="4">
-        <v>0.59739999999999993</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="G69" s="4">
-        <v>1264.9999999999998</v>
+        <v>1100</v>
       </c>
       <c r="H69" s="4">
-        <v>36.300000000000004</v>
+        <v>33</v>
       </c>
       <c r="I69" s="4">
-        <v>3.4650000000000003</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J69" s="4">
         <v>50</v>
@@ -25894,7 +25894,7 @@
         <v>2022</v>
       </c>
       <c r="E70" s="3">
-        <v>0.18507474280047922</v>
+        <v>0.23280454489112914</v>
       </c>
       <c r="F70" s="3">
         <v>0.59739999999999993</v>
@@ -25906,7 +25906,7 @@
         <v>36.300000000000004</v>
       </c>
       <c r="I70" s="3">
-        <v>3.4649999999999999</v>
+        <v>3.4650000000000007</v>
       </c>
       <c r="J70" s="3">
         <v>50</v>
@@ -25947,7 +25947,7 @@
         <v>2022</v>
       </c>
       <c r="E71" s="4">
-        <v>0.18702289798785268</v>
+        <v>0.27347228442755023</v>
       </c>
       <c r="F71" s="4">
         <v>0.59739999999999993</v>
@@ -25994,13 +25994,13 @@
         <v>46</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="D72" s="3">
         <v>2022</v>
       </c>
       <c r="E72" s="3">
-        <v>0.19822479031525012</v>
+        <v>0.17484692806676855</v>
       </c>
       <c r="F72" s="3">
         <v>0.59739999999999993</v>
@@ -26047,13 +26047,13 @@
         <v>46</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D73" s="4">
         <v>2022</v>
       </c>
       <c r="E73" s="4">
-        <v>0.19603311572945498</v>
+        <v>0.19481551873734657</v>
       </c>
       <c r="F73" s="4">
         <v>0.59739999999999993</v>
@@ -26100,7 +26100,7 @@
         <v>46</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D74" s="3">
         <v>2022</v>
@@ -26153,13 +26153,13 @@
         <v>46</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="D75" s="4">
         <v>2022</v>
       </c>
       <c r="E75" s="4">
-        <v>0.28443065735652601</v>
+        <v>0.19822479031525012</v>
       </c>
       <c r="F75" s="4">
         <v>0.59739999999999993</v>
@@ -26212,7 +26212,7 @@
         <v>2022</v>
       </c>
       <c r="E76" s="3">
-        <v>0.10252166673552862</v>
+        <v>0.16608022972358796</v>
       </c>
       <c r="F76" s="3">
         <v>0.59739999999999993</v>
@@ -26259,7 +26259,7 @@
         <v>46</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D77" s="4">
         <v>2006</v>
@@ -26312,7 +26312,7 @@
         <v>46</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="D78" s="3">
         <v>2012</v>
@@ -26418,7 +26418,7 @@
         <v>46</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D80" s="3">
         <v>2011</v>
@@ -26471,7 +26471,7 @@
         <v>46</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D81" s="4">
         <v>2005</v>
@@ -26524,7 +26524,7 @@
         <v>46</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D82" s="3">
         <v>2006</v>
@@ -26577,7 +26577,7 @@
         <v>46</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D83" s="4">
         <v>2006</v>
@@ -26630,7 +26630,7 @@
         <v>46</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D84" s="3">
         <v>1994</v>
@@ -26736,7 +26736,7 @@
         <v>46</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D86" s="3">
         <v>2003</v>
@@ -26842,7 +26842,7 @@
         <v>46</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D88" s="3">
         <v>1998</v>
@@ -26948,7 +26948,7 @@
         <v>46</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D90" s="3">
         <v>2004</v>
@@ -27001,7 +27001,7 @@
         <v>46</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D91" s="4">
         <v>2005</v>
@@ -27160,7 +27160,7 @@
         <v>46</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D94" s="3">
         <v>2005</v>
@@ -27213,7 +27213,7 @@
         <v>46</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D95" s="4">
         <v>2005</v>
@@ -27266,7 +27266,7 @@
         <v>46</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D96" s="3">
         <v>2004</v>
@@ -27319,7 +27319,7 @@
         <v>46</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D97" s="4">
         <v>2004</v>
@@ -27372,7 +27372,7 @@
         <v>46</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D98" s="3">
         <v>2004</v>
@@ -27425,7 +27425,7 @@
         <v>46</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D99" s="4">
         <v>2008</v>
@@ -27478,7 +27478,7 @@
         <v>46</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D100" s="3">
         <v>2008</v>
@@ -27584,7 +27584,7 @@
         <v>46</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D102" s="3">
         <v>2002</v>
@@ -27637,7 +27637,7 @@
         <v>46</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D103" s="4">
         <v>2002</v>
@@ -27690,7 +27690,7 @@
         <v>46</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D104" s="3">
         <v>2003</v>
@@ -27743,7 +27743,7 @@
         <v>46</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D105" s="4">
         <v>2003</v>
@@ -27796,7 +27796,7 @@
         <v>46</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D106" s="3">
         <v>2000</v>
@@ -27849,7 +27849,7 @@
         <v>46</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D107" s="4">
         <v>2000</v>
@@ -28008,7 +28008,7 @@
         <v>46</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D110" s="3">
         <v>2023</v>
@@ -28061,7 +28061,7 @@
         <v>46</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D111" s="4">
         <v>2001</v>
@@ -28167,7 +28167,7 @@
         <v>46</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="D113" s="4">
         <v>2010</v>
@@ -28220,7 +28220,7 @@
         <v>46</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D114" s="3">
         <v>2005</v>
@@ -28273,7 +28273,7 @@
         <v>46</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D115" s="4">
         <v>2009</v>
@@ -28326,7 +28326,7 @@
         <v>46</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D116" s="3">
         <v>1997</v>
@@ -28379,7 +28379,7 @@
         <v>46</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D117" s="4">
         <v>1997</v>
@@ -28432,7 +28432,7 @@
         <v>46</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D118" s="3">
         <v>1998</v>
@@ -28485,7 +28485,7 @@
         <v>46</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D119" s="4">
         <v>1999</v>
@@ -28644,7 +28644,7 @@
         <v>46</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D122" s="3">
         <v>2010</v>
@@ -28697,7 +28697,7 @@
         <v>46</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D123" s="4">
         <v>2003</v>
@@ -28750,7 +28750,7 @@
         <v>46</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D124" s="3">
         <v>2003</v>
@@ -28803,7 +28803,7 @@
         <v>46</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D125" s="4">
         <v>2006</v>
@@ -28962,7 +28962,7 @@
         <v>46</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D128" s="3">
         <v>2002</v>
@@ -29015,7 +29015,7 @@
         <v>46</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D129" s="4">
         <v>2002</v>
@@ -29121,7 +29121,7 @@
         <v>46</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D131" s="4">
         <v>2010</v>
@@ -29174,7 +29174,7 @@
         <v>46</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D132" s="3">
         <v>2010</v>
@@ -29227,7 +29227,7 @@
         <v>46</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D133" s="4">
         <v>2008</v>
@@ -29280,7 +29280,7 @@
         <v>46</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D134" s="3">
         <v>2008</v>
@@ -29333,7 +29333,7 @@
         <v>46</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="D135" s="4">
         <v>2018</v>
@@ -29386,7 +29386,7 @@
         <v>46</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D136" s="3">
         <v>2006</v>
@@ -29439,7 +29439,7 @@
         <v>46</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D137" s="4">
         <v>2007</v>
@@ -29545,7 +29545,7 @@
         <v>46</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D139" s="4">
         <v>2011</v>
@@ -29651,7 +29651,7 @@
         <v>46</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D141" s="4">
         <v>2010</v>
@@ -29704,7 +29704,7 @@
         <v>46</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D142" s="3">
         <v>2010</v>
@@ -29757,7 +29757,7 @@
         <v>46</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D143" s="4">
         <v>2004</v>
@@ -29810,7 +29810,7 @@
         <v>46</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D144" s="3">
         <v>2004</v>
@@ -29863,7 +29863,7 @@
         <v>46</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D145" s="4">
         <v>2008</v>
@@ -29916,7 +29916,7 @@
         <v>46</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D146" s="3">
         <v>2007</v>
@@ -29969,7 +29969,7 @@
         <v>46</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D147" s="4">
         <v>2007</v>
@@ -30022,7 +30022,7 @@
         <v>46</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D148" s="3">
         <v>2005</v>
@@ -30075,7 +30075,7 @@
         <v>46</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D149" s="4">
         <v>2005</v>
@@ -30181,7 +30181,7 @@
         <v>46</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D151" s="4">
         <v>2015</v>
@@ -30234,7 +30234,7 @@
         <v>46</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D152" s="3">
         <v>2004</v>
@@ -30287,7 +30287,7 @@
         <v>46</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D153" s="4">
         <v>2006</v>
@@ -30393,7 +30393,7 @@
         <v>46</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D155" s="4">
         <v>2004</v>
@@ -30446,7 +30446,7 @@
         <v>46</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D156" s="3">
         <v>2005</v>
@@ -30499,7 +30499,7 @@
         <v>46</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="D157" s="4">
         <v>2006</v>
@@ -30552,7 +30552,7 @@
         <v>46</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D158" s="3">
         <v>2008</v>
@@ -30605,7 +30605,7 @@
         <v>46</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D159" s="4">
         <v>2007</v>
@@ -30764,7 +30764,7 @@
         <v>46</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D162" s="3">
         <v>2023</v>
@@ -30817,7 +30817,7 @@
         <v>46</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D163" s="4">
         <v>2026</v>
@@ -30870,7 +30870,7 @@
         <v>46</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D164" s="3">
         <v>2022</v>
@@ -30923,7 +30923,7 @@
         <v>46</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D165" s="4">
         <v>2003</v>
@@ -30976,7 +30976,7 @@
         <v>46</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D166" s="3">
         <v>2003</v>
@@ -31029,7 +31029,7 @@
         <v>46</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D167" s="4">
         <v>2003</v>
@@ -31082,7 +31082,7 @@
         <v>46</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="D168" s="3">
         <v>2008</v>
@@ -31135,7 +31135,7 @@
         <v>46</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D169" s="4">
         <v>1999</v>
@@ -31188,7 +31188,7 @@
         <v>46</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D170" s="3">
         <v>1999</v>
@@ -31241,7 +31241,7 @@
         <v>46</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="D171" s="4">
         <v>1997</v>
@@ -31347,7 +31347,7 @@
         <v>46</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D173" s="4">
         <v>2001</v>
@@ -31400,7 +31400,7 @@
         <v>46</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D174" s="3">
         <v>2006</v>
@@ -31559,7 +31559,7 @@
         <v>46</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="D177" s="4">
         <v>2007</v>
@@ -32566,7 +32566,7 @@
         <v>46</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D196" s="3">
         <v>2022</v>
@@ -33096,7 +33096,7 @@
         <v>46</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="D206" s="3">
         <v>2015</v>
@@ -33997,7 +33997,7 @@
         <v>46</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D223" s="4">
         <v>2015</v>
@@ -34686,7 +34686,7 @@
         <v>46</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D236" s="3">
         <v>1994</v>
@@ -34739,7 +34739,7 @@
         <v>46</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D237" s="4">
         <v>1999</v>
@@ -35269,7 +35269,7 @@
         <v>46</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D247" s="4">
         <v>2015</v>
@@ -35322,7 +35322,7 @@
         <v>46</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D248" s="3">
         <v>2015</v>
@@ -35481,7 +35481,7 @@
         <v>46</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D251" s="4">
         <v>2024</v>
@@ -35534,7 +35534,7 @@
         <v>46</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D252" s="3">
         <v>2023</v>
@@ -35587,7 +35587,7 @@
         <v>46</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D253" s="4">
         <v>2023</v>
@@ -35640,7 +35640,7 @@
         <v>46</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="D254" s="3">
         <v>1997</v>
@@ -36064,7 +36064,7 @@
         <v>46</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D262" s="3">
         <v>2008</v>
@@ -36223,7 +36223,7 @@
         <v>46</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D265" s="4">
         <v>2024</v>
@@ -36488,7 +36488,7 @@
         <v>46</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D270" s="3">
         <v>2023</v>
@@ -36700,7 +36700,7 @@
         <v>46</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D274" s="3">
         <v>2023</v>
@@ -36753,7 +36753,7 @@
         <v>46</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="D275" s="4">
         <v>1975</v>
@@ -36806,7 +36806,7 @@
         <v>46</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="D276" s="3">
         <v>1975</v>
@@ -36859,7 +36859,7 @@
         <v>46</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="D277" s="4">
         <v>1975</v>
@@ -36912,7 +36912,7 @@
         <v>46</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D278" s="3">
         <v>1978</v>
@@ -36965,7 +36965,7 @@
         <v>46</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D279" s="4">
         <v>1981</v>
@@ -37018,7 +37018,7 @@
         <v>46</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D280" s="3">
         <v>1987</v>
@@ -37071,7 +37071,7 @@
         <v>46</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D281" s="4">
         <v>2015</v>
@@ -37124,7 +37124,7 @@
         <v>46</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D282" s="3">
         <v>1967</v>
@@ -37177,7 +37177,7 @@
         <v>46</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D283" s="4">
         <v>1971</v>
@@ -37230,7 +37230,7 @@
         <v>46</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D284" s="3">
         <v>1970</v>
@@ -38290,7 +38290,7 @@
         <v>325</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D304" s="3">
         <v>1991</v>
@@ -38614,19 +38614,19 @@
         <v>2022</v>
       </c>
       <c r="E310" s="3">
-        <v>0.15170458477332141</v>
+        <v>0.46856767774022828</v>
       </c>
       <c r="F310" s="3">
         <v>1</v>
       </c>
       <c r="G310" s="3">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H310" s="3">
-        <v>60.500000000000014</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="I310" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J310" s="3">
         <v>100</v>
@@ -38667,19 +38667,19 @@
         <v>2022</v>
       </c>
       <c r="E311" s="4">
-        <v>0.46392839380220618</v>
+        <v>0.13036387865841995</v>
       </c>
       <c r="F311" s="4">
         <v>1</v>
       </c>
       <c r="G311" s="4">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H311" s="4">
-        <v>55.000000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I311" s="4">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J311" s="4">
         <v>100</v>
@@ -38714,13 +38714,13 @@
         <v>336</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="D312" s="3">
         <v>2022</v>
       </c>
       <c r="E312" s="3">
-        <v>0.13082780705222213</v>
+        <v>0.1577356538927501</v>
       </c>
       <c r="F312" s="3">
         <v>1</v>
@@ -38767,13 +38767,13 @@
         <v>336</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D313" s="4">
         <v>2022</v>
       </c>
       <c r="E313" s="4">
-        <v>0.23196419690110309</v>
+        <v>0.11366245648154051</v>
       </c>
       <c r="F313" s="4">
         <v>1</v>
@@ -38820,13 +38820,13 @@
         <v>336</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D314" s="3">
         <v>2022</v>
       </c>
       <c r="E314" s="3">
-        <v>0.12433280953899126</v>
+        <v>0.15912743907415672</v>
       </c>
       <c r="F314" s="3">
         <v>1</v>
@@ -38873,13 +38873,13 @@
         <v>336</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D315" s="4">
         <v>2022</v>
       </c>
       <c r="E315" s="4">
-        <v>0.13036387865841995</v>
+        <v>0.19299421182171778</v>
       </c>
       <c r="F315" s="4">
         <v>1</v>
@@ -38926,19 +38926,19 @@
         <v>336</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D316" s="3">
         <v>2022</v>
       </c>
       <c r="E316" s="3">
-        <v>0.15912743907415672</v>
+        <v>0.17490100446343174</v>
       </c>
       <c r="F316" s="3">
         <v>1</v>
       </c>
       <c r="G316" s="3">
-        <v>3162.5000000000005</v>
+        <v>3162.5000000000009</v>
       </c>
       <c r="H316" s="3">
         <v>60.500000000000014</v>
@@ -38979,13 +38979,13 @@
         <v>336</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D317" s="4">
         <v>2022</v>
       </c>
       <c r="E317" s="4">
-        <v>0.10067246145507874</v>
+        <v>0.11134281451252948</v>
       </c>
       <c r="F317" s="4">
         <v>1</v>
@@ -39032,25 +39032,25 @@
         <v>336</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D318" s="3">
         <v>2022</v>
       </c>
       <c r="E318" s="3">
-        <v>0.12340495275138685</v>
+        <v>0.45696946789517306</v>
       </c>
       <c r="F318" s="3">
         <v>1</v>
       </c>
       <c r="G318" s="3">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H318" s="3">
-        <v>60.500000000000014</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="I318" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J318" s="3">
         <v>100</v>
@@ -39085,13 +39085,13 @@
         <v>336</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D319" s="4">
         <v>2022</v>
       </c>
       <c r="E319" s="4">
-        <v>0.16237493783077217</v>
+        <v>0.10670353057450742</v>
       </c>
       <c r="F319" s="4">
         <v>1</v>
@@ -39138,13 +39138,13 @@
         <v>336</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D320" s="3">
         <v>2022</v>
       </c>
       <c r="E320" s="3">
-        <v>0.1048478169992986</v>
+        <v>0.12433280953899126</v>
       </c>
       <c r="F320" s="3">
         <v>1</v>
@@ -39191,25 +39191,25 @@
         <v>336</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D321" s="4">
         <v>2022</v>
       </c>
       <c r="E321" s="4">
-        <v>0.1577356538927501</v>
+        <v>0.46392839380220618</v>
       </c>
       <c r="F321" s="4">
         <v>1</v>
       </c>
       <c r="G321" s="4">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H321" s="4">
-        <v>60.500000000000014</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="I321" s="4">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J321" s="4">
         <v>100</v>
@@ -39244,25 +39244,25 @@
         <v>336</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D322" s="3">
         <v>2022</v>
       </c>
       <c r="E322" s="3">
-        <v>0.17490100446343174</v>
+        <v>0.57944656385895543</v>
       </c>
       <c r="F322" s="3">
         <v>1</v>
       </c>
       <c r="G322" s="3">
-        <v>3162.5000000000009</v>
+        <v>2750</v>
       </c>
       <c r="H322" s="3">
-        <v>60.500000000000014</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="I322" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J322" s="3">
         <v>100</v>
@@ -39297,13 +39297,13 @@
         <v>336</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D323" s="4">
         <v>2022</v>
       </c>
       <c r="E323" s="4">
-        <v>0.10531174539310081</v>
+        <v>0.15170458477332141</v>
       </c>
       <c r="F323" s="4">
         <v>1</v>
@@ -39350,13 +39350,13 @@
         <v>336</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D324" s="3">
         <v>2022</v>
       </c>
       <c r="E324" s="3">
-        <v>0.11134281451252948</v>
+        <v>0.15541601192373908</v>
       </c>
       <c r="F324" s="3">
         <v>1</v>
@@ -39403,25 +39403,25 @@
         <v>336</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D325" s="4">
         <v>2022</v>
       </c>
       <c r="E325" s="4">
-        <v>0.45696946789517306</v>
+        <v>0.25701633016642222</v>
       </c>
       <c r="F325" s="4">
         <v>1</v>
       </c>
       <c r="G325" s="4">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H325" s="4">
-        <v>55.000000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I325" s="4">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J325" s="4">
         <v>100</v>
@@ -39456,13 +39456,13 @@
         <v>336</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="D326" s="3">
         <v>2022</v>
       </c>
       <c r="E326" s="3">
-        <v>0.10670353057450742</v>
+        <v>0.13082780705222213</v>
       </c>
       <c r="F326" s="3">
         <v>1</v>
@@ -39515,7 +39515,7 @@
         <v>2022</v>
       </c>
       <c r="E327" s="4">
-        <v>0.15541601192373908</v>
+        <v>0.10067246145507874</v>
       </c>
       <c r="F327" s="4">
         <v>1</v>
@@ -39568,19 +39568,19 @@
         <v>2022</v>
       </c>
       <c r="E328" s="3">
-        <v>0.57944656385895543</v>
+        <v>0.23196419690110309</v>
       </c>
       <c r="F328" s="3">
         <v>1</v>
       </c>
       <c r="G328" s="3">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H328" s="3">
-        <v>55.000000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I328" s="3">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J328" s="3">
         <v>100</v>
@@ -39621,7 +39621,7 @@
         <v>2022</v>
       </c>
       <c r="E329" s="4">
-        <v>0.25701633016642222</v>
+        <v>0.1048478169992986</v>
       </c>
       <c r="F329" s="4">
         <v>1</v>
@@ -39727,19 +39727,19 @@
         <v>2022</v>
       </c>
       <c r="E331" s="4">
-        <v>0.46856767774022828</v>
+        <v>0.10531174539310081</v>
       </c>
       <c r="F331" s="4">
         <v>1</v>
       </c>
       <c r="G331" s="4">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H331" s="4">
-        <v>55.000000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I331" s="4">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J331" s="4">
         <v>100</v>
@@ -39780,7 +39780,7 @@
         <v>2022</v>
       </c>
       <c r="E332" s="3">
-        <v>0.19299421182171778</v>
+        <v>0.12340495275138685</v>
       </c>
       <c r="F332" s="3">
         <v>1</v>
@@ -39833,7 +39833,7 @@
         <v>2022</v>
       </c>
       <c r="E333" s="4">
-        <v>0.11366245648154051</v>
+        <v>0.16237493783077217</v>
       </c>
       <c r="F333" s="4">
         <v>1</v>
@@ -40039,7 +40039,7 @@
         <v>336</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="D337" s="4">
         <v>2015</v>
@@ -40092,7 +40092,7 @@
         <v>336</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="D338" s="3">
         <v>1931</v>
@@ -40304,7 +40304,7 @@
         <v>336</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D342" s="3">
         <v>1967</v>
@@ -40728,7 +40728,7 @@
         <v>336</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D350" s="3">
         <v>1949</v>
@@ -41682,7 +41682,7 @@
         <v>336</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="D368" s="3">
         <v>1941</v>
@@ -42371,7 +42371,7 @@
         <v>336</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D381" s="4">
         <v>1924</v>
@@ -42424,7 +42424,7 @@
         <v>336</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D382" s="3">
         <v>1971</v>
@@ -43590,7 +43590,7 @@
         <v>336</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D404" s="3">
         <v>1952</v>
@@ -43643,7 +43643,7 @@
         <v>336</v>
       </c>
       <c r="C405" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D405" s="4">
         <v>2022</v>
@@ -43802,7 +43802,7 @@
         <v>336</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="D408" s="3">
         <v>1928</v>
@@ -43855,7 +43855,7 @@
         <v>336</v>
       </c>
       <c r="C409" s="4" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="D409" s="4">
         <v>1959</v>
@@ -44173,7 +44173,7 @@
         <v>459</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="D415" s="4">
         <v>1989</v>
@@ -44226,7 +44226,7 @@
         <v>459</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D416" s="3">
         <v>1975</v>
@@ -44332,7 +44332,7 @@
         <v>459</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="D418" s="3">
         <v>2015</v>
@@ -44385,7 +44385,7 @@
         <v>459</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D419" s="4">
         <v>2015</v>
@@ -44438,7 +44438,7 @@
         <v>459</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D420" s="3">
         <v>1982</v>
@@ -44491,7 +44491,7 @@
         <v>459</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D421" s="4">
         <v>2015</v>
@@ -44650,7 +44650,7 @@
         <v>459</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D424" s="3">
         <v>1991</v>
@@ -44756,7 +44756,7 @@
         <v>459</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="D426" s="3">
         <v>2015</v>
@@ -44809,7 +44809,7 @@
         <v>459</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="D427" s="4">
         <v>1971</v>
@@ -44862,7 +44862,7 @@
         <v>459</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="D428" s="3">
         <v>1973</v>
@@ -44968,7 +44968,7 @@
         <v>459</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D430" s="3">
         <v>1951</v>
@@ -45021,7 +45021,7 @@
         <v>459</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D431" s="4">
         <v>1978</v>
@@ -45074,7 +45074,7 @@
         <v>459</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="D432" s="3">
         <v>1923</v>
@@ -45233,7 +45233,7 @@
         <v>336</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="D435" s="4">
         <v>1929</v>
@@ -45286,7 +45286,7 @@
         <v>336</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D436" s="3">
         <v>1953</v>
@@ -45339,7 +45339,7 @@
         <v>336</v>
       </c>
       <c r="C437" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D437" s="4">
         <v>1929</v>
@@ -45445,7 +45445,7 @@
         <v>336</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="D439" s="4">
         <v>2015</v>
@@ -45498,7 +45498,7 @@
         <v>336</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D440" s="3">
         <v>1927</v>
@@ -45604,7 +45604,7 @@
         <v>336</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="D442" s="3">
         <v>2015</v>
@@ -45657,7 +45657,7 @@
         <v>336</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="D443" s="4">
         <v>1956</v>
@@ -45710,7 +45710,7 @@
         <v>336</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D444" s="3">
         <v>1956</v>
@@ -45922,7 +45922,7 @@
         <v>336</v>
       </c>
       <c r="C448" s="3" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="D448" s="3">
         <v>2015</v>
@@ -45975,7 +45975,7 @@
         <v>336</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="D449" s="4">
         <v>1963</v>
@@ -46081,7 +46081,7 @@
         <v>336</v>
       </c>
       <c r="C451" s="4" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="D451" s="4">
         <v>1955</v>
@@ -46399,7 +46399,7 @@
         <v>336</v>
       </c>
       <c r="C457" s="4" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D457" s="4">
         <v>2015</v>
@@ -46452,7 +46452,7 @@
         <v>336</v>
       </c>
       <c r="C458" s="3" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="D458" s="3">
         <v>1938</v>
@@ -46505,7 +46505,7 @@
         <v>336</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="D459" s="4">
         <v>2015</v>
@@ -46929,7 +46929,7 @@
         <v>336</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D467" s="4">
         <v>1958</v>
@@ -47035,7 +47035,7 @@
         <v>336</v>
       </c>
       <c r="C469" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D469" s="4">
         <v>1942</v>
@@ -47300,7 +47300,7 @@
         <v>514</v>
       </c>
       <c r="C474" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D474" s="3">
         <v>2005</v>
@@ -47942,7 +47942,7 @@
         <v>2022</v>
       </c>
       <c r="E486" s="3">
-        <v>0.11237203915112379</v>
+        <v>0.10922008734350468</v>
       </c>
       <c r="F486" s="3">
         <v>1</v>
@@ -47995,7 +47995,7 @@
         <v>2022</v>
       </c>
       <c r="E487" s="4">
-        <v>0.11787306582269255</v>
+        <v>0.1088070154903495</v>
       </c>
       <c r="F487" s="4">
         <v>1</v>
@@ -48048,7 +48048,7 @@
         <v>2022</v>
       </c>
       <c r="E488" s="3">
-        <v>0.10226384621153509</v>
+        <v>0.11616174334068441</v>
       </c>
       <c r="F488" s="3">
         <v>1</v>
@@ -48101,7 +48101,7 @@
         <v>2022</v>
       </c>
       <c r="E489" s="4">
-        <v>0.11015093148169923</v>
+        <v>0.1181322992303263</v>
       </c>
       <c r="F489" s="4">
         <v>1</v>
@@ -48154,7 +48154,7 @@
         <v>2022</v>
       </c>
       <c r="E490" s="3">
-        <v>0.1088070154903495</v>
+        <v>0.10568162946395475</v>
       </c>
       <c r="F490" s="3">
         <v>1</v>
@@ -48207,7 +48207,7 @@
         <v>2022</v>
       </c>
       <c r="E491" s="4">
-        <v>0.10457663187106719</v>
+        <v>0.11486922258621315</v>
       </c>
       <c r="F491" s="4">
         <v>1</v>
@@ -48260,7 +48260,7 @@
         <v>2022</v>
       </c>
       <c r="E492" s="3">
-        <v>0.10724189162135382</v>
+        <v>0.10760079011671814</v>
       </c>
       <c r="F492" s="3">
         <v>1</v>
@@ -48313,7 +48313,7 @@
         <v>2022</v>
       </c>
       <c r="E493" s="4">
-        <v>0.11989206519574355</v>
+        <v>0.11606242551806785</v>
       </c>
       <c r="F493" s="4">
         <v>1</v>
@@ -48366,7 +48366,7 @@
         <v>2022</v>
       </c>
       <c r="E494" s="3">
-        <v>0.10757787061919127</v>
+        <v>0.1095591917273685</v>
       </c>
       <c r="F494" s="3">
         <v>1</v>
@@ -48419,7 +48419,7 @@
         <v>2022</v>
       </c>
       <c r="E495" s="4">
-        <v>0.10499421817070492</v>
+        <v>0.10147572803521254</v>
       </c>
       <c r="F495" s="4">
         <v>1</v>
@@ -48472,7 +48472,7 @@
         <v>2022</v>
       </c>
       <c r="E496" s="3">
-        <v>0.11163392715122354</v>
+        <v>0.10114843066522622</v>
       </c>
       <c r="F496" s="3">
         <v>1</v>
@@ -48525,7 +48525,7 @@
         <v>2022</v>
       </c>
       <c r="E497" s="4">
-        <v>0.11064943055290921</v>
+        <v>0.12125073995444016</v>
       </c>
       <c r="F497" s="4">
         <v>1</v>
@@ -48578,7 +48578,7 @@
         <v>2022</v>
       </c>
       <c r="E498" s="3">
-        <v>0.10612439248436069</v>
+        <v>0.10921401020400891</v>
       </c>
       <c r="F498" s="3">
         <v>1</v>
@@ -48631,7 +48631,7 @@
         <v>2022</v>
       </c>
       <c r="E499" s="4">
-        <v>0.10566009902688403</v>
+        <v>0.10615981352599316</v>
       </c>
       <c r="F499" s="4">
         <v>1</v>
@@ -48684,7 +48684,7 @@
         <v>2022</v>
       </c>
       <c r="E500" s="3">
-        <v>0.11914266707963692</v>
+        <v>0.1136145537291727</v>
       </c>
       <c r="F500" s="3">
         <v>1</v>
@@ -48737,7 +48737,7 @@
         <v>2022</v>
       </c>
       <c r="E501" s="4">
-        <v>0.11564431832075907</v>
+        <v>0.1020820529243331</v>
       </c>
       <c r="F501" s="4">
         <v>1</v>
@@ -48790,7 +48790,7 @@
         <v>2022</v>
       </c>
       <c r="E502" s="3">
-        <v>0.11162680821638563</v>
+        <v>0.11415524551173897</v>
       </c>
       <c r="F502" s="3">
         <v>1</v>
@@ -48843,7 +48843,7 @@
         <v>2022</v>
       </c>
       <c r="E503" s="4">
-        <v>0.10741934409463023</v>
+        <v>0.10095396220136166</v>
       </c>
       <c r="F503" s="4">
         <v>1</v>
@@ -48896,7 +48896,7 @@
         <v>2022</v>
       </c>
       <c r="E504" s="3">
-        <v>0.10568162946395475</v>
+        <v>0.12148549117153379</v>
       </c>
       <c r="F504" s="3">
         <v>1</v>
@@ -48949,7 +48949,7 @@
         <v>2022</v>
       </c>
       <c r="E505" s="4">
-        <v>0.1181322992303263</v>
+        <v>0.10000315031910954</v>
       </c>
       <c r="F505" s="4">
         <v>1</v>
@@ -49002,7 +49002,7 @@
         <v>2022</v>
       </c>
       <c r="E506" s="3">
-        <v>0.11616174334068441</v>
+        <v>0.12276307952610117</v>
       </c>
       <c r="F506" s="3">
         <v>1</v>
@@ -49055,7 +49055,7 @@
         <v>2022</v>
       </c>
       <c r="E507" s="4">
-        <v>0.12138044347453553</v>
+        <v>0.10298511585340418</v>
       </c>
       <c r="F507" s="4">
         <v>1</v>
@@ -49108,7 +49108,7 @@
         <v>2022</v>
       </c>
       <c r="E508" s="3">
-        <v>0.10922008734350468</v>
+        <v>0.10181952049811598</v>
       </c>
       <c r="F508" s="3">
         <v>1</v>
@@ -49161,7 +49161,7 @@
         <v>2022</v>
       </c>
       <c r="E509" s="4">
-        <v>0.10257256489792009</v>
+        <v>0.10741934409463023</v>
       </c>
       <c r="F509" s="4">
         <v>1</v>
@@ -49214,7 +49214,7 @@
         <v>2022</v>
       </c>
       <c r="E510" s="3">
-        <v>0.11486922258621315</v>
+        <v>0.10437539173747877</v>
       </c>
       <c r="F510" s="3">
         <v>1</v>
@@ -49267,7 +49267,7 @@
         <v>2022</v>
       </c>
       <c r="E511" s="4">
-        <v>0.10760079011671814</v>
+        <v>0.11787306582269255</v>
       </c>
       <c r="F511" s="4">
         <v>1</v>
@@ -49320,7 +49320,7 @@
         <v>2022</v>
       </c>
       <c r="E512" s="3">
-        <v>0.11606242551806785</v>
+        <v>0.10457663187106719</v>
       </c>
       <c r="F512" s="3">
         <v>1</v>
@@ -49373,7 +49373,7 @@
         <v>2022</v>
       </c>
       <c r="E513" s="4">
-        <v>0.10921401020400891</v>
+        <v>0.10724189162135382</v>
       </c>
       <c r="F513" s="4">
         <v>1</v>
@@ -49426,7 +49426,7 @@
         <v>2022</v>
       </c>
       <c r="E514" s="3">
-        <v>0.10615981352599316</v>
+        <v>0.11087619467237982</v>
       </c>
       <c r="F514" s="3">
         <v>1</v>
@@ -49479,7 +49479,7 @@
         <v>2022</v>
       </c>
       <c r="E515" s="4">
-        <v>0.1136145537291727</v>
+        <v>0.10363762700269261</v>
       </c>
       <c r="F515" s="4">
         <v>1</v>
@@ -49532,7 +49532,7 @@
         <v>2022</v>
       </c>
       <c r="E516" s="3">
-        <v>0.1020820529243331</v>
+        <v>0.12214338493008987</v>
       </c>
       <c r="F516" s="3">
         <v>1</v>
@@ -49585,7 +49585,7 @@
         <v>2022</v>
       </c>
       <c r="E517" s="4">
-        <v>0.11415524551173897</v>
+        <v>0.11916211392602336</v>
       </c>
       <c r="F517" s="4">
         <v>1</v>
@@ -49638,7 +49638,7 @@
         <v>2022</v>
       </c>
       <c r="E518" s="3">
-        <v>0.10095396220136166</v>
+        <v>0.11557625435840647</v>
       </c>
       <c r="F518" s="3">
         <v>1</v>
@@ -49647,7 +49647,7 @@
         <v>1138.5</v>
       </c>
       <c r="H518" s="3">
-        <v>18.150000000000002</v>
+        <v>18.149999999999999</v>
       </c>
       <c r="I518" s="3">
         <v>0</v>
@@ -49691,7 +49691,7 @@
         <v>2022</v>
       </c>
       <c r="E519" s="4">
-        <v>0.12148549117153379</v>
+        <v>0.11195931456308264</v>
       </c>
       <c r="F519" s="4">
         <v>1</v>
@@ -49744,7 +49744,7 @@
         <v>2022</v>
       </c>
       <c r="E520" s="3">
-        <v>0.10000315031910954</v>
+        <v>0.10512965156518203</v>
       </c>
       <c r="F520" s="3">
         <v>1</v>
@@ -49797,7 +49797,7 @@
         <v>2022</v>
       </c>
       <c r="E521" s="4">
-        <v>0.10181952049811598</v>
+        <v>0.11163392715122354</v>
       </c>
       <c r="F521" s="4">
         <v>1</v>
@@ -49850,13 +49850,13 @@
         <v>2022</v>
       </c>
       <c r="E522" s="3">
-        <v>0.11525763861627121</v>
+        <v>0.11064943055290921</v>
       </c>
       <c r="F522" s="3">
         <v>1</v>
       </c>
       <c r="G522" s="3">
-        <v>1138.5000000000002</v>
+        <v>1138.5</v>
       </c>
       <c r="H522" s="3">
         <v>18.150000000000002</v>
@@ -49903,7 +49903,7 @@
         <v>2022</v>
       </c>
       <c r="E523" s="4">
-        <v>0.10648138102159775</v>
+        <v>0.10612439248436069</v>
       </c>
       <c r="F523" s="4">
         <v>1</v>
@@ -49956,7 +49956,7 @@
         <v>2022</v>
       </c>
       <c r="E524" s="3">
-        <v>0.12276307952610117</v>
+        <v>0.10448356482050343</v>
       </c>
       <c r="F524" s="3">
         <v>1</v>
@@ -50009,7 +50009,7 @@
         <v>2022</v>
       </c>
       <c r="E525" s="4">
-        <v>0.10126788986445731</v>
+        <v>0.10566009902688403</v>
       </c>
       <c r="F525" s="4">
         <v>1</v>
@@ -50062,7 +50062,7 @@
         <v>2022</v>
       </c>
       <c r="E526" s="3">
-        <v>0.10293667236999508</v>
+        <v>0.11914266707963692</v>
       </c>
       <c r="F526" s="3">
         <v>1</v>
@@ -50115,7 +50115,7 @@
         <v>2022</v>
       </c>
       <c r="E527" s="4">
-        <v>0.12625951832685178</v>
+        <v>0.11564431832075907</v>
       </c>
       <c r="F527" s="4">
         <v>1</v>
@@ -50168,7 +50168,7 @@
         <v>2022</v>
       </c>
       <c r="E528" s="3">
-        <v>0.12239740936101298</v>
+        <v>0.11162680821638563</v>
       </c>
       <c r="F528" s="3">
         <v>1</v>
@@ -50221,7 +50221,7 @@
         <v>2022</v>
       </c>
       <c r="E529" s="4">
-        <v>0.11434450499889288</v>
+        <v>0.10538141877286383</v>
       </c>
       <c r="F529" s="4">
         <v>1</v>
@@ -50274,7 +50274,7 @@
         <v>2022</v>
       </c>
       <c r="E530" s="3">
-        <v>0.10750529221035608</v>
+        <v>0.12104741623016749</v>
       </c>
       <c r="F530" s="3">
         <v>1</v>
@@ -50327,13 +50327,13 @@
         <v>2022</v>
       </c>
       <c r="E531" s="4">
-        <v>0.11087619467237982</v>
+        <v>0.11525763861627121</v>
       </c>
       <c r="F531" s="4">
         <v>1</v>
       </c>
       <c r="G531" s="4">
-        <v>1138.5</v>
+        <v>1138.5000000000002</v>
       </c>
       <c r="H531" s="4">
         <v>18.150000000000002</v>
@@ -50380,7 +50380,7 @@
         <v>2022</v>
       </c>
       <c r="E532" s="3">
-        <v>0.10363762700269261</v>
+        <v>0.10648138102159775</v>
       </c>
       <c r="F532" s="3">
         <v>1</v>
@@ -50433,7 +50433,7 @@
         <v>2022</v>
       </c>
       <c r="E533" s="4">
-        <v>0.12214338493008987</v>
+        <v>0.10126788986445731</v>
       </c>
       <c r="F533" s="4">
         <v>1</v>
@@ -50486,7 +50486,7 @@
         <v>2022</v>
       </c>
       <c r="E534" s="3">
-        <v>0.11916211392602336</v>
+        <v>0.10293667236999508</v>
       </c>
       <c r="F534" s="3">
         <v>1</v>
@@ -50539,7 +50539,7 @@
         <v>2022</v>
       </c>
       <c r="E535" s="4">
-        <v>0.11557625435840647</v>
+        <v>0.12625951832685178</v>
       </c>
       <c r="F535" s="4">
         <v>1</v>
@@ -50548,7 +50548,7 @@
         <v>1138.5</v>
       </c>
       <c r="H535" s="4">
-        <v>18.149999999999999</v>
+        <v>18.150000000000002</v>
       </c>
       <c r="I535" s="4">
         <v>0</v>
@@ -50592,7 +50592,7 @@
         <v>2022</v>
       </c>
       <c r="E536" s="3">
-        <v>0.11195931456308264</v>
+        <v>0.12239740936101298</v>
       </c>
       <c r="F536" s="3">
         <v>1</v>
@@ -50645,7 +50645,7 @@
         <v>2022</v>
       </c>
       <c r="E537" s="4">
-        <v>0.10512965156518203</v>
+        <v>0.11434450499889288</v>
       </c>
       <c r="F537" s="4">
         <v>1</v>
@@ -50698,7 +50698,7 @@
         <v>2022</v>
       </c>
       <c r="E538" s="3">
-        <v>0.10448356482050343</v>
+        <v>0.10750529221035608</v>
       </c>
       <c r="F538" s="3">
         <v>1</v>
@@ -50751,7 +50751,7 @@
         <v>2022</v>
       </c>
       <c r="E539" s="4">
-        <v>0.1095591917273685</v>
+        <v>0.11989206519574355</v>
       </c>
       <c r="F539" s="4">
         <v>1</v>
@@ -50804,7 +50804,7 @@
         <v>2022</v>
       </c>
       <c r="E540" s="3">
-        <v>0.10147572803521254</v>
+        <v>0.10757787061919127</v>
       </c>
       <c r="F540" s="3">
         <v>1</v>
@@ -50857,7 +50857,7 @@
         <v>2022</v>
       </c>
       <c r="E541" s="4">
-        <v>0.10114843066522622</v>
+        <v>0.10499421817070492</v>
       </c>
       <c r="F541" s="4">
         <v>1</v>
@@ -50910,7 +50910,7 @@
         <v>2022</v>
       </c>
       <c r="E542" s="3">
-        <v>0.12125073995444016</v>
+        <v>0.11015093148169923</v>
       </c>
       <c r="F542" s="3">
         <v>1</v>
@@ -50963,7 +50963,7 @@
         <v>2022</v>
       </c>
       <c r="E543" s="4">
-        <v>0.10538141877286383</v>
+        <v>0.10226384621153509</v>
       </c>
       <c r="F543" s="4">
         <v>1</v>
@@ -51016,7 +51016,7 @@
         <v>2022</v>
       </c>
       <c r="E544" s="3">
-        <v>0.12104741623016749</v>
+        <v>0.11237203915112379</v>
       </c>
       <c r="F544" s="3">
         <v>1</v>
@@ -51069,7 +51069,7 @@
         <v>2022</v>
       </c>
       <c r="E545" s="4">
-        <v>0.10298511585340418</v>
+        <v>0.12005076535286159</v>
       </c>
       <c r="F545" s="4">
         <v>1</v>
@@ -51122,7 +51122,7 @@
         <v>2022</v>
       </c>
       <c r="E546" s="3">
-        <v>0.12005076535286159</v>
+        <v>0.12138044347453553</v>
       </c>
       <c r="F546" s="3">
         <v>1</v>
@@ -51175,7 +51175,7 @@
         <v>2022</v>
       </c>
       <c r="E547" s="4">
-        <v>0.10437539173747877</v>
+        <v>0.10257256489792009</v>
       </c>
       <c r="F547" s="4">
         <v>1</v>
@@ -51593,7 +51593,7 @@
         <v>535</v>
       </c>
       <c r="C555" s="4" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
       <c r="D555" s="4">
         <v>2015</v>
@@ -51646,7 +51646,7 @@
         <v>535</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="D556" s="3">
         <v>2011</v>
@@ -51699,7 +51699,7 @@
         <v>535</v>
       </c>
       <c r="C557" s="4" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="D557" s="4">
         <v>2015</v>
@@ -52494,7 +52494,7 @@
         <v>535</v>
       </c>
       <c r="C572" s="3" t="s">
-        <v>537</v>
+        <v>561</v>
       </c>
       <c r="D572" s="3">
         <v>2015</v>
@@ -52653,7 +52653,7 @@
         <v>535</v>
       </c>
       <c r="C575" s="4" t="s">
-        <v>551</v>
+        <v>577</v>
       </c>
       <c r="D575" s="4">
         <v>2009</v>
@@ -52706,7 +52706,7 @@
         <v>535</v>
       </c>
       <c r="C576" s="3" t="s">
-        <v>551</v>
+        <v>577</v>
       </c>
       <c r="D576" s="3">
         <v>2012</v>
@@ -52759,7 +52759,7 @@
         <v>535</v>
       </c>
       <c r="C577" s="4" t="s">
-        <v>586</v>
+        <v>569</v>
       </c>
       <c r="D577" s="4">
         <v>2015</v>
@@ -52812,7 +52812,7 @@
         <v>535</v>
       </c>
       <c r="C578" s="3" t="s">
-        <v>544</v>
+        <v>590</v>
       </c>
       <c r="D578" s="3">
         <v>2015</v>
@@ -52865,7 +52865,7 @@
         <v>535</v>
       </c>
       <c r="C579" s="4" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="D579" s="4">
         <v>2020</v>
@@ -53077,7 +53077,7 @@
         <v>535</v>
       </c>
       <c r="C583" s="4" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="D583" s="4">
         <v>2015</v>
@@ -53130,7 +53130,7 @@
         <v>535</v>
       </c>
       <c r="C584" s="3" t="s">
-        <v>545</v>
+        <v>591</v>
       </c>
       <c r="D584" s="3">
         <v>2015</v>
@@ -53395,7 +53395,7 @@
         <v>535</v>
       </c>
       <c r="C589" s="4" t="s">
-        <v>561</v>
+        <v>542</v>
       </c>
       <c r="D589" s="4">
         <v>2015</v>
@@ -53766,7 +53766,7 @@
         <v>535</v>
       </c>
       <c r="C596" s="3" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="D596" s="3">
         <v>2015</v>
@@ -54508,7 +54508,7 @@
         <v>535</v>
       </c>
       <c r="C610" s="3" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
       <c r="D610" s="3">
         <v>2015</v>
@@ -54561,7 +54561,7 @@
         <v>535</v>
       </c>
       <c r="C611" s="4" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="D611" s="4">
         <v>2015</v>
@@ -55197,7 +55197,7 @@
         <v>535</v>
       </c>
       <c r="C623" s="4" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="D623" s="4">
         <v>2010</v>
@@ -55250,7 +55250,7 @@
         <v>535</v>
       </c>
       <c r="C624" s="3" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="D624" s="3">
         <v>2015</v>
@@ -55303,7 +55303,7 @@
         <v>535</v>
       </c>
       <c r="C625" s="4" t="s">
-        <v>592</v>
+        <v>547</v>
       </c>
       <c r="D625" s="4">
         <v>2015</v>
@@ -55939,7 +55939,7 @@
         <v>535</v>
       </c>
       <c r="C637" s="4" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="D637" s="4">
         <v>2015</v>
@@ -56734,7 +56734,7 @@
         <v>535</v>
       </c>
       <c r="C652" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D652" s="3">
         <v>2010</v>
@@ -56787,7 +56787,7 @@
         <v>535</v>
       </c>
       <c r="C653" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D653" s="4">
         <v>2011</v>
@@ -56840,7 +56840,7 @@
         <v>535</v>
       </c>
       <c r="C654" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D654" s="3">
         <v>2015</v>
@@ -56893,7 +56893,7 @@
         <v>535</v>
       </c>
       <c r="C655" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D655" s="4">
         <v>2023</v>
@@ -57317,7 +57317,7 @@
         <v>535</v>
       </c>
       <c r="C663" s="4" t="s">
-        <v>546</v>
+        <v>571</v>
       </c>
       <c r="D663" s="4">
         <v>2011</v>
@@ -57370,7 +57370,7 @@
         <v>535</v>
       </c>
       <c r="C664" s="3" t="s">
-        <v>546</v>
+        <v>571</v>
       </c>
       <c r="D664" s="3">
         <v>2015</v>
@@ -57423,7 +57423,7 @@
         <v>535</v>
       </c>
       <c r="C665" s="4" t="s">
-        <v>546</v>
+        <v>571</v>
       </c>
       <c r="D665" s="4">
         <v>2024</v>
@@ -57476,7 +57476,7 @@
         <v>535</v>
       </c>
       <c r="C666" s="3" t="s">
-        <v>546</v>
+        <v>571</v>
       </c>
       <c r="D666" s="3">
         <v>2025</v>
@@ -57529,7 +57529,7 @@
         <v>535</v>
       </c>
       <c r="C667" s="4" t="s">
-        <v>548</v>
+        <v>573</v>
       </c>
       <c r="D667" s="4">
         <v>2011</v>
@@ -57582,7 +57582,7 @@
         <v>535</v>
       </c>
       <c r="C668" s="3" t="s">
-        <v>548</v>
+        <v>573</v>
       </c>
       <c r="D668" s="3">
         <v>2015</v>
@@ -57794,7 +57794,7 @@
         <v>535</v>
       </c>
       <c r="C672" s="3" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="D672" s="3">
         <v>2015</v>
@@ -57953,7 +57953,7 @@
         <v>535</v>
       </c>
       <c r="C675" s="4" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="D675" s="4">
         <v>2015</v>
@@ -58112,7 +58112,7 @@
         <v>535</v>
       </c>
       <c r="C678" s="3" t="s">
-        <v>589</v>
+        <v>544</v>
       </c>
       <c r="D678" s="3">
         <v>2011</v>
@@ -58165,7 +58165,7 @@
         <v>535</v>
       </c>
       <c r="C679" s="4" t="s">
-        <v>589</v>
+        <v>544</v>
       </c>
       <c r="D679" s="4">
         <v>2015</v>
@@ -58218,7 +58218,7 @@
         <v>535</v>
       </c>
       <c r="C680" s="3" t="s">
-        <v>589</v>
+        <v>544</v>
       </c>
       <c r="D680" s="3">
         <v>2024</v>
@@ -58536,7 +58536,7 @@
         <v>535</v>
       </c>
       <c r="C686" s="3" t="s">
-        <v>543</v>
+        <v>589</v>
       </c>
       <c r="D686" s="3">
         <v>2011</v>
@@ -58589,7 +58589,7 @@
         <v>535</v>
       </c>
       <c r="C687" s="4" t="s">
-        <v>543</v>
+        <v>589</v>
       </c>
       <c r="D687" s="4">
         <v>2015</v>
@@ -58642,7 +58642,7 @@
         <v>535</v>
       </c>
       <c r="C688" s="3" t="s">
-        <v>543</v>
+        <v>589</v>
       </c>
       <c r="D688" s="3">
         <v>2025</v>
@@ -59225,7 +59225,7 @@
         <v>535</v>
       </c>
       <c r="C699" s="4" t="s">
-        <v>581</v>
+        <v>564</v>
       </c>
       <c r="D699" s="4">
         <v>2015</v>
@@ -59543,7 +59543,7 @@
         <v>535</v>
       </c>
       <c r="C705" s="4" t="s">
-        <v>597</v>
+        <v>560</v>
       </c>
       <c r="D705" s="4">
         <v>2011</v>
@@ -60338,7 +60338,7 @@
         <v>535</v>
       </c>
       <c r="C720" s="3" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="D720" s="3">
         <v>2011</v>
@@ -60550,7 +60550,7 @@
         <v>535</v>
       </c>
       <c r="C724" s="3" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="D724" s="3">
         <v>2011</v>
@@ -60603,7 +60603,7 @@
         <v>535</v>
       </c>
       <c r="C725" s="4" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="D725" s="4">
         <v>2013</v>
@@ -60656,7 +60656,7 @@
         <v>535</v>
       </c>
       <c r="C726" s="3" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="D726" s="3">
         <v>2015</v>
@@ -60709,7 +60709,7 @@
         <v>535</v>
       </c>
       <c r="C727" s="4" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="D727" s="4">
         <v>2016</v>
@@ -60762,7 +60762,7 @@
         <v>535</v>
       </c>
       <c r="C728" s="3" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="D728" s="3">
         <v>2025</v>
@@ -61981,7 +61981,7 @@
         <v>535</v>
       </c>
       <c r="C751" s="4" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="D751" s="4">
         <v>2013</v>
@@ -62034,7 +62034,7 @@
         <v>535</v>
       </c>
       <c r="C752" s="3" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="D752" s="3">
         <v>2015</v>
@@ -62087,7 +62087,7 @@
         <v>535</v>
       </c>
       <c r="C753" s="4" t="s">
-        <v>595</v>
+        <v>557</v>
       </c>
       <c r="D753" s="4">
         <v>2015</v>
@@ -62352,7 +62352,7 @@
         <v>535</v>
       </c>
       <c r="C758" s="3" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="D758" s="3">
         <v>2012</v>
@@ -62405,7 +62405,7 @@
         <v>535</v>
       </c>
       <c r="C759" s="4" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="D759" s="4">
         <v>2015</v>
@@ -62458,7 +62458,7 @@
         <v>535</v>
       </c>
       <c r="C760" s="3" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="D760" s="3">
         <v>2022</v>
@@ -62511,7 +62511,7 @@
         <v>535</v>
       </c>
       <c r="C761" s="4" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="D761" s="4">
         <v>2011</v>
@@ -62564,7 +62564,7 @@
         <v>535</v>
       </c>
       <c r="C762" s="3" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="D762" s="3">
         <v>2023</v>
@@ -62617,7 +62617,7 @@
         <v>535</v>
       </c>
       <c r="C763" s="4" t="s">
-        <v>538</v>
+        <v>593</v>
       </c>
       <c r="D763" s="4">
         <v>2015</v>
@@ -62670,7 +62670,7 @@
         <v>535</v>
       </c>
       <c r="C764" s="3" t="s">
-        <v>538</v>
+        <v>593</v>
       </c>
       <c r="D764" s="3">
         <v>2026</v>
@@ -64101,7 +64101,7 @@
         <v>535</v>
       </c>
       <c r="C791" s="4" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="D791" s="4">
         <v>2011</v>
@@ -64154,7 +64154,7 @@
         <v>535</v>
       </c>
       <c r="C792" s="3" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="D792" s="3">
         <v>2015</v>
@@ -64207,7 +64207,7 @@
         <v>535</v>
       </c>
       <c r="C793" s="4" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="D793" s="4">
         <v>2020</v>
@@ -64737,7 +64737,7 @@
         <v>535</v>
       </c>
       <c r="C803" s="4" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="D803" s="4">
         <v>2011</v>
@@ -64790,7 +64790,7 @@
         <v>535</v>
       </c>
       <c r="C804" s="3" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="D804" s="3">
         <v>2011</v>
@@ -64843,7 +64843,7 @@
         <v>535</v>
       </c>
       <c r="C805" s="4" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="D805" s="4">
         <v>2012</v>
@@ -64896,7 +64896,7 @@
         <v>535</v>
       </c>
       <c r="C806" s="3" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="D806" s="3">
         <v>2028</v>
@@ -65267,7 +65267,7 @@
         <v>535</v>
       </c>
       <c r="C813" s="4" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="D813" s="4">
         <v>2015</v>
@@ -65373,7 +65373,7 @@
         <v>535</v>
       </c>
       <c r="C815" s="4" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="D815" s="4">
         <v>2015</v>
@@ -65426,7 +65426,7 @@
         <v>535</v>
       </c>
       <c r="C816" s="3" t="s">
-        <v>549</v>
+        <v>575</v>
       </c>
       <c r="D816" s="3">
         <v>2015</v>
@@ -65532,7 +65532,7 @@
         <v>535</v>
       </c>
       <c r="C818" s="3" t="s">
-        <v>559</v>
+        <v>597</v>
       </c>
       <c r="D818" s="3">
         <v>2015</v>
@@ -65638,7 +65638,7 @@
         <v>535</v>
       </c>
       <c r="C820" s="3" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
       <c r="D820" s="3">
         <v>2015</v>
@@ -65691,7 +65691,7 @@
         <v>535</v>
       </c>
       <c r="C821" s="4" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="D821" s="4">
         <v>2009</v>
@@ -65744,7 +65744,7 @@
         <v>535</v>
       </c>
       <c r="C822" s="3" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="D822" s="3">
         <v>2012</v>
@@ -65797,7 +65797,7 @@
         <v>535</v>
       </c>
       <c r="C823" s="4" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="D823" s="4">
         <v>2015</v>
@@ -65956,7 +65956,7 @@
         <v>535</v>
       </c>
       <c r="C826" s="3" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="D826" s="3">
         <v>2013</v>
@@ -66009,7 +66009,7 @@
         <v>535</v>
       </c>
       <c r="C827" s="4" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="D827" s="4">
         <v>2015</v>
@@ -66062,7 +66062,7 @@
         <v>535</v>
       </c>
       <c r="C828" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D828" s="3">
         <v>2010</v>
@@ -66115,7 +66115,7 @@
         <v>535</v>
       </c>
       <c r="C829" s="4" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D829" s="4">
         <v>2011</v>
@@ -66168,7 +66168,7 @@
         <v>535</v>
       </c>
       <c r="C830" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D830" s="3">
         <v>2015</v>
@@ -66221,7 +66221,7 @@
         <v>535</v>
       </c>
       <c r="C831" s="4" t="s">
-        <v>550</v>
+        <v>576</v>
       </c>
       <c r="D831" s="4">
         <v>2010</v>
@@ -66274,7 +66274,7 @@
         <v>535</v>
       </c>
       <c r="C832" s="3" t="s">
-        <v>550</v>
+        <v>576</v>
       </c>
       <c r="D832" s="3">
         <v>2011</v>
@@ -66380,7 +66380,7 @@
         <v>535</v>
       </c>
       <c r="C834" s="3" t="s">
-        <v>546</v>
+        <v>571</v>
       </c>
       <c r="D834" s="3">
         <v>2028</v>
@@ -66433,7 +66433,7 @@
         <v>535</v>
       </c>
       <c r="C835" s="4" t="s">
-        <v>546</v>
+        <v>571</v>
       </c>
       <c r="D835" s="4">
         <v>2025</v>
@@ -66486,7 +66486,7 @@
         <v>535</v>
       </c>
       <c r="C836" s="3" t="s">
-        <v>589</v>
+        <v>544</v>
       </c>
       <c r="D836" s="3">
         <v>2028</v>
@@ -66539,7 +66539,7 @@
         <v>535</v>
       </c>
       <c r="C837" s="4" t="s">
-        <v>597</v>
+        <v>560</v>
       </c>
       <c r="D837" s="4">
         <v>2021</v>
@@ -66698,7 +66698,7 @@
         <v>535</v>
       </c>
       <c r="C840" s="3" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="D840" s="3">
         <v>2014</v>
